--- a/mallar/Protokoll/Protokoll_2019_Pas_de_deux_klass(mall).xlsx
+++ b/mallar/Protokoll/Protokoll_2019_Pas_de_deux_klass(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnus.sandberg\Documents\Visual Studio 2015\Projects\VoltigeClosedXML\mallar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnus.sandberg\Documents\Visual Studio 2015\Projects\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8247F7-BD63-440B-825A-C2CDF789C5C8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E91357-4A37-473D-8521-04107DD41CB0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="16201" windowHeight="9398" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="24" r:id="rId1"/>
@@ -44,7 +44,8 @@
     <definedName name="result" localSheetId="4">'Pas-de-Deux art'!$L$21</definedName>
     <definedName name="result" localSheetId="2">'Pas-de-Deux Häst'!$K$25</definedName>
     <definedName name="result" localSheetId="3">'Pas-de-Deux tekn'!$L$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Pas-de-Deux art'!$A$1:$L$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Pas-de-Deux art'!$L$83:$L$84</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Pas-de-Deux Häst'!$A$1:$L$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Pas-de-Deux tekn'!$A$1:$L$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="157">
   <si>
     <t>Nation:</t>
   </si>
@@ -708,14 +709,17 @@
   <si>
     <t xml:space="preserve">Gulmarkerade celler i protokollen markerar vilka celler som ska fyllas i. </t>
   </si>
+  <si>
+    <t>Protokollen uppdaterades senast 2019-03-28.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_-;\-* #,##0.00\ _k_r_-;_-* &quot;-&quot;??\ _k_r_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _k_r_-;\-* #,##0.00\ _k_r_-;_-* &quot;-&quot;??\ _k_r_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1625,28 +1629,24 @@
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="308">
+  <cellXfs count="279">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1658,7 +1658,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1670,7 +1670,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1706,222 +1706,192 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1933,9 +1903,8 @@
     <xf numFmtId="165" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1"/>
@@ -1944,7 +1913,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1956,10 +1925,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1977,169 +1946,6 @@
     </xf>
     <xf numFmtId="169" fontId="3" fillId="4" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="6" applyFont="1" applyBorder="1"/>
@@ -2169,63 +1975,21 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="36" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2238,15 +2002,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2260,140 +2015,10 @@
     <xf numFmtId="9" fontId="27" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="37" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="47" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="28" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="37" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2411,36 +2036,350 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="169" fontId="2" fillId="4" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="37" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="28" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="47" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="37" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Dezimal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Dezimal 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Dezimal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Dezimal 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 3" xfId="9" xr:uid="{972559EC-1BB5-4AEB-BAB4-03186F642808}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{60203743-1DC9-403E-B17D-F637C6BE3D33}"/>
-    <cellStyle name="Standard 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Standard 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Tusental" xfId="1" builtinId="3"/>
-    <cellStyle name="Tusental 2" xfId="8" xr:uid="{094B6DDB-2EAB-4776-8C9C-89AC0969CEFA}"/>
-    <cellStyle name="Tusental 3" xfId="7" xr:uid="{C5A78AEF-9578-4960-864C-095DF8B6E49C}"/>
+    <cellStyle name="Tusental 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Tusental 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -2813,1284 +2752,1295 @@
   <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.59765625" style="124" customWidth="1"/>
-    <col min="2" max="18" width="15.73046875" style="124" customWidth="1"/>
-    <col min="19" max="16384" width="9.1328125" style="124"/>
+    <col min="1" max="1" width="21.59765625" style="105" customWidth="1"/>
+    <col min="2" max="18" width="15.73046875" style="105" customWidth="1"/>
+    <col min="19" max="16384" width="9.1328125" style="105"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.65" x14ac:dyDescent="0.6">
-      <c r="A1" s="129" t="s">
+    <row r="1" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="110" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="105" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-    </row>
-    <row r="4" spans="1:5" s="307" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="307" t="s">
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="105" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="168" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="168" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="123"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.4">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="115" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.4">
-      <c r="A8" s="133"/>
-    </row>
-    <row r="9" spans="1:5" s="122" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
-      <c r="A9" s="124"/>
-      <c r="B9" s="125" t="s">
+      <c r="A8" s="114"/>
+    </row>
+    <row r="9" spans="1:5" s="104" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A9" s="105"/>
+      <c r="B9" s="106" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="124" t="s">
+      <c r="A10" s="105" t="s">
         <v>154</v>
       </c>
-      <c r="B10" s="300" t="s">
+      <c r="B10" s="163" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="301"/>
-    </row>
-    <row r="15" spans="1:5" s="125" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A15" s="305" t="s">
+      <c r="B11" s="164"/>
+    </row>
+    <row r="15" spans="1:5" s="106" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A15" s="167" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="122"/>
+      <c r="B15" s="104"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="124" t="s">
+      <c r="A16" s="105" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="124" t="s">
+      <c r="A17" s="105" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="125" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A19" s="125" t="s">
+    <row r="19" spans="1:9" s="106" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A19" s="106" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="126" t="s">
+      <c r="B20" s="107" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="125" t="s">
+      <c r="B21" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="125" t="s">
+      <c r="C21" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="125" t="s">
+      <c r="D21" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="125"/>
+      <c r="E21" s="106"/>
     </row>
     <row r="22" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="124" t="s">
+      <c r="A22" s="105" t="s">
         <v>153</v>
       </c>
-      <c r="B22" s="300" t="s">
+      <c r="B22" s="163" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="300" t="s">
+      <c r="C22" s="163" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="300" t="s">
+      <c r="D22" s="163" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="302"/>
+      <c r="E22" s="165"/>
     </row>
     <row r="23" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="303"/>
-      <c r="C23" s="303"/>
-      <c r="D23" s="303"/>
-      <c r="E23" s="303"/>
-    </row>
-    <row r="25" spans="1:9" s="125" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A25" s="125" t="s">
+      <c r="B23" s="164"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="164"/>
+    </row>
+    <row r="25" spans="1:9" s="106" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A25" s="106" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="126" t="s">
+      <c r="B26" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="F26" s="126"/>
+      <c r="F26" s="107"/>
     </row>
     <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="125" t="s">
+      <c r="B27" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="125" t="s">
+      <c r="C27" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="125" t="s">
+      <c r="D27" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="125" t="s">
+      <c r="E27" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="125"/>
-      <c r="G27" s="125"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="125"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
     </row>
     <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="124" t="s">
+      <c r="A28" s="105" t="s">
         <v>153</v>
       </c>
-      <c r="B28" s="300" t="s">
+      <c r="B28" s="163" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="300" t="s">
+      <c r="C28" s="163" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="300" t="s">
+      <c r="D28" s="163" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="300" t="s">
+      <c r="E28" s="163" t="s">
         <v>93</v>
       </c>
-      <c r="F28" s="302"/>
-      <c r="G28" s="303"/>
-      <c r="H28" s="303"/>
-      <c r="I28" s="303"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="164"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B29" s="303"/>
-      <c r="C29" s="303"/>
-      <c r="D29" s="303"/>
-      <c r="E29" s="303"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="164"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="164"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B30" s="303"/>
-      <c r="C30" s="303"/>
-      <c r="D30" s="303"/>
-      <c r="E30" s="303"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B31" s="303"/>
-      <c r="C31" s="303"/>
-      <c r="D31" s="303"/>
-      <c r="E31" s="303"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="164"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="164"/>
     </row>
     <row r="32" spans="1:9" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A32" s="125" t="s">
+      <c r="A32" s="106" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="126" t="s">
+      <c r="B34" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="126" t="s">
+      <c r="F34" s="107" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="125" t="s">
+      <c r="B35" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="125" t="s">
+      <c r="C35" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="125" t="s">
+      <c r="D35" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125" t="s">
+      <c r="E35" s="106"/>
+      <c r="F35" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="G35" s="125" t="s">
+      <c r="G35" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="H35" s="125" t="s">
+      <c r="H35" s="106" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="124" t="s">
+      <c r="A36" s="105" t="s">
         <v>153</v>
       </c>
-      <c r="B36" s="300" t="s">
+      <c r="B36" s="163" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="300" t="s">
+      <c r="C36" s="163" t="s">
         <v>93</v>
       </c>
-      <c r="D36" s="300" t="s">
+      <c r="D36" s="163" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="304"/>
-      <c r="F36" s="300" t="s">
+      <c r="E36" s="166"/>
+      <c r="F36" s="163" t="s">
         <v>92</v>
       </c>
-      <c r="G36" s="300" t="s">
+      <c r="G36" s="163" t="s">
         <v>93</v>
       </c>
-      <c r="H36" s="300" t="s">
+      <c r="H36" s="163" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="303"/>
-      <c r="C37" s="303"/>
-      <c r="D37" s="303"/>
-      <c r="E37" s="303"/>
-      <c r="F37" s="303"/>
-      <c r="G37" s="303"/>
-      <c r="H37" s="303"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="164"/>
+      <c r="E37" s="164"/>
+      <c r="F37" s="164"/>
+      <c r="G37" s="164"/>
+      <c r="H37" s="164"/>
     </row>
     <row r="39" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A39" s="125" t="s">
+      <c r="A39" s="106" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="126" t="s">
+      <c r="B41" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="126" t="s">
+      <c r="F41" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="J41" s="126"/>
+      <c r="J41" s="107"/>
     </row>
     <row r="42" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="125" t="s">
+      <c r="B42" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="125" t="s">
+      <c r="C42" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="125" t="s">
+      <c r="D42" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="E42" s="125" t="s">
+      <c r="E42" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="F42" s="125" t="s">
+      <c r="F42" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="G42" s="125" t="s">
+      <c r="G42" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="H42" s="125" t="s">
+      <c r="H42" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="I42" s="125" t="s">
+      <c r="I42" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="J42" s="125"/>
-      <c r="K42" s="125"/>
-      <c r="L42" s="125"/>
-      <c r="M42" s="125"/>
+      <c r="J42" s="106"/>
+      <c r="K42" s="106"/>
+      <c r="L42" s="106"/>
+      <c r="M42" s="106"/>
     </row>
     <row r="43" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="124" t="s">
+      <c r="A43" s="105" t="s">
         <v>153</v>
       </c>
-      <c r="B43" s="300" t="s">
+      <c r="B43" s="163" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="300" t="s">
+      <c r="C43" s="163" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="300" t="s">
+      <c r="D43" s="163" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="300" t="s">
+      <c r="E43" s="163" t="s">
         <v>93</v>
       </c>
-      <c r="F43" s="300" t="s">
+      <c r="F43" s="163" t="s">
         <v>92</v>
       </c>
-      <c r="G43" s="300" t="s">
+      <c r="G43" s="163" t="s">
         <v>93</v>
       </c>
-      <c r="H43" s="300" t="s">
+      <c r="H43" s="163" t="s">
         <v>94</v>
       </c>
-      <c r="I43" s="300" t="s">
+      <c r="I43" s="163" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="17.25" x14ac:dyDescent="0.45">
-      <c r="A46" s="122" t="s">
+      <c r="A46" s="104" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="132" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A47" s="131" t="s">
+    <row r="47" spans="1:13" s="113" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A47" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="131" t="s">
+      <c r="B47" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="131" t="s">
+      <c r="C47" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="D47" s="131" t="s">
+      <c r="D47" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="E47" s="131" t="s">
+      <c r="E47" s="112" t="s">
         <v>89</v>
       </c>
-      <c r="F47" s="131" t="s">
+      <c r="F47" s="112" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="127" t="s">
+      <c r="A48" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="127" t="s">
+      <c r="B48" s="108" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="127" t="s">
+      <c r="C48" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="D48" s="127" t="s">
+      <c r="D48" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="E48" s="127" t="s">
+      <c r="E48" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="F48" s="127" t="s">
+      <c r="F48" s="108" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:6" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="127"/>
-      <c r="B49" s="127"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="127"/>
-      <c r="E49" s="127"/>
-      <c r="F49" s="128" t="s">
+      <c r="A49" s="108"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="109" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="122" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
-      <c r="A52" s="122" t="s">
+    <row r="52" spans="1:6" s="104" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A52" s="104" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="125" customFormat="1" ht="15" x14ac:dyDescent="0.4">
-      <c r="A53" s="133" t="s">
+    <row r="53" spans="1:6" s="106" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A53" s="114" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:6" customFormat="1" ht="15" x14ac:dyDescent="0.4">
-      <c r="A54" s="135" t="s">
+      <c r="A54" s="116" t="s">
         <v>120</v>
       </c>
-      <c r="B54" s="136" t="s">
+      <c r="B54" s="117" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="136" t="s">
+      <c r="C54" s="117" t="s">
         <v>103</v>
       </c>
-      <c r="D54" s="136" t="s">
+      <c r="D54" s="117" t="s">
         <v>111</v>
       </c>
-      <c r="E54" s="136" t="s">
+      <c r="E54" s="117" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="137" t="s">
+      <c r="A55" s="118" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="137" t="s">
+      <c r="B55" s="118" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="137" t="s">
+      <c r="C55" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="D55" s="137" t="s">
+      <c r="D55" s="118" t="s">
         <v>117</v>
       </c>
-      <c r="E55" s="137" t="s">
+      <c r="E55" s="118" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="137"/>
-      <c r="B56" s="137" t="s">
+      <c r="A56" s="118"/>
+      <c r="B56" s="118" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="139" t="s">
+      <c r="C56" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="D56" s="139" t="s">
+      <c r="D56" s="120" t="s">
         <v>124</v>
       </c>
-      <c r="E56" s="137" t="s">
+      <c r="E56" s="118" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="138"/>
-      <c r="B57" s="138"/>
-      <c r="C57" s="138"/>
-      <c r="D57" s="138"/>
-      <c r="E57" s="138"/>
+      <c r="A57" s="119"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="119"/>
+      <c r="E57" s="119"/>
     </row>
     <row r="58" spans="1:6" customFormat="1" ht="15" x14ac:dyDescent="0.4">
-      <c r="A58" s="135" t="s">
+      <c r="A58" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="B58" s="136" t="s">
+      <c r="B58" s="117" t="s">
         <v>110</v>
       </c>
-      <c r="C58" s="136" t="s">
+      <c r="C58" s="117" t="s">
         <v>103</v>
       </c>
-      <c r="D58" s="136" t="s">
+      <c r="D58" s="117" t="s">
         <v>111</v>
       </c>
-      <c r="E58" s="136" t="s">
+      <c r="E58" s="117" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="137" t="s">
+      <c r="A59" s="118" t="s">
         <v>113</v>
       </c>
-      <c r="B59" s="137" t="s">
+      <c r="B59" s="118" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="137" t="s">
+      <c r="C59" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="D59" s="137" t="s">
+      <c r="D59" s="118" t="s">
         <v>117</v>
       </c>
-      <c r="E59" s="137" t="s">
+      <c r="E59" s="118" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="137"/>
-      <c r="B60" s="137" t="s">
+      <c r="A60" s="118"/>
+      <c r="B60" s="118" t="s">
         <v>118</v>
       </c>
-      <c r="C60" s="139" t="s">
+      <c r="C60" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="D60" s="139" t="s">
+      <c r="D60" s="120" t="s">
         <v>124</v>
       </c>
-      <c r="E60" s="137" t="s">
+      <c r="E60" s="118" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="137" t="s">
+      <c r="A61" s="118" t="s">
         <v>113</v>
       </c>
-      <c r="B61" s="137" t="s">
+      <c r="B61" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="C61" s="137" t="s">
+      <c r="C61" s="118" t="s">
         <v>117</v>
       </c>
-      <c r="D61" s="137" t="s">
+      <c r="D61" s="118" t="s">
         <v>116</v>
       </c>
-      <c r="E61" s="137" t="s">
+      <c r="E61" s="118" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="137"/>
-      <c r="B62" s="137" t="s">
+      <c r="A62" s="118"/>
+      <c r="B62" s="118" t="s">
         <v>118</v>
       </c>
-      <c r="C62" s="139" t="s">
+      <c r="C62" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="D62" s="139" t="s">
+      <c r="D62" s="120" t="s">
         <v>124</v>
       </c>
-      <c r="E62" s="137" t="s">
+      <c r="E62" s="118" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="134" customFormat="1" ht="15" x14ac:dyDescent="0.4">
-      <c r="A65" s="133" t="s">
+    <row r="65" spans="1:5" s="115" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A65" s="114" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:5" customFormat="1" ht="15" x14ac:dyDescent="0.4">
-      <c r="A66" s="135" t="s">
+      <c r="A66" s="116" t="s">
         <v>120</v>
       </c>
-      <c r="B66" s="136" t="s">
+      <c r="B66" s="117" t="s">
         <v>110</v>
       </c>
-      <c r="C66" s="136" t="s">
+      <c r="C66" s="117" t="s">
         <v>103</v>
       </c>
-      <c r="D66" s="136" t="s">
+      <c r="D66" s="117" t="s">
         <v>111</v>
       </c>
-      <c r="E66" s="136" t="s">
+      <c r="E66" s="117" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="137" t="s">
+      <c r="A67" s="118" t="s">
         <v>113</v>
       </c>
-      <c r="B67" s="137" t="s">
+      <c r="B67" s="118" t="s">
         <v>114</v>
       </c>
-      <c r="C67" s="137" t="s">
+      <c r="C67" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="D67" s="137" t="s">
+      <c r="D67" s="118" t="s">
         <v>116</v>
       </c>
-      <c r="E67" s="137" t="s">
+      <c r="E67" s="118" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="137"/>
-      <c r="B68" s="137" t="s">
+      <c r="A68" s="118"/>
+      <c r="B68" s="118" t="s">
         <v>118</v>
       </c>
-      <c r="C68" s="139" t="s">
+      <c r="C68" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="D68" s="139" t="s">
+      <c r="D68" s="120" t="s">
         <v>124</v>
       </c>
-      <c r="E68" s="139" t="s">
+      <c r="E68" s="120" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:5" customFormat="1" ht="15" x14ac:dyDescent="0.4">
-      <c r="A70" s="135" t="s">
+      <c r="A70" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="B70" s="136" t="s">
+      <c r="B70" s="117" t="s">
         <v>110</v>
       </c>
-      <c r="C70" s="136" t="s">
+      <c r="C70" s="117" t="s">
         <v>103</v>
       </c>
-      <c r="D70" s="136" t="s">
+      <c r="D70" s="117" t="s">
         <v>111</v>
       </c>
-      <c r="E70" s="136" t="s">
+      <c r="E70" s="117" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="137" t="s">
+      <c r="A71" s="118" t="s">
         <v>113</v>
       </c>
-      <c r="B71" s="137" t="s">
+      <c r="B71" s="118" t="s">
         <v>114</v>
       </c>
-      <c r="C71" s="137" t="s">
+      <c r="C71" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="D71" s="137" t="s">
+      <c r="D71" s="118" t="s">
         <v>116</v>
       </c>
-      <c r="E71" s="137" t="s">
+      <c r="E71" s="118" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="137"/>
-      <c r="B72" s="137" t="s">
+      <c r="A72" s="118"/>
+      <c r="B72" s="118" t="s">
         <v>118</v>
       </c>
-      <c r="C72" s="139" t="s">
+      <c r="C72" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="D72" s="139" t="s">
+      <c r="D72" s="120" t="s">
         <v>124</v>
       </c>
-      <c r="E72" s="139" t="s">
+      <c r="E72" s="120" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="137" t="s">
+      <c r="A73" s="118" t="s">
         <v>113</v>
       </c>
-      <c r="B73" s="137" t="s">
+      <c r="B73" s="118" t="s">
         <v>117</v>
       </c>
-      <c r="C73" s="137" t="s">
+      <c r="C73" s="118" t="s">
         <v>116</v>
       </c>
-      <c r="D73" s="137" t="s">
+      <c r="D73" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="E73" s="137" t="s">
+      <c r="E73" s="118" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="137"/>
-      <c r="B74" s="137" t="s">
+      <c r="A74" s="118"/>
+      <c r="B74" s="118" t="s">
         <v>118</v>
       </c>
-      <c r="C74" s="139" t="s">
+      <c r="C74" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="D74" s="139" t="s">
+      <c r="D74" s="120" t="s">
         <v>124</v>
       </c>
-      <c r="E74" s="139" t="s">
+      <c r="E74" s="120" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR SKRITT PAS-DE-DEUX</oddHeader>
+    <oddFooter>&amp;R2019-04-07</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2980082F-AC67-4267-931A-E1E9A31759F0}">
-  <dimension ref="A1:M42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView showZeros="0" showWhiteSpace="0" view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.265625" style="203" customWidth="1"/>
-    <col min="2" max="3" width="9.1328125" style="203"/>
-    <col min="4" max="4" width="2.73046875" style="203" customWidth="1"/>
-    <col min="5" max="6" width="7.265625" style="203" customWidth="1"/>
-    <col min="7" max="7" width="6.86328125" style="203" customWidth="1"/>
-    <col min="8" max="8" width="6.59765625" style="203" customWidth="1"/>
-    <col min="9" max="9" width="6.1328125" style="203" customWidth="1"/>
-    <col min="10" max="11" width="7.265625" style="203" customWidth="1"/>
-    <col min="12" max="12" width="8.73046875" style="203" customWidth="1"/>
-    <col min="13" max="13" width="7.265625" style="203" customWidth="1"/>
-    <col min="14" max="16384" width="9.1328125" style="203"/>
+    <col min="1" max="1" width="8.265625" style="129" customWidth="1"/>
+    <col min="2" max="3" width="9.1328125" style="129"/>
+    <col min="4" max="4" width="2.73046875" style="129" customWidth="1"/>
+    <col min="5" max="6" width="7.265625" style="129" customWidth="1"/>
+    <col min="7" max="7" width="6.86328125" style="129" customWidth="1"/>
+    <col min="8" max="8" width="6.59765625" style="129" customWidth="1"/>
+    <col min="9" max="9" width="6.1328125" style="129" customWidth="1"/>
+    <col min="10" max="11" width="7.265625" style="129" customWidth="1"/>
+    <col min="12" max="12" width="8.73046875" style="129" customWidth="1"/>
+    <col min="13" max="13" width="7.265625" style="129" customWidth="1"/>
+    <col min="14" max="16384" width="9.1328125" style="129"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="297"/>
-      <c r="I2" s="296" t="s">
+      <c r="H2" s="160"/>
+      <c r="I2" s="159" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="298"/>
-      <c r="K2" s="294"/>
-      <c r="L2" s="294"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="213" t="s">
+      <c r="A3" s="139" t="s">
         <v>137</v>
       </c>
-      <c r="H3" s="297"/>
-      <c r="I3" s="296" t="s">
+      <c r="H3" s="160"/>
+      <c r="I3" s="159" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="298"/>
-      <c r="K3" s="294"/>
-      <c r="L3" s="294"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="157"/>
     </row>
     <row r="4" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="210" t="s">
+      <c r="A4" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="210"/>
-      <c r="C4" s="299"/>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
-      <c r="H4" s="297"/>
-      <c r="I4" s="296" t="s">
+      <c r="B4" s="136"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="162"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="298"/>
-      <c r="K4" s="294"/>
-      <c r="L4" s="294"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="157"/>
+      <c r="L4" s="157"/>
     </row>
     <row r="5" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="288" t="s">
+      <c r="A5" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="288"/>
-      <c r="C5" s="287"/>
-      <c r="D5" s="287"/>
-      <c r="E5" s="287"/>
-      <c r="F5" s="287"/>
-      <c r="H5" s="297"/>
-      <c r="I5" s="296" t="s">
+      <c r="B5" s="156"/>
+      <c r="C5" s="216"/>
+      <c r="D5" s="216"/>
+      <c r="E5" s="216"/>
+      <c r="F5" s="216"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="295"/>
-      <c r="K5" s="294"/>
-      <c r="L5" s="294"/>
+      <c r="J5" s="158"/>
+      <c r="K5" s="157"/>
+      <c r="L5" s="157"/>
     </row>
     <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="203" t="s">
+      <c r="A6" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="203" t="s">
+      <c r="H6" s="129" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="288" t="s">
+      <c r="A7" s="156" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="288"/>
-      <c r="C7" s="287"/>
-      <c r="D7" s="287"/>
-      <c r="E7" s="287"/>
-      <c r="F7" s="287"/>
-      <c r="H7" s="210" t="s">
+      <c r="B7" s="156"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="H7" s="136" t="s">
         <v>145</v>
       </c>
-      <c r="I7" s="293"/>
-      <c r="J7" s="292"/>
-      <c r="K7" s="292"/>
-      <c r="L7" s="292"/>
+      <c r="I7" s="228"/>
+      <c r="J7" s="229"/>
+      <c r="K7" s="229"/>
+      <c r="L7" s="229"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="210" t="s">
+      <c r="A8" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="210"/>
-      <c r="C8" s="291"/>
-      <c r="D8" s="291"/>
-      <c r="E8" s="291"/>
-      <c r="F8" s="291"/>
-      <c r="H8" s="288" t="s">
+      <c r="B8" s="136"/>
+      <c r="C8" s="230"/>
+      <c r="D8" s="230"/>
+      <c r="E8" s="230"/>
+      <c r="F8" s="230"/>
+      <c r="H8" s="156" t="s">
         <v>144</v>
       </c>
-      <c r="I8" s="290"/>
-      <c r="J8" s="289"/>
-      <c r="K8" s="289"/>
-      <c r="L8" s="289"/>
+      <c r="I8" s="231"/>
+      <c r="J8" s="232"/>
+      <c r="K8" s="232"/>
+      <c r="L8" s="232"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="288" t="s">
+      <c r="A9" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="288"/>
-      <c r="C9" s="287"/>
-      <c r="D9" s="287"/>
-      <c r="E9" s="287"/>
-      <c r="F9" s="287"/>
-      <c r="I9" s="286"/>
-      <c r="J9" s="285"/>
-      <c r="K9" s="285"/>
-      <c r="L9" s="285"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="216"/>
+      <c r="D9" s="216"/>
+      <c r="E9" s="216"/>
+      <c r="F9" s="216"/>
+      <c r="I9" s="217"/>
+      <c r="J9" s="218"/>
+      <c r="K9" s="218"/>
+      <c r="L9" s="218"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="288" t="s">
+      <c r="A10" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="288"/>
-      <c r="C10" s="287"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="287"/>
-      <c r="F10" s="287"/>
-      <c r="I10" s="286"/>
-      <c r="J10" s="285"/>
-      <c r="K10" s="285"/>
-      <c r="L10" s="285"/>
+      <c r="B10" s="156"/>
+      <c r="C10" s="216"/>
+      <c r="D10" s="216"/>
+      <c r="E10" s="216"/>
+      <c r="F10" s="216"/>
+      <c r="I10" s="217"/>
+      <c r="J10" s="218"/>
+      <c r="K10" s="218"/>
+      <c r="L10" s="218"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I11" s="286"/>
-      <c r="J11" s="285"/>
-      <c r="K11" s="285"/>
-      <c r="L11" s="285"/>
+      <c r="I11" s="217"/>
+      <c r="J11" s="218"/>
+      <c r="K11" s="218"/>
+      <c r="L11" s="218"/>
     </row>
     <row r="12" spans="1:13" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A12" s="284" t="s">
+      <c r="A12" s="155" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="283"/>
-      <c r="C12" s="283"/>
-      <c r="D12" s="283"/>
-      <c r="E12" s="283"/>
-      <c r="F12" s="283"/>
-      <c r="G12" s="283"/>
-      <c r="H12" s="282" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="219" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="281"/>
-      <c r="J12" s="280" t="s">
+      <c r="I12" s="220"/>
+      <c r="J12" s="221" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="279"/>
-      <c r="L12" s="278"/>
+      <c r="K12" s="222"/>
+      <c r="L12" s="223"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="259" t="s">
+      <c r="A13" s="188" t="s">
         <v>143</v>
       </c>
-      <c r="B13" s="271" t="s">
+      <c r="B13" s="207" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="271" t="s">
+      <c r="C13" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="271"/>
-      <c r="E13" s="271"/>
-      <c r="F13" s="255" t="s">
+      <c r="D13" s="207"/>
+      <c r="E13" s="207"/>
+      <c r="F13" s="193" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="277"/>
-      <c r="H13" s="276"/>
-      <c r="I13" s="275"/>
-      <c r="J13" s="274">
+      <c r="G13" s="225"/>
+      <c r="H13" s="226"/>
+      <c r="I13" s="227"/>
+      <c r="J13" s="213">
         <v>0.2</v>
       </c>
-      <c r="K13" s="273"/>
-      <c r="L13" s="268">
+      <c r="K13" s="202"/>
+      <c r="L13" s="205">
         <f>K13*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="272"/>
-      <c r="B14" s="271"/>
-      <c r="C14" s="271" t="s">
+      <c r="A14" s="224"/>
+      <c r="B14" s="207"/>
+      <c r="C14" s="207" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="271"/>
-      <c r="E14" s="271"/>
-      <c r="F14" s="266" t="s">
+      <c r="D14" s="207"/>
+      <c r="E14" s="207"/>
+      <c r="F14" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="265"/>
-      <c r="H14" s="247"/>
-      <c r="I14" s="246"/>
-      <c r="J14" s="270"/>
-      <c r="K14" s="269"/>
-      <c r="L14" s="268"/>
+      <c r="G14" s="209"/>
+      <c r="H14" s="195"/>
+      <c r="I14" s="196"/>
+      <c r="J14" s="214"/>
+      <c r="K14" s="203"/>
+      <c r="L14" s="205"/>
     </row>
     <row r="15" spans="1:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="253"/>
-      <c r="B15" s="267"/>
-      <c r="C15" s="267" t="s">
+      <c r="A15" s="189"/>
+      <c r="B15" s="210"/>
+      <c r="C15" s="210" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="267"/>
-      <c r="E15" s="267"/>
-      <c r="F15" s="266" t="s">
+      <c r="D15" s="210"/>
+      <c r="E15" s="210"/>
+      <c r="F15" s="208" t="s">
         <v>142</v>
       </c>
-      <c r="G15" s="265"/>
-      <c r="H15" s="264"/>
-      <c r="I15" s="263"/>
-      <c r="J15" s="262"/>
-      <c r="K15" s="261"/>
-      <c r="L15" s="260"/>
+      <c r="G15" s="209"/>
+      <c r="H15" s="211"/>
+      <c r="I15" s="212"/>
+      <c r="J15" s="215"/>
+      <c r="K15" s="204"/>
+      <c r="L15" s="206"/>
     </row>
     <row r="16" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="259" t="s">
+      <c r="A16" s="188" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="258" t="s">
+      <c r="B16" s="190" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="257"/>
-      <c r="D16" s="257"/>
-      <c r="E16" s="256"/>
-      <c r="F16" s="255" t="s">
+      <c r="C16" s="191"/>
+      <c r="D16" s="191"/>
+      <c r="E16" s="192"/>
+      <c r="F16" s="193" t="s">
         <v>139</v>
       </c>
-      <c r="G16" s="254"/>
-      <c r="H16" s="247"/>
-      <c r="I16" s="246"/>
-      <c r="J16" s="245">
+      <c r="G16" s="194"/>
+      <c r="H16" s="195"/>
+      <c r="I16" s="196"/>
+      <c r="J16" s="154">
         <v>0.4</v>
       </c>
-      <c r="K16" s="244"/>
-      <c r="L16" s="243">
+      <c r="K16" s="153"/>
+      <c r="L16" s="152">
         <f>K16*0.4</f>
         <v>0</v>
       </c>
-      <c r="M16" s="204"/>
+      <c r="M16" s="130"/>
     </row>
     <row r="17" spans="1:12" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="253"/>
-      <c r="B17" s="252" t="s">
+      <c r="A17" s="189"/>
+      <c r="B17" s="197" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="251"/>
-      <c r="D17" s="251"/>
-      <c r="E17" s="250"/>
-      <c r="F17" s="249" t="s">
+      <c r="C17" s="198"/>
+      <c r="D17" s="198"/>
+      <c r="E17" s="199"/>
+      <c r="F17" s="200" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="248"/>
-      <c r="H17" s="247"/>
-      <c r="I17" s="246"/>
-      <c r="J17" s="245">
+      <c r="G17" s="201"/>
+      <c r="H17" s="195"/>
+      <c r="I17" s="196"/>
+      <c r="J17" s="154">
         <v>0.4</v>
       </c>
-      <c r="K17" s="244"/>
-      <c r="L17" s="243">
+      <c r="K17" s="153"/>
+      <c r="L17" s="152">
         <f>K17*0.4</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="13.15" x14ac:dyDescent="0.3">
-      <c r="A18" s="242" t="s">
+      <c r="A18" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="176" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="240"/>
-      <c r="D18" s="240"/>
-      <c r="E18" s="240"/>
-      <c r="F18" s="240"/>
-      <c r="G18" s="240"/>
-      <c r="H18" s="240"/>
-      <c r="I18" s="240"/>
-      <c r="J18" s="239"/>
-      <c r="K18" s="238"/>
-      <c r="L18" s="237"/>
+      <c r="C18" s="177"/>
+      <c r="D18" s="177"/>
+      <c r="E18" s="177"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="178"/>
+      <c r="K18" s="150"/>
+      <c r="L18" s="149"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H19" s="221"/>
-      <c r="I19" s="221"/>
-      <c r="L19" s="236">
+      <c r="H19" s="144"/>
+      <c r="I19" s="144"/>
+      <c r="L19" s="148">
         <f>(L13+L16+L17)-L18</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="235" t="s">
+      <c r="A20" s="147" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="234" t="s">
+      <c r="A21" s="179" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="233"/>
-      <c r="C21" s="233"/>
-      <c r="D21" s="233"/>
-      <c r="E21" s="233"/>
-      <c r="F21" s="233"/>
-      <c r="G21" s="233"/>
-      <c r="H21" s="233"/>
-      <c r="I21" s="233"/>
-      <c r="J21" s="233"/>
-      <c r="K21" s="233"/>
-      <c r="L21" s="232"/>
+      <c r="B21" s="180"/>
+      <c r="C21" s="180"/>
+      <c r="D21" s="180"/>
+      <c r="E21" s="180"/>
+      <c r="F21" s="180"/>
+      <c r="G21" s="180"/>
+      <c r="H21" s="180"/>
+      <c r="I21" s="180"/>
+      <c r="J21" s="180"/>
+      <c r="K21" s="180"/>
+      <c r="L21" s="181"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="231"/>
-      <c r="B22" s="230"/>
-      <c r="C22" s="230"/>
-      <c r="D22" s="230"/>
-      <c r="E22" s="230"/>
-      <c r="F22" s="230"/>
-      <c r="G22" s="230"/>
-      <c r="H22" s="230"/>
-      <c r="I22" s="230"/>
-      <c r="J22" s="230"/>
-      <c r="K22" s="230"/>
-      <c r="L22" s="229"/>
+      <c r="A22" s="182"/>
+      <c r="B22" s="183"/>
+      <c r="C22" s="183"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="183"/>
+      <c r="F22" s="183"/>
+      <c r="G22" s="183"/>
+      <c r="H22" s="183"/>
+      <c r="I22" s="183"/>
+      <c r="J22" s="183"/>
+      <c r="K22" s="183"/>
+      <c r="L22" s="184"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="231"/>
-      <c r="B23" s="230"/>
-      <c r="C23" s="230"/>
-      <c r="D23" s="230"/>
-      <c r="E23" s="230"/>
-      <c r="F23" s="230"/>
-      <c r="G23" s="230"/>
-      <c r="H23" s="230"/>
-      <c r="I23" s="230"/>
-      <c r="J23" s="230"/>
-      <c r="K23" s="230"/>
-      <c r="L23" s="229"/>
+      <c r="A23" s="182"/>
+      <c r="B23" s="183"/>
+      <c r="C23" s="183"/>
+      <c r="D23" s="183"/>
+      <c r="E23" s="183"/>
+      <c r="F23" s="183"/>
+      <c r="G23" s="183"/>
+      <c r="H23" s="183"/>
+      <c r="I23" s="183"/>
+      <c r="J23" s="183"/>
+      <c r="K23" s="183"/>
+      <c r="L23" s="184"/>
     </row>
     <row r="24" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="231"/>
-      <c r="B24" s="230"/>
-      <c r="C24" s="230"/>
-      <c r="D24" s="230"/>
-      <c r="E24" s="230"/>
-      <c r="F24" s="230"/>
-      <c r="G24" s="230"/>
-      <c r="H24" s="230"/>
-      <c r="I24" s="230"/>
-      <c r="J24" s="230"/>
-      <c r="K24" s="230"/>
-      <c r="L24" s="229"/>
+      <c r="A24" s="182"/>
+      <c r="B24" s="183"/>
+      <c r="C24" s="183"/>
+      <c r="D24" s="183"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="183"/>
+      <c r="J24" s="183"/>
+      <c r="K24" s="183"/>
+      <c r="L24" s="184"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="228"/>
-      <c r="B25" s="227"/>
-      <c r="C25" s="227"/>
-      <c r="D25" s="227"/>
-      <c r="E25" s="227"/>
-      <c r="F25" s="227"/>
-      <c r="G25" s="227"/>
-      <c r="H25" s="227"/>
-      <c r="I25" s="227"/>
-      <c r="J25" s="227"/>
-      <c r="K25" s="227"/>
-      <c r="L25" s="226"/>
+      <c r="A25" s="185"/>
+      <c r="B25" s="186"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="186"/>
+      <c r="E25" s="186"/>
+      <c r="F25" s="186"/>
+      <c r="G25" s="186"/>
+      <c r="H25" s="186"/>
+      <c r="I25" s="186"/>
+      <c r="J25" s="186"/>
+      <c r="K25" s="186"/>
+      <c r="L25" s="187"/>
     </row>
     <row r="27" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="224" t="s">
+      <c r="A27" s="173" t="s">
         <v>136</v>
       </c>
-      <c r="B27" s="224"/>
-      <c r="C27" s="224"/>
-      <c r="D27" s="224"/>
-      <c r="E27" s="224"/>
-      <c r="F27" s="224"/>
-      <c r="G27" s="224"/>
-      <c r="H27" s="224"/>
-      <c r="I27" s="306"/>
-      <c r="J27" s="306"/>
-      <c r="K27" s="225" t="s">
+      <c r="B27" s="173"/>
+      <c r="C27" s="173"/>
+      <c r="D27" s="173"/>
+      <c r="E27" s="173"/>
+      <c r="F27" s="173"/>
+      <c r="G27" s="173"/>
+      <c r="H27" s="173"/>
+      <c r="I27" s="174"/>
+      <c r="J27" s="174"/>
+      <c r="K27" s="146" t="s">
         <v>134</v>
       </c>
-      <c r="L27" s="218">
+      <c r="L27" s="141">
         <f>I27*1.5</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="224" t="s">
+      <c r="A28" s="173" t="s">
         <v>135</v>
       </c>
-      <c r="B28" s="224"/>
-      <c r="C28" s="224"/>
-      <c r="D28" s="224"/>
-      <c r="E28" s="224"/>
-      <c r="F28" s="224"/>
-      <c r="G28" s="224"/>
-      <c r="H28" s="224"/>
-      <c r="I28" s="306"/>
-      <c r="J28" s="306"/>
-      <c r="K28" s="222" t="s">
+      <c r="B28" s="173"/>
+      <c r="C28" s="173"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="173"/>
+      <c r="F28" s="173"/>
+      <c r="G28" s="173"/>
+      <c r="H28" s="173"/>
+      <c r="I28" s="174"/>
+      <c r="J28" s="174"/>
+      <c r="K28" s="145" t="s">
         <v>134</v>
       </c>
-      <c r="L28" s="218">
+      <c r="L28" s="141">
         <f>I28*1.5</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="224" t="s">
+      <c r="A29" s="173" t="s">
         <v>133</v>
       </c>
-      <c r="B29" s="224"/>
-      <c r="C29" s="224"/>
-      <c r="D29" s="224"/>
-      <c r="E29" s="224"/>
-      <c r="F29" s="224"/>
-      <c r="G29" s="224"/>
-      <c r="H29" s="224"/>
-      <c r="I29" s="306"/>
-      <c r="J29" s="306"/>
-      <c r="K29" s="222" t="s">
+      <c r="B29" s="173"/>
+      <c r="C29" s="173"/>
+      <c r="D29" s="173"/>
+      <c r="E29" s="173"/>
+      <c r="F29" s="173"/>
+      <c r="G29" s="173"/>
+      <c r="H29" s="173"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="174"/>
+      <c r="K29" s="145" t="s">
         <v>129</v>
       </c>
-      <c r="L29" s="218">
+      <c r="L29" s="141">
         <f>I29*2.5</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="224" t="s">
+      <c r="A30" s="173" t="s">
         <v>132</v>
       </c>
-      <c r="B30" s="224"/>
-      <c r="C30" s="224"/>
-      <c r="D30" s="224"/>
-      <c r="E30" s="224"/>
-      <c r="F30" s="224"/>
-      <c r="G30" s="224"/>
-      <c r="H30" s="224"/>
-      <c r="I30" s="306"/>
-      <c r="J30" s="306"/>
-      <c r="K30" s="222" t="s">
+      <c r="B30" s="173"/>
+      <c r="C30" s="173"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="173"/>
+      <c r="G30" s="173"/>
+      <c r="H30" s="173"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="174"/>
+      <c r="K30" s="145" t="s">
         <v>131</v>
       </c>
-      <c r="L30" s="218">
+      <c r="L30" s="141">
         <f>I30*2</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="224" t="s">
+      <c r="A31" s="173" t="s">
         <v>130</v>
       </c>
-      <c r="B31" s="224"/>
-      <c r="C31" s="224"/>
-      <c r="D31" s="224"/>
-      <c r="E31" s="224"/>
-      <c r="F31" s="224"/>
-      <c r="G31" s="224"/>
-      <c r="H31" s="224"/>
-      <c r="I31" s="223">
+      <c r="B31" s="173"/>
+      <c r="C31" s="173"/>
+      <c r="D31" s="173"/>
+      <c r="E31" s="173"/>
+      <c r="F31" s="173"/>
+      <c r="G31" s="173"/>
+      <c r="H31" s="173"/>
+      <c r="I31" s="175">
         <f>L19</f>
         <v>0</v>
       </c>
-      <c r="J31" s="223"/>
-      <c r="K31" s="222" t="s">
+      <c r="J31" s="175"/>
+      <c r="K31" s="145" t="s">
         <v>129</v>
       </c>
-      <c r="L31" s="218">
+      <c r="L31" s="141">
         <f>I31*2.5</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F32" s="213"/>
-      <c r="I32" s="221"/>
-      <c r="J32" s="220"/>
-      <c r="K32" s="219" t="s">
+      <c r="F32" s="139"/>
+      <c r="I32" s="144"/>
+      <c r="J32" s="143"/>
+      <c r="K32" s="142" t="s">
         <v>128</v>
       </c>
-      <c r="L32" s="218">
+      <c r="L32" s="141">
         <f>(L27+L28+L29+L30+L31)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F33" s="217" t="s">
+      <c r="F33" s="170" t="s">
         <v>127</v>
       </c>
-      <c r="G33" s="216"/>
-      <c r="H33" s="216"/>
-      <c r="I33" s="216"/>
-      <c r="J33" s="216"/>
-      <c r="K33" s="215"/>
-      <c r="L33" s="214">
+      <c r="G33" s="171"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="171"/>
+      <c r="J33" s="171"/>
+      <c r="K33" s="172"/>
+      <c r="L33" s="140">
         <f>L32/10</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="F34" s="213"/>
-      <c r="G34" s="213"/>
-      <c r="H34" s="213"/>
-      <c r="I34" s="213"/>
-      <c r="J34" s="213"/>
-      <c r="K34" s="213"/>
-      <c r="L34" s="212"/>
+      <c r="F34" s="139"/>
+      <c r="G34" s="139"/>
+      <c r="H34" s="139"/>
+      <c r="I34" s="139"/>
+      <c r="J34" s="139"/>
+      <c r="K34" s="139"/>
+      <c r="L34" s="138"/>
     </row>
     <row r="35" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="F35" s="213"/>
-      <c r="G35" s="213"/>
-      <c r="H35" s="213"/>
-      <c r="I35" s="213"/>
-      <c r="J35" s="213"/>
-      <c r="K35" s="213"/>
-      <c r="L35" s="212"/>
+      <c r="F35" s="139"/>
+      <c r="G35" s="139"/>
+      <c r="H35" s="139"/>
+      <c r="I35" s="139"/>
+      <c r="J35" s="139"/>
+      <c r="K35" s="139"/>
+      <c r="L35" s="138"/>
     </row>
     <row r="36" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="F36" s="213"/>
-      <c r="G36" s="213"/>
-      <c r="H36" s="213"/>
-      <c r="I36" s="213"/>
-      <c r="J36" s="213"/>
-      <c r="K36" s="213"/>
-      <c r="L36" s="212"/>
+      <c r="F36" s="139"/>
+      <c r="G36" s="139"/>
+      <c r="H36" s="139"/>
+      <c r="I36" s="139"/>
+      <c r="J36" s="139"/>
+      <c r="K36" s="139"/>
+      <c r="L36" s="138"/>
     </row>
     <row r="37" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="F37" s="213"/>
-      <c r="G37" s="213"/>
-      <c r="H37" s="213"/>
-      <c r="I37" s="213"/>
-      <c r="J37" s="213"/>
-      <c r="K37" s="213"/>
-      <c r="L37" s="212"/>
+      <c r="F37" s="139"/>
+      <c r="G37" s="139"/>
+      <c r="H37" s="139"/>
+      <c r="I37" s="139"/>
+      <c r="J37" s="139"/>
+      <c r="K37" s="139"/>
+      <c r="L37" s="138"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F38" s="209"/>
-      <c r="H38" s="208"/>
-      <c r="I38" s="208"/>
-      <c r="J38" s="207"/>
-      <c r="K38" s="206"/>
-      <c r="L38" s="205"/>
+      <c r="F38" s="135"/>
+      <c r="H38" s="134"/>
+      <c r="I38" s="134"/>
+      <c r="J38" s="133"/>
+      <c r="K38" s="132"/>
+      <c r="L38" s="131"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="210" t="s">
+      <c r="A40" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="211"/>
-      <c r="C40" s="211"/>
-      <c r="D40" s="211"/>
-      <c r="E40" s="211"/>
-      <c r="F40" s="209"/>
-      <c r="H40" s="210" t="s">
+      <c r="B40" s="137"/>
+      <c r="C40" s="137"/>
+      <c r="D40" s="137"/>
+      <c r="E40" s="137"/>
+      <c r="F40" s="135"/>
+      <c r="H40" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="I40" s="210"/>
-      <c r="J40" s="210"/>
-      <c r="K40" s="210"/>
-      <c r="L40" s="210"/>
+      <c r="I40" s="136"/>
+      <c r="J40" s="136"/>
+      <c r="K40" s="136"/>
+      <c r="L40" s="136"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F41" s="209"/>
-      <c r="H41" s="208"/>
-      <c r="I41" s="208"/>
-      <c r="J41" s="207"/>
-      <c r="K41" s="206"/>
-      <c r="L41" s="205"/>
+      <c r="F41" s="135"/>
+      <c r="H41" s="134"/>
+      <c r="I41" s="134"/>
+      <c r="J41" s="133"/>
+      <c r="K41" s="132"/>
+      <c r="L41" s="131"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="204"/>
-      <c r="B42" s="204"/>
-      <c r="C42" s="204"/>
-      <c r="D42" s="204"/>
-      <c r="E42" s="204"/>
-      <c r="F42" s="204"/>
-      <c r="G42" s="204"/>
-      <c r="H42" s="204"/>
-      <c r="I42" s="204"/>
-      <c r="J42" s="204"/>
-      <c r="K42" s="204"/>
-      <c r="L42" s="204"/>
+      <c r="A42" s="130"/>
+      <c r="B42" s="130"/>
+      <c r="C42" s="130"/>
+      <c r="D42" s="130"/>
+      <c r="E42" s="130"/>
+      <c r="F42" s="130"/>
+      <c r="G42" s="130"/>
+      <c r="H42" s="130"/>
+      <c r="I42" s="130"/>
+      <c r="J42" s="130"/>
+      <c r="K42" s="130"/>
+      <c r="L42" s="130"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K43" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="46">
@@ -4161,17 +4111,18 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR SKRITT PAS-DE-DEUX</oddHeader>
+    <oddFooter>&amp;R2019-04-07</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25:L25"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -4194,405 +4145,391 @@
   <sheetData>
     <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36" t="s">
+      <c r="H2" s="30"/>
+      <c r="I2" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36" t="s">
+      <c r="H3" s="30"/>
+      <c r="I3" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-    </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="J3" s="32"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+    </row>
+    <row r="4" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-    </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="J4" s="32"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+    </row>
+    <row r="5" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="150"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="235"/>
+      <c r="E5" s="235"/>
+      <c r="F5" s="235"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-    </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="J5" s="34"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+    </row>
+    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="4" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="H7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-    </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="I7" s="3"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+    </row>
+    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="150"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="150"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="5" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="235"/>
+      <c r="D8" s="235"/>
+      <c r="E8" s="235"/>
+      <c r="F8" s="235"/>
+      <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-    </row>
-    <row r="9" spans="1:13" s="3" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="I8" s="4"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+    </row>
+    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="162"/>
-      <c r="L9" s="162"/>
-    </row>
-    <row r="10" spans="1:13" s="3" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="235"/>
+      <c r="D9" s="235"/>
+      <c r="E9" s="235"/>
+      <c r="F9" s="235"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="242"/>
+      <c r="J9" s="243"/>
+      <c r="K9" s="243"/>
+      <c r="L9" s="243"/>
+    </row>
+    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="162"/>
-      <c r="L10" s="162"/>
-    </row>
-    <row r="11" spans="1:13" s="3" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="235"/>
+      <c r="D10" s="235"/>
+      <c r="E10" s="235"/>
+      <c r="F10" s="235"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="242"/>
+      <c r="J10" s="243"/>
+      <c r="K10" s="243"/>
+      <c r="L10" s="243"/>
+    </row>
+    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="168" t="s">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="219" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="169"/>
-      <c r="J12" s="165" t="s">
+      <c r="I12" s="220"/>
+      <c r="J12" s="221" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="166"/>
-      <c r="L12" s="167"/>
+      <c r="K12" s="222"/>
+      <c r="L12" s="223"/>
     </row>
     <row r="13" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="170" t="s">
+      <c r="A13" s="246" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="160" t="s">
+      <c r="B13" s="241" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="160" t="s">
+      <c r="C13" s="241" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="160"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="186" t="s">
+      <c r="D13" s="241"/>
+      <c r="E13" s="241"/>
+      <c r="F13" s="262" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="187"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="158" t="s">
+      <c r="G13" s="263"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="239" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="163"/>
-      <c r="L13" s="185">
+      <c r="K13" s="244"/>
+      <c r="L13" s="261">
         <f>ROUND(K13*0.3,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="171"/>
-      <c r="B14" s="174"/>
-      <c r="C14" s="174" t="s">
+      <c r="A14" s="247"/>
+      <c r="B14" s="250"/>
+      <c r="C14" s="250" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="174"/>
-      <c r="E14" s="174"/>
-      <c r="F14" s="156" t="s">
+      <c r="D14" s="250"/>
+      <c r="E14" s="250"/>
+      <c r="F14" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="157"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="164"/>
-      <c r="L14" s="183"/>
+      <c r="G14" s="209"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="240"/>
+      <c r="K14" s="245"/>
+      <c r="L14" s="259"/>
     </row>
     <row r="15" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="171"/>
-      <c r="B15" s="174"/>
-      <c r="C15" s="174" t="s">
+      <c r="A15" s="247"/>
+      <c r="B15" s="250"/>
+      <c r="C15" s="250" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="174"/>
-      <c r="E15" s="174"/>
-      <c r="F15" s="156" t="s">
+      <c r="D15" s="250"/>
+      <c r="E15" s="250"/>
+      <c r="F15" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="157"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="159"/>
-      <c r="K15" s="164"/>
-      <c r="L15" s="183"/>
+      <c r="G15" s="209"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="240"/>
+      <c r="K15" s="245"/>
+      <c r="L15" s="259"/>
     </row>
     <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="171"/>
-      <c r="B16" s="175" t="s">
+      <c r="A16" s="247"/>
+      <c r="B16" s="251" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="174" t="s">
+      <c r="C16" s="250" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="174"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="156" t="s">
+      <c r="D16" s="250"/>
+      <c r="E16" s="250"/>
+      <c r="F16" s="208" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="157"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="159" t="s">
+      <c r="G16" s="209"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="240" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="164"/>
-      <c r="L16" s="183">
+      <c r="K16" s="245"/>
+      <c r="L16" s="259">
         <f>ROUND(K16*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="171"/>
-      <c r="B17" s="176"/>
-      <c r="C17" s="174" t="s">
+      <c r="A17" s="247"/>
+      <c r="B17" s="252"/>
+      <c r="C17" s="250" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="174"/>
-      <c r="E17" s="174"/>
-      <c r="F17" s="156" t="s">
+      <c r="D17" s="250"/>
+      <c r="E17" s="250"/>
+      <c r="F17" s="208" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="157"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="159"/>
-      <c r="K17" s="164"/>
-      <c r="L17" s="183"/>
+      <c r="G17" s="209"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="240"/>
+      <c r="K17" s="245"/>
+      <c r="L17" s="259"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="172"/>
-      <c r="B18" s="177"/>
-      <c r="C18" s="151" t="s">
+      <c r="A18" s="248"/>
+      <c r="B18" s="253"/>
+      <c r="C18" s="236" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="152" t="s">
+      <c r="D18" s="236"/>
+      <c r="E18" s="236"/>
+      <c r="F18" s="200" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="153"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="188"/>
-      <c r="K18" s="189"/>
-      <c r="L18" s="184"/>
+      <c r="G18" s="201"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="264"/>
+      <c r="K18" s="265"/>
+      <c r="L18" s="260"/>
     </row>
     <row r="19" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="170" t="s">
+      <c r="A19" s="246" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="178" t="s">
+      <c r="B19" s="254" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="160" t="s">
+      <c r="C19" s="241" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="160"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="154" t="s">
+      <c r="D19" s="241"/>
+      <c r="E19" s="241"/>
+      <c r="F19" s="237" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="155"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="158" t="s">
+      <c r="G19" s="238"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="239" t="s">
         <v>77</v>
       </c>
-      <c r="K19" s="163"/>
-      <c r="L19" s="185">
+      <c r="K19" s="244"/>
+      <c r="L19" s="261">
         <f>ROUND(K19*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="171"/>
-      <c r="B20" s="179"/>
-      <c r="C20" s="174" t="s">
+      <c r="A20" s="247"/>
+      <c r="B20" s="255"/>
+      <c r="C20" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="174"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="156" t="s">
+      <c r="D20" s="250"/>
+      <c r="E20" s="250"/>
+      <c r="F20" s="208" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="157"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="159"/>
-      <c r="K20" s="164"/>
-      <c r="L20" s="183"/>
+      <c r="G20" s="209"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="240"/>
+      <c r="K20" s="245"/>
+      <c r="L20" s="259"/>
     </row>
     <row r="21" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="171"/>
-      <c r="B21" s="180"/>
-      <c r="C21" s="174" t="s">
+      <c r="A21" s="247"/>
+      <c r="B21" s="256"/>
+      <c r="C21" s="250" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="174"/>
-      <c r="E21" s="174"/>
-      <c r="F21" s="156" t="s">
+      <c r="D21" s="250"/>
+      <c r="E21" s="250"/>
+      <c r="F21" s="208" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="157"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="159"/>
-      <c r="K21" s="164"/>
-      <c r="L21" s="183"/>
+      <c r="G21" s="209"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="240"/>
+      <c r="K21" s="245"/>
+      <c r="L21" s="259"/>
     </row>
     <row r="22" spans="1:12" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="172"/>
-      <c r="B22" s="53" t="s">
+      <c r="A22" s="248"/>
+      <c r="B22" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="151"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152" t="s">
+      <c r="C22" s="236"/>
+      <c r="D22" s="236"/>
+      <c r="E22" s="236"/>
+      <c r="F22" s="200" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="153"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="56" t="s">
+      <c r="G22" s="201"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="146"/>
-      <c r="L22" s="130">
+      <c r="K22" s="127"/>
+      <c r="L22" s="111">
         <f>ROUND(K22*0.15,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="115" t="s">
+      <c r="B23" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="173" t="s">
+      <c r="C23" s="249" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="173"/>
-      <c r="E23" s="173"/>
-      <c r="F23" s="181" t="s">
+      <c r="D23" s="249"/>
+      <c r="E23" s="249"/>
+      <c r="F23" s="257" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="182"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="60" t="s">
+      <c r="G23" s="258"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="K23" s="147"/>
-      <c r="L23" s="61">
+      <c r="K23" s="128"/>
+      <c r="L23" s="56">
         <f>ROUND(K23*0.05,3)</f>
         <v>0</v>
       </c>
@@ -4620,71 +4557,61 @@
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
-      <c r="I25" s="28" t="s">
+      <c r="I25" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="29"/>
-      <c r="K25" s="148">
+      <c r="J25" s="25"/>
+      <c r="K25" s="233">
         <f>SUM(L13:L23)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="149"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
+      <c r="L25" s="234"/>
     </row>
     <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="30" t="s">
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="45">
@@ -4734,511 +4661,22 @@
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="C9:F9"/>
   </mergeCells>
-  <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader xml:space="preserve">&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR PAS-DE-DEUX </oddHeader>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR SKRITT PAS-DE-DEUX</oddHeader>
+    <oddFooter>&amp;R2019-04-07</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.73046875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" style="3"/>
-    <col min="3" max="3" width="12.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.73046875" style="3" customWidth="1"/>
-    <col min="5" max="7" width="7.265625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="7" style="3" customWidth="1"/>
-    <col min="9" max="9" width="7.265625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="4.73046875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.265625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.73046875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="7.265625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.1328125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="74" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-    </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-    </row>
-    <row r="4" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-    </row>
-    <row r="5" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="150"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-    </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-    </row>
-    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="112"/>
-    </row>
-    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="190"/>
-      <c r="F8" s="190"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="112"/>
-    </row>
-    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="162"/>
-      <c r="L9" s="162"/>
-    </row>
-    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="162"/>
-      <c r="L10" s="162"/>
-    </row>
-    <row r="11" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="80"/>
-    </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="67"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="81"/>
-    </row>
-    <row r="14" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="67"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="69"/>
-    </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="116" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="117"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="120"/>
-    </row>
-    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="82" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="68"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="103" t="s">
-        <v>96</v>
-      </c>
-      <c r="I17" s="83"/>
-      <c r="K17" s="104" t="s">
-        <v>63</v>
-      </c>
-      <c r="M17" s="68"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="105" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="88"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="106">
-        <v>0.8</v>
-      </c>
-      <c r="G18" s="107"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="72">
-        <f>F18*H18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="105" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="88"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="106">
-        <v>0.4</v>
-      </c>
-      <c r="G19" s="107"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="72">
-        <f>F19*H19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="105" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="88"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="106">
-        <v>0</v>
-      </c>
-      <c r="G20" s="107"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="88" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="73">
-        <f>SUM(E18:E20)</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="109"/>
-    </row>
-    <row r="22" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G22" s="96" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="98">
-        <f>IF(SUM(K18:K21)&gt;10,10,SUM(K18:K21))</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="99">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="85" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="68"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="87"/>
-    </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="88" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" s="90"/>
-      <c r="H26" s="91">
-        <f>E21</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="92">
-        <f>IFERROR(E26/H26,10)</f>
-        <v>10</v>
-      </c>
-      <c r="J26" s="93"/>
-      <c r="K26" s="72">
-        <f>10-I26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="111"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="111"/>
-    </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="111"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="88" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="143"/>
-    </row>
-    <row r="29" spans="1:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="L29" s="84"/>
-    </row>
-    <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G30" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="98">
-        <f>K26-K28</f>
-        <v>0</v>
-      </c>
-      <c r="L30" s="99">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I32" s="100" t="s">
-        <v>59</v>
-      </c>
-      <c r="J32" s="101"/>
-      <c r="K32" s="101"/>
-      <c r="L32" s="102">
-        <f>ROUND(K22*0.3 + K30*0.7,3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="H36" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C10:F10"/>
-  </mergeCells>
-  <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.98425196850393704" header="0.43307086614173229" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR PAS-DE-DEUX</oddHeader>
-  </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M27"/>
-  <sheetViews>
-    <sheetView showZeros="0" showWhiteSpace="0" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -5259,323 +4697,742 @@
   <sheetData>
     <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36" t="s">
+      <c r="H2" s="30"/>
+      <c r="I2" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+    </row>
+    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="32"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+    </row>
+    <row r="4" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="32"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+    </row>
+    <row r="5" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="235"/>
+      <c r="E5" s="235"/>
+      <c r="F5" s="235"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="34"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+    </row>
+    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+    </row>
+    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="H7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="94"/>
+    </row>
+    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="266"/>
+      <c r="D8" s="266"/>
+      <c r="E8" s="266"/>
+      <c r="F8" s="266"/>
+      <c r="H8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="94"/>
+    </row>
+    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="235"/>
+      <c r="D9" s="235"/>
+      <c r="E9" s="235"/>
+      <c r="F9" s="235"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="242"/>
+      <c r="J9" s="243"/>
+      <c r="K9" s="243"/>
+      <c r="L9" s="243"/>
+    </row>
+    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="235"/>
+      <c r="D10" s="235"/>
+      <c r="E10" s="235"/>
+      <c r="F10" s="235"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="242"/>
+      <c r="J10" s="243"/>
+      <c r="K10" s="243"/>
+      <c r="L10" s="243"/>
+    </row>
+    <row r="11" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="70"/>
+    </row>
+    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="60"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="71"/>
+    </row>
+    <row r="14" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="60"/>
+      <c r="L14" s="61"/>
+    </row>
+    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="99"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="102"/>
+    </row>
+    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="61"/>
+      <c r="H17" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" s="72"/>
+      <c r="K17" s="87" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="89">
+        <v>0.8</v>
+      </c>
+      <c r="G18" s="90"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="64">
+        <f>F18*H18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="89">
+        <v>0.4</v>
+      </c>
+      <c r="G19" s="90"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="64">
+        <f>F19*H19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="89">
+        <v>0</v>
+      </c>
+      <c r="G20" s="90"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="65">
+        <f>SUM(E18:E20)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+    </row>
+    <row r="22" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G22" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="84">
+        <f>IF(SUM(K18:K21)&gt;10,10,SUM(K18:K21))</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="85">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="74" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="73"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="76"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="77">
+        <f>E21</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="78">
+        <f>IFERROR(E26/H26,10)</f>
+        <v>10</v>
+      </c>
+      <c r="J26" s="79"/>
+      <c r="K26" s="64">
+        <f>10-I26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="92"/>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="124"/>
+    </row>
+    <row r="29" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L29" s="73"/>
+    </row>
+    <row r="30" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G30" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="84">
+        <f>K26-K28</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="85">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="16">
+        <f>ROUND(K22*0.3 + K30*0.7,3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="H36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C10:F10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR SKRITT PAS-DE-DEUX</oddHeader>
+    <oddFooter>&amp;R2019-04-07</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="1"/>
+    <col min="3" max="3" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.73046875" style="1" customWidth="1"/>
+    <col min="5" max="7" width="7.265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.265625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.73046875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.265625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.73046875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.265625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1328125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="32"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36" t="s">
+      <c r="H3" s="30"/>
+      <c r="I3" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-    </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="J3" s="32"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+    </row>
+    <row r="4" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-    </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="J4" s="32"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+    </row>
+    <row r="5" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="150"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="235"/>
+      <c r="E5" s="235"/>
+      <c r="F5" s="235"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-    </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="113"/>
-      <c r="L6" s="113"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+    </row>
+    <row r="6" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="96"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="H7" s="4" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="H7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="112"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="94"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="190"/>
-      <c r="F8" s="190"/>
-      <c r="H8" s="5" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="266"/>
+      <c r="D8" s="266"/>
+      <c r="E8" s="266"/>
+      <c r="F8" s="266"/>
+      <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="112"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="94"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="162"/>
-      <c r="L9" s="162"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="235"/>
+      <c r="D9" s="235"/>
+      <c r="E9" s="235"/>
+      <c r="F9" s="235"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="242"/>
+      <c r="J9" s="243"/>
+      <c r="K9" s="243"/>
+      <c r="L9" s="243"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="150"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="162"/>
-      <c r="L10" s="162"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="235"/>
+      <c r="D10" s="235"/>
+      <c r="E10" s="235"/>
+      <c r="F10" s="235"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="242"/>
+      <c r="J10" s="243"/>
+      <c r="K10" s="243"/>
+      <c r="L10" s="243"/>
     </row>
     <row r="11" spans="1:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:13" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="193" t="s">
+      <c r="A12" s="269" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="196" t="s">
+      <c r="B12" s="272" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="197"/>
-      <c r="D12" s="197"/>
-      <c r="E12" s="197"/>
-      <c r="F12" s="197"/>
-      <c r="G12" s="197"/>
-      <c r="H12" s="197"/>
-      <c r="I12" s="197"/>
-      <c r="J12" s="15" t="s">
+      <c r="C12" s="273"/>
+      <c r="D12" s="273"/>
+      <c r="E12" s="273"/>
+      <c r="F12" s="273"/>
+      <c r="G12" s="273"/>
+      <c r="H12" s="273"/>
+      <c r="I12" s="273"/>
+      <c r="J12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="144"/>
-      <c r="L12" s="21">
+      <c r="K12" s="125"/>
+      <c r="L12" s="17">
         <f>K12*0.25</f>
         <v>0</v>
       </c>
-      <c r="M12" s="14"/>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="194"/>
-      <c r="B13" s="198" t="s">
+      <c r="A13" s="270"/>
+      <c r="B13" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="199"/>
-      <c r="D13" s="199"/>
-      <c r="E13" s="199"/>
-      <c r="F13" s="199"/>
-      <c r="G13" s="199"/>
-      <c r="H13" s="199"/>
-      <c r="I13" s="199"/>
-      <c r="J13" s="16" t="s">
+      <c r="C13" s="275"/>
+      <c r="D13" s="275"/>
+      <c r="E13" s="275"/>
+      <c r="F13" s="275"/>
+      <c r="G13" s="275"/>
+      <c r="H13" s="275"/>
+      <c r="I13" s="275"/>
+      <c r="J13" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K13" s="145"/>
-      <c r="L13" s="22">
+      <c r="K13" s="126"/>
+      <c r="L13" s="18">
         <f>K13*0.25</f>
         <v>0</v>
       </c>
-      <c r="M13" s="14"/>
+      <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="193" t="s">
+      <c r="A14" s="269" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="200" t="s">
+      <c r="B14" s="276" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="201"/>
-      <c r="D14" s="201"/>
-      <c r="E14" s="201"/>
-      <c r="F14" s="201"/>
-      <c r="G14" s="201"/>
-      <c r="H14" s="201"/>
-      <c r="I14" s="201"/>
-      <c r="J14" s="15" t="s">
+      <c r="C14" s="277"/>
+      <c r="D14" s="277"/>
+      <c r="E14" s="277"/>
+      <c r="F14" s="277"/>
+      <c r="G14" s="277"/>
+      <c r="H14" s="277"/>
+      <c r="I14" s="277"/>
+      <c r="J14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="143"/>
-      <c r="L14" s="23">
+      <c r="K14" s="124"/>
+      <c r="L14" s="19">
         <f>K14*0.2</f>
         <v>0</v>
       </c>
-      <c r="M14" s="14"/>
+      <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="195"/>
-      <c r="B15" s="191" t="s">
+      <c r="A15" s="271"/>
+      <c r="B15" s="267" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="192"/>
-      <c r="D15" s="192"/>
-      <c r="E15" s="192"/>
-      <c r="F15" s="192"/>
-      <c r="G15" s="192"/>
-      <c r="H15" s="192"/>
-      <c r="I15" s="192"/>
-      <c r="J15" s="17" t="s">
+      <c r="C15" s="268"/>
+      <c r="D15" s="268"/>
+      <c r="E15" s="268"/>
+      <c r="F15" s="268"/>
+      <c r="G15" s="268"/>
+      <c r="H15" s="268"/>
+      <c r="I15" s="268"/>
+      <c r="J15" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="143"/>
-      <c r="L15" s="24">
+      <c r="K15" s="124"/>
+      <c r="L15" s="20">
         <f>K15*0.2</f>
         <v>0</v>
       </c>
-      <c r="M15" s="14"/>
+      <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="194"/>
-      <c r="B16" s="202" t="s">
+      <c r="A16" s="270"/>
+      <c r="B16" s="278" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="199"/>
-      <c r="D16" s="199"/>
-      <c r="E16" s="199"/>
-      <c r="F16" s="199"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="199"/>
-      <c r="I16" s="199"/>
-      <c r="J16" s="16" t="s">
+      <c r="C16" s="275"/>
+      <c r="D16" s="275"/>
+      <c r="E16" s="275"/>
+      <c r="F16" s="275"/>
+      <c r="G16" s="275"/>
+      <c r="H16" s="275"/>
+      <c r="I16" s="275"/>
+      <c r="J16" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="143"/>
-      <c r="L16" s="25">
+      <c r="K16" s="124"/>
+      <c r="L16" s="21">
         <f>K16*0.1</f>
         <v>0</v>
       </c>
-      <c r="M16" s="14"/>
+      <c r="M16" s="10"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L17" s="26">
+      <c r="L17" s="22">
         <f>SUM(L12:L16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L18" s="27"/>
+      <c r="L18" s="23"/>
     </row>
     <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="143"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="124"/>
     </row>
     <row r="20" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L20" s="27"/>
+      <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="20">
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="16">
         <f>SUM(L12:L16)-L19</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="7" t="s">
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="H27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -5593,10 +5450,11 @@
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="I9:L9"/>
   </mergeCells>
-  <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.98425196850393704" header="0.43307086614173229" footer="0.51181102362204722"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR PAS-DE-DEUX</oddHeader>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR SKRITT PAS-DE-DEUX</oddHeader>
+    <oddFooter>&amp;R2019-04-07</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -5706,14 +5564,14 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06F9B768-A93D-4D4C-BBD7-D4CF83092D49}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/mallar/Protokoll/Protokoll_2019_Pas_de_deux_klass(mall).xlsx
+++ b/mallar/Protokoll/Protokoll_2019_Pas_de_deux_klass(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnus.sandberg\Documents\Visual Studio 2015\Projects\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E91357-4A37-473D-8521-04107DD41CB0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC61B24C-5031-4E2F-BB61-96F424528E73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="16201" windowHeight="9398" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="24" r:id="rId1"/>
@@ -1639,7 +1639,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="279">
+  <cellXfs count="280">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2048,14 +2048,170 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="37" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="28" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="47" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="37" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2064,174 +2220,100 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="169" fontId="2" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="37" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="28" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="47" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="37" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2241,94 +2323,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2368,6 +2368,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Dezimal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2751,8 +2752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3433,8 +3434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -3499,10 +3500,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="156"/>
-      <c r="C5" s="216"/>
-      <c r="D5" s="216"/>
-      <c r="E5" s="216"/>
-      <c r="F5" s="216"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
       <c r="H5" s="160"/>
       <c r="I5" s="159" t="s">
         <v>11</v>
@@ -3524,68 +3525,68 @@
         <v>146</v>
       </c>
       <c r="B7" s="156"/>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
       <c r="H7" s="136" t="s">
         <v>145</v>
       </c>
-      <c r="I7" s="228"/>
-      <c r="J7" s="229"/>
-      <c r="K7" s="229"/>
-      <c r="L7" s="229"/>
+      <c r="I7" s="173"/>
+      <c r="J7" s="174"/>
+      <c r="K7" s="174"/>
+      <c r="L7" s="174"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="136" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="136"/>
-      <c r="C8" s="230"/>
-      <c r="D8" s="230"/>
-      <c r="E8" s="230"/>
-      <c r="F8" s="230"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="175"/>
       <c r="H8" s="156" t="s">
         <v>144</v>
       </c>
-      <c r="I8" s="231"/>
-      <c r="J8" s="232"/>
-      <c r="K8" s="232"/>
-      <c r="L8" s="232"/>
+      <c r="I8" s="176"/>
+      <c r="J8" s="177"/>
+      <c r="K8" s="177"/>
+      <c r="L8" s="177"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="156" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="156"/>
-      <c r="C9" s="216"/>
-      <c r="D9" s="216"/>
-      <c r="E9" s="216"/>
-      <c r="F9" s="216"/>
-      <c r="I9" s="217"/>
-      <c r="J9" s="218"/>
-      <c r="K9" s="218"/>
-      <c r="L9" s="218"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="170"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="172"/>
+      <c r="K9" s="172"/>
+      <c r="L9" s="172"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="156" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="156"/>
-      <c r="C10" s="216"/>
-      <c r="D10" s="216"/>
-      <c r="E10" s="216"/>
-      <c r="F10" s="216"/>
-      <c r="I10" s="217"/>
-      <c r="J10" s="218"/>
-      <c r="K10" s="218"/>
-      <c r="L10" s="218"/>
+      <c r="C10" s="170"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="170"/>
+      <c r="I10" s="171"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="172"/>
+      <c r="L10" s="172"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I11" s="217"/>
-      <c r="J11" s="218"/>
-      <c r="K11" s="218"/>
-      <c r="L11" s="218"/>
+      <c r="I11" s="171"/>
+      <c r="J11" s="172"/>
+      <c r="K11" s="172"/>
+      <c r="L11" s="172"/>
     </row>
     <row r="12" spans="1:13" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A12" s="155" t="s">
@@ -3597,95 +3598,95 @@
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
-      <c r="H12" s="219" t="s">
+      <c r="H12" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="220"/>
-      <c r="J12" s="221" t="s">
+      <c r="I12" s="188"/>
+      <c r="J12" s="189" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="222"/>
-      <c r="L12" s="223"/>
+      <c r="K12" s="190"/>
+      <c r="L12" s="191"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="188" t="s">
+      <c r="A13" s="178" t="s">
         <v>143</v>
       </c>
-      <c r="B13" s="207" t="s">
+      <c r="B13" s="181" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="207" t="s">
+      <c r="C13" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="207"/>
-      <c r="E13" s="207"/>
-      <c r="F13" s="193" t="s">
+      <c r="D13" s="181"/>
+      <c r="E13" s="181"/>
+      <c r="F13" s="183" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="225"/>
-      <c r="H13" s="226"/>
-      <c r="I13" s="227"/>
-      <c r="J13" s="213">
+      <c r="G13" s="184"/>
+      <c r="H13" s="185"/>
+      <c r="I13" s="186"/>
+      <c r="J13" s="203">
         <v>0.2</v>
       </c>
-      <c r="K13" s="202"/>
-      <c r="L13" s="205">
+      <c r="K13" s="192"/>
+      <c r="L13" s="195">
         <f>K13*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="224"/>
-      <c r="B14" s="207"/>
-      <c r="C14" s="207" t="s">
+      <c r="A14" s="179"/>
+      <c r="B14" s="181"/>
+      <c r="C14" s="181" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="207"/>
-      <c r="E14" s="207"/>
-      <c r="F14" s="208" t="s">
+      <c r="D14" s="181"/>
+      <c r="E14" s="181"/>
+      <c r="F14" s="197" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="209"/>
-      <c r="H14" s="195"/>
-      <c r="I14" s="196"/>
-      <c r="J14" s="214"/>
-      <c r="K14" s="203"/>
-      <c r="L14" s="205"/>
+      <c r="G14" s="198"/>
+      <c r="H14" s="199"/>
+      <c r="I14" s="200"/>
+      <c r="J14" s="204"/>
+      <c r="K14" s="193"/>
+      <c r="L14" s="195"/>
     </row>
     <row r="15" spans="1:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="189"/>
-      <c r="B15" s="210"/>
-      <c r="C15" s="210" t="s">
+      <c r="A15" s="180"/>
+      <c r="B15" s="182"/>
+      <c r="C15" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="210"/>
-      <c r="E15" s="210"/>
-      <c r="F15" s="208" t="s">
+      <c r="D15" s="182"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="197" t="s">
         <v>142</v>
       </c>
-      <c r="G15" s="209"/>
-      <c r="H15" s="211"/>
-      <c r="I15" s="212"/>
-      <c r="J15" s="215"/>
-      <c r="K15" s="204"/>
-      <c r="L15" s="206"/>
+      <c r="G15" s="198"/>
+      <c r="H15" s="201"/>
+      <c r="I15" s="202"/>
+      <c r="J15" s="205"/>
+      <c r="K15" s="194"/>
+      <c r="L15" s="196"/>
     </row>
     <row r="16" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="188" t="s">
+      <c r="A16" s="178" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="190" t="s">
+      <c r="B16" s="206" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="191"/>
-      <c r="D16" s="191"/>
-      <c r="E16" s="192"/>
-      <c r="F16" s="193" t="s">
+      <c r="C16" s="207"/>
+      <c r="D16" s="207"/>
+      <c r="E16" s="208"/>
+      <c r="F16" s="183" t="s">
         <v>139</v>
       </c>
-      <c r="G16" s="194"/>
-      <c r="H16" s="195"/>
-      <c r="I16" s="196"/>
+      <c r="G16" s="209"/>
+      <c r="H16" s="199"/>
+      <c r="I16" s="200"/>
       <c r="J16" s="154">
         <v>0.4</v>
       </c>
@@ -3697,19 +3698,19 @@
       <c r="M16" s="130"/>
     </row>
     <row r="17" spans="1:12" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="189"/>
-      <c r="B17" s="197" t="s">
+      <c r="A17" s="180"/>
+      <c r="B17" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="198"/>
-      <c r="D17" s="198"/>
-      <c r="E17" s="199"/>
-      <c r="F17" s="200" t="s">
+      <c r="C17" s="211"/>
+      <c r="D17" s="211"/>
+      <c r="E17" s="212"/>
+      <c r="F17" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="201"/>
-      <c r="H17" s="195"/>
-      <c r="I17" s="196"/>
+      <c r="G17" s="214"/>
+      <c r="H17" s="199"/>
+      <c r="I17" s="200"/>
       <c r="J17" s="154">
         <v>0.4</v>
       </c>
@@ -3723,17 +3724,17 @@
       <c r="A18" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="176" t="s">
+      <c r="B18" s="215" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="177"/>
-      <c r="D18" s="177"/>
-      <c r="E18" s="177"/>
-      <c r="F18" s="177"/>
-      <c r="G18" s="177"/>
-      <c r="H18" s="177"/>
-      <c r="I18" s="177"/>
-      <c r="J18" s="178"/>
+      <c r="C18" s="216"/>
+      <c r="D18" s="216"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="216"/>
+      <c r="H18" s="216"/>
+      <c r="I18" s="216"/>
+      <c r="J18" s="217"/>
       <c r="K18" s="150"/>
       <c r="L18" s="149"/>
     </row>
@@ -3751,90 +3752,90 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="179" t="s">
+      <c r="A21" s="218" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="180"/>
-      <c r="C21" s="180"/>
-      <c r="D21" s="180"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="180"/>
-      <c r="G21" s="180"/>
-      <c r="H21" s="180"/>
-      <c r="I21" s="180"/>
-      <c r="J21" s="180"/>
-      <c r="K21" s="180"/>
-      <c r="L21" s="181"/>
+      <c r="B21" s="219"/>
+      <c r="C21" s="219"/>
+      <c r="D21" s="219"/>
+      <c r="E21" s="219"/>
+      <c r="F21" s="219"/>
+      <c r="G21" s="219"/>
+      <c r="H21" s="219"/>
+      <c r="I21" s="219"/>
+      <c r="J21" s="219"/>
+      <c r="K21" s="219"/>
+      <c r="L21" s="220"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="182"/>
-      <c r="B22" s="183"/>
-      <c r="C22" s="183"/>
-      <c r="D22" s="183"/>
-      <c r="E22" s="183"/>
-      <c r="F22" s="183"/>
-      <c r="G22" s="183"/>
-      <c r="H22" s="183"/>
-      <c r="I22" s="183"/>
-      <c r="J22" s="183"/>
-      <c r="K22" s="183"/>
-      <c r="L22" s="184"/>
+      <c r="A22" s="221"/>
+      <c r="B22" s="222"/>
+      <c r="C22" s="222"/>
+      <c r="D22" s="222"/>
+      <c r="E22" s="222"/>
+      <c r="F22" s="222"/>
+      <c r="G22" s="222"/>
+      <c r="H22" s="222"/>
+      <c r="I22" s="222"/>
+      <c r="J22" s="222"/>
+      <c r="K22" s="222"/>
+      <c r="L22" s="223"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="182"/>
-      <c r="B23" s="183"/>
-      <c r="C23" s="183"/>
-      <c r="D23" s="183"/>
-      <c r="E23" s="183"/>
-      <c r="F23" s="183"/>
-      <c r="G23" s="183"/>
-      <c r="H23" s="183"/>
-      <c r="I23" s="183"/>
-      <c r="J23" s="183"/>
-      <c r="K23" s="183"/>
-      <c r="L23" s="184"/>
+      <c r="A23" s="221"/>
+      <c r="B23" s="222"/>
+      <c r="C23" s="222"/>
+      <c r="D23" s="222"/>
+      <c r="E23" s="222"/>
+      <c r="F23" s="222"/>
+      <c r="G23" s="222"/>
+      <c r="H23" s="222"/>
+      <c r="I23" s="222"/>
+      <c r="J23" s="222"/>
+      <c r="K23" s="222"/>
+      <c r="L23" s="223"/>
     </row>
     <row r="24" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="182"/>
-      <c r="B24" s="183"/>
-      <c r="C24" s="183"/>
-      <c r="D24" s="183"/>
-      <c r="E24" s="183"/>
-      <c r="F24" s="183"/>
-      <c r="G24" s="183"/>
-      <c r="H24" s="183"/>
-      <c r="I24" s="183"/>
-      <c r="J24" s="183"/>
-      <c r="K24" s="183"/>
-      <c r="L24" s="184"/>
+      <c r="A24" s="221"/>
+      <c r="B24" s="222"/>
+      <c r="C24" s="222"/>
+      <c r="D24" s="222"/>
+      <c r="E24" s="222"/>
+      <c r="F24" s="222"/>
+      <c r="G24" s="222"/>
+      <c r="H24" s="222"/>
+      <c r="I24" s="222"/>
+      <c r="J24" s="222"/>
+      <c r="K24" s="222"/>
+      <c r="L24" s="223"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="185"/>
-      <c r="B25" s="186"/>
-      <c r="C25" s="186"/>
-      <c r="D25" s="186"/>
-      <c r="E25" s="186"/>
-      <c r="F25" s="186"/>
-      <c r="G25" s="186"/>
-      <c r="H25" s="186"/>
-      <c r="I25" s="186"/>
-      <c r="J25" s="186"/>
-      <c r="K25" s="186"/>
-      <c r="L25" s="187"/>
+      <c r="A25" s="224"/>
+      <c r="B25" s="225"/>
+      <c r="C25" s="225"/>
+      <c r="D25" s="225"/>
+      <c r="E25" s="225"/>
+      <c r="F25" s="225"/>
+      <c r="G25" s="225"/>
+      <c r="H25" s="225"/>
+      <c r="I25" s="225"/>
+      <c r="J25" s="225"/>
+      <c r="K25" s="225"/>
+      <c r="L25" s="226"/>
     </row>
     <row r="27" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="173" t="s">
+      <c r="A27" s="227" t="s">
         <v>136</v>
       </c>
-      <c r="B27" s="173"/>
-      <c r="C27" s="173"/>
-      <c r="D27" s="173"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="173"/>
-      <c r="G27" s="173"/>
-      <c r="H27" s="173"/>
-      <c r="I27" s="174"/>
-      <c r="J27" s="174"/>
+      <c r="B27" s="227"/>
+      <c r="C27" s="227"/>
+      <c r="D27" s="227"/>
+      <c r="E27" s="227"/>
+      <c r="F27" s="227"/>
+      <c r="G27" s="227"/>
+      <c r="H27" s="227"/>
+      <c r="I27" s="228"/>
+      <c r="J27" s="228"/>
       <c r="K27" s="146" t="s">
         <v>134</v>
       </c>
@@ -3844,18 +3845,18 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="173" t="s">
+      <c r="A28" s="227" t="s">
         <v>135</v>
       </c>
-      <c r="B28" s="173"/>
-      <c r="C28" s="173"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="174"/>
+      <c r="B28" s="227"/>
+      <c r="C28" s="227"/>
+      <c r="D28" s="227"/>
+      <c r="E28" s="227"/>
+      <c r="F28" s="227"/>
+      <c r="G28" s="227"/>
+      <c r="H28" s="227"/>
+      <c r="I28" s="228"/>
+      <c r="J28" s="228"/>
       <c r="K28" s="145" t="s">
         <v>134</v>
       </c>
@@ -3865,18 +3866,18 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="173" t="s">
+      <c r="A29" s="227" t="s">
         <v>133</v>
       </c>
-      <c r="B29" s="173"/>
-      <c r="C29" s="173"/>
-      <c r="D29" s="173"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="173"/>
-      <c r="G29" s="173"/>
-      <c r="H29" s="173"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="174"/>
+      <c r="B29" s="227"/>
+      <c r="C29" s="227"/>
+      <c r="D29" s="227"/>
+      <c r="E29" s="227"/>
+      <c r="F29" s="227"/>
+      <c r="G29" s="227"/>
+      <c r="H29" s="227"/>
+      <c r="I29" s="228"/>
+      <c r="J29" s="228"/>
       <c r="K29" s="145" t="s">
         <v>129</v>
       </c>
@@ -3886,18 +3887,18 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="173" t="s">
+      <c r="A30" s="227" t="s">
         <v>132</v>
       </c>
-      <c r="B30" s="173"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="173"/>
-      <c r="H30" s="173"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="174"/>
+      <c r="B30" s="227"/>
+      <c r="C30" s="227"/>
+      <c r="D30" s="227"/>
+      <c r="E30" s="227"/>
+      <c r="F30" s="227"/>
+      <c r="G30" s="227"/>
+      <c r="H30" s="227"/>
+      <c r="I30" s="228"/>
+      <c r="J30" s="228"/>
       <c r="K30" s="145" t="s">
         <v>131</v>
       </c>
@@ -3907,21 +3908,21 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="173" t="s">
+      <c r="A31" s="227" t="s">
         <v>130</v>
       </c>
-      <c r="B31" s="173"/>
-      <c r="C31" s="173"/>
-      <c r="D31" s="173"/>
-      <c r="E31" s="173"/>
-      <c r="F31" s="173"/>
-      <c r="G31" s="173"/>
-      <c r="H31" s="173"/>
-      <c r="I31" s="175">
+      <c r="B31" s="227"/>
+      <c r="C31" s="227"/>
+      <c r="D31" s="227"/>
+      <c r="E31" s="227"/>
+      <c r="F31" s="227"/>
+      <c r="G31" s="227"/>
+      <c r="H31" s="227"/>
+      <c r="I31" s="232">
         <f>L19</f>
         <v>0</v>
       </c>
-      <c r="J31" s="175"/>
+      <c r="J31" s="232"/>
       <c r="K31" s="145" t="s">
         <v>129</v>
       </c>
@@ -3943,14 +3944,14 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F33" s="170" t="s">
+      <c r="F33" s="229" t="s">
         <v>127</v>
       </c>
-      <c r="G33" s="171"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="171"/>
-      <c r="J33" s="171"/>
-      <c r="K33" s="172"/>
+      <c r="G33" s="230"/>
+      <c r="H33" s="230"/>
+      <c r="I33" s="230"/>
+      <c r="J33" s="230"/>
+      <c r="K33" s="231"/>
       <c r="L33" s="140">
         <f>L32/10</f>
         <v>0</v>
@@ -4044,23 +4045,26 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="A21:L25"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
     <mergeCell ref="K13:K15"/>
     <mergeCell ref="L13:L15"/>
     <mergeCell ref="C14:E14"/>
@@ -4070,26 +4074,23 @@
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J13:J15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="A21:L25"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I8:L8"/>
   </mergeCells>
   <conditionalFormatting sqref="L13:L37 I31:J31">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
@@ -4121,8 +4122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -4191,10 +4192,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="235"/>
-      <c r="D5" s="235"/>
-      <c r="E5" s="235"/>
-      <c r="F5" s="235"/>
+      <c r="C5" s="263"/>
+      <c r="D5" s="263"/>
+      <c r="E5" s="263"/>
+      <c r="F5" s="263"/>
       <c r="H5" s="30"/>
       <c r="I5" s="31" t="s">
         <v>11</v>
@@ -4226,10 +4227,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="235"/>
-      <c r="D8" s="235"/>
-      <c r="E8" s="235"/>
-      <c r="F8" s="235"/>
+      <c r="C8" s="263"/>
+      <c r="D8" s="263"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="263"/>
       <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
@@ -4243,30 +4244,30 @@
         <v>17</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="235"/>
-      <c r="D9" s="235"/>
-      <c r="E9" s="235"/>
-      <c r="F9" s="235"/>
+      <c r="C9" s="263"/>
+      <c r="D9" s="263"/>
+      <c r="E9" s="263"/>
+      <c r="F9" s="263"/>
       <c r="H9" s="27"/>
-      <c r="I9" s="242"/>
-      <c r="J9" s="243"/>
-      <c r="K9" s="243"/>
-      <c r="L9" s="243"/>
+      <c r="I9" s="233"/>
+      <c r="J9" s="234"/>
+      <c r="K9" s="234"/>
+      <c r="L9" s="234"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="235"/>
-      <c r="D10" s="235"/>
-      <c r="E10" s="235"/>
-      <c r="F10" s="235"/>
+      <c r="C10" s="263"/>
+      <c r="D10" s="263"/>
+      <c r="E10" s="263"/>
+      <c r="F10" s="263"/>
       <c r="H10" s="27"/>
-      <c r="I10" s="242"/>
-      <c r="J10" s="243"/>
-      <c r="K10" s="243"/>
-      <c r="L10" s="243"/>
+      <c r="I10" s="233"/>
+      <c r="J10" s="234"/>
+      <c r="K10" s="234"/>
+      <c r="L10" s="234"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="94"/>
@@ -4287,215 +4288,215 @@
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
-      <c r="H12" s="219" t="s">
+      <c r="H12" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="220"/>
-      <c r="J12" s="221" t="s">
+      <c r="I12" s="188"/>
+      <c r="J12" s="189" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="222"/>
-      <c r="L12" s="223"/>
+      <c r="K12" s="190"/>
+      <c r="L12" s="191"/>
     </row>
     <row r="13" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="246" t="s">
+      <c r="A13" s="248" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="241" t="s">
+      <c r="B13" s="252" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="241" t="s">
+      <c r="C13" s="252" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="241"/>
-      <c r="E13" s="241"/>
-      <c r="F13" s="262" t="s">
+      <c r="D13" s="252"/>
+      <c r="E13" s="252"/>
+      <c r="F13" s="240" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="263"/>
+      <c r="G13" s="241"/>
       <c r="H13" s="36"/>
       <c r="I13" s="37"/>
-      <c r="J13" s="239" t="s">
+      <c r="J13" s="242" t="s">
         <v>6</v>
       </c>
       <c r="K13" s="244"/>
-      <c r="L13" s="261">
+      <c r="L13" s="239">
         <f>ROUND(K13*0.3,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="247"/>
-      <c r="B14" s="250"/>
-      <c r="C14" s="250" t="s">
+      <c r="A14" s="249"/>
+      <c r="B14" s="254"/>
+      <c r="C14" s="254" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="250"/>
-      <c r="E14" s="250"/>
-      <c r="F14" s="208" t="s">
+      <c r="D14" s="254"/>
+      <c r="E14" s="254"/>
+      <c r="F14" s="197" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="209"/>
+      <c r="G14" s="198"/>
       <c r="H14" s="38"/>
       <c r="I14" s="39"/>
-      <c r="J14" s="240"/>
+      <c r="J14" s="243"/>
       <c r="K14" s="245"/>
-      <c r="L14" s="259"/>
+      <c r="L14" s="237"/>
     </row>
     <row r="15" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="247"/>
-      <c r="B15" s="250"/>
-      <c r="C15" s="250" t="s">
+      <c r="A15" s="249"/>
+      <c r="B15" s="254"/>
+      <c r="C15" s="254" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="250"/>
-      <c r="E15" s="250"/>
-      <c r="F15" s="208" t="s">
+      <c r="D15" s="254"/>
+      <c r="E15" s="254"/>
+      <c r="F15" s="197" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="209"/>
+      <c r="G15" s="198"/>
       <c r="H15" s="40"/>
       <c r="I15" s="41"/>
-      <c r="J15" s="240"/>
+      <c r="J15" s="243"/>
       <c r="K15" s="245"/>
-      <c r="L15" s="259"/>
+      <c r="L15" s="237"/>
     </row>
     <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="247"/>
-      <c r="B16" s="251" t="s">
+      <c r="A16" s="249"/>
+      <c r="B16" s="255" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="250" t="s">
+      <c r="C16" s="254" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="250"/>
-      <c r="E16" s="250"/>
-      <c r="F16" s="208" t="s">
+      <c r="D16" s="254"/>
+      <c r="E16" s="254"/>
+      <c r="F16" s="197" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="209"/>
+      <c r="G16" s="198"/>
       <c r="H16" s="42"/>
       <c r="I16" s="43"/>
-      <c r="J16" s="240" t="s">
+      <c r="J16" s="243" t="s">
         <v>7</v>
       </c>
       <c r="K16" s="245"/>
-      <c r="L16" s="259">
+      <c r="L16" s="237">
         <f>ROUND(K16*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="247"/>
-      <c r="B17" s="252"/>
-      <c r="C17" s="250" t="s">
+      <c r="A17" s="249"/>
+      <c r="B17" s="256"/>
+      <c r="C17" s="254" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="250"/>
-      <c r="E17" s="250"/>
-      <c r="F17" s="208" t="s">
+      <c r="D17" s="254"/>
+      <c r="E17" s="254"/>
+      <c r="F17" s="197" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="209"/>
+      <c r="G17" s="198"/>
       <c r="H17" s="38"/>
       <c r="I17" s="39"/>
-      <c r="J17" s="240"/>
+      <c r="J17" s="243"/>
       <c r="K17" s="245"/>
-      <c r="L17" s="259"/>
+      <c r="L17" s="237"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="248"/>
-      <c r="B18" s="253"/>
-      <c r="C18" s="236" t="s">
+      <c r="A18" s="250"/>
+      <c r="B18" s="257"/>
+      <c r="C18" s="251" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="236"/>
-      <c r="E18" s="236"/>
-      <c r="F18" s="200" t="s">
+      <c r="D18" s="251"/>
+      <c r="E18" s="251"/>
+      <c r="F18" s="213" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="201"/>
+      <c r="G18" s="214"/>
       <c r="H18" s="44"/>
       <c r="I18" s="45"/>
-      <c r="J18" s="264"/>
-      <c r="K18" s="265"/>
-      <c r="L18" s="260"/>
+      <c r="J18" s="246"/>
+      <c r="K18" s="247"/>
+      <c r="L18" s="238"/>
     </row>
     <row r="19" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="246" t="s">
+      <c r="A19" s="248" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="254" t="s">
+      <c r="B19" s="258" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="241" t="s">
+      <c r="C19" s="252" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="241"/>
-      <c r="E19" s="241"/>
-      <c r="F19" s="237" t="s">
+      <c r="D19" s="252"/>
+      <c r="E19" s="252"/>
+      <c r="F19" s="264" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="238"/>
+      <c r="G19" s="265"/>
       <c r="H19" s="46"/>
       <c r="I19" s="47"/>
-      <c r="J19" s="239" t="s">
+      <c r="J19" s="242" t="s">
         <v>77</v>
       </c>
       <c r="K19" s="244"/>
-      <c r="L19" s="261">
+      <c r="L19" s="239">
         <f>ROUND(K19*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="247"/>
-      <c r="B20" s="255"/>
-      <c r="C20" s="250" t="s">
+      <c r="A20" s="249"/>
+      <c r="B20" s="259"/>
+      <c r="C20" s="254" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="250"/>
-      <c r="E20" s="250"/>
-      <c r="F20" s="208" t="s">
+      <c r="D20" s="254"/>
+      <c r="E20" s="254"/>
+      <c r="F20" s="197" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="209"/>
+      <c r="G20" s="198"/>
       <c r="H20" s="38"/>
       <c r="I20" s="39"/>
-      <c r="J20" s="240"/>
+      <c r="J20" s="243"/>
       <c r="K20" s="245"/>
-      <c r="L20" s="259"/>
+      <c r="L20" s="237"/>
     </row>
     <row r="21" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="247"/>
-      <c r="B21" s="256"/>
-      <c r="C21" s="250" t="s">
+      <c r="A21" s="249"/>
+      <c r="B21" s="260"/>
+      <c r="C21" s="254" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="250"/>
-      <c r="E21" s="250"/>
-      <c r="F21" s="208" t="s">
+      <c r="D21" s="254"/>
+      <c r="E21" s="254"/>
+      <c r="F21" s="197" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="209"/>
+      <c r="G21" s="198"/>
       <c r="H21" s="40"/>
       <c r="I21" s="41"/>
-      <c r="J21" s="240"/>
+      <c r="J21" s="243"/>
       <c r="K21" s="245"/>
-      <c r="L21" s="259"/>
+      <c r="L21" s="237"/>
     </row>
     <row r="22" spans="1:12" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="248"/>
+      <c r="A22" s="250"/>
       <c r="B22" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="236"/>
-      <c r="D22" s="236"/>
-      <c r="E22" s="236"/>
-      <c r="F22" s="200" t="s">
+      <c r="C22" s="251"/>
+      <c r="D22" s="251"/>
+      <c r="E22" s="251"/>
+      <c r="F22" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="201"/>
+      <c r="G22" s="214"/>
       <c r="H22" s="49"/>
       <c r="I22" s="50"/>
       <c r="J22" s="51" t="s">
@@ -4514,15 +4515,15 @@
       <c r="B23" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="249" t="s">
+      <c r="C23" s="253" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="249"/>
-      <c r="E23" s="249"/>
-      <c r="F23" s="257" t="s">
+      <c r="D23" s="253"/>
+      <c r="E23" s="253"/>
+      <c r="F23" s="235" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="258"/>
+      <c r="G23" s="236"/>
       <c r="H23" s="53"/>
       <c r="I23" s="54"/>
       <c r="J23" s="55" t="s">
@@ -4561,11 +4562,11 @@
         <v>9</v>
       </c>
       <c r="J25" s="25"/>
-      <c r="K25" s="233">
+      <c r="K25" s="261">
         <f>SUM(L13:L23)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="234"/>
+      <c r="L25" s="262"/>
     </row>
     <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A28"/>
@@ -4615,35 +4616,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="B13:B15"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C8:F8"/>
@@ -4660,12 +4632,41 @@
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="F17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR SKRITT PAS-DE-DEUX</oddHeader>
-    <oddFooter>&amp;R2019-04-07</oddFooter>
+    <oddFooter>&amp;R2019-06-01</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -4675,8 +4676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -4742,10 +4743,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="235"/>
-      <c r="D5" s="235"/>
-      <c r="E5" s="235"/>
-      <c r="F5" s="235"/>
+      <c r="C5" s="263"/>
+      <c r="D5" s="263"/>
+      <c r="E5" s="263"/>
+      <c r="F5" s="263"/>
       <c r="H5" s="30"/>
       <c r="I5" s="31" t="s">
         <v>11</v>
@@ -4799,30 +4800,30 @@
         <v>17</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="235"/>
-      <c r="D9" s="235"/>
-      <c r="E9" s="235"/>
-      <c r="F9" s="235"/>
+      <c r="C9" s="263"/>
+      <c r="D9" s="263"/>
+      <c r="E9" s="263"/>
+      <c r="F9" s="263"/>
       <c r="H9" s="27"/>
-      <c r="I9" s="242"/>
-      <c r="J9" s="243"/>
-      <c r="K9" s="243"/>
-      <c r="L9" s="243"/>
+      <c r="I9" s="233"/>
+      <c r="J9" s="234"/>
+      <c r="K9" s="234"/>
+      <c r="L9" s="234"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="235"/>
-      <c r="D10" s="235"/>
-      <c r="E10" s="235"/>
-      <c r="F10" s="235"/>
+      <c r="C10" s="263"/>
+      <c r="D10" s="263"/>
+      <c r="E10" s="263"/>
+      <c r="F10" s="263"/>
       <c r="H10" s="27"/>
-      <c r="I10" s="242"/>
-      <c r="J10" s="243"/>
-      <c r="K10" s="243"/>
-      <c r="L10" s="243"/>
+      <c r="I10" s="233"/>
+      <c r="J10" s="234"/>
+      <c r="K10" s="234"/>
+      <c r="L10" s="234"/>
     </row>
     <row r="11" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4887,12 +4888,17 @@
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="123"/>
+      <c r="E18" s="123">
+        <v>0</v>
+      </c>
       <c r="F18" s="89">
         <v>0.8</v>
       </c>
       <c r="G18" s="90"/>
-      <c r="H18" s="123"/>
+      <c r="H18" s="279">
+        <f>IF(E18&gt;12,13,E18)</f>
+        <v>0</v>
+      </c>
       <c r="I18" s="91"/>
       <c r="J18" s="92"/>
       <c r="K18" s="64">
@@ -4906,12 +4912,17 @@
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="123"/>
+      <c r="E19" s="123">
+        <v>0</v>
+      </c>
       <c r="F19" s="89">
         <v>0.4</v>
       </c>
       <c r="G19" s="90"/>
-      <c r="H19" s="123"/>
+      <c r="H19" s="279">
+        <f>IF(SUM(E18:E19)&gt;12,13-H18,E19)</f>
+        <v>0</v>
+      </c>
       <c r="I19" s="91"/>
       <c r="J19" s="92"/>
       <c r="K19" s="64">
@@ -4925,12 +4936,17 @@
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="123"/>
+      <c r="E20" s="123">
+        <v>0</v>
+      </c>
       <c r="F20" s="89">
         <v>0</v>
       </c>
       <c r="G20" s="90"/>
-      <c r="H20" s="123"/>
+      <c r="H20" s="279">
+        <f>IF(SUM(E18:E20)&gt;12,IF(13-SUM(H18:H19)&gt;0,13-SUM(H18:H19),0),E20)</f>
+        <v>0</v>
+      </c>
       <c r="I20" s="91"/>
       <c r="J20" s="92"/>
       <c r="K20" s="64">
@@ -5095,7 +5111,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR SKRITT PAS-DE-DEUX</oddHeader>
-    <oddFooter>&amp;R2019-04-07</oddFooter>
+    <oddFooter>&amp;R2019-06-01</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -5105,8 +5121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -5173,10 +5189,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="235"/>
-      <c r="D5" s="235"/>
-      <c r="E5" s="235"/>
-      <c r="F5" s="235"/>
+      <c r="C5" s="263"/>
+      <c r="D5" s="263"/>
+      <c r="E5" s="263"/>
+      <c r="F5" s="263"/>
       <c r="H5" s="30"/>
       <c r="I5" s="31" t="s">
         <v>11</v>
@@ -5236,30 +5252,30 @@
         <v>17</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="235"/>
-      <c r="D9" s="235"/>
-      <c r="E9" s="235"/>
-      <c r="F9" s="235"/>
+      <c r="C9" s="263"/>
+      <c r="D9" s="263"/>
+      <c r="E9" s="263"/>
+      <c r="F9" s="263"/>
       <c r="H9" s="27"/>
-      <c r="I9" s="242"/>
-      <c r="J9" s="243"/>
-      <c r="K9" s="243"/>
-      <c r="L9" s="243"/>
+      <c r="I9" s="233"/>
+      <c r="J9" s="234"/>
+      <c r="K9" s="234"/>
+      <c r="L9" s="234"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="235"/>
-      <c r="D10" s="235"/>
-      <c r="E10" s="235"/>
-      <c r="F10" s="235"/>
+      <c r="C10" s="263"/>
+      <c r="D10" s="263"/>
+      <c r="E10" s="263"/>
+      <c r="F10" s="263"/>
       <c r="H10" s="27"/>
-      <c r="I10" s="242"/>
-      <c r="J10" s="243"/>
-      <c r="K10" s="243"/>
-      <c r="L10" s="243"/>
+      <c r="I10" s="233"/>
+      <c r="J10" s="234"/>
+      <c r="K10" s="234"/>
+      <c r="L10" s="234"/>
     </row>
     <row r="11" spans="1:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K11" s="14" t="s">
@@ -5436,6 +5452,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I9:L9"/>
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A16"/>
@@ -5443,24 +5465,36 @@
     <mergeCell ref="B13:I13"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B16:I16"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="I9:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR SKRITT PAS-DE-DEUX</oddHeader>
-    <oddFooter>&amp;R2019-04-07</oddFooter>
+    <oddFooter>&amp;R2019-06-01</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5526,25 +5560,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06F9B768-A93D-4D4C-BBD7-D4CF83092D49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5559,27 +5598,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06F9B768-A93D-4D4C-BBD7-D4CF83092D49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/mallar/Protokoll/Protokoll_2019_Pas_de_deux_klass(mall).xlsx
+++ b/mallar/Protokoll/Protokoll_2019_Pas_de_deux_klass(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnus.sandberg\Documents\Visual Studio 2015\Projects\VoltigeClosedXML\mallar\Protokoll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC61B24C-5031-4E2F-BB61-96F424528E73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB846E31-8500-4161-AF7B-939E88ED0C49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="780" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="24" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <definedName name="result" localSheetId="4">'Pas-de-Deux art'!$L$21</definedName>
     <definedName name="result" localSheetId="2">'Pas-de-Deux Häst'!$K$25</definedName>
     <definedName name="result" localSheetId="3">'Pas-de-Deux tekn'!$L$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Pas-de-Deux art'!$L$83:$L$84</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Pas-de-Deux art'!$A$1:$M$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Pas-de-Deux Häst'!$A$1:$L$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Pas-de-Deux tekn'!$A$1:$L$47</definedName>
   </definedNames>
@@ -53,7 +53,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2048,6 +2050,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2368,7 +2371,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Dezimal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3432,10 +3434,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M43"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -3453,8 +3458,8 @@
     <col min="14" max="16384" width="9.1328125" style="129"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="147" t="s">
         <v>95</v>
       </c>
@@ -3466,7 +3471,7 @@
       <c r="K2" s="157"/>
       <c r="L2" s="157"/>
     </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="139" t="s">
         <v>137</v>
       </c>
@@ -3478,7 +3483,7 @@
       <c r="K3" s="157"/>
       <c r="L3" s="157"/>
     </row>
-    <row r="4" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="136" t="s">
         <v>12</v>
       </c>
@@ -3495,15 +3500,15 @@
       <c r="K4" s="157"/>
       <c r="L4" s="157"/>
     </row>
-    <row r="5" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="156" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="156"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
       <c r="H5" s="160"/>
       <c r="I5" s="159" t="s">
         <v>11</v>
@@ -3512,7 +3517,7 @@
       <c r="K5" s="157"/>
       <c r="L5" s="157"/>
     </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="129" t="s">
         <v>16</v>
       </c>
@@ -3520,75 +3525,75 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="156" t="s">
         <v>146</v>
       </c>
       <c r="B7" s="156"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
       <c r="H7" s="136" t="s">
         <v>145</v>
       </c>
-      <c r="I7" s="173"/>
-      <c r="J7" s="174"/>
-      <c r="K7" s="174"/>
-      <c r="L7" s="174"/>
-    </row>
-    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="174"/>
+      <c r="J7" s="175"/>
+      <c r="K7" s="175"/>
+      <c r="L7" s="175"/>
+    </row>
+    <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="136" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="136"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="175"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="176"/>
       <c r="H8" s="156" t="s">
         <v>144</v>
       </c>
-      <c r="I8" s="176"/>
-      <c r="J8" s="177"/>
-      <c r="K8" s="177"/>
-      <c r="L8" s="177"/>
-    </row>
-    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="177"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="178"/>
+      <c r="L8" s="178"/>
+    </row>
+    <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="156" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="156"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
-      <c r="I9" s="171"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="172"/>
-      <c r="L9" s="172"/>
-    </row>
-    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="171"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="171"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="173"/>
+      <c r="K9" s="173"/>
+      <c r="L9" s="173"/>
+    </row>
+    <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="156" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="156"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="170"/>
-      <c r="I10" s="171"/>
-      <c r="J10" s="172"/>
-      <c r="K10" s="172"/>
-      <c r="L10" s="172"/>
-    </row>
-    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I11" s="171"/>
-      <c r="J11" s="172"/>
-      <c r="K11" s="172"/>
-      <c r="L11" s="172"/>
-    </row>
-    <row r="12" spans="1:13" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="C10" s="171"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="171"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="173"/>
+      <c r="K10" s="173"/>
+      <c r="L10" s="173"/>
+    </row>
+    <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="172"/>
+      <c r="J11" s="173"/>
+      <c r="K11" s="173"/>
+      <c r="L11" s="173"/>
+    </row>
+    <row r="12" spans="1:12" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A12" s="155" t="s">
         <v>118</v>
       </c>
@@ -3598,95 +3603,95 @@
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
-      <c r="H12" s="187" t="s">
+      <c r="H12" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="188"/>
-      <c r="J12" s="189" t="s">
+      <c r="I12" s="189"/>
+      <c r="J12" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="190"/>
-      <c r="L12" s="191"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="178" t="s">
+      <c r="K12" s="191"/>
+      <c r="L12" s="192"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="179" t="s">
         <v>143</v>
       </c>
-      <c r="B13" s="181" t="s">
+      <c r="B13" s="182" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="181" t="s">
+      <c r="C13" s="182" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="181"/>
-      <c r="E13" s="181"/>
-      <c r="F13" s="183" t="s">
+      <c r="D13" s="182"/>
+      <c r="E13" s="182"/>
+      <c r="F13" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="184"/>
-      <c r="H13" s="185"/>
-      <c r="I13" s="186"/>
-      <c r="J13" s="203">
+      <c r="G13" s="185"/>
+      <c r="H13" s="186"/>
+      <c r="I13" s="187"/>
+      <c r="J13" s="204">
         <v>0.2</v>
       </c>
-      <c r="K13" s="192"/>
-      <c r="L13" s="195">
+      <c r="K13" s="193"/>
+      <c r="L13" s="196">
         <f>K13*0.2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="179"/>
-      <c r="B14" s="181"/>
-      <c r="C14" s="181" t="s">
+    <row r="14" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="180"/>
+      <c r="B14" s="182"/>
+      <c r="C14" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="181"/>
-      <c r="E14" s="181"/>
-      <c r="F14" s="197" t="s">
+      <c r="D14" s="182"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="198"/>
-      <c r="H14" s="199"/>
-      <c r="I14" s="200"/>
-      <c r="J14" s="204"/>
-      <c r="K14" s="193"/>
-      <c r="L14" s="195"/>
-    </row>
-    <row r="15" spans="1:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="180"/>
-      <c r="B15" s="182"/>
-      <c r="C15" s="182" t="s">
+      <c r="G14" s="199"/>
+      <c r="H14" s="200"/>
+      <c r="I14" s="201"/>
+      <c r="J14" s="205"/>
+      <c r="K14" s="194"/>
+      <c r="L14" s="196"/>
+    </row>
+    <row r="15" spans="1:12" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="181"/>
+      <c r="B15" s="183"/>
+      <c r="C15" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="182"/>
-      <c r="E15" s="182"/>
-      <c r="F15" s="197" t="s">
+      <c r="D15" s="183"/>
+      <c r="E15" s="183"/>
+      <c r="F15" s="198" t="s">
         <v>142</v>
       </c>
-      <c r="G15" s="198"/>
-      <c r="H15" s="201"/>
-      <c r="I15" s="202"/>
-      <c r="J15" s="205"/>
-      <c r="K15" s="194"/>
-      <c r="L15" s="196"/>
-    </row>
-    <row r="16" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="178" t="s">
+      <c r="G15" s="199"/>
+      <c r="H15" s="202"/>
+      <c r="I15" s="203"/>
+      <c r="J15" s="206"/>
+      <c r="K15" s="195"/>
+      <c r="L15" s="197"/>
+    </row>
+    <row r="16" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="179" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="206" t="s">
+      <c r="B16" s="207" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="207"/>
-      <c r="D16" s="207"/>
-      <c r="E16" s="208"/>
-      <c r="F16" s="183" t="s">
+      <c r="C16" s="208"/>
+      <c r="D16" s="208"/>
+      <c r="E16" s="209"/>
+      <c r="F16" s="184" t="s">
         <v>139</v>
       </c>
-      <c r="G16" s="209"/>
-      <c r="H16" s="199"/>
-      <c r="I16" s="200"/>
+      <c r="G16" s="210"/>
+      <c r="H16" s="200"/>
+      <c r="I16" s="201"/>
       <c r="J16" s="154">
         <v>0.4</v>
       </c>
@@ -3695,22 +3700,21 @@
         <f>K16*0.4</f>
         <v>0</v>
       </c>
-      <c r="M16" s="130"/>
     </row>
     <row r="17" spans="1:12" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="180"/>
-      <c r="B17" s="210" t="s">
+      <c r="A17" s="181"/>
+      <c r="B17" s="211" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="211"/>
-      <c r="D17" s="211"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="213" t="s">
+      <c r="C17" s="212"/>
+      <c r="D17" s="212"/>
+      <c r="E17" s="213"/>
+      <c r="F17" s="214" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="214"/>
-      <c r="H17" s="199"/>
-      <c r="I17" s="200"/>
+      <c r="G17" s="215"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="201"/>
       <c r="J17" s="154">
         <v>0.4</v>
       </c>
@@ -3724,17 +3728,17 @@
       <c r="A18" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="215" t="s">
+      <c r="B18" s="216" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="216"/>
-      <c r="D18" s="216"/>
-      <c r="E18" s="216"/>
-      <c r="F18" s="216"/>
-      <c r="G18" s="216"/>
-      <c r="H18" s="216"/>
-      <c r="I18" s="216"/>
-      <c r="J18" s="217"/>
+      <c r="C18" s="217"/>
+      <c r="D18" s="217"/>
+      <c r="E18" s="217"/>
+      <c r="F18" s="217"/>
+      <c r="G18" s="217"/>
+      <c r="H18" s="217"/>
+      <c r="I18" s="217"/>
+      <c r="J18" s="218"/>
       <c r="K18" s="150"/>
       <c r="L18" s="149"/>
     </row>
@@ -3752,90 +3756,90 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="218" t="s">
+      <c r="A21" s="219" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="219"/>
-      <c r="C21" s="219"/>
-      <c r="D21" s="219"/>
-      <c r="E21" s="219"/>
-      <c r="F21" s="219"/>
-      <c r="G21" s="219"/>
-      <c r="H21" s="219"/>
-      <c r="I21" s="219"/>
-      <c r="J21" s="219"/>
-      <c r="K21" s="219"/>
-      <c r="L21" s="220"/>
+      <c r="B21" s="220"/>
+      <c r="C21" s="220"/>
+      <c r="D21" s="220"/>
+      <c r="E21" s="220"/>
+      <c r="F21" s="220"/>
+      <c r="G21" s="220"/>
+      <c r="H21" s="220"/>
+      <c r="I21" s="220"/>
+      <c r="J21" s="220"/>
+      <c r="K21" s="220"/>
+      <c r="L21" s="221"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="221"/>
-      <c r="B22" s="222"/>
-      <c r="C22" s="222"/>
-      <c r="D22" s="222"/>
-      <c r="E22" s="222"/>
-      <c r="F22" s="222"/>
-      <c r="G22" s="222"/>
-      <c r="H22" s="222"/>
-      <c r="I22" s="222"/>
-      <c r="J22" s="222"/>
-      <c r="K22" s="222"/>
-      <c r="L22" s="223"/>
+      <c r="A22" s="222"/>
+      <c r="B22" s="223"/>
+      <c r="C22" s="223"/>
+      <c r="D22" s="223"/>
+      <c r="E22" s="223"/>
+      <c r="F22" s="223"/>
+      <c r="G22" s="223"/>
+      <c r="H22" s="223"/>
+      <c r="I22" s="223"/>
+      <c r="J22" s="223"/>
+      <c r="K22" s="223"/>
+      <c r="L22" s="224"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="221"/>
-      <c r="B23" s="222"/>
-      <c r="C23" s="222"/>
-      <c r="D23" s="222"/>
-      <c r="E23" s="222"/>
-      <c r="F23" s="222"/>
-      <c r="G23" s="222"/>
-      <c r="H23" s="222"/>
-      <c r="I23" s="222"/>
-      <c r="J23" s="222"/>
-      <c r="K23" s="222"/>
-      <c r="L23" s="223"/>
+      <c r="A23" s="222"/>
+      <c r="B23" s="223"/>
+      <c r="C23" s="223"/>
+      <c r="D23" s="223"/>
+      <c r="E23" s="223"/>
+      <c r="F23" s="223"/>
+      <c r="G23" s="223"/>
+      <c r="H23" s="223"/>
+      <c r="I23" s="223"/>
+      <c r="J23" s="223"/>
+      <c r="K23" s="223"/>
+      <c r="L23" s="224"/>
     </row>
     <row r="24" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="221"/>
-      <c r="B24" s="222"/>
-      <c r="C24" s="222"/>
-      <c r="D24" s="222"/>
-      <c r="E24" s="222"/>
-      <c r="F24" s="222"/>
-      <c r="G24" s="222"/>
-      <c r="H24" s="222"/>
-      <c r="I24" s="222"/>
-      <c r="J24" s="222"/>
-      <c r="K24" s="222"/>
-      <c r="L24" s="223"/>
+      <c r="A24" s="222"/>
+      <c r="B24" s="223"/>
+      <c r="C24" s="223"/>
+      <c r="D24" s="223"/>
+      <c r="E24" s="223"/>
+      <c r="F24" s="223"/>
+      <c r="G24" s="223"/>
+      <c r="H24" s="223"/>
+      <c r="I24" s="223"/>
+      <c r="J24" s="223"/>
+      <c r="K24" s="223"/>
+      <c r="L24" s="224"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="224"/>
-      <c r="B25" s="225"/>
-      <c r="C25" s="225"/>
-      <c r="D25" s="225"/>
-      <c r="E25" s="225"/>
-      <c r="F25" s="225"/>
-      <c r="G25" s="225"/>
-      <c r="H25" s="225"/>
-      <c r="I25" s="225"/>
-      <c r="J25" s="225"/>
-      <c r="K25" s="225"/>
-      <c r="L25" s="226"/>
+      <c r="A25" s="225"/>
+      <c r="B25" s="226"/>
+      <c r="C25" s="226"/>
+      <c r="D25" s="226"/>
+      <c r="E25" s="226"/>
+      <c r="F25" s="226"/>
+      <c r="G25" s="226"/>
+      <c r="H25" s="226"/>
+      <c r="I25" s="226"/>
+      <c r="J25" s="226"/>
+      <c r="K25" s="226"/>
+      <c r="L25" s="227"/>
     </row>
     <row r="27" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="227" t="s">
+      <c r="A27" s="228" t="s">
         <v>136</v>
       </c>
-      <c r="B27" s="227"/>
-      <c r="C27" s="227"/>
-      <c r="D27" s="227"/>
-      <c r="E27" s="227"/>
-      <c r="F27" s="227"/>
-      <c r="G27" s="227"/>
-      <c r="H27" s="227"/>
-      <c r="I27" s="228"/>
-      <c r="J27" s="228"/>
+      <c r="B27" s="228"/>
+      <c r="C27" s="228"/>
+      <c r="D27" s="228"/>
+      <c r="E27" s="228"/>
+      <c r="F27" s="228"/>
+      <c r="G27" s="228"/>
+      <c r="H27" s="228"/>
+      <c r="I27" s="229"/>
+      <c r="J27" s="229"/>
       <c r="K27" s="146" t="s">
         <v>134</v>
       </c>
@@ -3845,18 +3849,18 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="227" t="s">
+      <c r="A28" s="228" t="s">
         <v>135</v>
       </c>
-      <c r="B28" s="227"/>
-      <c r="C28" s="227"/>
-      <c r="D28" s="227"/>
-      <c r="E28" s="227"/>
-      <c r="F28" s="227"/>
-      <c r="G28" s="227"/>
-      <c r="H28" s="227"/>
-      <c r="I28" s="228"/>
-      <c r="J28" s="228"/>
+      <c r="B28" s="228"/>
+      <c r="C28" s="228"/>
+      <c r="D28" s="228"/>
+      <c r="E28" s="228"/>
+      <c r="F28" s="228"/>
+      <c r="G28" s="228"/>
+      <c r="H28" s="228"/>
+      <c r="I28" s="229"/>
+      <c r="J28" s="229"/>
       <c r="K28" s="145" t="s">
         <v>134</v>
       </c>
@@ -3866,18 +3870,18 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="227" t="s">
+      <c r="A29" s="228" t="s">
         <v>133</v>
       </c>
-      <c r="B29" s="227"/>
-      <c r="C29" s="227"/>
-      <c r="D29" s="227"/>
-      <c r="E29" s="227"/>
-      <c r="F29" s="227"/>
-      <c r="G29" s="227"/>
-      <c r="H29" s="227"/>
-      <c r="I29" s="228"/>
-      <c r="J29" s="228"/>
+      <c r="B29" s="228"/>
+      <c r="C29" s="228"/>
+      <c r="D29" s="228"/>
+      <c r="E29" s="228"/>
+      <c r="F29" s="228"/>
+      <c r="G29" s="228"/>
+      <c r="H29" s="228"/>
+      <c r="I29" s="229"/>
+      <c r="J29" s="229"/>
       <c r="K29" s="145" t="s">
         <v>129</v>
       </c>
@@ -3887,18 +3891,18 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="227" t="s">
+      <c r="A30" s="228" t="s">
         <v>132</v>
       </c>
-      <c r="B30" s="227"/>
-      <c r="C30" s="227"/>
-      <c r="D30" s="227"/>
-      <c r="E30" s="227"/>
-      <c r="F30" s="227"/>
-      <c r="G30" s="227"/>
-      <c r="H30" s="227"/>
-      <c r="I30" s="228"/>
-      <c r="J30" s="228"/>
+      <c r="B30" s="228"/>
+      <c r="C30" s="228"/>
+      <c r="D30" s="228"/>
+      <c r="E30" s="228"/>
+      <c r="F30" s="228"/>
+      <c r="G30" s="228"/>
+      <c r="H30" s="228"/>
+      <c r="I30" s="229"/>
+      <c r="J30" s="229"/>
       <c r="K30" s="145" t="s">
         <v>131</v>
       </c>
@@ -3908,21 +3912,21 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="227" t="s">
+      <c r="A31" s="228" t="s">
         <v>130</v>
       </c>
-      <c r="B31" s="227"/>
-      <c r="C31" s="227"/>
-      <c r="D31" s="227"/>
-      <c r="E31" s="227"/>
-      <c r="F31" s="227"/>
-      <c r="G31" s="227"/>
-      <c r="H31" s="227"/>
-      <c r="I31" s="232">
+      <c r="B31" s="228"/>
+      <c r="C31" s="228"/>
+      <c r="D31" s="228"/>
+      <c r="E31" s="228"/>
+      <c r="F31" s="228"/>
+      <c r="G31" s="228"/>
+      <c r="H31" s="228"/>
+      <c r="I31" s="233">
         <f>L19</f>
         <v>0</v>
       </c>
-      <c r="J31" s="232"/>
+      <c r="J31" s="233"/>
       <c r="K31" s="145" t="s">
         <v>129</v>
       </c>
@@ -3944,14 +3948,14 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F33" s="229" t="s">
+      <c r="F33" s="230" t="s">
         <v>127</v>
       </c>
-      <c r="G33" s="230"/>
-      <c r="H33" s="230"/>
-      <c r="I33" s="230"/>
-      <c r="J33" s="230"/>
-      <c r="K33" s="231"/>
+      <c r="G33" s="231"/>
+      <c r="H33" s="231"/>
+      <c r="I33" s="231"/>
+      <c r="J33" s="231"/>
+      <c r="K33" s="232"/>
       <c r="L33" s="140">
         <f>L32/10</f>
         <v>0</v>
@@ -4120,9 +4124,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K13" sqref="K13:K15"/>
     </sheetView>
   </sheetViews>
@@ -4192,10 +4199,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="263"/>
-      <c r="D5" s="263"/>
-      <c r="E5" s="263"/>
-      <c r="F5" s="263"/>
+      <c r="C5" s="264"/>
+      <c r="D5" s="264"/>
+      <c r="E5" s="264"/>
+      <c r="F5" s="264"/>
       <c r="H5" s="30"/>
       <c r="I5" s="31" t="s">
         <v>11</v>
@@ -4227,10 +4234,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="263"/>
-      <c r="D8" s="263"/>
-      <c r="E8" s="263"/>
-      <c r="F8" s="263"/>
+      <c r="C8" s="264"/>
+      <c r="D8" s="264"/>
+      <c r="E8" s="264"/>
+      <c r="F8" s="264"/>
       <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
@@ -4244,30 +4251,30 @@
         <v>17</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="263"/>
-      <c r="D9" s="263"/>
-      <c r="E9" s="263"/>
-      <c r="F9" s="263"/>
+      <c r="C9" s="264"/>
+      <c r="D9" s="264"/>
+      <c r="E9" s="264"/>
+      <c r="F9" s="264"/>
       <c r="H9" s="27"/>
-      <c r="I9" s="233"/>
-      <c r="J9" s="234"/>
-      <c r="K9" s="234"/>
-      <c r="L9" s="234"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="235"/>
+      <c r="K9" s="235"/>
+      <c r="L9" s="235"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="263"/>
-      <c r="D10" s="263"/>
-      <c r="E10" s="263"/>
-      <c r="F10" s="263"/>
+      <c r="C10" s="264"/>
+      <c r="D10" s="264"/>
+      <c r="E10" s="264"/>
+      <c r="F10" s="264"/>
       <c r="H10" s="27"/>
-      <c r="I10" s="233"/>
-      <c r="J10" s="234"/>
-      <c r="K10" s="234"/>
-      <c r="L10" s="234"/>
+      <c r="I10" s="234"/>
+      <c r="J10" s="235"/>
+      <c r="K10" s="235"/>
+      <c r="L10" s="235"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="94"/>
@@ -4288,215 +4295,215 @@
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
-      <c r="H12" s="187" t="s">
+      <c r="H12" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="188"/>
-      <c r="J12" s="189" t="s">
+      <c r="I12" s="189"/>
+      <c r="J12" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="190"/>
-      <c r="L12" s="191"/>
+      <c r="K12" s="191"/>
+      <c r="L12" s="192"/>
     </row>
     <row r="13" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="248" t="s">
+      <c r="A13" s="249" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="252" t="s">
+      <c r="B13" s="253" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="252" t="s">
+      <c r="C13" s="253" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="252"/>
-      <c r="E13" s="252"/>
-      <c r="F13" s="240" t="s">
+      <c r="D13" s="253"/>
+      <c r="E13" s="253"/>
+      <c r="F13" s="241" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="241"/>
+      <c r="G13" s="242"/>
       <c r="H13" s="36"/>
       <c r="I13" s="37"/>
-      <c r="J13" s="242" t="s">
+      <c r="J13" s="243" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="244"/>
-      <c r="L13" s="239">
+      <c r="K13" s="245"/>
+      <c r="L13" s="240">
         <f>ROUND(K13*0.3,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="249"/>
-      <c r="B14" s="254"/>
-      <c r="C14" s="254" t="s">
+      <c r="A14" s="250"/>
+      <c r="B14" s="255"/>
+      <c r="C14" s="255" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="254"/>
-      <c r="E14" s="254"/>
-      <c r="F14" s="197" t="s">
+      <c r="D14" s="255"/>
+      <c r="E14" s="255"/>
+      <c r="F14" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="198"/>
+      <c r="G14" s="199"/>
       <c r="H14" s="38"/>
       <c r="I14" s="39"/>
-      <c r="J14" s="243"/>
-      <c r="K14" s="245"/>
-      <c r="L14" s="237"/>
+      <c r="J14" s="244"/>
+      <c r="K14" s="246"/>
+      <c r="L14" s="238"/>
     </row>
     <row r="15" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="249"/>
-      <c r="B15" s="254"/>
-      <c r="C15" s="254" t="s">
+      <c r="A15" s="250"/>
+      <c r="B15" s="255"/>
+      <c r="C15" s="255" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="254"/>
-      <c r="E15" s="254"/>
-      <c r="F15" s="197" t="s">
+      <c r="D15" s="255"/>
+      <c r="E15" s="255"/>
+      <c r="F15" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="198"/>
+      <c r="G15" s="199"/>
       <c r="H15" s="40"/>
       <c r="I15" s="41"/>
-      <c r="J15" s="243"/>
-      <c r="K15" s="245"/>
-      <c r="L15" s="237"/>
+      <c r="J15" s="244"/>
+      <c r="K15" s="246"/>
+      <c r="L15" s="238"/>
     </row>
     <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="249"/>
-      <c r="B16" s="255" t="s">
+      <c r="A16" s="250"/>
+      <c r="B16" s="256" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="254" t="s">
+      <c r="C16" s="255" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="254"/>
-      <c r="E16" s="254"/>
-      <c r="F16" s="197" t="s">
+      <c r="D16" s="255"/>
+      <c r="E16" s="255"/>
+      <c r="F16" s="198" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="198"/>
+      <c r="G16" s="199"/>
       <c r="H16" s="42"/>
       <c r="I16" s="43"/>
-      <c r="J16" s="243" t="s">
+      <c r="J16" s="244" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="245"/>
-      <c r="L16" s="237">
+      <c r="K16" s="246"/>
+      <c r="L16" s="238">
         <f>ROUND(K16*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="249"/>
-      <c r="B17" s="256"/>
-      <c r="C17" s="254" t="s">
+      <c r="A17" s="250"/>
+      <c r="B17" s="257"/>
+      <c r="C17" s="255" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="254"/>
-      <c r="E17" s="254"/>
-      <c r="F17" s="197" t="s">
+      <c r="D17" s="255"/>
+      <c r="E17" s="255"/>
+      <c r="F17" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="198"/>
+      <c r="G17" s="199"/>
       <c r="H17" s="38"/>
       <c r="I17" s="39"/>
-      <c r="J17" s="243"/>
-      <c r="K17" s="245"/>
-      <c r="L17" s="237"/>
+      <c r="J17" s="244"/>
+      <c r="K17" s="246"/>
+      <c r="L17" s="238"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="250"/>
-      <c r="B18" s="257"/>
-      <c r="C18" s="251" t="s">
+      <c r="A18" s="251"/>
+      <c r="B18" s="258"/>
+      <c r="C18" s="252" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="251"/>
-      <c r="E18" s="251"/>
-      <c r="F18" s="213" t="s">
+      <c r="D18" s="252"/>
+      <c r="E18" s="252"/>
+      <c r="F18" s="214" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="214"/>
+      <c r="G18" s="215"/>
       <c r="H18" s="44"/>
       <c r="I18" s="45"/>
-      <c r="J18" s="246"/>
-      <c r="K18" s="247"/>
-      <c r="L18" s="238"/>
+      <c r="J18" s="247"/>
+      <c r="K18" s="248"/>
+      <c r="L18" s="239"/>
     </row>
     <row r="19" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="248" t="s">
+      <c r="A19" s="249" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="258" t="s">
+      <c r="B19" s="259" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="252" t="s">
+      <c r="C19" s="253" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="252"/>
-      <c r="E19" s="252"/>
-      <c r="F19" s="264" t="s">
+      <c r="D19" s="253"/>
+      <c r="E19" s="253"/>
+      <c r="F19" s="265" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="265"/>
+      <c r="G19" s="266"/>
       <c r="H19" s="46"/>
       <c r="I19" s="47"/>
-      <c r="J19" s="242" t="s">
+      <c r="J19" s="243" t="s">
         <v>77</v>
       </c>
-      <c r="K19" s="244"/>
-      <c r="L19" s="239">
+      <c r="K19" s="245"/>
+      <c r="L19" s="240">
         <f>ROUND(K19*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="249"/>
-      <c r="B20" s="259"/>
-      <c r="C20" s="254" t="s">
+      <c r="A20" s="250"/>
+      <c r="B20" s="260"/>
+      <c r="C20" s="255" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="254"/>
-      <c r="E20" s="254"/>
-      <c r="F20" s="197" t="s">
+      <c r="D20" s="255"/>
+      <c r="E20" s="255"/>
+      <c r="F20" s="198" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="198"/>
+      <c r="G20" s="199"/>
       <c r="H20" s="38"/>
       <c r="I20" s="39"/>
-      <c r="J20" s="243"/>
-      <c r="K20" s="245"/>
-      <c r="L20" s="237"/>
+      <c r="J20" s="244"/>
+      <c r="K20" s="246"/>
+      <c r="L20" s="238"/>
     </row>
     <row r="21" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="249"/>
-      <c r="B21" s="260"/>
-      <c r="C21" s="254" t="s">
+      <c r="A21" s="250"/>
+      <c r="B21" s="261"/>
+      <c r="C21" s="255" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="254"/>
-      <c r="E21" s="254"/>
-      <c r="F21" s="197" t="s">
+      <c r="D21" s="255"/>
+      <c r="E21" s="255"/>
+      <c r="F21" s="198" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="198"/>
+      <c r="G21" s="199"/>
       <c r="H21" s="40"/>
       <c r="I21" s="41"/>
-      <c r="J21" s="243"/>
-      <c r="K21" s="245"/>
-      <c r="L21" s="237"/>
+      <c r="J21" s="244"/>
+      <c r="K21" s="246"/>
+      <c r="L21" s="238"/>
     </row>
     <row r="22" spans="1:12" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="250"/>
+      <c r="A22" s="251"/>
       <c r="B22" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="251"/>
-      <c r="D22" s="251"/>
-      <c r="E22" s="251"/>
-      <c r="F22" s="213" t="s">
+      <c r="C22" s="252"/>
+      <c r="D22" s="252"/>
+      <c r="E22" s="252"/>
+      <c r="F22" s="214" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="214"/>
+      <c r="G22" s="215"/>
       <c r="H22" s="49"/>
       <c r="I22" s="50"/>
       <c r="J22" s="51" t="s">
@@ -4515,15 +4522,15 @@
       <c r="B23" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="253" t="s">
+      <c r="C23" s="254" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="253"/>
-      <c r="E23" s="253"/>
-      <c r="F23" s="235" t="s">
+      <c r="D23" s="254"/>
+      <c r="E23" s="254"/>
+      <c r="F23" s="236" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="236"/>
+      <c r="G23" s="237"/>
       <c r="H23" s="53"/>
       <c r="I23" s="54"/>
       <c r="J23" s="55" t="s">
@@ -4562,11 +4569,11 @@
         <v>9</v>
       </c>
       <c r="J25" s="25"/>
-      <c r="K25" s="261">
+      <c r="K25" s="262">
         <f>SUM(L13:L23)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="262"/>
+      <c r="L25" s="263"/>
     </row>
     <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A28"/>
@@ -4663,9 +4670,9 @@
     <mergeCell ref="F17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR SKRITT PAS-DE-DEUX</oddHeader>
+    <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR PAS-DE-DEUX</oddHeader>
     <oddFooter>&amp;R2019-06-01</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
@@ -4674,9 +4681,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -4743,10 +4753,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="263"/>
-      <c r="D5" s="263"/>
-      <c r="E5" s="263"/>
-      <c r="F5" s="263"/>
+      <c r="C5" s="264"/>
+      <c r="D5" s="264"/>
+      <c r="E5" s="264"/>
+      <c r="F5" s="264"/>
       <c r="H5" s="30"/>
       <c r="I5" s="31" t="s">
         <v>11</v>
@@ -4782,10 +4792,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="266"/>
-      <c r="D8" s="266"/>
-      <c r="E8" s="266"/>
-      <c r="F8" s="266"/>
+      <c r="C8" s="267"/>
+      <c r="D8" s="267"/>
+      <c r="E8" s="267"/>
+      <c r="F8" s="267"/>
       <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
@@ -4800,30 +4810,30 @@
         <v>17</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="263"/>
-      <c r="D9" s="263"/>
-      <c r="E9" s="263"/>
-      <c r="F9" s="263"/>
+      <c r="C9" s="264"/>
+      <c r="D9" s="264"/>
+      <c r="E9" s="264"/>
+      <c r="F9" s="264"/>
       <c r="H9" s="27"/>
-      <c r="I9" s="233"/>
-      <c r="J9" s="234"/>
-      <c r="K9" s="234"/>
-      <c r="L9" s="234"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="235"/>
+      <c r="K9" s="235"/>
+      <c r="L9" s="235"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="263"/>
-      <c r="D10" s="263"/>
-      <c r="E10" s="263"/>
-      <c r="F10" s="263"/>
+      <c r="C10" s="264"/>
+      <c r="D10" s="264"/>
+      <c r="E10" s="264"/>
+      <c r="F10" s="264"/>
       <c r="H10" s="27"/>
-      <c r="I10" s="233"/>
-      <c r="J10" s="234"/>
-      <c r="K10" s="234"/>
-      <c r="L10" s="234"/>
+      <c r="I10" s="234"/>
+      <c r="J10" s="235"/>
+      <c r="K10" s="235"/>
+      <c r="L10" s="235"/>
     </row>
     <row r="11" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4895,7 +4905,7 @@
         <v>0.8</v>
       </c>
       <c r="G18" s="90"/>
-      <c r="H18" s="279">
+      <c r="H18" s="170">
         <f>IF(E18&gt;12,13,E18)</f>
         <v>0</v>
       </c>
@@ -4919,7 +4929,7 @@
         <v>0.4</v>
       </c>
       <c r="G19" s="90"/>
-      <c r="H19" s="279">
+      <c r="H19" s="170">
         <f>IF(SUM(E18:E19)&gt;12,13-H18,E19)</f>
         <v>0</v>
       </c>
@@ -4943,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="90"/>
-      <c r="H20" s="279">
+      <c r="H20" s="170">
         <f>IF(SUM(E18:E20)&gt;12,IF(13-SUM(H18:H19)&gt;0,13-SUM(H18:H19),0),E20)</f>
         <v>0</v>
       </c>
@@ -5108,9 +5118,9 @@
     <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR SKRITT PAS-DE-DEUX</oddHeader>
+    <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR PAS-DE-DEUX</oddHeader>
     <oddFooter>&amp;R2019-06-01</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
@@ -5119,10 +5129,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -5189,10 +5202,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="263"/>
-      <c r="D5" s="263"/>
-      <c r="E5" s="263"/>
-      <c r="F5" s="263"/>
+      <c r="C5" s="264"/>
+      <c r="D5" s="264"/>
+      <c r="E5" s="264"/>
+      <c r="F5" s="264"/>
       <c r="H5" s="30"/>
       <c r="I5" s="31" t="s">
         <v>11</v>
@@ -5234,10 +5247,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="266"/>
-      <c r="D8" s="266"/>
-      <c r="E8" s="266"/>
-      <c r="F8" s="266"/>
+      <c r="C8" s="267"/>
+      <c r="D8" s="267"/>
+      <c r="E8" s="267"/>
+      <c r="F8" s="267"/>
       <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
@@ -5252,30 +5265,30 @@
         <v>17</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="263"/>
-      <c r="D9" s="263"/>
-      <c r="E9" s="263"/>
-      <c r="F9" s="263"/>
+      <c r="C9" s="264"/>
+      <c r="D9" s="264"/>
+      <c r="E9" s="264"/>
+      <c r="F9" s="264"/>
       <c r="H9" s="27"/>
-      <c r="I9" s="233"/>
-      <c r="J9" s="234"/>
-      <c r="K9" s="234"/>
-      <c r="L9" s="234"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="235"/>
+      <c r="K9" s="235"/>
+      <c r="L9" s="235"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="263"/>
-      <c r="D10" s="263"/>
-      <c r="E10" s="263"/>
-      <c r="F10" s="263"/>
+      <c r="C10" s="264"/>
+      <c r="D10" s="264"/>
+      <c r="E10" s="264"/>
+      <c r="F10" s="264"/>
       <c r="H10" s="27"/>
-      <c r="I10" s="233"/>
-      <c r="J10" s="234"/>
-      <c r="K10" s="234"/>
-      <c r="L10" s="234"/>
+      <c r="I10" s="234"/>
+      <c r="J10" s="235"/>
+      <c r="K10" s="235"/>
+      <c r="L10" s="235"/>
     </row>
     <row r="11" spans="1:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K11" s="14" t="s">
@@ -5283,19 +5296,19 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="269" t="s">
+      <c r="A12" s="270" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="272" t="s">
+      <c r="B12" s="273" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="273"/>
-      <c r="D12" s="273"/>
-      <c r="E12" s="273"/>
-      <c r="F12" s="273"/>
-      <c r="G12" s="273"/>
-      <c r="H12" s="273"/>
-      <c r="I12" s="273"/>
+      <c r="C12" s="274"/>
+      <c r="D12" s="274"/>
+      <c r="E12" s="274"/>
+      <c r="F12" s="274"/>
+      <c r="G12" s="274"/>
+      <c r="H12" s="274"/>
+      <c r="I12" s="274"/>
       <c r="J12" s="11" t="s">
         <v>1</v>
       </c>
@@ -5307,17 +5320,17 @@
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="270"/>
-      <c r="B13" s="274" t="s">
+      <c r="A13" s="271"/>
+      <c r="B13" s="275" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="275"/>
-      <c r="D13" s="275"/>
-      <c r="E13" s="275"/>
-      <c r="F13" s="275"/>
-      <c r="G13" s="275"/>
-      <c r="H13" s="275"/>
-      <c r="I13" s="275"/>
+      <c r="C13" s="276"/>
+      <c r="D13" s="276"/>
+      <c r="E13" s="276"/>
+      <c r="F13" s="276"/>
+      <c r="G13" s="276"/>
+      <c r="H13" s="276"/>
+      <c r="I13" s="276"/>
       <c r="J13" s="12" t="s">
         <v>2</v>
       </c>
@@ -5329,19 +5342,19 @@
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="269" t="s">
+      <c r="A14" s="270" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="276" t="s">
+      <c r="B14" s="277" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="277"/>
-      <c r="D14" s="277"/>
-      <c r="E14" s="277"/>
-      <c r="F14" s="277"/>
-      <c r="G14" s="277"/>
-      <c r="H14" s="277"/>
-      <c r="I14" s="277"/>
+      <c r="C14" s="278"/>
+      <c r="D14" s="278"/>
+      <c r="E14" s="278"/>
+      <c r="F14" s="278"/>
+      <c r="G14" s="278"/>
+      <c r="H14" s="278"/>
+      <c r="I14" s="278"/>
       <c r="J14" s="11" t="s">
         <v>3</v>
       </c>
@@ -5353,17 +5366,17 @@
       <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="271"/>
-      <c r="B15" s="267" t="s">
+      <c r="A15" s="272"/>
+      <c r="B15" s="268" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="268"/>
-      <c r="D15" s="268"/>
-      <c r="E15" s="268"/>
-      <c r="F15" s="268"/>
-      <c r="G15" s="268"/>
-      <c r="H15" s="268"/>
-      <c r="I15" s="268"/>
+      <c r="C15" s="269"/>
+      <c r="D15" s="269"/>
+      <c r="E15" s="269"/>
+      <c r="F15" s="269"/>
+      <c r="G15" s="269"/>
+      <c r="H15" s="269"/>
+      <c r="I15" s="269"/>
       <c r="J15" s="13" t="s">
         <v>4</v>
       </c>
@@ -5375,17 +5388,17 @@
       <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="270"/>
-      <c r="B16" s="278" t="s">
+      <c r="A16" s="271"/>
+      <c r="B16" s="279" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="275"/>
-      <c r="D16" s="275"/>
-      <c r="E16" s="275"/>
-      <c r="F16" s="275"/>
-      <c r="G16" s="275"/>
-      <c r="H16" s="275"/>
-      <c r="I16" s="275"/>
+      <c r="C16" s="276"/>
+      <c r="D16" s="276"/>
+      <c r="E16" s="276"/>
+      <c r="F16" s="276"/>
+      <c r="G16" s="276"/>
+      <c r="H16" s="276"/>
+      <c r="I16" s="276"/>
       <c r="J16" s="12" t="s">
         <v>5</v>
       </c>
@@ -5467,9 +5480,9 @@
     <mergeCell ref="B16:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR SKRITT PAS-DE-DEUX</oddHeader>
+    <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR PAS-DE-DEUX</oddHeader>
     <oddFooter>&amp;R2019-06-01</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>

--- a/mallar/Protokoll/Protokoll_2019_Pas_de_deux_klass(mall).xlsx
+++ b/mallar/Protokoll/Protokoll_2019_Pas_de_deux_klass(mall).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24AB91F-FBFE-44DF-843A-F4D30615E922}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53CEBA5-D345-484E-8B7E-6823EF7B1FC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2160,242 +2160,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="4" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="32" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="24" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="38" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2413,19 +2177,11 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyProtection="1">
@@ -2441,66 +2197,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2512,9 +2208,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="169" fontId="5" fillId="4" borderId="51" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2528,128 +2221,435 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="32" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="24" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="38" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="4" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="169" fontId="3" fillId="4" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="169" fontId="3" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="3" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -3847,10 +3847,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="129"/>
-      <c r="C5" s="190"/>
-      <c r="D5" s="190"/>
-      <c r="E5" s="190"/>
-      <c r="F5" s="190"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
       <c r="H5" s="133"/>
       <c r="I5" s="132" t="s">
         <v>9</v>
@@ -3872,68 +3872,68 @@
         <v>123</v>
       </c>
       <c r="B7" s="129"/>
-      <c r="C7" s="190"/>
-      <c r="D7" s="190"/>
-      <c r="E7" s="190"/>
-      <c r="F7" s="190"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
       <c r="H7" s="109" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="202"/>
-      <c r="J7" s="203"/>
-      <c r="K7" s="203"/>
-      <c r="L7" s="203"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="180"/>
+      <c r="K7" s="180"/>
+      <c r="L7" s="180"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="109" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="109"/>
-      <c r="C8" s="204"/>
-      <c r="D8" s="204"/>
-      <c r="E8" s="204"/>
-      <c r="F8" s="204"/>
+      <c r="C8" s="181"/>
+      <c r="D8" s="181"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="181"/>
       <c r="H8" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="I8" s="205"/>
-      <c r="J8" s="206"/>
-      <c r="K8" s="206"/>
-      <c r="L8" s="206"/>
+      <c r="I8" s="182"/>
+      <c r="J8" s="183"/>
+      <c r="K8" s="183"/>
+      <c r="L8" s="183"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="129" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="129"/>
-      <c r="C9" s="190"/>
-      <c r="D9" s="190"/>
-      <c r="E9" s="190"/>
-      <c r="F9" s="190"/>
-      <c r="I9" s="191"/>
-      <c r="J9" s="192"/>
-      <c r="K9" s="192"/>
-      <c r="L9" s="192"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="176"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="178"/>
+      <c r="K9" s="178"/>
+      <c r="L9" s="178"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="129" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="129"/>
-      <c r="C10" s="190"/>
-      <c r="D10" s="190"/>
-      <c r="E10" s="190"/>
-      <c r="F10" s="190"/>
-      <c r="I10" s="191"/>
-      <c r="J10" s="192"/>
-      <c r="K10" s="192"/>
-      <c r="L10" s="192"/>
+      <c r="C10" s="176"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="176"/>
+      <c r="I10" s="177"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="178"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I11" s="191"/>
-      <c r="J11" s="192"/>
-      <c r="K11" s="192"/>
-      <c r="L11" s="192"/>
+      <c r="I11" s="177"/>
+      <c r="J11" s="178"/>
+      <c r="K11" s="178"/>
+      <c r="L11" s="178"/>
     </row>
     <row r="12" spans="1:12" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A12" s="128" t="s">
@@ -3956,84 +3956,84 @@
       <c r="L12" s="197"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="162" t="s">
+      <c r="A13" s="184" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="181" t="s">
+      <c r="B13" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="181" t="s">
+      <c r="C13" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="181"/>
-      <c r="E13" s="181"/>
-      <c r="F13" s="167" t="s">
+      <c r="D13" s="187"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="199"/>
-      <c r="H13" s="200"/>
-      <c r="I13" s="201"/>
-      <c r="J13" s="187">
+      <c r="G13" s="190"/>
+      <c r="H13" s="191"/>
+      <c r="I13" s="192"/>
+      <c r="J13" s="209">
         <v>0.2</v>
       </c>
-      <c r="K13" s="176"/>
-      <c r="L13" s="179">
+      <c r="K13" s="198"/>
+      <c r="L13" s="201">
         <f>K13*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="198"/>
-      <c r="B14" s="181"/>
-      <c r="C14" s="181" t="s">
+      <c r="A14" s="185"/>
+      <c r="B14" s="187"/>
+      <c r="C14" s="187" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="181"/>
-      <c r="E14" s="181"/>
-      <c r="F14" s="182" t="s">
+      <c r="D14" s="187"/>
+      <c r="E14" s="187"/>
+      <c r="F14" s="203" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="183"/>
-      <c r="H14" s="169"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="188"/>
-      <c r="K14" s="177"/>
-      <c r="L14" s="179"/>
+      <c r="G14" s="204"/>
+      <c r="H14" s="205"/>
+      <c r="I14" s="206"/>
+      <c r="J14" s="210"/>
+      <c r="K14" s="199"/>
+      <c r="L14" s="201"/>
     </row>
     <row r="15" spans="1:12" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="163"/>
-      <c r="B15" s="184"/>
-      <c r="C15" s="184" t="s">
+      <c r="A15" s="186"/>
+      <c r="B15" s="188"/>
+      <c r="C15" s="188" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="184"/>
-      <c r="E15" s="184"/>
-      <c r="F15" s="182" t="s">
+      <c r="D15" s="188"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="203" t="s">
         <v>119</v>
       </c>
-      <c r="G15" s="183"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="189"/>
-      <c r="K15" s="178"/>
-      <c r="L15" s="180"/>
+      <c r="G15" s="204"/>
+      <c r="H15" s="207"/>
+      <c r="I15" s="208"/>
+      <c r="J15" s="211"/>
+      <c r="K15" s="200"/>
+      <c r="L15" s="202"/>
     </row>
     <row r="16" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="162" t="s">
+      <c r="A16" s="184" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="164" t="s">
+      <c r="B16" s="212" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="165"/>
-      <c r="D16" s="165"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="167" t="s">
+      <c r="C16" s="213"/>
+      <c r="D16" s="213"/>
+      <c r="E16" s="214"/>
+      <c r="F16" s="189" t="s">
         <v>116</v>
       </c>
-      <c r="G16" s="168"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="170"/>
+      <c r="G16" s="215"/>
+      <c r="H16" s="205"/>
+      <c r="I16" s="206"/>
       <c r="J16" s="127">
         <v>0.4</v>
       </c>
@@ -4044,19 +4044,19 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="163"/>
-      <c r="B17" s="171" t="s">
+      <c r="A17" s="186"/>
+      <c r="B17" s="216" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="172"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="174" t="s">
+      <c r="C17" s="217"/>
+      <c r="D17" s="217"/>
+      <c r="E17" s="218"/>
+      <c r="F17" s="219" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="175"/>
-      <c r="H17" s="169"/>
-      <c r="I17" s="170"/>
+      <c r="G17" s="220"/>
+      <c r="H17" s="205"/>
+      <c r="I17" s="206"/>
       <c r="J17" s="127">
         <v>0.4</v>
       </c>
@@ -4070,17 +4070,17 @@
       <c r="A18" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="150" t="s">
+      <c r="B18" s="221" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="151"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="152"/>
+      <c r="C18" s="222"/>
+      <c r="D18" s="222"/>
+      <c r="E18" s="222"/>
+      <c r="F18" s="222"/>
+      <c r="G18" s="222"/>
+      <c r="H18" s="222"/>
+      <c r="I18" s="222"/>
+      <c r="J18" s="223"/>
       <c r="K18" s="123"/>
       <c r="L18" s="122"/>
     </row>
@@ -4098,90 +4098,90 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="153" t="s">
+      <c r="A21" s="224" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="154"/>
-      <c r="C21" s="154"/>
-      <c r="D21" s="154"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="154"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="154"/>
-      <c r="K21" s="154"/>
-      <c r="L21" s="155"/>
+      <c r="B21" s="225"/>
+      <c r="C21" s="225"/>
+      <c r="D21" s="225"/>
+      <c r="E21" s="225"/>
+      <c r="F21" s="225"/>
+      <c r="G21" s="225"/>
+      <c r="H21" s="225"/>
+      <c r="I21" s="225"/>
+      <c r="J21" s="225"/>
+      <c r="K21" s="225"/>
+      <c r="L21" s="226"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="156"/>
-      <c r="B22" s="157"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="157"/>
-      <c r="L22" s="158"/>
+      <c r="A22" s="227"/>
+      <c r="B22" s="228"/>
+      <c r="C22" s="228"/>
+      <c r="D22" s="228"/>
+      <c r="E22" s="228"/>
+      <c r="F22" s="228"/>
+      <c r="G22" s="228"/>
+      <c r="H22" s="228"/>
+      <c r="I22" s="228"/>
+      <c r="J22" s="228"/>
+      <c r="K22" s="228"/>
+      <c r="L22" s="229"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="156"/>
-      <c r="B23" s="157"/>
-      <c r="C23" s="157"/>
-      <c r="D23" s="157"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="157"/>
-      <c r="I23" s="157"/>
-      <c r="J23" s="157"/>
-      <c r="K23" s="157"/>
-      <c r="L23" s="158"/>
+      <c r="A23" s="227"/>
+      <c r="B23" s="228"/>
+      <c r="C23" s="228"/>
+      <c r="D23" s="228"/>
+      <c r="E23" s="228"/>
+      <c r="F23" s="228"/>
+      <c r="G23" s="228"/>
+      <c r="H23" s="228"/>
+      <c r="I23" s="228"/>
+      <c r="J23" s="228"/>
+      <c r="K23" s="228"/>
+      <c r="L23" s="229"/>
     </row>
     <row r="24" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="156"/>
-      <c r="B24" s="157"/>
-      <c r="C24" s="157"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="157"/>
-      <c r="K24" s="157"/>
-      <c r="L24" s="158"/>
+      <c r="A24" s="227"/>
+      <c r="B24" s="228"/>
+      <c r="C24" s="228"/>
+      <c r="D24" s="228"/>
+      <c r="E24" s="228"/>
+      <c r="F24" s="228"/>
+      <c r="G24" s="228"/>
+      <c r="H24" s="228"/>
+      <c r="I24" s="228"/>
+      <c r="J24" s="228"/>
+      <c r="K24" s="228"/>
+      <c r="L24" s="229"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="159"/>
-      <c r="B25" s="160"/>
-      <c r="C25" s="160"/>
-      <c r="D25" s="160"/>
-      <c r="E25" s="160"/>
-      <c r="F25" s="160"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="160"/>
-      <c r="J25" s="160"/>
-      <c r="K25" s="160"/>
-      <c r="L25" s="161"/>
+      <c r="A25" s="230"/>
+      <c r="B25" s="231"/>
+      <c r="C25" s="231"/>
+      <c r="D25" s="231"/>
+      <c r="E25" s="231"/>
+      <c r="F25" s="231"/>
+      <c r="G25" s="231"/>
+      <c r="H25" s="231"/>
+      <c r="I25" s="231"/>
+      <c r="J25" s="231"/>
+      <c r="K25" s="231"/>
+      <c r="L25" s="232"/>
     </row>
     <row r="27" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="147" t="s">
+      <c r="A27" s="233" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="147"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="148"/>
-      <c r="J27" s="148"/>
+      <c r="B27" s="233"/>
+      <c r="C27" s="233"/>
+      <c r="D27" s="233"/>
+      <c r="E27" s="233"/>
+      <c r="F27" s="233"/>
+      <c r="G27" s="233"/>
+      <c r="H27" s="233"/>
+      <c r="I27" s="234"/>
+      <c r="J27" s="234"/>
       <c r="K27" s="119" t="s">
         <v>111</v>
       </c>
@@ -4191,18 +4191,18 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="147" t="s">
+      <c r="A28" s="233" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="147"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="147"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="148"/>
+      <c r="B28" s="233"/>
+      <c r="C28" s="233"/>
+      <c r="D28" s="233"/>
+      <c r="E28" s="233"/>
+      <c r="F28" s="233"/>
+      <c r="G28" s="233"/>
+      <c r="H28" s="233"/>
+      <c r="I28" s="234"/>
+      <c r="J28" s="234"/>
       <c r="K28" s="118" t="s">
         <v>111</v>
       </c>
@@ -4212,18 +4212,18 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="147" t="s">
+      <c r="A29" s="233" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="147"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="148"/>
+      <c r="B29" s="233"/>
+      <c r="C29" s="233"/>
+      <c r="D29" s="233"/>
+      <c r="E29" s="233"/>
+      <c r="F29" s="233"/>
+      <c r="G29" s="233"/>
+      <c r="H29" s="233"/>
+      <c r="I29" s="234"/>
+      <c r="J29" s="234"/>
       <c r="K29" s="118" t="s">
         <v>106</v>
       </c>
@@ -4233,18 +4233,18 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="147" t="s">
+      <c r="A30" s="233" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="147"/>
-      <c r="C30" s="147"/>
-      <c r="D30" s="147"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="147"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="148"/>
+      <c r="B30" s="233"/>
+      <c r="C30" s="233"/>
+      <c r="D30" s="233"/>
+      <c r="E30" s="233"/>
+      <c r="F30" s="233"/>
+      <c r="G30" s="233"/>
+      <c r="H30" s="233"/>
+      <c r="I30" s="234"/>
+      <c r="J30" s="234"/>
       <c r="K30" s="118" t="s">
         <v>108</v>
       </c>
@@ -4254,21 +4254,21 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="147" t="s">
+      <c r="A31" s="233" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="147"/>
-      <c r="C31" s="147"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="147"/>
-      <c r="I31" s="149">
+      <c r="B31" s="233"/>
+      <c r="C31" s="233"/>
+      <c r="D31" s="233"/>
+      <c r="E31" s="233"/>
+      <c r="F31" s="233"/>
+      <c r="G31" s="233"/>
+      <c r="H31" s="233"/>
+      <c r="I31" s="238">
         <f>L19</f>
         <v>0</v>
       </c>
-      <c r="J31" s="149"/>
+      <c r="J31" s="238"/>
       <c r="K31" s="118" t="s">
         <v>106</v>
       </c>
@@ -4290,14 +4290,14 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F33" s="144" t="s">
+      <c r="F33" s="235" t="s">
         <v>104</v>
       </c>
-      <c r="G33" s="145"/>
-      <c r="H33" s="145"/>
-      <c r="I33" s="145"/>
-      <c r="J33" s="145"/>
-      <c r="K33" s="146"/>
+      <c r="G33" s="236"/>
+      <c r="H33" s="236"/>
+      <c r="I33" s="236"/>
+      <c r="J33" s="236"/>
+      <c r="K33" s="237"/>
       <c r="L33" s="113">
         <f>L32/10</f>
         <v>0</v>
@@ -4391,23 +4391,26 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="A21:L25"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
     <mergeCell ref="K13:K15"/>
     <mergeCell ref="L13:L15"/>
     <mergeCell ref="C14:E14"/>
@@ -4417,26 +4420,23 @@
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J13:J15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="A21:L25"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I8:L8"/>
   </mergeCells>
   <conditionalFormatting sqref="L13:L37 I31:J31">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
@@ -4494,402 +4494,420 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="226"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="228" t="s">
+      <c r="F1" s="145"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="229"/>
-      <c r="K1" s="230"/>
-      <c r="L1" s="231"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="150"/>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="227"/>
-      <c r="I2" s="228" t="s">
+      <c r="H2" s="146"/>
+      <c r="I2" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="229"/>
-      <c r="K2" s="230"/>
-      <c r="L2" s="231"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="150"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="232"/>
-      <c r="C3" s="233"/>
-      <c r="D3" s="233"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234"/>
-      <c r="H3" s="227"/>
-      <c r="I3" s="228" t="s">
+      <c r="B3" s="151"/>
+      <c r="C3" s="294"/>
+      <c r="D3" s="294"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="229"/>
-      <c r="K3" s="230"/>
-      <c r="L3" s="231"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="150"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="235" t="s">
+      <c r="A4" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="235"/>
-      <c r="C4" s="236"/>
-      <c r="D4" s="236"/>
-      <c r="E4" s="236"/>
-      <c r="F4" s="236"/>
-      <c r="H4" s="227"/>
-      <c r="I4" s="228" t="s">
+      <c r="B4" s="153"/>
+      <c r="C4" s="295"/>
+      <c r="D4" s="295"/>
+      <c r="E4" s="295"/>
+      <c r="F4" s="295"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="237"/>
-      <c r="K4" s="230"/>
-      <c r="L4" s="231"/>
-    </row>
-    <row r="5" spans="1:12" s="238" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="235" t="s">
+      <c r="J4" s="154"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="150"/>
+    </row>
+    <row r="5" spans="1:12" s="155" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="153" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="235"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="295"/>
+      <c r="D5" s="295"/>
+      <c r="E5" s="295"/>
+      <c r="F5" s="295"/>
       <c r="K5" s="51"/>
     </row>
-    <row r="6" spans="1:12" s="238" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="235" t="s">
+    <row r="6" spans="1:12" s="155" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="235"/>
-      <c r="C6" s="239"/>
-      <c r="D6" s="239"/>
-      <c r="E6" s="239"/>
-      <c r="F6" s="239"/>
-    </row>
-    <row r="7" spans="1:12" s="238" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="232" t="s">
+      <c r="B6" s="153"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="156"/>
+    </row>
+    <row r="7" spans="1:12" s="155" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="232"/>
-      <c r="C7" s="236"/>
-      <c r="D7" s="236"/>
-      <c r="E7" s="236"/>
-      <c r="F7" s="236"/>
-      <c r="H7" s="232" t="s">
+      <c r="B7" s="151"/>
+      <c r="C7" s="295"/>
+      <c r="D7" s="295"/>
+      <c r="E7" s="295"/>
+      <c r="F7" s="295"/>
+      <c r="H7" s="151" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="232"/>
-      <c r="J7" s="234"/>
-      <c r="K7" s="234"/>
-      <c r="L7" s="240"/>
-    </row>
-    <row r="8" spans="1:12" s="238" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="235" t="s">
+      <c r="I7" s="151"/>
+      <c r="J7" s="152"/>
+      <c r="K7" s="152"/>
+      <c r="L7" s="157"/>
+    </row>
+    <row r="8" spans="1:12" s="155" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="235"/>
-      <c r="C8" s="236"/>
-      <c r="D8" s="236"/>
-      <c r="E8" s="236"/>
-      <c r="F8" s="236"/>
-      <c r="H8" s="235" t="s">
+      <c r="B8" s="153"/>
+      <c r="C8" s="295"/>
+      <c r="D8" s="295"/>
+      <c r="E8" s="295"/>
+      <c r="F8" s="295"/>
+      <c r="H8" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="235"/>
-      <c r="J8" s="241"/>
-      <c r="K8" s="241"/>
-      <c r="L8" s="240"/>
-    </row>
-    <row r="9" spans="1:12" s="238" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="235" t="s">
+      <c r="I8" s="153"/>
+      <c r="J8" s="158"/>
+      <c r="K8" s="158"/>
+      <c r="L8" s="157"/>
+    </row>
+    <row r="9" spans="1:12" s="155" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="235"/>
-      <c r="C9" s="236"/>
-      <c r="D9" s="236"/>
-      <c r="E9" s="236"/>
-      <c r="F9" s="236"/>
+      <c r="B9" s="153"/>
+      <c r="C9" s="295"/>
+      <c r="D9" s="295"/>
+      <c r="E9" s="295"/>
+      <c r="F9" s="295"/>
       <c r="K9" s="51"/>
     </row>
-    <row r="10" spans="1:12" s="238" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="242"/>
-      <c r="D10" s="242"/>
-      <c r="E10" s="242"/>
-      <c r="F10" s="242"/>
+    <row r="10" spans="1:12" s="155" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
       <c r="K10" s="51"/>
     </row>
-    <row r="11" spans="1:12" s="238" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="242"/>
-      <c r="D11" s="242"/>
-      <c r="E11" s="242"/>
-      <c r="F11" s="242"/>
-      <c r="H11" s="243" t="s">
+    <row r="11" spans="1:12" s="155" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="159"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="159"/>
+      <c r="H11" s="269" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="244"/>
-      <c r="J11" s="245" t="s">
+      <c r="I11" s="270"/>
+      <c r="J11" s="271" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="246"/>
-      <c r="L11" s="247"/>
+      <c r="K11" s="272"/>
+      <c r="L11" s="273"/>
     </row>
     <row r="12" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="210" t="s">
+      <c r="A12" s="274" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="248" t="s">
+      <c r="B12" s="278" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="249"/>
-      <c r="D12" s="249"/>
-      <c r="E12" s="249"/>
-      <c r="F12" s="249"/>
-      <c r="G12" s="249"/>
-      <c r="H12" s="250"/>
-      <c r="I12" s="251"/>
-      <c r="J12" s="252" t="s">
+      <c r="C12" s="279"/>
+      <c r="D12" s="279"/>
+      <c r="E12" s="279"/>
+      <c r="F12" s="279"/>
+      <c r="G12" s="279"/>
+      <c r="H12" s="282"/>
+      <c r="I12" s="283"/>
+      <c r="J12" s="288" t="s">
         <v>136</v>
       </c>
-      <c r="K12" s="253">
+      <c r="K12" s="290">
         <f>SUM(B17:G17)/6</f>
         <v>0</v>
       </c>
-      <c r="L12" s="254">
+      <c r="L12" s="268">
         <f>ROUND(K12*0.6,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="211"/>
-      <c r="B13" s="255"/>
-      <c r="C13" s="256"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="256"/>
-      <c r="F13" s="256"/>
-      <c r="G13" s="256"/>
-      <c r="H13" s="257"/>
-      <c r="I13" s="258"/>
-      <c r="J13" s="259"/>
-      <c r="K13" s="260"/>
-      <c r="L13" s="261"/>
+      <c r="A13" s="275"/>
+      <c r="B13" s="280"/>
+      <c r="C13" s="281"/>
+      <c r="D13" s="281"/>
+      <c r="E13" s="281"/>
+      <c r="F13" s="281"/>
+      <c r="G13" s="281"/>
+      <c r="H13" s="284"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="248"/>
+      <c r="K13" s="291"/>
+      <c r="L13" s="250"/>
     </row>
     <row r="14" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="211"/>
-      <c r="B14" s="255"/>
-      <c r="C14" s="256"/>
-      <c r="D14" s="256"/>
-      <c r="E14" s="256"/>
-      <c r="F14" s="256"/>
-      <c r="G14" s="256"/>
-      <c r="H14" s="257"/>
-      <c r="I14" s="258"/>
-      <c r="J14" s="259"/>
-      <c r="K14" s="260"/>
-      <c r="L14" s="261"/>
+      <c r="A14" s="275"/>
+      <c r="B14" s="280"/>
+      <c r="C14" s="281"/>
+      <c r="D14" s="281"/>
+      <c r="E14" s="281"/>
+      <c r="F14" s="281"/>
+      <c r="G14" s="281"/>
+      <c r="H14" s="284"/>
+      <c r="I14" s="285"/>
+      <c r="J14" s="248"/>
+      <c r="K14" s="291"/>
+      <c r="L14" s="250"/>
     </row>
     <row r="15" spans="1:12" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="211"/>
-      <c r="B15" s="255"/>
-      <c r="C15" s="256"/>
-      <c r="D15" s="256"/>
-      <c r="E15" s="256"/>
-      <c r="F15" s="256"/>
-      <c r="G15" s="256"/>
-      <c r="H15" s="257"/>
-      <c r="I15" s="258"/>
-      <c r="J15" s="259"/>
-      <c r="K15" s="260"/>
-      <c r="L15" s="261"/>
+      <c r="A15" s="275"/>
+      <c r="B15" s="280"/>
+      <c r="C15" s="281"/>
+      <c r="D15" s="281"/>
+      <c r="E15" s="281"/>
+      <c r="F15" s="281"/>
+      <c r="G15" s="281"/>
+      <c r="H15" s="284"/>
+      <c r="I15" s="285"/>
+      <c r="J15" s="248"/>
+      <c r="K15" s="291"/>
+      <c r="L15" s="250"/>
     </row>
     <row r="16" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="262"/>
-      <c r="B16" s="263" t="s">
+      <c r="A16" s="276"/>
+      <c r="B16" s="160" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="264" t="s">
+      <c r="C16" s="161" t="s">
         <v>138</v>
       </c>
-      <c r="D16" s="265" t="s">
+      <c r="D16" s="162" t="s">
         <v>139</v>
       </c>
-      <c r="E16" s="264" t="s">
+      <c r="E16" s="161" t="s">
         <v>140</v>
       </c>
-      <c r="F16" s="264" t="s">
+      <c r="F16" s="161" t="s">
         <v>141</v>
       </c>
-      <c r="G16" s="266" t="s">
+      <c r="G16" s="163" t="s">
         <v>142</v>
       </c>
-      <c r="H16" s="257"/>
-      <c r="I16" s="258"/>
-      <c r="J16" s="259"/>
-      <c r="K16" s="260"/>
-      <c r="L16" s="261"/>
+      <c r="H16" s="284"/>
+      <c r="I16" s="285"/>
+      <c r="J16" s="248"/>
+      <c r="K16" s="291"/>
+      <c r="L16" s="250"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="267"/>
-      <c r="B17" s="268">
+      <c r="A17" s="277"/>
+      <c r="B17" s="164">
         <v>0</v>
       </c>
-      <c r="C17" s="269"/>
-      <c r="D17" s="269"/>
-      <c r="E17" s="269"/>
-      <c r="F17" s="269"/>
-      <c r="G17" s="270"/>
-      <c r="H17" s="271"/>
-      <c r="I17" s="272"/>
-      <c r="J17" s="273"/>
-      <c r="K17" s="274"/>
-      <c r="L17" s="275"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="166"/>
+      <c r="H17" s="286"/>
+      <c r="I17" s="287"/>
+      <c r="J17" s="289"/>
+      <c r="K17" s="292"/>
+      <c r="L17" s="293"/>
     </row>
     <row r="18" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="276" t="s">
+      <c r="A18" s="239" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="277" t="s">
+      <c r="B18" s="241" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="277"/>
-      <c r="D18" s="277"/>
-      <c r="E18" s="277"/>
-      <c r="F18" s="277"/>
-      <c r="G18" s="277"/>
-      <c r="H18" s="278"/>
-      <c r="I18" s="279"/>
-      <c r="J18" s="280" t="s">
+      <c r="C18" s="241"/>
+      <c r="D18" s="241"/>
+      <c r="E18" s="241"/>
+      <c r="F18" s="241"/>
+      <c r="G18" s="241"/>
+      <c r="H18" s="257"/>
+      <c r="I18" s="258"/>
+      <c r="J18" s="263" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="281"/>
-      <c r="L18" s="254">
-        <f>ROUND((K18-K21)*0.25,3)</f>
+      <c r="K18" s="266">
         <v>0</v>
       </c>
+      <c r="L18" s="268">
+        <f>IF((K18-K21)&gt;=0,(ROUND((K18-K21)*0.25,3)),0.00000000001)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="282"/>
-      <c r="B19" s="283"/>
-      <c r="C19" s="283"/>
-      <c r="D19" s="283"/>
-      <c r="E19" s="283"/>
-      <c r="F19" s="283"/>
-      <c r="G19" s="283"/>
-      <c r="H19" s="284"/>
-      <c r="I19" s="285"/>
-      <c r="J19" s="286"/>
-      <c r="K19" s="287"/>
-      <c r="L19" s="261"/>
+      <c r="A19" s="254"/>
+      <c r="B19" s="255"/>
+      <c r="C19" s="255"/>
+      <c r="D19" s="255"/>
+      <c r="E19" s="255"/>
+      <c r="F19" s="255"/>
+      <c r="G19" s="255"/>
+      <c r="H19" s="259"/>
+      <c r="I19" s="260"/>
+      <c r="J19" s="264"/>
+      <c r="K19" s="267"/>
+      <c r="L19" s="250"/>
     </row>
     <row r="20" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="282"/>
-      <c r="B20" s="288"/>
-      <c r="C20" s="288"/>
-      <c r="D20" s="288"/>
-      <c r="E20" s="288"/>
-      <c r="F20" s="288"/>
-      <c r="G20" s="283"/>
-      <c r="H20" s="284"/>
-      <c r="I20" s="285"/>
-      <c r="J20" s="286"/>
-      <c r="K20" s="287"/>
-      <c r="L20" s="261"/>
+      <c r="A20" s="254"/>
+      <c r="B20" s="256"/>
+      <c r="C20" s="256"/>
+      <c r="D20" s="256"/>
+      <c r="E20" s="256"/>
+      <c r="F20" s="256"/>
+      <c r="G20" s="255"/>
+      <c r="H20" s="259"/>
+      <c r="I20" s="260"/>
+      <c r="J20" s="264"/>
+      <c r="K20" s="267"/>
+      <c r="L20" s="250"/>
     </row>
     <row r="21" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="289"/>
-      <c r="B21" s="290" t="s">
+      <c r="A21" s="240"/>
+      <c r="B21" s="167" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="291">
+      <c r="C21" s="168">
         <v>0</v>
       </c>
-      <c r="D21" s="291"/>
-      <c r="E21" s="291"/>
-      <c r="F21" s="291"/>
-      <c r="G21" s="291"/>
-      <c r="H21" s="292"/>
-      <c r="I21" s="293"/>
-      <c r="J21" s="294"/>
-      <c r="K21" s="295">
+      <c r="D21" s="168">
+        <v>0</v>
+      </c>
+      <c r="E21" s="168">
+        <v>0</v>
+      </c>
+      <c r="F21" s="168">
+        <v>0</v>
+      </c>
+      <c r="G21" s="168"/>
+      <c r="H21" s="261"/>
+      <c r="I21" s="262"/>
+      <c r="J21" s="265"/>
+      <c r="K21" s="169">
         <f>SUM(C21:G21)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="296"/>
+      <c r="L21" s="251"/>
     </row>
     <row r="22" spans="1:12" ht="87.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="276" t="s">
+      <c r="A22" s="239" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="277" t="s">
+      <c r="B22" s="241" t="s">
         <v>145</v>
       </c>
-      <c r="C22" s="297"/>
-      <c r="D22" s="297"/>
-      <c r="E22" s="297"/>
-      <c r="F22" s="297"/>
-      <c r="G22" s="298"/>
-      <c r="H22" s="299"/>
-      <c r="I22" s="300"/>
-      <c r="J22" s="259" t="s">
+      <c r="C22" s="242"/>
+      <c r="D22" s="242"/>
+      <c r="E22" s="242"/>
+      <c r="F22" s="242"/>
+      <c r="G22" s="243"/>
+      <c r="H22" s="244"/>
+      <c r="I22" s="245"/>
+      <c r="J22" s="248" t="s">
         <v>146</v>
       </c>
-      <c r="K22" s="301"/>
-      <c r="L22" s="261">
-        <f>ROUND((K22-K23)*0.15,3)</f>
+      <c r="K22" s="170">
         <v>0</v>
       </c>
+      <c r="L22" s="250">
+        <f>IF((K22-K23)&gt;=0, ROUND((K22-K23)*0.15,3),0.000000001)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="289"/>
-      <c r="B23" s="302" t="s">
+      <c r="A23" s="240"/>
+      <c r="B23" s="171" t="s">
         <v>144</v>
       </c>
-      <c r="C23" s="291"/>
-      <c r="D23" s="291"/>
-      <c r="E23" s="291"/>
-      <c r="F23" s="291"/>
-      <c r="G23" s="291"/>
-      <c r="H23" s="303"/>
-      <c r="I23" s="304"/>
-      <c r="J23" s="305"/>
-      <c r="K23" s="295">
+      <c r="C23" s="168">
+        <v>0</v>
+      </c>
+      <c r="D23" s="168">
+        <v>0</v>
+      </c>
+      <c r="E23" s="168">
+        <v>0</v>
+      </c>
+      <c r="F23" s="168">
+        <v>0</v>
+      </c>
+      <c r="G23" s="168"/>
+      <c r="H23" s="246"/>
+      <c r="I23" s="247"/>
+      <c r="J23" s="249"/>
+      <c r="K23" s="169">
         <f>SUM(C23:G23)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="296"/>
+      <c r="L23" s="251"/>
     </row>
     <row r="24" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="306"/>
-      <c r="B24" s="306"/>
-      <c r="C24" s="306"/>
-      <c r="D24" s="306"/>
-      <c r="E24" s="306"/>
-      <c r="F24" s="306"/>
-      <c r="G24" s="306"/>
-      <c r="H24" s="306"/>
+      <c r="A24" s="172"/>
+      <c r="B24" s="172"/>
+      <c r="C24" s="172"/>
+      <c r="D24" s="172"/>
+      <c r="E24" s="172"/>
+      <c r="F24" s="172"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="172"/>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I25" s="24" t="s">
         <v>7</v>
       </c>
       <c r="J25" s="25"/>
-      <c r="K25" s="307">
+      <c r="K25" s="252">
         <f>SUM(L12:L22)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="308"/>
+      <c r="L25" s="253"/>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I26" s="310"/>
-      <c r="J26" s="310"/>
-      <c r="K26" s="311"/>
-      <c r="L26" s="311"/>
+      <c r="I26" s="174"/>
+      <c r="J26" s="174"/>
+      <c r="K26" s="175"/>
+      <c r="L26" s="175"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4907,24 +4925,18 @@
       </c>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="309"/>
+      <c r="K30" s="173"/>
       <c r="L30" s="26"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="26">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="H22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:G20"/>
-    <mergeCell ref="H18:I21"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L21"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="A12:A17"/>
@@ -4933,12 +4945,18 @@
     <mergeCell ref="J12:J17"/>
     <mergeCell ref="K12:K17"/>
     <mergeCell ref="L12:L17"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:G20"/>
+    <mergeCell ref="H18:I21"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="L22:L23"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId1"/>
@@ -5024,10 +5042,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="207"/>
-      <c r="F5" s="207"/>
+      <c r="C5" s="296"/>
+      <c r="D5" s="296"/>
+      <c r="E5" s="296"/>
+      <c r="F5" s="296"/>
       <c r="H5" s="29"/>
       <c r="I5" s="30" t="s">
         <v>9</v>
@@ -5063,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="212"/>
-      <c r="E8" s="212"/>
-      <c r="F8" s="212"/>
+      <c r="C8" s="299"/>
+      <c r="D8" s="299"/>
+      <c r="E8" s="299"/>
+      <c r="F8" s="299"/>
       <c r="H8" s="4" t="s">
         <v>13</v>
       </c>
@@ -5081,30 +5099,30 @@
         <v>15</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="207"/>
-      <c r="D9" s="207"/>
-      <c r="E9" s="207"/>
-      <c r="F9" s="207"/>
+      <c r="C9" s="296"/>
+      <c r="D9" s="296"/>
+      <c r="E9" s="296"/>
+      <c r="F9" s="296"/>
       <c r="H9" s="27"/>
-      <c r="I9" s="208"/>
-      <c r="J9" s="209"/>
-      <c r="K9" s="209"/>
-      <c r="L9" s="209"/>
+      <c r="I9" s="297"/>
+      <c r="J9" s="298"/>
+      <c r="K9" s="298"/>
+      <c r="L9" s="298"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="207"/>
-      <c r="D10" s="207"/>
-      <c r="E10" s="207"/>
-      <c r="F10" s="207"/>
+      <c r="C10" s="296"/>
+      <c r="D10" s="296"/>
+      <c r="E10" s="296"/>
+      <c r="F10" s="296"/>
       <c r="H10" s="27"/>
-      <c r="I10" s="208"/>
-      <c r="J10" s="209"/>
-      <c r="K10" s="209"/>
-      <c r="L10" s="209"/>
+      <c r="I10" s="297"/>
+      <c r="J10" s="298"/>
+      <c r="K10" s="298"/>
+      <c r="L10" s="298"/>
     </row>
     <row r="11" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -5473,10 +5491,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="207"/>
-      <c r="F5" s="207"/>
+      <c r="C5" s="296"/>
+      <c r="D5" s="296"/>
+      <c r="E5" s="296"/>
+      <c r="F5" s="296"/>
       <c r="H5" s="29"/>
       <c r="I5" s="30" t="s">
         <v>9</v>
@@ -5518,10 +5536,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="212"/>
-      <c r="E8" s="212"/>
-      <c r="F8" s="212"/>
+      <c r="C8" s="299"/>
+      <c r="D8" s="299"/>
+      <c r="E8" s="299"/>
+      <c r="F8" s="299"/>
       <c r="H8" s="4" t="s">
         <v>13</v>
       </c>
@@ -5536,30 +5554,30 @@
         <v>15</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="207"/>
-      <c r="D9" s="207"/>
-      <c r="E9" s="207"/>
-      <c r="F9" s="207"/>
+      <c r="C9" s="296"/>
+      <c r="D9" s="296"/>
+      <c r="E9" s="296"/>
+      <c r="F9" s="296"/>
       <c r="H9" s="27"/>
-      <c r="I9" s="208"/>
-      <c r="J9" s="209"/>
-      <c r="K9" s="209"/>
-      <c r="L9" s="209"/>
+      <c r="I9" s="297"/>
+      <c r="J9" s="298"/>
+      <c r="K9" s="298"/>
+      <c r="L9" s="298"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="207"/>
-      <c r="D10" s="207"/>
-      <c r="E10" s="207"/>
-      <c r="F10" s="207"/>
+      <c r="C10" s="296"/>
+      <c r="D10" s="296"/>
+      <c r="E10" s="296"/>
+      <c r="F10" s="296"/>
       <c r="H10" s="27"/>
-      <c r="I10" s="208"/>
-      <c r="J10" s="209"/>
-      <c r="K10" s="209"/>
-      <c r="L10" s="209"/>
+      <c r="I10" s="297"/>
+      <c r="J10" s="298"/>
+      <c r="K10" s="298"/>
+      <c r="L10" s="298"/>
     </row>
     <row r="11" spans="1:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K11" s="14" t="s">
@@ -5567,19 +5585,19 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="215" t="s">
+      <c r="A12" s="302" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="305" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="219"/>
-      <c r="D12" s="219"/>
-      <c r="E12" s="219"/>
-      <c r="F12" s="219"/>
-      <c r="G12" s="219"/>
-      <c r="H12" s="219"/>
-      <c r="I12" s="219"/>
+      <c r="C12" s="306"/>
+      <c r="D12" s="306"/>
+      <c r="E12" s="306"/>
+      <c r="F12" s="306"/>
+      <c r="G12" s="306"/>
+      <c r="H12" s="306"/>
+      <c r="I12" s="306"/>
       <c r="J12" s="11" t="s">
         <v>1</v>
       </c>
@@ -5591,17 +5609,17 @@
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="216"/>
-      <c r="B13" s="220" t="s">
+      <c r="A13" s="303"/>
+      <c r="B13" s="307" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="221"/>
-      <c r="D13" s="221"/>
-      <c r="E13" s="221"/>
-      <c r="F13" s="221"/>
-      <c r="G13" s="221"/>
-      <c r="H13" s="221"/>
-      <c r="I13" s="221"/>
+      <c r="C13" s="308"/>
+      <c r="D13" s="308"/>
+      <c r="E13" s="308"/>
+      <c r="F13" s="308"/>
+      <c r="G13" s="308"/>
+      <c r="H13" s="308"/>
+      <c r="I13" s="308"/>
       <c r="J13" s="12" t="s">
         <v>2</v>
       </c>
@@ -5613,19 +5631,19 @@
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="215" t="s">
+      <c r="A14" s="302" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="222" t="s">
+      <c r="B14" s="309" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="223"/>
-      <c r="D14" s="223"/>
-      <c r="E14" s="223"/>
-      <c r="F14" s="223"/>
-      <c r="G14" s="223"/>
-      <c r="H14" s="223"/>
-      <c r="I14" s="223"/>
+      <c r="C14" s="310"/>
+      <c r="D14" s="310"/>
+      <c r="E14" s="310"/>
+      <c r="F14" s="310"/>
+      <c r="G14" s="310"/>
+      <c r="H14" s="310"/>
+      <c r="I14" s="310"/>
       <c r="J14" s="11" t="s">
         <v>3</v>
       </c>
@@ -5637,17 +5655,17 @@
       <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="217"/>
-      <c r="B15" s="213" t="s">
+      <c r="A15" s="304"/>
+      <c r="B15" s="300" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="214"/>
-      <c r="D15" s="214"/>
-      <c r="E15" s="214"/>
-      <c r="F15" s="214"/>
-      <c r="G15" s="214"/>
-      <c r="H15" s="214"/>
-      <c r="I15" s="214"/>
+      <c r="C15" s="301"/>
+      <c r="D15" s="301"/>
+      <c r="E15" s="301"/>
+      <c r="F15" s="301"/>
+      <c r="G15" s="301"/>
+      <c r="H15" s="301"/>
+      <c r="I15" s="301"/>
       <c r="J15" s="13" t="s">
         <v>4</v>
       </c>
@@ -5659,17 +5677,17 @@
       <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="216"/>
-      <c r="B16" s="224" t="s">
+      <c r="A16" s="303"/>
+      <c r="B16" s="311" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="221"/>
-      <c r="D16" s="221"/>
-      <c r="E16" s="221"/>
-      <c r="F16" s="221"/>
-      <c r="G16" s="221"/>
-      <c r="H16" s="221"/>
-      <c r="I16" s="221"/>
+      <c r="C16" s="308"/>
+      <c r="D16" s="308"/>
+      <c r="E16" s="308"/>
+      <c r="F16" s="308"/>
+      <c r="G16" s="308"/>
+      <c r="H16" s="308"/>
+      <c r="I16" s="308"/>
       <c r="J16" s="12" t="s">
         <v>5</v>
       </c>
@@ -5736,6 +5754,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I9:L9"/>
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A16"/>
@@ -5743,12 +5767,6 @@
     <mergeCell ref="B13:I13"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B16:I16"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="I9:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
@@ -5827,21 +5845,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5862,6 +5880,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06F9B768-A93D-4D4C-BBD7-D4CF83092D49}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5874,12 +5900,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/mallar/Protokoll/Protokoll_2019_Pas_de_deux_klass(mall).xlsx
+++ b/mallar/Protokoll/Protokoll_2019_Pas_de_deux_klass(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53CEBA5-D345-484E-8B7E-6823EF7B1FC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDC6F1C-A7A0-4BF6-8296-A5CDB8688627}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2573" yWindow="3638" windowWidth="5400" windowHeight="3172" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="24" r:id="rId1"/>
@@ -30,27 +30,34 @@
     <definedName name="bord" localSheetId="4">'Pas-de-Deux art'!$L$3</definedName>
     <definedName name="bord" localSheetId="2">'Pas-de-Deux Häst'!$L$2</definedName>
     <definedName name="bord" localSheetId="3">'Pas-de-Deux tekn'!$L$3</definedName>
+    <definedName name="bord" localSheetId="1">'Skritt pas-de-deux'!$L$3</definedName>
     <definedName name="datum" localSheetId="4">'Pas-de-Deux art'!$C$4</definedName>
     <definedName name="datum" localSheetId="2">'Pas-de-Deux Häst'!$C$3</definedName>
     <definedName name="datum" localSheetId="3">'Pas-de-Deux tekn'!$C$4</definedName>
+    <definedName name="datum" localSheetId="1">'Skritt pas-de-deux'!$C$4</definedName>
     <definedName name="domare" localSheetId="4">'Pas-de-Deux art'!$C$27</definedName>
     <definedName name="domare" localSheetId="2">'Pas-de-Deux Häst'!$C$30</definedName>
     <definedName name="domare" localSheetId="3">'Pas-de-Deux tekn'!$C$36</definedName>
+    <definedName name="domare" localSheetId="1">'Skritt pas-de-deux'!$C$40</definedName>
     <definedName name="firstvaulter" localSheetId="4">'Pas-de-Deux art'!$J$7</definedName>
     <definedName name="firstvaulter" localSheetId="2">'Pas-de-Deux Häst'!$J$7</definedName>
     <definedName name="firstvaulter" localSheetId="3">'Pas-de-Deux tekn'!$J$7</definedName>
+    <definedName name="firstvaulter" localSheetId="1">'Skritt pas-de-deux'!$I$7</definedName>
     <definedName name="id" localSheetId="4">'Pas-de-Deux art'!$U$1</definedName>
     <definedName name="id" localSheetId="2">'Pas-de-Deux Häst'!$U$1</definedName>
     <definedName name="id" localSheetId="3">'Pas-de-Deux tekn'!$U$1</definedName>
     <definedName name="klass" localSheetId="4">'Pas-de-Deux art'!$L$4</definedName>
     <definedName name="klass" localSheetId="2">'Pas-de-Deux Häst'!$L$3</definedName>
     <definedName name="klass" localSheetId="3">'Pas-de-Deux tekn'!$L$4</definedName>
+    <definedName name="klass" localSheetId="1">'Skritt pas-de-deux'!$L$4</definedName>
     <definedName name="moment" localSheetId="4">'Pas-de-Deux art'!$L$5</definedName>
     <definedName name="moment" localSheetId="2">'Pas-de-Deux Häst'!$L$4</definedName>
     <definedName name="moment" localSheetId="3">'Pas-de-Deux tekn'!$L$5</definedName>
+    <definedName name="moment" localSheetId="1">'Skritt pas-de-deux'!$L$5</definedName>
     <definedName name="result" localSheetId="4">'Pas-de-Deux art'!$L$21</definedName>
     <definedName name="result" localSheetId="2">'Pas-de-Deux Häst'!$K$25</definedName>
     <definedName name="result" localSheetId="3">'Pas-de-Deux tekn'!$L$32</definedName>
+    <definedName name="result" localSheetId="1">'Skritt pas-de-deux'!$L$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Pas-de-Deux art'!$A$1:$M$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Pas-de-Deux Häst'!$A$1:$L$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Pas-de-Deux tekn'!$A$1:$L$47</definedName>
@@ -2246,6 +2253,145 @@
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="4" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="32" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="24" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="38" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2253,6 +2399,33 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2264,219 +2437,115 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="32" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="24" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="38" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="4" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -2519,91 +2588,29 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3781,8 +3788,8 @@
   </sheetPr>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -3847,10 +3854,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="129"/>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
-      <c r="E5" s="176"/>
-      <c r="F5" s="176"/>
+      <c r="C5" s="222"/>
+      <c r="D5" s="222"/>
+      <c r="E5" s="222"/>
+      <c r="F5" s="222"/>
       <c r="H5" s="133"/>
       <c r="I5" s="132" t="s">
         <v>9</v>
@@ -3872,68 +3879,68 @@
         <v>123</v>
       </c>
       <c r="B7" s="129"/>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
+      <c r="C7" s="222"/>
+      <c r="D7" s="222"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="222"/>
       <c r="H7" s="109" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="179"/>
-      <c r="J7" s="180"/>
-      <c r="K7" s="180"/>
-      <c r="L7" s="180"/>
+      <c r="I7" s="234"/>
+      <c r="J7" s="235"/>
+      <c r="K7" s="235"/>
+      <c r="L7" s="235"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="109" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="109"/>
-      <c r="C8" s="181"/>
-      <c r="D8" s="181"/>
-      <c r="E8" s="181"/>
-      <c r="F8" s="181"/>
+      <c r="C8" s="236"/>
+      <c r="D8" s="236"/>
+      <c r="E8" s="236"/>
+      <c r="F8" s="236"/>
       <c r="H8" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="I8" s="182"/>
-      <c r="J8" s="183"/>
-      <c r="K8" s="183"/>
-      <c r="L8" s="183"/>
+      <c r="I8" s="237"/>
+      <c r="J8" s="238"/>
+      <c r="K8" s="238"/>
+      <c r="L8" s="238"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="129" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="129"/>
-      <c r="C9" s="176"/>
-      <c r="D9" s="176"/>
-      <c r="E9" s="176"/>
-      <c r="F9" s="176"/>
-      <c r="I9" s="177"/>
-      <c r="J9" s="178"/>
-      <c r="K9" s="178"/>
-      <c r="L9" s="178"/>
+      <c r="C9" s="222"/>
+      <c r="D9" s="222"/>
+      <c r="E9" s="222"/>
+      <c r="F9" s="222"/>
+      <c r="I9" s="223"/>
+      <c r="J9" s="224"/>
+      <c r="K9" s="224"/>
+      <c r="L9" s="224"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="129" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="129"/>
-      <c r="C10" s="176"/>
-      <c r="D10" s="176"/>
-      <c r="E10" s="176"/>
-      <c r="F10" s="176"/>
-      <c r="I10" s="177"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="178"/>
-      <c r="L10" s="178"/>
+      <c r="C10" s="222"/>
+      <c r="D10" s="222"/>
+      <c r="E10" s="222"/>
+      <c r="F10" s="222"/>
+      <c r="I10" s="223"/>
+      <c r="J10" s="224"/>
+      <c r="K10" s="224"/>
+      <c r="L10" s="224"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I11" s="177"/>
-      <c r="J11" s="178"/>
-      <c r="K11" s="178"/>
-      <c r="L11" s="178"/>
+      <c r="I11" s="223"/>
+      <c r="J11" s="224"/>
+      <c r="K11" s="224"/>
+      <c r="L11" s="224"/>
     </row>
     <row r="12" spans="1:12" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A12" s="128" t="s">
@@ -3945,95 +3952,95 @@
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
-      <c r="H12" s="193" t="s">
+      <c r="H12" s="225" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="194"/>
-      <c r="J12" s="195" t="s">
+      <c r="I12" s="226"/>
+      <c r="J12" s="227" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="196"/>
-      <c r="L12" s="197"/>
+      <c r="K12" s="228"/>
+      <c r="L12" s="229"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="184" t="s">
+      <c r="A13" s="194" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="187" t="s">
+      <c r="B13" s="213" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="187" t="s">
+      <c r="C13" s="213" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="187"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="189" t="s">
+      <c r="D13" s="213"/>
+      <c r="E13" s="213"/>
+      <c r="F13" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="190"/>
-      <c r="H13" s="191"/>
-      <c r="I13" s="192"/>
-      <c r="J13" s="209">
+      <c r="G13" s="231"/>
+      <c r="H13" s="232"/>
+      <c r="I13" s="233"/>
+      <c r="J13" s="219">
         <v>0.2</v>
       </c>
-      <c r="K13" s="198"/>
-      <c r="L13" s="201">
+      <c r="K13" s="208"/>
+      <c r="L13" s="211">
         <f>K13*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="185"/>
-      <c r="B14" s="187"/>
-      <c r="C14" s="187" t="s">
+      <c r="A14" s="230"/>
+      <c r="B14" s="213"/>
+      <c r="C14" s="213" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="187"/>
-      <c r="E14" s="187"/>
-      <c r="F14" s="203" t="s">
+      <c r="D14" s="213"/>
+      <c r="E14" s="213"/>
+      <c r="F14" s="214" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="204"/>
-      <c r="H14" s="205"/>
-      <c r="I14" s="206"/>
-      <c r="J14" s="210"/>
-      <c r="K14" s="199"/>
-      <c r="L14" s="201"/>
+      <c r="G14" s="215"/>
+      <c r="H14" s="201"/>
+      <c r="I14" s="202"/>
+      <c r="J14" s="220"/>
+      <c r="K14" s="209"/>
+      <c r="L14" s="211"/>
     </row>
     <row r="15" spans="1:12" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="186"/>
-      <c r="B15" s="188"/>
-      <c r="C15" s="188" t="s">
+      <c r="A15" s="195"/>
+      <c r="B15" s="216"/>
+      <c r="C15" s="216" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="188"/>
-      <c r="E15" s="188"/>
-      <c r="F15" s="203" t="s">
+      <c r="D15" s="216"/>
+      <c r="E15" s="216"/>
+      <c r="F15" s="214" t="s">
         <v>119</v>
       </c>
-      <c r="G15" s="204"/>
-      <c r="H15" s="207"/>
-      <c r="I15" s="208"/>
-      <c r="J15" s="211"/>
-      <c r="K15" s="200"/>
-      <c r="L15" s="202"/>
+      <c r="G15" s="215"/>
+      <c r="H15" s="217"/>
+      <c r="I15" s="218"/>
+      <c r="J15" s="221"/>
+      <c r="K15" s="210"/>
+      <c r="L15" s="212"/>
     </row>
     <row r="16" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="184" t="s">
+      <c r="A16" s="194" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="212" t="s">
+      <c r="B16" s="196" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="213"/>
-      <c r="D16" s="213"/>
-      <c r="E16" s="214"/>
-      <c r="F16" s="189" t="s">
+      <c r="C16" s="197"/>
+      <c r="D16" s="197"/>
+      <c r="E16" s="198"/>
+      <c r="F16" s="199" t="s">
         <v>116</v>
       </c>
-      <c r="G16" s="215"/>
-      <c r="H16" s="205"/>
-      <c r="I16" s="206"/>
+      <c r="G16" s="200"/>
+      <c r="H16" s="201"/>
+      <c r="I16" s="202"/>
       <c r="J16" s="127">
         <v>0.4</v>
       </c>
@@ -4044,19 +4051,19 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="186"/>
-      <c r="B17" s="216" t="s">
+      <c r="A17" s="195"/>
+      <c r="B17" s="203" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="217"/>
-      <c r="D17" s="217"/>
-      <c r="E17" s="218"/>
-      <c r="F17" s="219" t="s">
+      <c r="C17" s="204"/>
+      <c r="D17" s="204"/>
+      <c r="E17" s="205"/>
+      <c r="F17" s="206" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="220"/>
-      <c r="H17" s="205"/>
-      <c r="I17" s="206"/>
+      <c r="G17" s="207"/>
+      <c r="H17" s="201"/>
+      <c r="I17" s="202"/>
       <c r="J17" s="127">
         <v>0.4</v>
       </c>
@@ -4070,17 +4077,17 @@
       <c r="A18" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="221" t="s">
+      <c r="B18" s="182" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="222"/>
-      <c r="D18" s="222"/>
-      <c r="E18" s="222"/>
-      <c r="F18" s="222"/>
-      <c r="G18" s="222"/>
-      <c r="H18" s="222"/>
-      <c r="I18" s="222"/>
-      <c r="J18" s="223"/>
+      <c r="C18" s="183"/>
+      <c r="D18" s="183"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="183"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="183"/>
+      <c r="I18" s="183"/>
+      <c r="J18" s="184"/>
       <c r="K18" s="123"/>
       <c r="L18" s="122"/>
     </row>
@@ -4098,90 +4105,90 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="224" t="s">
+      <c r="A21" s="185" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="225"/>
-      <c r="C21" s="225"/>
-      <c r="D21" s="225"/>
-      <c r="E21" s="225"/>
-      <c r="F21" s="225"/>
-      <c r="G21" s="225"/>
-      <c r="H21" s="225"/>
-      <c r="I21" s="225"/>
-      <c r="J21" s="225"/>
-      <c r="K21" s="225"/>
-      <c r="L21" s="226"/>
+      <c r="B21" s="186"/>
+      <c r="C21" s="186"/>
+      <c r="D21" s="186"/>
+      <c r="E21" s="186"/>
+      <c r="F21" s="186"/>
+      <c r="G21" s="186"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="186"/>
+      <c r="J21" s="186"/>
+      <c r="K21" s="186"/>
+      <c r="L21" s="187"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="227"/>
-      <c r="B22" s="228"/>
-      <c r="C22" s="228"/>
-      <c r="D22" s="228"/>
-      <c r="E22" s="228"/>
-      <c r="F22" s="228"/>
-      <c r="G22" s="228"/>
-      <c r="H22" s="228"/>
-      <c r="I22" s="228"/>
-      <c r="J22" s="228"/>
-      <c r="K22" s="228"/>
-      <c r="L22" s="229"/>
+      <c r="A22" s="188"/>
+      <c r="B22" s="189"/>
+      <c r="C22" s="189"/>
+      <c r="D22" s="189"/>
+      <c r="E22" s="189"/>
+      <c r="F22" s="189"/>
+      <c r="G22" s="189"/>
+      <c r="H22" s="189"/>
+      <c r="I22" s="189"/>
+      <c r="J22" s="189"/>
+      <c r="K22" s="189"/>
+      <c r="L22" s="190"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="227"/>
-      <c r="B23" s="228"/>
-      <c r="C23" s="228"/>
-      <c r="D23" s="228"/>
-      <c r="E23" s="228"/>
-      <c r="F23" s="228"/>
-      <c r="G23" s="228"/>
-      <c r="H23" s="228"/>
-      <c r="I23" s="228"/>
-      <c r="J23" s="228"/>
-      <c r="K23" s="228"/>
-      <c r="L23" s="229"/>
+      <c r="A23" s="188"/>
+      <c r="B23" s="189"/>
+      <c r="C23" s="189"/>
+      <c r="D23" s="189"/>
+      <c r="E23" s="189"/>
+      <c r="F23" s="189"/>
+      <c r="G23" s="189"/>
+      <c r="H23" s="189"/>
+      <c r="I23" s="189"/>
+      <c r="J23" s="189"/>
+      <c r="K23" s="189"/>
+      <c r="L23" s="190"/>
     </row>
     <row r="24" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="227"/>
-      <c r="B24" s="228"/>
-      <c r="C24" s="228"/>
-      <c r="D24" s="228"/>
-      <c r="E24" s="228"/>
-      <c r="F24" s="228"/>
-      <c r="G24" s="228"/>
-      <c r="H24" s="228"/>
-      <c r="I24" s="228"/>
-      <c r="J24" s="228"/>
-      <c r="K24" s="228"/>
-      <c r="L24" s="229"/>
+      <c r="A24" s="188"/>
+      <c r="B24" s="189"/>
+      <c r="C24" s="189"/>
+      <c r="D24" s="189"/>
+      <c r="E24" s="189"/>
+      <c r="F24" s="189"/>
+      <c r="G24" s="189"/>
+      <c r="H24" s="189"/>
+      <c r="I24" s="189"/>
+      <c r="J24" s="189"/>
+      <c r="K24" s="189"/>
+      <c r="L24" s="190"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="230"/>
-      <c r="B25" s="231"/>
-      <c r="C25" s="231"/>
-      <c r="D25" s="231"/>
-      <c r="E25" s="231"/>
-      <c r="F25" s="231"/>
-      <c r="G25" s="231"/>
-      <c r="H25" s="231"/>
-      <c r="I25" s="231"/>
-      <c r="J25" s="231"/>
-      <c r="K25" s="231"/>
-      <c r="L25" s="232"/>
+      <c r="A25" s="191"/>
+      <c r="B25" s="192"/>
+      <c r="C25" s="192"/>
+      <c r="D25" s="192"/>
+      <c r="E25" s="192"/>
+      <c r="F25" s="192"/>
+      <c r="G25" s="192"/>
+      <c r="H25" s="192"/>
+      <c r="I25" s="192"/>
+      <c r="J25" s="192"/>
+      <c r="K25" s="192"/>
+      <c r="L25" s="193"/>
     </row>
     <row r="27" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="233" t="s">
+      <c r="A27" s="179" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="233"/>
-      <c r="C27" s="233"/>
-      <c r="D27" s="233"/>
-      <c r="E27" s="233"/>
-      <c r="F27" s="233"/>
-      <c r="G27" s="233"/>
-      <c r="H27" s="233"/>
-      <c r="I27" s="234"/>
-      <c r="J27" s="234"/>
+      <c r="B27" s="179"/>
+      <c r="C27" s="179"/>
+      <c r="D27" s="179"/>
+      <c r="E27" s="179"/>
+      <c r="F27" s="179"/>
+      <c r="G27" s="179"/>
+      <c r="H27" s="179"/>
+      <c r="I27" s="180"/>
+      <c r="J27" s="180"/>
       <c r="K27" s="119" t="s">
         <v>111</v>
       </c>
@@ -4191,18 +4198,18 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="233" t="s">
+      <c r="A28" s="179" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="233"/>
-      <c r="C28" s="233"/>
-      <c r="D28" s="233"/>
-      <c r="E28" s="233"/>
-      <c r="F28" s="233"/>
-      <c r="G28" s="233"/>
-      <c r="H28" s="233"/>
-      <c r="I28" s="234"/>
-      <c r="J28" s="234"/>
+      <c r="B28" s="179"/>
+      <c r="C28" s="179"/>
+      <c r="D28" s="179"/>
+      <c r="E28" s="179"/>
+      <c r="F28" s="179"/>
+      <c r="G28" s="179"/>
+      <c r="H28" s="179"/>
+      <c r="I28" s="180"/>
+      <c r="J28" s="180"/>
       <c r="K28" s="118" t="s">
         <v>111</v>
       </c>
@@ -4212,18 +4219,18 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="233" t="s">
+      <c r="A29" s="179" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="233"/>
-      <c r="C29" s="233"/>
-      <c r="D29" s="233"/>
-      <c r="E29" s="233"/>
-      <c r="F29" s="233"/>
-      <c r="G29" s="233"/>
-      <c r="H29" s="233"/>
-      <c r="I29" s="234"/>
-      <c r="J29" s="234"/>
+      <c r="B29" s="179"/>
+      <c r="C29" s="179"/>
+      <c r="D29" s="179"/>
+      <c r="E29" s="179"/>
+      <c r="F29" s="179"/>
+      <c r="G29" s="179"/>
+      <c r="H29" s="179"/>
+      <c r="I29" s="180"/>
+      <c r="J29" s="180"/>
       <c r="K29" s="118" t="s">
         <v>106</v>
       </c>
@@ -4233,18 +4240,18 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="233" t="s">
+      <c r="A30" s="179" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="233"/>
-      <c r="C30" s="233"/>
-      <c r="D30" s="233"/>
-      <c r="E30" s="233"/>
-      <c r="F30" s="233"/>
-      <c r="G30" s="233"/>
-      <c r="H30" s="233"/>
-      <c r="I30" s="234"/>
-      <c r="J30" s="234"/>
+      <c r="B30" s="179"/>
+      <c r="C30" s="179"/>
+      <c r="D30" s="179"/>
+      <c r="E30" s="179"/>
+      <c r="F30" s="179"/>
+      <c r="G30" s="179"/>
+      <c r="H30" s="179"/>
+      <c r="I30" s="180"/>
+      <c r="J30" s="180"/>
       <c r="K30" s="118" t="s">
         <v>108</v>
       </c>
@@ -4254,21 +4261,21 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="233" t="s">
+      <c r="A31" s="179" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="233"/>
-      <c r="C31" s="233"/>
-      <c r="D31" s="233"/>
-      <c r="E31" s="233"/>
-      <c r="F31" s="233"/>
-      <c r="G31" s="233"/>
-      <c r="H31" s="233"/>
-      <c r="I31" s="238">
+      <c r="B31" s="179"/>
+      <c r="C31" s="179"/>
+      <c r="D31" s="179"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="179"/>
+      <c r="G31" s="179"/>
+      <c r="H31" s="179"/>
+      <c r="I31" s="181">
         <f>L19</f>
         <v>0</v>
       </c>
-      <c r="J31" s="238"/>
+      <c r="J31" s="181"/>
       <c r="K31" s="118" t="s">
         <v>106</v>
       </c>
@@ -4290,14 +4297,14 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F33" s="235" t="s">
+      <c r="F33" s="176" t="s">
         <v>104</v>
       </c>
-      <c r="G33" s="236"/>
-      <c r="H33" s="236"/>
-      <c r="I33" s="236"/>
-      <c r="J33" s="236"/>
-      <c r="K33" s="237"/>
+      <c r="G33" s="177"/>
+      <c r="H33" s="177"/>
+      <c r="I33" s="177"/>
+      <c r="J33" s="177"/>
+      <c r="K33" s="178"/>
       <c r="L33" s="113">
         <f>L32/10</f>
         <v>0</v>
@@ -4391,26 +4398,23 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="A21:L25"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:L12"/>
     <mergeCell ref="K13:K15"/>
     <mergeCell ref="L13:L15"/>
     <mergeCell ref="C14:E14"/>
@@ -4420,23 +4424,26 @@
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J13:J15"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="A21:L25"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:J31"/>
   </mergeCells>
   <conditionalFormatting sqref="L13:L37 I31:J31">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
@@ -4471,8 +4478,8 @@
   </sheetPr>
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -4523,8 +4530,8 @@
         <v>10</v>
       </c>
       <c r="B3" s="151"/>
-      <c r="C3" s="294"/>
-      <c r="D3" s="294"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
       <c r="E3" s="152"/>
       <c r="F3" s="152"/>
       <c r="H3" s="146"/>
@@ -4540,10 +4547,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="153"/>
-      <c r="C4" s="295"/>
-      <c r="D4" s="295"/>
-      <c r="E4" s="295"/>
-      <c r="F4" s="295"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
       <c r="H4" s="146"/>
       <c r="I4" s="147" t="s">
         <v>9</v>
@@ -4557,10 +4564,10 @@
         <v>124</v>
       </c>
       <c r="B5" s="153"/>
-      <c r="C5" s="295"/>
-      <c r="D5" s="295"/>
-      <c r="E5" s="295"/>
-      <c r="F5" s="295"/>
+      <c r="C5" s="239"/>
+      <c r="D5" s="239"/>
+      <c r="E5" s="239"/>
+      <c r="F5" s="239"/>
       <c r="K5" s="51"/>
     </row>
     <row r="6" spans="1:12" s="155" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4578,10 +4585,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="151"/>
-      <c r="C7" s="295"/>
-      <c r="D7" s="295"/>
-      <c r="E7" s="295"/>
-      <c r="F7" s="295"/>
+      <c r="C7" s="239"/>
+      <c r="D7" s="239"/>
+      <c r="E7" s="239"/>
+      <c r="F7" s="239"/>
       <c r="H7" s="151" t="s">
         <v>12</v>
       </c>
@@ -4595,10 +4602,10 @@
         <v>15</v>
       </c>
       <c r="B8" s="153"/>
-      <c r="C8" s="295"/>
-      <c r="D8" s="295"/>
-      <c r="E8" s="295"/>
-      <c r="F8" s="295"/>
+      <c r="C8" s="239"/>
+      <c r="D8" s="239"/>
+      <c r="E8" s="239"/>
+      <c r="F8" s="239"/>
       <c r="H8" s="153" t="s">
         <v>13</v>
       </c>
@@ -4612,10 +4619,10 @@
         <v>16</v>
       </c>
       <c r="B9" s="153"/>
-      <c r="C9" s="295"/>
-      <c r="D9" s="295"/>
-      <c r="E9" s="295"/>
-      <c r="F9" s="295"/>
+      <c r="C9" s="239"/>
+      <c r="D9" s="239"/>
+      <c r="E9" s="239"/>
+      <c r="F9" s="239"/>
       <c r="K9" s="51"/>
     </row>
     <row r="10" spans="1:12" s="155" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4630,86 +4637,86 @@
       <c r="D11" s="159"/>
       <c r="E11" s="159"/>
       <c r="F11" s="159"/>
-      <c r="H11" s="269" t="s">
+      <c r="H11" s="241" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="270"/>
-      <c r="J11" s="271" t="s">
+      <c r="I11" s="242"/>
+      <c r="J11" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="272"/>
-      <c r="L11" s="273"/>
+      <c r="K11" s="244"/>
+      <c r="L11" s="245"/>
     </row>
     <row r="12" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="274" t="s">
+      <c r="A12" s="246" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="278" t="s">
+      <c r="B12" s="250" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="279"/>
-      <c r="D12" s="279"/>
-      <c r="E12" s="279"/>
-      <c r="F12" s="279"/>
-      <c r="G12" s="279"/>
-      <c r="H12" s="282"/>
-      <c r="I12" s="283"/>
-      <c r="J12" s="288" t="s">
+      <c r="C12" s="251"/>
+      <c r="D12" s="251"/>
+      <c r="E12" s="251"/>
+      <c r="F12" s="251"/>
+      <c r="G12" s="251"/>
+      <c r="H12" s="254"/>
+      <c r="I12" s="255"/>
+      <c r="J12" s="260" t="s">
         <v>136</v>
       </c>
-      <c r="K12" s="290">
+      <c r="K12" s="263">
         <f>SUM(B17:G17)/6</f>
         <v>0</v>
       </c>
-      <c r="L12" s="268">
+      <c r="L12" s="266">
         <f>ROUND(K12*0.6,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="275"/>
-      <c r="B13" s="280"/>
-      <c r="C13" s="281"/>
-      <c r="D13" s="281"/>
-      <c r="E13" s="281"/>
-      <c r="F13" s="281"/>
-      <c r="G13" s="281"/>
-      <c r="H13" s="284"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="248"/>
-      <c r="K13" s="291"/>
-      <c r="L13" s="250"/>
+      <c r="A13" s="247"/>
+      <c r="B13" s="252"/>
+      <c r="C13" s="253"/>
+      <c r="D13" s="253"/>
+      <c r="E13" s="253"/>
+      <c r="F13" s="253"/>
+      <c r="G13" s="253"/>
+      <c r="H13" s="256"/>
+      <c r="I13" s="257"/>
+      <c r="J13" s="261"/>
+      <c r="K13" s="264"/>
+      <c r="L13" s="267"/>
     </row>
     <row r="14" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="275"/>
-      <c r="B14" s="280"/>
-      <c r="C14" s="281"/>
-      <c r="D14" s="281"/>
-      <c r="E14" s="281"/>
-      <c r="F14" s="281"/>
-      <c r="G14" s="281"/>
-      <c r="H14" s="284"/>
-      <c r="I14" s="285"/>
-      <c r="J14" s="248"/>
-      <c r="K14" s="291"/>
-      <c r="L14" s="250"/>
+      <c r="A14" s="247"/>
+      <c r="B14" s="252"/>
+      <c r="C14" s="253"/>
+      <c r="D14" s="253"/>
+      <c r="E14" s="253"/>
+      <c r="F14" s="253"/>
+      <c r="G14" s="253"/>
+      <c r="H14" s="256"/>
+      <c r="I14" s="257"/>
+      <c r="J14" s="261"/>
+      <c r="K14" s="264"/>
+      <c r="L14" s="267"/>
     </row>
     <row r="15" spans="1:12" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="275"/>
-      <c r="B15" s="280"/>
-      <c r="C15" s="281"/>
-      <c r="D15" s="281"/>
-      <c r="E15" s="281"/>
-      <c r="F15" s="281"/>
-      <c r="G15" s="281"/>
-      <c r="H15" s="284"/>
-      <c r="I15" s="285"/>
-      <c r="J15" s="248"/>
-      <c r="K15" s="291"/>
-      <c r="L15" s="250"/>
+      <c r="A15" s="247"/>
+      <c r="B15" s="252"/>
+      <c r="C15" s="253"/>
+      <c r="D15" s="253"/>
+      <c r="E15" s="253"/>
+      <c r="F15" s="253"/>
+      <c r="G15" s="253"/>
+      <c r="H15" s="256"/>
+      <c r="I15" s="257"/>
+      <c r="J15" s="261"/>
+      <c r="K15" s="264"/>
+      <c r="L15" s="267"/>
     </row>
     <row r="16" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="276"/>
+      <c r="A16" s="248"/>
       <c r="B16" s="160" t="s">
         <v>137</v>
       </c>
@@ -4728,14 +4735,14 @@
       <c r="G16" s="163" t="s">
         <v>142</v>
       </c>
-      <c r="H16" s="284"/>
-      <c r="I16" s="285"/>
-      <c r="J16" s="248"/>
-      <c r="K16" s="291"/>
-      <c r="L16" s="250"/>
+      <c r="H16" s="256"/>
+      <c r="I16" s="257"/>
+      <c r="J16" s="261"/>
+      <c r="K16" s="264"/>
+      <c r="L16" s="267"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="277"/>
+      <c r="A17" s="249"/>
       <c r="B17" s="164">
         <v>0</v>
       </c>
@@ -4744,67 +4751,67 @@
       <c r="E17" s="165"/>
       <c r="F17" s="165"/>
       <c r="G17" s="166"/>
-      <c r="H17" s="286"/>
-      <c r="I17" s="287"/>
-      <c r="J17" s="289"/>
-      <c r="K17" s="292"/>
-      <c r="L17" s="293"/>
+      <c r="H17" s="258"/>
+      <c r="I17" s="259"/>
+      <c r="J17" s="262"/>
+      <c r="K17" s="265"/>
+      <c r="L17" s="268"/>
     </row>
     <row r="18" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="239" t="s">
+      <c r="A18" s="271" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="274" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="241"/>
-      <c r="D18" s="241"/>
-      <c r="E18" s="241"/>
-      <c r="F18" s="241"/>
-      <c r="G18" s="241"/>
-      <c r="H18" s="257"/>
-      <c r="I18" s="258"/>
-      <c r="J18" s="263" t="s">
+      <c r="C18" s="274"/>
+      <c r="D18" s="274"/>
+      <c r="E18" s="274"/>
+      <c r="F18" s="274"/>
+      <c r="G18" s="274"/>
+      <c r="H18" s="277"/>
+      <c r="I18" s="278"/>
+      <c r="J18" s="283" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="266">
+      <c r="K18" s="286">
         <v>0</v>
       </c>
-      <c r="L18" s="268">
+      <c r="L18" s="266">
         <f>IF((K18-K21)&gt;=0,(ROUND((K18-K21)*0.25,3)),0.00000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="254"/>
-      <c r="B19" s="255"/>
-      <c r="C19" s="255"/>
-      <c r="D19" s="255"/>
-      <c r="E19" s="255"/>
-      <c r="F19" s="255"/>
-      <c r="G19" s="255"/>
-      <c r="H19" s="259"/>
-      <c r="I19" s="260"/>
-      <c r="J19" s="264"/>
-      <c r="K19" s="267"/>
-      <c r="L19" s="250"/>
+      <c r="A19" s="272"/>
+      <c r="B19" s="275"/>
+      <c r="C19" s="275"/>
+      <c r="D19" s="275"/>
+      <c r="E19" s="275"/>
+      <c r="F19" s="275"/>
+      <c r="G19" s="275"/>
+      <c r="H19" s="279"/>
+      <c r="I19" s="280"/>
+      <c r="J19" s="284"/>
+      <c r="K19" s="287"/>
+      <c r="L19" s="267"/>
     </row>
     <row r="20" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="254"/>
-      <c r="B20" s="256"/>
-      <c r="C20" s="256"/>
-      <c r="D20" s="256"/>
-      <c r="E20" s="256"/>
-      <c r="F20" s="256"/>
-      <c r="G20" s="255"/>
-      <c r="H20" s="259"/>
-      <c r="I20" s="260"/>
-      <c r="J20" s="264"/>
-      <c r="K20" s="267"/>
-      <c r="L20" s="250"/>
+      <c r="A20" s="272"/>
+      <c r="B20" s="276"/>
+      <c r="C20" s="276"/>
+      <c r="D20" s="276"/>
+      <c r="E20" s="276"/>
+      <c r="F20" s="276"/>
+      <c r="G20" s="275"/>
+      <c r="H20" s="279"/>
+      <c r="I20" s="280"/>
+      <c r="J20" s="284"/>
+      <c r="K20" s="287"/>
+      <c r="L20" s="267"/>
     </row>
     <row r="21" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="240"/>
+      <c r="A21" s="273"/>
       <c r="B21" s="167" t="s">
         <v>144</v>
       </c>
@@ -4821,42 +4828,42 @@
         <v>0</v>
       </c>
       <c r="G21" s="168"/>
-      <c r="H21" s="261"/>
-      <c r="I21" s="262"/>
-      <c r="J21" s="265"/>
+      <c r="H21" s="281"/>
+      <c r="I21" s="282"/>
+      <c r="J21" s="285"/>
       <c r="K21" s="169">
         <f>SUM(C21:G21)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="251"/>
+      <c r="L21" s="288"/>
     </row>
     <row r="22" spans="1:12" ht="87.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="239" t="s">
+      <c r="A22" s="271" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="241" t="s">
+      <c r="B22" s="274" t="s">
         <v>145</v>
       </c>
-      <c r="C22" s="242"/>
-      <c r="D22" s="242"/>
-      <c r="E22" s="242"/>
-      <c r="F22" s="242"/>
-      <c r="G22" s="243"/>
-      <c r="H22" s="244"/>
-      <c r="I22" s="245"/>
-      <c r="J22" s="248" t="s">
+      <c r="C22" s="289"/>
+      <c r="D22" s="289"/>
+      <c r="E22" s="289"/>
+      <c r="F22" s="289"/>
+      <c r="G22" s="290"/>
+      <c r="H22" s="291"/>
+      <c r="I22" s="292"/>
+      <c r="J22" s="261" t="s">
         <v>146</v>
       </c>
       <c r="K22" s="170">
         <v>0</v>
       </c>
-      <c r="L22" s="250">
+      <c r="L22" s="267">
         <f>IF((K22-K23)&gt;=0, ROUND((K22-K23)*0.15,3),0.000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="240"/>
+      <c r="A23" s="273"/>
       <c r="B23" s="171" t="s">
         <v>144</v>
       </c>
@@ -4873,14 +4880,14 @@
         <v>0</v>
       </c>
       <c r="G23" s="168"/>
-      <c r="H23" s="246"/>
-      <c r="I23" s="247"/>
-      <c r="J23" s="249"/>
+      <c r="H23" s="293"/>
+      <c r="I23" s="294"/>
+      <c r="J23" s="295"/>
       <c r="K23" s="169">
         <f>SUM(C23:G23)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="251"/>
+      <c r="L23" s="288"/>
     </row>
     <row r="24" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="172"/>
@@ -4897,11 +4904,11 @@
         <v>7</v>
       </c>
       <c r="J25" s="25"/>
-      <c r="K25" s="252">
+      <c r="K25" s="269">
         <f>SUM(L12:L22)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="253"/>
+      <c r="L25" s="270"/>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I26" s="174"/>
@@ -4931,20 +4938,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="26">
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:G15"/>
-    <mergeCell ref="H12:I17"/>
-    <mergeCell ref="J12:J17"/>
-    <mergeCell ref="K12:K17"/>
-    <mergeCell ref="L12:L17"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="B18:G20"/>
@@ -4957,6 +4950,20 @@
     <mergeCell ref="H22:I23"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="L22:L23"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:G15"/>
+    <mergeCell ref="H12:I17"/>
+    <mergeCell ref="J12:J17"/>
+    <mergeCell ref="K12:K17"/>
+    <mergeCell ref="L12:L17"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId1"/>
@@ -5754,12 +5761,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="I9:L9"/>
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A16"/>
@@ -5767,6 +5768,12 @@
     <mergeCell ref="B13:I13"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B16:I16"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I9:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
@@ -5779,6 +5786,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5844,25 +5869,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06F9B768-A93D-4D4C-BBD7-D4CF83092D49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5877,27 +5907,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06F9B768-A93D-4D4C-BBD7-D4CF83092D49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/mallar/Protokoll/Protokoll_2019_Pas_de_deux_klass(mall).xlsx
+++ b/mallar/Protokoll/Protokoll_2019_Pas_de_deux_klass(mall).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDC6F1C-A7A0-4BF6-8296-A5CDB8688627}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B364BC-40D3-4BBB-9201-78968E74486A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2573" yWindow="3638" windowWidth="5400" windowHeight="3172" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="24" r:id="rId1"/>
@@ -46,6 +46,7 @@
     <definedName name="id" localSheetId="4">'Pas-de-Deux art'!$U$1</definedName>
     <definedName name="id" localSheetId="2">'Pas-de-Deux Häst'!$U$1</definedName>
     <definedName name="id" localSheetId="3">'Pas-de-Deux tekn'!$U$1</definedName>
+    <definedName name="id" localSheetId="1">'Skritt pas-de-deux'!$U$1</definedName>
     <definedName name="klass" localSheetId="4">'Pas-de-Deux art'!$L$4</definedName>
     <definedName name="klass" localSheetId="2">'Pas-de-Deux Häst'!$L$3</definedName>
     <definedName name="klass" localSheetId="3">'Pas-de-Deux tekn'!$L$4</definedName>
@@ -1838,7 +1839,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="312">
+  <cellXfs count="311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2148,9 +2149,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3132,8 +3130,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="141" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="141" t="s">
+    <row r="4" spans="1:5" s="140" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="140" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3160,15 +3158,15 @@
       <c r="A10" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="136" t="s">
+      <c r="B10" s="135" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="137"/>
+      <c r="B11" s="136"/>
     </row>
     <row r="15" spans="1:5" s="83" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A15" s="140" t="s">
+      <c r="A15" s="139" t="s">
         <v>128</v>
       </c>
       <c r="B15" s="81"/>
@@ -3209,22 +3207,22 @@
       <c r="A22" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="136" t="s">
+      <c r="B22" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="136" t="s">
+      <c r="C22" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="136" t="s">
+      <c r="D22" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="138"/>
+      <c r="E22" s="137"/>
     </row>
     <row r="23" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="137"/>
-      <c r="C23" s="137"/>
-      <c r="D23" s="137"/>
-      <c r="E23" s="137"/>
+      <c r="B23" s="136"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
     </row>
     <row r="25" spans="1:9" s="83" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A25" s="83" t="s">
@@ -3259,40 +3257,40 @@
       <c r="A28" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="136" t="s">
+      <c r="B28" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="136" t="s">
+      <c r="C28" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="136" t="s">
+      <c r="D28" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="136" t="s">
+      <c r="E28" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="138"/>
-      <c r="G28" s="137"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="137"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="136"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B29" s="137"/>
-      <c r="C29" s="137"/>
-      <c r="D29" s="137"/>
-      <c r="E29" s="137"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="136"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B30" s="137"/>
-      <c r="C30" s="137"/>
-      <c r="D30" s="137"/>
-      <c r="E30" s="137"/>
+      <c r="B30" s="136"/>
+      <c r="C30" s="136"/>
+      <c r="D30" s="136"/>
+      <c r="E30" s="136"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B31" s="137"/>
-      <c r="C31" s="137"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="137"/>
+      <c r="B31" s="136"/>
+      <c r="C31" s="136"/>
+      <c r="D31" s="136"/>
+      <c r="E31" s="136"/>
     </row>
     <row r="32" spans="1:9" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A32" s="83" t="s">
@@ -3332,34 +3330,34 @@
       <c r="A36" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="B36" s="136" t="s">
+      <c r="B36" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="136" t="s">
+      <c r="C36" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="136" t="s">
+      <c r="D36" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="E36" s="139"/>
-      <c r="F36" s="136" t="s">
+      <c r="E36" s="138"/>
+      <c r="F36" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="136" t="s">
+      <c r="G36" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="H36" s="136" t="s">
+      <c r="H36" s="135" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="137"/>
-      <c r="C37" s="137"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="137"/>
-      <c r="F37" s="137"/>
-      <c r="G37" s="137"/>
-      <c r="H37" s="137"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="136"/>
+      <c r="D37" s="136"/>
+      <c r="E37" s="136"/>
+      <c r="F37" s="136"/>
+      <c r="G37" s="136"/>
+      <c r="H37" s="136"/>
     </row>
     <row r="39" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A39" s="83" t="s">
@@ -3409,28 +3407,28 @@
       <c r="A43" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="B43" s="136" t="s">
+      <c r="B43" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="136" t="s">
+      <c r="C43" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="136" t="s">
+      <c r="D43" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="E43" s="136" t="s">
+      <c r="E43" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="136" t="s">
+      <c r="F43" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="G43" s="136" t="s">
+      <c r="G43" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="H43" s="136" t="s">
+      <c r="H43" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="I43" s="136" t="s">
+      <c r="I43" s="135" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3788,8 +3786,8 @@
   </sheetPr>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -3837,10 +3835,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="109"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
+      <c r="C4" s="235"/>
+      <c r="D4" s="235"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="235"/>
       <c r="H4" s="133"/>
       <c r="I4" s="132" t="s">
         <v>8</v>
@@ -3854,10 +3852,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="129"/>
-      <c r="C5" s="222"/>
-      <c r="D5" s="222"/>
-      <c r="E5" s="222"/>
-      <c r="F5" s="222"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="221"/>
       <c r="H5" s="133"/>
       <c r="I5" s="132" t="s">
         <v>9</v>
@@ -3879,68 +3877,68 @@
         <v>123</v>
       </c>
       <c r="B7" s="129"/>
-      <c r="C7" s="222"/>
-      <c r="D7" s="222"/>
-      <c r="E7" s="222"/>
-      <c r="F7" s="222"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="221"/>
       <c r="H7" s="109" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="234"/>
-      <c r="J7" s="235"/>
-      <c r="K7" s="235"/>
-      <c r="L7" s="235"/>
+      <c r="I7" s="233"/>
+      <c r="J7" s="234"/>
+      <c r="K7" s="234"/>
+      <c r="L7" s="234"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="109" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="109"/>
-      <c r="C8" s="236"/>
-      <c r="D8" s="236"/>
-      <c r="E8" s="236"/>
-      <c r="F8" s="236"/>
+      <c r="C8" s="235"/>
+      <c r="D8" s="235"/>
+      <c r="E8" s="235"/>
+      <c r="F8" s="235"/>
       <c r="H8" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="I8" s="237"/>
-      <c r="J8" s="238"/>
-      <c r="K8" s="238"/>
-      <c r="L8" s="238"/>
+      <c r="I8" s="236"/>
+      <c r="J8" s="237"/>
+      <c r="K8" s="237"/>
+      <c r="L8" s="237"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="129" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="129"/>
-      <c r="C9" s="222"/>
-      <c r="D9" s="222"/>
-      <c r="E9" s="222"/>
-      <c r="F9" s="222"/>
-      <c r="I9" s="223"/>
-      <c r="J9" s="224"/>
-      <c r="K9" s="224"/>
-      <c r="L9" s="224"/>
+      <c r="C9" s="221"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="I9" s="222"/>
+      <c r="J9" s="223"/>
+      <c r="K9" s="223"/>
+      <c r="L9" s="223"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="129" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="129"/>
-      <c r="C10" s="222"/>
-      <c r="D10" s="222"/>
-      <c r="E10" s="222"/>
-      <c r="F10" s="222"/>
-      <c r="I10" s="223"/>
-      <c r="J10" s="224"/>
-      <c r="K10" s="224"/>
-      <c r="L10" s="224"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="I10" s="222"/>
+      <c r="J10" s="223"/>
+      <c r="K10" s="223"/>
+      <c r="L10" s="223"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I11" s="223"/>
-      <c r="J11" s="224"/>
-      <c r="K11" s="224"/>
-      <c r="L11" s="224"/>
+      <c r="I11" s="222"/>
+      <c r="J11" s="223"/>
+      <c r="K11" s="223"/>
+      <c r="L11" s="223"/>
     </row>
     <row r="12" spans="1:12" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A12" s="128" t="s">
@@ -3952,95 +3950,95 @@
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
-      <c r="H12" s="225" t="s">
+      <c r="H12" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="226"/>
-      <c r="J12" s="227" t="s">
+      <c r="I12" s="225"/>
+      <c r="J12" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="228"/>
-      <c r="L12" s="229"/>
+      <c r="K12" s="227"/>
+      <c r="L12" s="228"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="194" t="s">
+      <c r="A13" s="193" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="213" t="s">
+      <c r="B13" s="212" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="213" t="s">
+      <c r="C13" s="212" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="213"/>
-      <c r="E13" s="213"/>
-      <c r="F13" s="199" t="s">
+      <c r="D13" s="212"/>
+      <c r="E13" s="212"/>
+      <c r="F13" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="231"/>
-      <c r="H13" s="232"/>
-      <c r="I13" s="233"/>
-      <c r="J13" s="219">
+      <c r="G13" s="230"/>
+      <c r="H13" s="231"/>
+      <c r="I13" s="232"/>
+      <c r="J13" s="218">
         <v>0.2</v>
       </c>
-      <c r="K13" s="208"/>
-      <c r="L13" s="211">
+      <c r="K13" s="207"/>
+      <c r="L13" s="210">
         <f>K13*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="230"/>
-      <c r="B14" s="213"/>
-      <c r="C14" s="213" t="s">
+      <c r="A14" s="229"/>
+      <c r="B14" s="212"/>
+      <c r="C14" s="212" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="213"/>
-      <c r="E14" s="213"/>
-      <c r="F14" s="214" t="s">
+      <c r="D14" s="212"/>
+      <c r="E14" s="212"/>
+      <c r="F14" s="213" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="215"/>
-      <c r="H14" s="201"/>
-      <c r="I14" s="202"/>
-      <c r="J14" s="220"/>
-      <c r="K14" s="209"/>
-      <c r="L14" s="211"/>
+      <c r="G14" s="214"/>
+      <c r="H14" s="200"/>
+      <c r="I14" s="201"/>
+      <c r="J14" s="219"/>
+      <c r="K14" s="208"/>
+      <c r="L14" s="210"/>
     </row>
     <row r="15" spans="1:12" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="195"/>
-      <c r="B15" s="216"/>
-      <c r="C15" s="216" t="s">
+      <c r="A15" s="194"/>
+      <c r="B15" s="215"/>
+      <c r="C15" s="215" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="216"/>
-      <c r="E15" s="216"/>
-      <c r="F15" s="214" t="s">
+      <c r="D15" s="215"/>
+      <c r="E15" s="215"/>
+      <c r="F15" s="213" t="s">
         <v>119</v>
       </c>
-      <c r="G15" s="215"/>
-      <c r="H15" s="217"/>
-      <c r="I15" s="218"/>
-      <c r="J15" s="221"/>
-      <c r="K15" s="210"/>
-      <c r="L15" s="212"/>
+      <c r="G15" s="214"/>
+      <c r="H15" s="216"/>
+      <c r="I15" s="217"/>
+      <c r="J15" s="220"/>
+      <c r="K15" s="209"/>
+      <c r="L15" s="211"/>
     </row>
     <row r="16" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="194" t="s">
+      <c r="A16" s="193" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="196" t="s">
+      <c r="B16" s="195" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="197"/>
-      <c r="D16" s="197"/>
-      <c r="E16" s="198"/>
-      <c r="F16" s="199" t="s">
+      <c r="C16" s="196"/>
+      <c r="D16" s="196"/>
+      <c r="E16" s="197"/>
+      <c r="F16" s="198" t="s">
         <v>116</v>
       </c>
-      <c r="G16" s="200"/>
-      <c r="H16" s="201"/>
-      <c r="I16" s="202"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="200"/>
+      <c r="I16" s="201"/>
       <c r="J16" s="127">
         <v>0.4</v>
       </c>
@@ -4051,19 +4049,19 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="195"/>
-      <c r="B17" s="203" t="s">
+      <c r="A17" s="194"/>
+      <c r="B17" s="202" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="204"/>
-      <c r="D17" s="204"/>
-      <c r="E17" s="205"/>
-      <c r="F17" s="206" t="s">
+      <c r="C17" s="203"/>
+      <c r="D17" s="203"/>
+      <c r="E17" s="204"/>
+      <c r="F17" s="205" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="207"/>
-      <c r="H17" s="201"/>
-      <c r="I17" s="202"/>
+      <c r="G17" s="206"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="201"/>
       <c r="J17" s="127">
         <v>0.4</v>
       </c>
@@ -4077,17 +4075,17 @@
       <c r="A18" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="182" t="s">
+      <c r="B18" s="181" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="183"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="183"/>
-      <c r="J18" s="184"/>
+      <c r="C18" s="182"/>
+      <c r="D18" s="182"/>
+      <c r="E18" s="182"/>
+      <c r="F18" s="182"/>
+      <c r="G18" s="182"/>
+      <c r="H18" s="182"/>
+      <c r="I18" s="182"/>
+      <c r="J18" s="183"/>
       <c r="K18" s="123"/>
       <c r="L18" s="122"/>
     </row>
@@ -4105,90 +4103,90 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="185" t="s">
+      <c r="A21" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="186"/>
-      <c r="C21" s="186"/>
-      <c r="D21" s="186"/>
-      <c r="E21" s="186"/>
-      <c r="F21" s="186"/>
-      <c r="G21" s="186"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="186"/>
-      <c r="J21" s="186"/>
-      <c r="K21" s="186"/>
-      <c r="L21" s="187"/>
+      <c r="B21" s="185"/>
+      <c r="C21" s="185"/>
+      <c r="D21" s="185"/>
+      <c r="E21" s="185"/>
+      <c r="F21" s="185"/>
+      <c r="G21" s="185"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="185"/>
+      <c r="J21" s="185"/>
+      <c r="K21" s="185"/>
+      <c r="L21" s="186"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="188"/>
-      <c r="B22" s="189"/>
-      <c r="C22" s="189"/>
-      <c r="D22" s="189"/>
-      <c r="E22" s="189"/>
-      <c r="F22" s="189"/>
-      <c r="G22" s="189"/>
-      <c r="H22" s="189"/>
-      <c r="I22" s="189"/>
-      <c r="J22" s="189"/>
-      <c r="K22" s="189"/>
-      <c r="L22" s="190"/>
+      <c r="A22" s="187"/>
+      <c r="B22" s="188"/>
+      <c r="C22" s="188"/>
+      <c r="D22" s="188"/>
+      <c r="E22" s="188"/>
+      <c r="F22" s="188"/>
+      <c r="G22" s="188"/>
+      <c r="H22" s="188"/>
+      <c r="I22" s="188"/>
+      <c r="J22" s="188"/>
+      <c r="K22" s="188"/>
+      <c r="L22" s="189"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="188"/>
-      <c r="B23" s="189"/>
-      <c r="C23" s="189"/>
-      <c r="D23" s="189"/>
-      <c r="E23" s="189"/>
-      <c r="F23" s="189"/>
-      <c r="G23" s="189"/>
-      <c r="H23" s="189"/>
-      <c r="I23" s="189"/>
-      <c r="J23" s="189"/>
-      <c r="K23" s="189"/>
-      <c r="L23" s="190"/>
+      <c r="A23" s="187"/>
+      <c r="B23" s="188"/>
+      <c r="C23" s="188"/>
+      <c r="D23" s="188"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="188"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="188"/>
+      <c r="J23" s="188"/>
+      <c r="K23" s="188"/>
+      <c r="L23" s="189"/>
     </row>
     <row r="24" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="188"/>
-      <c r="B24" s="189"/>
-      <c r="C24" s="189"/>
-      <c r="D24" s="189"/>
-      <c r="E24" s="189"/>
-      <c r="F24" s="189"/>
-      <c r="G24" s="189"/>
-      <c r="H24" s="189"/>
-      <c r="I24" s="189"/>
-      <c r="J24" s="189"/>
-      <c r="K24" s="189"/>
-      <c r="L24" s="190"/>
+      <c r="A24" s="187"/>
+      <c r="B24" s="188"/>
+      <c r="C24" s="188"/>
+      <c r="D24" s="188"/>
+      <c r="E24" s="188"/>
+      <c r="F24" s="188"/>
+      <c r="G24" s="188"/>
+      <c r="H24" s="188"/>
+      <c r="I24" s="188"/>
+      <c r="J24" s="188"/>
+      <c r="K24" s="188"/>
+      <c r="L24" s="189"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="191"/>
-      <c r="B25" s="192"/>
-      <c r="C25" s="192"/>
-      <c r="D25" s="192"/>
-      <c r="E25" s="192"/>
-      <c r="F25" s="192"/>
-      <c r="G25" s="192"/>
-      <c r="H25" s="192"/>
-      <c r="I25" s="192"/>
-      <c r="J25" s="192"/>
-      <c r="K25" s="192"/>
-      <c r="L25" s="193"/>
+      <c r="A25" s="190"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="191"/>
+      <c r="D25" s="191"/>
+      <c r="E25" s="191"/>
+      <c r="F25" s="191"/>
+      <c r="G25" s="191"/>
+      <c r="H25" s="191"/>
+      <c r="I25" s="191"/>
+      <c r="J25" s="191"/>
+      <c r="K25" s="191"/>
+      <c r="L25" s="192"/>
     </row>
     <row r="27" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="179" t="s">
+      <c r="A27" s="178" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="179"/>
-      <c r="C27" s="179"/>
-      <c r="D27" s="179"/>
-      <c r="E27" s="179"/>
-      <c r="F27" s="179"/>
-      <c r="G27" s="179"/>
-      <c r="H27" s="179"/>
-      <c r="I27" s="180"/>
-      <c r="J27" s="180"/>
+      <c r="B27" s="178"/>
+      <c r="C27" s="178"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="178"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="179"/>
+      <c r="J27" s="179"/>
       <c r="K27" s="119" t="s">
         <v>111</v>
       </c>
@@ -4198,18 +4196,18 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="179" t="s">
+      <c r="A28" s="178" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="179"/>
-      <c r="C28" s="179"/>
-      <c r="D28" s="179"/>
-      <c r="E28" s="179"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="179"/>
-      <c r="H28" s="179"/>
-      <c r="I28" s="180"/>
-      <c r="J28" s="180"/>
+      <c r="B28" s="178"/>
+      <c r="C28" s="178"/>
+      <c r="D28" s="178"/>
+      <c r="E28" s="178"/>
+      <c r="F28" s="178"/>
+      <c r="G28" s="178"/>
+      <c r="H28" s="178"/>
+      <c r="I28" s="179"/>
+      <c r="J28" s="179"/>
       <c r="K28" s="118" t="s">
         <v>111</v>
       </c>
@@ -4219,18 +4217,18 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="179" t="s">
+      <c r="A29" s="178" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="179"/>
-      <c r="C29" s="179"/>
-      <c r="D29" s="179"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="179"/>
-      <c r="H29" s="179"/>
-      <c r="I29" s="180"/>
-      <c r="J29" s="180"/>
+      <c r="B29" s="178"/>
+      <c r="C29" s="178"/>
+      <c r="D29" s="178"/>
+      <c r="E29" s="178"/>
+      <c r="F29" s="178"/>
+      <c r="G29" s="178"/>
+      <c r="H29" s="178"/>
+      <c r="I29" s="179"/>
+      <c r="J29" s="179"/>
       <c r="K29" s="118" t="s">
         <v>106</v>
       </c>
@@ -4240,18 +4238,18 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="179" t="s">
+      <c r="A30" s="178" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="179"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="179"/>
-      <c r="H30" s="179"/>
-      <c r="I30" s="180"/>
-      <c r="J30" s="180"/>
+      <c r="B30" s="178"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="178"/>
+      <c r="G30" s="178"/>
+      <c r="H30" s="178"/>
+      <c r="I30" s="179"/>
+      <c r="J30" s="179"/>
       <c r="K30" s="118" t="s">
         <v>108</v>
       </c>
@@ -4261,21 +4259,21 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="179" t="s">
+      <c r="A31" s="178" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="179"/>
-      <c r="C31" s="179"/>
-      <c r="D31" s="179"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="179"/>
-      <c r="H31" s="179"/>
-      <c r="I31" s="181">
+      <c r="B31" s="178"/>
+      <c r="C31" s="178"/>
+      <c r="D31" s="178"/>
+      <c r="E31" s="178"/>
+      <c r="F31" s="178"/>
+      <c r="G31" s="178"/>
+      <c r="H31" s="178"/>
+      <c r="I31" s="180">
         <f>L19</f>
         <v>0</v>
       </c>
-      <c r="J31" s="181"/>
+      <c r="J31" s="180"/>
       <c r="K31" s="118" t="s">
         <v>106</v>
       </c>
@@ -4297,14 +4295,14 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F33" s="176" t="s">
+      <c r="F33" s="175" t="s">
         <v>104</v>
       </c>
-      <c r="G33" s="177"/>
-      <c r="H33" s="177"/>
-      <c r="I33" s="177"/>
-      <c r="J33" s="177"/>
-      <c r="K33" s="178"/>
+      <c r="G33" s="176"/>
+      <c r="H33" s="176"/>
+      <c r="I33" s="176"/>
+      <c r="J33" s="176"/>
+      <c r="K33" s="177"/>
       <c r="L33" s="113">
         <f>L32/10</f>
         <v>0</v>
@@ -4394,10 +4392,11 @@
       <c r="L42" s="103"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K43" s="142"/>
+      <c r="K43" s="141"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="47">
+    <mergeCell ref="C4:F4"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="C5:F5"/>
@@ -4501,420 +4500,420 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="145"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="147" t="s">
+      <c r="F1" s="144"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="146" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="148"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="150"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="149"/>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="146"/>
-      <c r="I2" s="147" t="s">
+      <c r="H2" s="145"/>
+      <c r="I2" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="148"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="150"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="149"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="151" t="s">
+      <c r="A3" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="151"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="147" t="s">
+      <c r="B3" s="150"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="148"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="150"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="149"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="152" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="239"/>
-      <c r="F4" s="239"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="147" t="s">
+      <c r="B4" s="152"/>
+      <c r="C4" s="238"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="238"/>
+      <c r="F4" s="238"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="154"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="150"/>
-    </row>
-    <row r="5" spans="1:12" s="155" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="153" t="s">
+      <c r="J4" s="153"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="149"/>
+    </row>
+    <row r="5" spans="1:12" s="154" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="152" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="153"/>
-      <c r="C5" s="239"/>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="239"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="238"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
       <c r="K5" s="51"/>
     </row>
-    <row r="6" spans="1:12" s="155" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="153" t="s">
+    <row r="6" spans="1:12" s="154" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="153"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="156"/>
-    </row>
-    <row r="7" spans="1:12" s="155" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="151" t="s">
+      <c r="B6" s="152"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+    </row>
+    <row r="7" spans="1:12" s="154" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="151"/>
-      <c r="C7" s="239"/>
-      <c r="D7" s="239"/>
-      <c r="E7" s="239"/>
-      <c r="F7" s="239"/>
-      <c r="H7" s="151" t="s">
+      <c r="B7" s="150"/>
+      <c r="C7" s="238"/>
+      <c r="D7" s="238"/>
+      <c r="E7" s="238"/>
+      <c r="F7" s="238"/>
+      <c r="H7" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="151"/>
-      <c r="J7" s="152"/>
-      <c r="K7" s="152"/>
-      <c r="L7" s="157"/>
-    </row>
-    <row r="8" spans="1:12" s="155" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="153" t="s">
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="156"/>
+    </row>
+    <row r="8" spans="1:12" s="154" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="153"/>
-      <c r="C8" s="239"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="239"/>
-      <c r="F8" s="239"/>
-      <c r="H8" s="153" t="s">
+      <c r="B8" s="152"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="238"/>
+      <c r="E8" s="238"/>
+      <c r="F8" s="238"/>
+      <c r="H8" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="153"/>
-      <c r="J8" s="158"/>
-      <c r="K8" s="158"/>
-      <c r="L8" s="157"/>
-    </row>
-    <row r="9" spans="1:12" s="155" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="153" t="s">
+      <c r="I8" s="152"/>
+      <c r="J8" s="157"/>
+      <c r="K8" s="157"/>
+      <c r="L8" s="156"/>
+    </row>
+    <row r="9" spans="1:12" s="154" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="153"/>
-      <c r="C9" s="239"/>
-      <c r="D9" s="239"/>
-      <c r="E9" s="239"/>
-      <c r="F9" s="239"/>
+      <c r="B9" s="152"/>
+      <c r="C9" s="238"/>
+      <c r="D9" s="238"/>
+      <c r="E9" s="238"/>
+      <c r="F9" s="238"/>
       <c r="K9" s="51"/>
     </row>
-    <row r="10" spans="1:12" s="155" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="159"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="159"/>
+    <row r="10" spans="1:12" s="154" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="158"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
       <c r="K10" s="51"/>
     </row>
-    <row r="11" spans="1:12" s="155" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="159"/>
-      <c r="D11" s="159"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="159"/>
-      <c r="H11" s="241" t="s">
+    <row r="11" spans="1:12" s="154" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="158"/>
+      <c r="D11" s="158"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="158"/>
+      <c r="H11" s="240" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="242"/>
-      <c r="J11" s="243" t="s">
+      <c r="I11" s="241"/>
+      <c r="J11" s="242" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="244"/>
-      <c r="L11" s="245"/>
+      <c r="K11" s="243"/>
+      <c r="L11" s="244"/>
     </row>
     <row r="12" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="246" t="s">
+      <c r="A12" s="245" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="250" t="s">
+      <c r="B12" s="249" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="251"/>
-      <c r="D12" s="251"/>
-      <c r="E12" s="251"/>
-      <c r="F12" s="251"/>
-      <c r="G12" s="251"/>
-      <c r="H12" s="254"/>
-      <c r="I12" s="255"/>
-      <c r="J12" s="260" t="s">
+      <c r="C12" s="250"/>
+      <c r="D12" s="250"/>
+      <c r="E12" s="250"/>
+      <c r="F12" s="250"/>
+      <c r="G12" s="250"/>
+      <c r="H12" s="253"/>
+      <c r="I12" s="254"/>
+      <c r="J12" s="259" t="s">
         <v>136</v>
       </c>
-      <c r="K12" s="263">
+      <c r="K12" s="262">
         <f>SUM(B17:G17)/6</f>
         <v>0</v>
       </c>
-      <c r="L12" s="266">
+      <c r="L12" s="265">
         <f>ROUND(K12*0.6,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="247"/>
-      <c r="B13" s="252"/>
-      <c r="C13" s="253"/>
-      <c r="D13" s="253"/>
-      <c r="E13" s="253"/>
-      <c r="F13" s="253"/>
-      <c r="G13" s="253"/>
-      <c r="H13" s="256"/>
-      <c r="I13" s="257"/>
-      <c r="J13" s="261"/>
-      <c r="K13" s="264"/>
-      <c r="L13" s="267"/>
+      <c r="A13" s="246"/>
+      <c r="B13" s="251"/>
+      <c r="C13" s="252"/>
+      <c r="D13" s="252"/>
+      <c r="E13" s="252"/>
+      <c r="F13" s="252"/>
+      <c r="G13" s="252"/>
+      <c r="H13" s="255"/>
+      <c r="I13" s="256"/>
+      <c r="J13" s="260"/>
+      <c r="K13" s="263"/>
+      <c r="L13" s="266"/>
     </row>
     <row r="14" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="247"/>
-      <c r="B14" s="252"/>
-      <c r="C14" s="253"/>
-      <c r="D14" s="253"/>
-      <c r="E14" s="253"/>
-      <c r="F14" s="253"/>
-      <c r="G14" s="253"/>
-      <c r="H14" s="256"/>
-      <c r="I14" s="257"/>
-      <c r="J14" s="261"/>
-      <c r="K14" s="264"/>
-      <c r="L14" s="267"/>
+      <c r="A14" s="246"/>
+      <c r="B14" s="251"/>
+      <c r="C14" s="252"/>
+      <c r="D14" s="252"/>
+      <c r="E14" s="252"/>
+      <c r="F14" s="252"/>
+      <c r="G14" s="252"/>
+      <c r="H14" s="255"/>
+      <c r="I14" s="256"/>
+      <c r="J14" s="260"/>
+      <c r="K14" s="263"/>
+      <c r="L14" s="266"/>
     </row>
     <row r="15" spans="1:12" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="247"/>
-      <c r="B15" s="252"/>
-      <c r="C15" s="253"/>
-      <c r="D15" s="253"/>
-      <c r="E15" s="253"/>
-      <c r="F15" s="253"/>
-      <c r="G15" s="253"/>
-      <c r="H15" s="256"/>
-      <c r="I15" s="257"/>
-      <c r="J15" s="261"/>
-      <c r="K15" s="264"/>
-      <c r="L15" s="267"/>
+      <c r="A15" s="246"/>
+      <c r="B15" s="251"/>
+      <c r="C15" s="252"/>
+      <c r="D15" s="252"/>
+      <c r="E15" s="252"/>
+      <c r="F15" s="252"/>
+      <c r="G15" s="252"/>
+      <c r="H15" s="255"/>
+      <c r="I15" s="256"/>
+      <c r="J15" s="260"/>
+      <c r="K15" s="263"/>
+      <c r="L15" s="266"/>
     </row>
     <row r="16" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="248"/>
-      <c r="B16" s="160" t="s">
+      <c r="A16" s="247"/>
+      <c r="B16" s="159" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="161" t="s">
+      <c r="C16" s="160" t="s">
         <v>138</v>
       </c>
-      <c r="D16" s="162" t="s">
+      <c r="D16" s="161" t="s">
         <v>139</v>
       </c>
-      <c r="E16" s="161" t="s">
+      <c r="E16" s="160" t="s">
         <v>140</v>
       </c>
-      <c r="F16" s="161" t="s">
+      <c r="F16" s="160" t="s">
         <v>141</v>
       </c>
-      <c r="G16" s="163" t="s">
+      <c r="G16" s="162" t="s">
         <v>142</v>
       </c>
-      <c r="H16" s="256"/>
-      <c r="I16" s="257"/>
-      <c r="J16" s="261"/>
-      <c r="K16" s="264"/>
-      <c r="L16" s="267"/>
+      <c r="H16" s="255"/>
+      <c r="I16" s="256"/>
+      <c r="J16" s="260"/>
+      <c r="K16" s="263"/>
+      <c r="L16" s="266"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="249"/>
-      <c r="B17" s="164">
+      <c r="A17" s="248"/>
+      <c r="B17" s="163">
         <v>0</v>
       </c>
-      <c r="C17" s="165"/>
-      <c r="D17" s="165"/>
-      <c r="E17" s="165"/>
-      <c r="F17" s="165"/>
-      <c r="G17" s="166"/>
-      <c r="H17" s="258"/>
-      <c r="I17" s="259"/>
-      <c r="J17" s="262"/>
-      <c r="K17" s="265"/>
-      <c r="L17" s="268"/>
+      <c r="C17" s="164"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="164"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="257"/>
+      <c r="I17" s="258"/>
+      <c r="J17" s="261"/>
+      <c r="K17" s="264"/>
+      <c r="L17" s="267"/>
     </row>
     <row r="18" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="271" t="s">
+      <c r="A18" s="270" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="274" t="s">
+      <c r="B18" s="273" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="274"/>
-      <c r="D18" s="274"/>
-      <c r="E18" s="274"/>
-      <c r="F18" s="274"/>
-      <c r="G18" s="274"/>
-      <c r="H18" s="277"/>
-      <c r="I18" s="278"/>
-      <c r="J18" s="283" t="s">
+      <c r="C18" s="273"/>
+      <c r="D18" s="273"/>
+      <c r="E18" s="273"/>
+      <c r="F18" s="273"/>
+      <c r="G18" s="273"/>
+      <c r="H18" s="276"/>
+      <c r="I18" s="277"/>
+      <c r="J18" s="282" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="286">
+      <c r="K18" s="285">
         <v>0</v>
       </c>
-      <c r="L18" s="266">
+      <c r="L18" s="265">
         <f>IF((K18-K21)&gt;=0,(ROUND((K18-K21)*0.25,3)),0.00000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="272"/>
-      <c r="B19" s="275"/>
-      <c r="C19" s="275"/>
-      <c r="D19" s="275"/>
-      <c r="E19" s="275"/>
-      <c r="F19" s="275"/>
-      <c r="G19" s="275"/>
-      <c r="H19" s="279"/>
-      <c r="I19" s="280"/>
-      <c r="J19" s="284"/>
-      <c r="K19" s="287"/>
-      <c r="L19" s="267"/>
+      <c r="A19" s="271"/>
+      <c r="B19" s="274"/>
+      <c r="C19" s="274"/>
+      <c r="D19" s="274"/>
+      <c r="E19" s="274"/>
+      <c r="F19" s="274"/>
+      <c r="G19" s="274"/>
+      <c r="H19" s="278"/>
+      <c r="I19" s="279"/>
+      <c r="J19" s="283"/>
+      <c r="K19" s="286"/>
+      <c r="L19" s="266"/>
     </row>
     <row r="20" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="272"/>
-      <c r="B20" s="276"/>
-      <c r="C20" s="276"/>
-      <c r="D20" s="276"/>
-      <c r="E20" s="276"/>
-      <c r="F20" s="276"/>
-      <c r="G20" s="275"/>
-      <c r="H20" s="279"/>
-      <c r="I20" s="280"/>
-      <c r="J20" s="284"/>
-      <c r="K20" s="287"/>
-      <c r="L20" s="267"/>
+      <c r="A20" s="271"/>
+      <c r="B20" s="275"/>
+      <c r="C20" s="275"/>
+      <c r="D20" s="275"/>
+      <c r="E20" s="275"/>
+      <c r="F20" s="275"/>
+      <c r="G20" s="274"/>
+      <c r="H20" s="278"/>
+      <c r="I20" s="279"/>
+      <c r="J20" s="283"/>
+      <c r="K20" s="286"/>
+      <c r="L20" s="266"/>
     </row>
     <row r="21" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="273"/>
-      <c r="B21" s="167" t="s">
+      <c r="A21" s="272"/>
+      <c r="B21" s="166" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="168">
+      <c r="C21" s="167">
         <v>0</v>
       </c>
-      <c r="D21" s="168">
+      <c r="D21" s="167">
         <v>0</v>
       </c>
-      <c r="E21" s="168">
+      <c r="E21" s="167">
         <v>0</v>
       </c>
-      <c r="F21" s="168">
+      <c r="F21" s="167">
         <v>0</v>
       </c>
-      <c r="G21" s="168"/>
-      <c r="H21" s="281"/>
-      <c r="I21" s="282"/>
-      <c r="J21" s="285"/>
-      <c r="K21" s="169">
+      <c r="G21" s="167"/>
+      <c r="H21" s="280"/>
+      <c r="I21" s="281"/>
+      <c r="J21" s="284"/>
+      <c r="K21" s="168">
         <f>SUM(C21:G21)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="288"/>
+      <c r="L21" s="287"/>
     </row>
     <row r="22" spans="1:12" ht="87.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="271" t="s">
+      <c r="A22" s="270" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>145</v>
       </c>
-      <c r="C22" s="289"/>
-      <c r="D22" s="289"/>
-      <c r="E22" s="289"/>
-      <c r="F22" s="289"/>
-      <c r="G22" s="290"/>
-      <c r="H22" s="291"/>
-      <c r="I22" s="292"/>
-      <c r="J22" s="261" t="s">
+      <c r="C22" s="288"/>
+      <c r="D22" s="288"/>
+      <c r="E22" s="288"/>
+      <c r="F22" s="288"/>
+      <c r="G22" s="289"/>
+      <c r="H22" s="290"/>
+      <c r="I22" s="291"/>
+      <c r="J22" s="260" t="s">
         <v>146</v>
       </c>
-      <c r="K22" s="170">
+      <c r="K22" s="169">
         <v>0</v>
       </c>
-      <c r="L22" s="267">
+      <c r="L22" s="266">
         <f>IF((K22-K23)&gt;=0, ROUND((K22-K23)*0.15,3),0.000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="273"/>
-      <c r="B23" s="171" t="s">
+      <c r="A23" s="272"/>
+      <c r="B23" s="170" t="s">
         <v>144</v>
       </c>
-      <c r="C23" s="168">
+      <c r="C23" s="167">
         <v>0</v>
       </c>
-      <c r="D23" s="168">
+      <c r="D23" s="167">
         <v>0</v>
       </c>
-      <c r="E23" s="168">
+      <c r="E23" s="167">
         <v>0</v>
       </c>
-      <c r="F23" s="168">
+      <c r="F23" s="167">
         <v>0</v>
       </c>
-      <c r="G23" s="168"/>
-      <c r="H23" s="293"/>
-      <c r="I23" s="294"/>
-      <c r="J23" s="295"/>
-      <c r="K23" s="169">
+      <c r="G23" s="167"/>
+      <c r="H23" s="292"/>
+      <c r="I23" s="293"/>
+      <c r="J23" s="294"/>
+      <c r="K23" s="168">
         <f>SUM(C23:G23)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="288"/>
+      <c r="L23" s="287"/>
     </row>
     <row r="24" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="172"/>
-      <c r="B24" s="172"/>
-      <c r="C24" s="172"/>
-      <c r="D24" s="172"/>
-      <c r="E24" s="172"/>
-      <c r="F24" s="172"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="172"/>
+      <c r="A24" s="171"/>
+      <c r="B24" s="171"/>
+      <c r="C24" s="171"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="171"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="171"/>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I25" s="24" t="s">
         <v>7</v>
       </c>
       <c r="J25" s="25"/>
-      <c r="K25" s="269">
+      <c r="K25" s="268">
         <f>SUM(L12:L22)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="270"/>
+      <c r="L25" s="269"/>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I26" s="174"/>
-      <c r="J26" s="174"/>
-      <c r="K26" s="175"/>
-      <c r="L26" s="175"/>
+      <c r="I26" s="173"/>
+      <c r="J26" s="173"/>
+      <c r="K26" s="174"/>
+      <c r="L26" s="174"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4932,7 +4931,7 @@
       </c>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="173"/>
+      <c r="K30" s="172"/>
       <c r="L30" s="26"/>
     </row>
   </sheetData>
@@ -5049,10 +5048,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="296"/>
-      <c r="D5" s="296"/>
-      <c r="E5" s="296"/>
-      <c r="F5" s="296"/>
+      <c r="C5" s="295"/>
+      <c r="D5" s="295"/>
+      <c r="E5" s="295"/>
+      <c r="F5" s="295"/>
       <c r="H5" s="29"/>
       <c r="I5" s="30" t="s">
         <v>9</v>
@@ -5088,10 +5087,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="299"/>
-      <c r="D8" s="299"/>
-      <c r="E8" s="299"/>
-      <c r="F8" s="299"/>
+      <c r="C8" s="298"/>
+      <c r="D8" s="298"/>
+      <c r="E8" s="298"/>
+      <c r="F8" s="298"/>
       <c r="H8" s="4" t="s">
         <v>13</v>
       </c>
@@ -5106,30 +5105,30 @@
         <v>15</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="296"/>
-      <c r="D9" s="296"/>
-      <c r="E9" s="296"/>
-      <c r="F9" s="296"/>
+      <c r="C9" s="295"/>
+      <c r="D9" s="295"/>
+      <c r="E9" s="295"/>
+      <c r="F9" s="295"/>
       <c r="H9" s="27"/>
-      <c r="I9" s="297"/>
-      <c r="J9" s="298"/>
-      <c r="K9" s="298"/>
-      <c r="L9" s="298"/>
+      <c r="I9" s="296"/>
+      <c r="J9" s="297"/>
+      <c r="K9" s="297"/>
+      <c r="L9" s="297"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="296"/>
-      <c r="D10" s="296"/>
-      <c r="E10" s="296"/>
-      <c r="F10" s="296"/>
+      <c r="C10" s="295"/>
+      <c r="D10" s="295"/>
+      <c r="E10" s="295"/>
+      <c r="F10" s="295"/>
       <c r="H10" s="27"/>
-      <c r="I10" s="297"/>
-      <c r="J10" s="298"/>
-      <c r="K10" s="298"/>
-      <c r="L10" s="298"/>
+      <c r="I10" s="296"/>
+      <c r="J10" s="297"/>
+      <c r="K10" s="297"/>
+      <c r="L10" s="297"/>
     </row>
     <row r="11" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -5201,7 +5200,7 @@
         <v>0.8</v>
       </c>
       <c r="G18" s="68"/>
-      <c r="H18" s="143">
+      <c r="H18" s="142">
         <f>IF(E18&gt;12,13,E18)</f>
         <v>0</v>
       </c>
@@ -5225,7 +5224,7 @@
         <v>0.4</v>
       </c>
       <c r="G19" s="68"/>
-      <c r="H19" s="143">
+      <c r="H19" s="142">
         <f>IF(SUM(E18:E19)&gt;12,13-H18,E19)</f>
         <v>0</v>
       </c>
@@ -5249,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="68"/>
-      <c r="H20" s="143">
+      <c r="H20" s="142">
         <f>IF(SUM(E18:E20)&gt;12,IF(13-SUM(H18:H19)&gt;0,13-SUM(H18:H19),0),E20)</f>
         <v>0</v>
       </c>
@@ -5498,10 +5497,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="296"/>
-      <c r="D5" s="296"/>
-      <c r="E5" s="296"/>
-      <c r="F5" s="296"/>
+      <c r="C5" s="295"/>
+      <c r="D5" s="295"/>
+      <c r="E5" s="295"/>
+      <c r="F5" s="295"/>
       <c r="H5" s="29"/>
       <c r="I5" s="30" t="s">
         <v>9</v>
@@ -5543,10 +5542,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="299"/>
-      <c r="D8" s="299"/>
-      <c r="E8" s="299"/>
-      <c r="F8" s="299"/>
+      <c r="C8" s="298"/>
+      <c r="D8" s="298"/>
+      <c r="E8" s="298"/>
+      <c r="F8" s="298"/>
       <c r="H8" s="4" t="s">
         <v>13</v>
       </c>
@@ -5561,30 +5560,30 @@
         <v>15</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="296"/>
-      <c r="D9" s="296"/>
-      <c r="E9" s="296"/>
-      <c r="F9" s="296"/>
+      <c r="C9" s="295"/>
+      <c r="D9" s="295"/>
+      <c r="E9" s="295"/>
+      <c r="F9" s="295"/>
       <c r="H9" s="27"/>
-      <c r="I9" s="297"/>
-      <c r="J9" s="298"/>
-      <c r="K9" s="298"/>
-      <c r="L9" s="298"/>
+      <c r="I9" s="296"/>
+      <c r="J9" s="297"/>
+      <c r="K9" s="297"/>
+      <c r="L9" s="297"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="296"/>
-      <c r="D10" s="296"/>
-      <c r="E10" s="296"/>
-      <c r="F10" s="296"/>
+      <c r="C10" s="295"/>
+      <c r="D10" s="295"/>
+      <c r="E10" s="295"/>
+      <c r="F10" s="295"/>
       <c r="H10" s="27"/>
-      <c r="I10" s="297"/>
-      <c r="J10" s="298"/>
-      <c r="K10" s="298"/>
-      <c r="L10" s="298"/>
+      <c r="I10" s="296"/>
+      <c r="J10" s="297"/>
+      <c r="K10" s="297"/>
+      <c r="L10" s="297"/>
     </row>
     <row r="11" spans="1:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K11" s="14" t="s">
@@ -5592,19 +5591,19 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="302" t="s">
+      <c r="A12" s="301" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="305" t="s">
+      <c r="B12" s="304" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="306"/>
-      <c r="D12" s="306"/>
-      <c r="E12" s="306"/>
-      <c r="F12" s="306"/>
-      <c r="G12" s="306"/>
-      <c r="H12" s="306"/>
-      <c r="I12" s="306"/>
+      <c r="C12" s="305"/>
+      <c r="D12" s="305"/>
+      <c r="E12" s="305"/>
+      <c r="F12" s="305"/>
+      <c r="G12" s="305"/>
+      <c r="H12" s="305"/>
+      <c r="I12" s="305"/>
       <c r="J12" s="11" t="s">
         <v>1</v>
       </c>
@@ -5616,17 +5615,17 @@
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="303"/>
-      <c r="B13" s="307" t="s">
+      <c r="A13" s="302"/>
+      <c r="B13" s="306" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="308"/>
-      <c r="D13" s="308"/>
-      <c r="E13" s="308"/>
-      <c r="F13" s="308"/>
-      <c r="G13" s="308"/>
-      <c r="H13" s="308"/>
-      <c r="I13" s="308"/>
+      <c r="C13" s="307"/>
+      <c r="D13" s="307"/>
+      <c r="E13" s="307"/>
+      <c r="F13" s="307"/>
+      <c r="G13" s="307"/>
+      <c r="H13" s="307"/>
+      <c r="I13" s="307"/>
       <c r="J13" s="12" t="s">
         <v>2</v>
       </c>
@@ -5638,19 +5637,19 @@
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="302" t="s">
+      <c r="A14" s="301" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="309" t="s">
+      <c r="B14" s="308" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="310"/>
-      <c r="D14" s="310"/>
-      <c r="E14" s="310"/>
-      <c r="F14" s="310"/>
-      <c r="G14" s="310"/>
-      <c r="H14" s="310"/>
-      <c r="I14" s="310"/>
+      <c r="C14" s="309"/>
+      <c r="D14" s="309"/>
+      <c r="E14" s="309"/>
+      <c r="F14" s="309"/>
+      <c r="G14" s="309"/>
+      <c r="H14" s="309"/>
+      <c r="I14" s="309"/>
       <c r="J14" s="11" t="s">
         <v>3</v>
       </c>
@@ -5662,17 +5661,17 @@
       <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="304"/>
-      <c r="B15" s="300" t="s">
+      <c r="A15" s="303"/>
+      <c r="B15" s="299" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="301"/>
-      <c r="D15" s="301"/>
-      <c r="E15" s="301"/>
-      <c r="F15" s="301"/>
-      <c r="G15" s="301"/>
-      <c r="H15" s="301"/>
-      <c r="I15" s="301"/>
+      <c r="C15" s="300"/>
+      <c r="D15" s="300"/>
+      <c r="E15" s="300"/>
+      <c r="F15" s="300"/>
+      <c r="G15" s="300"/>
+      <c r="H15" s="300"/>
+      <c r="I15" s="300"/>
       <c r="J15" s="13" t="s">
         <v>4</v>
       </c>
@@ -5684,17 +5683,17 @@
       <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="303"/>
-      <c r="B16" s="311" t="s">
+      <c r="A16" s="302"/>
+      <c r="B16" s="310" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="308"/>
-      <c r="D16" s="308"/>
-      <c r="E16" s="308"/>
-      <c r="F16" s="308"/>
-      <c r="G16" s="308"/>
-      <c r="H16" s="308"/>
-      <c r="I16" s="308"/>
+      <c r="C16" s="307"/>
+      <c r="D16" s="307"/>
+      <c r="E16" s="307"/>
+      <c r="F16" s="307"/>
+      <c r="G16" s="307"/>
+      <c r="H16" s="307"/>
+      <c r="I16" s="307"/>
       <c r="J16" s="12" t="s">
         <v>5</v>
       </c>

--- a/mallar/Protokoll/Protokoll_2019_Pas_de_deux_klass(mall).xlsx
+++ b/mallar/Protokoll/Protokoll_2019_Pas_de_deux_klass(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B364BC-40D3-4BBB-9201-78968E74486A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F125DBF2-B807-436E-8AE6-417143A5738D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="16200" windowHeight="9398" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="24" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <definedName name="datum" localSheetId="2">'Pas-de-Deux Häst'!$C$3</definedName>
     <definedName name="datum" localSheetId="3">'Pas-de-Deux tekn'!$C$4</definedName>
     <definedName name="datum" localSheetId="1">'Skritt pas-de-deux'!$C$4</definedName>
-    <definedName name="domare" localSheetId="4">'Pas-de-Deux art'!$C$27</definedName>
+    <definedName name="domare" localSheetId="4">'Pas-de-Deux art'!$C$26</definedName>
     <definedName name="domare" localSheetId="2">'Pas-de-Deux Häst'!$C$30</definedName>
     <definedName name="domare" localSheetId="3">'Pas-de-Deux tekn'!$C$36</definedName>
     <definedName name="domare" localSheetId="1">'Skritt pas-de-deux'!$C$40</definedName>
@@ -55,11 +55,11 @@
     <definedName name="moment" localSheetId="2">'Pas-de-Deux Häst'!$L$4</definedName>
     <definedName name="moment" localSheetId="3">'Pas-de-Deux tekn'!$L$5</definedName>
     <definedName name="moment" localSheetId="1">'Skritt pas-de-deux'!$L$5</definedName>
-    <definedName name="result" localSheetId="4">'Pas-de-Deux art'!$L$21</definedName>
+    <definedName name="result" localSheetId="4">'Pas-de-Deux art'!$L$20</definedName>
     <definedName name="result" localSheetId="2">'Pas-de-Deux Häst'!$K$25</definedName>
     <definedName name="result" localSheetId="3">'Pas-de-Deux tekn'!$L$32</definedName>
     <definedName name="result" localSheetId="1">'Skritt pas-de-deux'!$L$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Pas-de-Deux art'!$A$1:$M$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Pas-de-Deux art'!$A$1:$M$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Pas-de-Deux Häst'!$A$1:$L$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Pas-de-Deux tekn'!$A$1:$L$47</definedName>
   </definedNames>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="146">
   <si>
     <t>Nation:</t>
   </si>
@@ -91,16 +91,8 @@
 25%</t>
   </si>
   <si>
-    <t>C3
-20%</t>
-  </si>
-  <si>
     <t>C4
 20%</t>
-  </si>
-  <si>
-    <t>C5
-10%</t>
   </si>
   <si>
     <t>A2
@@ -243,65 +235,6 @@
   <si>
     <t>KOREOGRAFI
 50%</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Sammanhållning av sammansättning
-• </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Mjuka övergångar och rörelser som visar samband och flyt.
-• Komplexitet av upp- och nedbyggnad av övningar.
-• Undvikande av tom häst 
-• Urval av övergångar i harmoni med hästen.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Kreatitivitet &amp; originalitet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-• Använder unika övergångar, övningar, positioner, kombinationer och sekvenser av övningar.
-• Höjdpunkter
-• Individualitet</t>
-    </r>
   </si>
   <si>
     <t>Artistisk poäng</t>
@@ -859,6 +792,47 @@
   </si>
   <si>
     <t>Signatur</t>
+  </si>
+  <si>
+    <t>C3
+30%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sammanhållning av sammansättning och komplexitet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+• Val av element och sekvenser i harmoni med hästen.
+• Mjuka övergångar och rörelser som visar på sammanhållning och flyt.
+• Hög komplexitet av element, övergångar, positioner och kombinationer av övningar.
+• Urval av element och sekvenser i harmoni med hästen.
+• Förmåga att kontrollera och länka samman röresler och positioner i instabil jämvikt. Rörelsefrihet. 
+• Undviker tom häst</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
@@ -1839,7 +1813,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="311">
+  <cellXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1889,9 +1863,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2251,14 +2222,170 @@
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="32" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="24" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="38" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2267,174 +2394,185 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="169" fontId="2" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="32" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="24" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="38" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2443,173 +2581,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2647,13 +2618,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3107,666 +3075,666 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.59765625" style="82" customWidth="1"/>
-    <col min="2" max="18" width="15.73046875" style="82" customWidth="1"/>
-    <col min="19" max="16384" width="9.1328125" style="82"/>
+    <col min="1" max="1" width="21.59765625" style="81" customWidth="1"/>
+    <col min="2" max="18" width="15.73046875" style="81" customWidth="1"/>
+    <col min="19" max="16384" width="9.1328125" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="86" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="81" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="139" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="139" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="A7" s="90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="A8" s="89"/>
+    </row>
+    <row r="9" spans="1:5" s="80" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A9" s="81"/>
+      <c r="B9" s="82" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="134" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="135"/>
+    </row>
+    <row r="15" spans="1:5" s="82" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A15" s="138" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="80"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="81" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="82" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A19" s="82" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="83" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="82"/>
+    </row>
+    <row r="22" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="134" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="134" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="136"/>
+    </row>
+    <row r="23" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="135"/>
+      <c r="C23" s="135"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="135"/>
+    </row>
+    <row r="25" spans="1:9" s="82" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A25" s="82" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="83"/>
+    </row>
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+    </row>
+    <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="134" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="134" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="136"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="135"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B29" s="135"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="135"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B30" s="135"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="135"/>
+      <c r="E30" s="135"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B31" s="135"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="135"/>
+    </row>
+    <row r="32" spans="1:9" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A32" s="82" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="83" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="H35" s="82" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="134" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="134" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="137"/>
+      <c r="F36" s="134" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="H36" s="134" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="135"/>
+      <c r="C37" s="135"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="135"/>
+      <c r="F37" s="135"/>
+      <c r="G37" s="135"/>
+      <c r="H37" s="135"/>
+    </row>
+    <row r="39" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A39" s="82" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="J41" s="83"/>
+    </row>
+    <row r="42" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="H42" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="I42" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="J42" s="82"/>
+      <c r="K42" s="82"/>
+      <c r="L42" s="82"/>
+      <c r="M42" s="82"/>
+    </row>
+    <row r="43" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="134" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="134" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="134" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="H43" s="134" t="s">
+        <v>67</v>
+      </c>
+      <c r="I43" s="134" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A46" s="80" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" s="88" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A47" s="87" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="87" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" s="87" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" s="84" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="84"/>
+      <c r="B49" s="84"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="85" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="80" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A52" s="80" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A53" s="89" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A54" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="92" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="82" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-    </row>
-    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="82" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="140" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="140" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.4">
-      <c r="A7" s="91" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.4">
-      <c r="A8" s="90"/>
-    </row>
-    <row r="9" spans="1:5" s="81" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
-      <c r="A9" s="82"/>
-      <c r="B9" s="83" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="82" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="135" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="136"/>
-    </row>
-    <row r="15" spans="1:5" s="83" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A15" s="139" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="81"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="82" t="s">
+      <c r="C54" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="92" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="82" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="83" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A19" s="83" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="84" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="83" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="83"/>
-    </row>
-    <row r="22" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="82" t="s">
-        <v>130</v>
-      </c>
-      <c r="B22" s="135" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="135" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="137"/>
-    </row>
-    <row r="23" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="136"/>
-      <c r="C23" s="136"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-    </row>
-    <row r="25" spans="1:9" s="83" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A25" s="83" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="84" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="84"/>
-    </row>
-    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="83" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="83" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-    </row>
-    <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="82" t="s">
-        <v>130</v>
-      </c>
-      <c r="B28" s="135" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="135" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="137"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="136"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B29" s="136"/>
-      <c r="C29" s="136"/>
-      <c r="D29" s="136"/>
-      <c r="E29" s="136"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B30" s="136"/>
-      <c r="C30" s="136"/>
-      <c r="D30" s="136"/>
-      <c r="E30" s="136"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B31" s="136"/>
-      <c r="C31" s="136"/>
-      <c r="D31" s="136"/>
-      <c r="E31" s="136"/>
-    </row>
-    <row r="32" spans="1:9" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A32" s="83" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="84" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" s="84" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="83" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83" t="s">
-        <v>62</v>
-      </c>
-      <c r="G35" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="H35" s="83" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="82" t="s">
-        <v>130</v>
-      </c>
-      <c r="B36" s="135" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="135" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="138"/>
-      <c r="F36" s="135" t="s">
-        <v>69</v>
-      </c>
-      <c r="G36" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="H36" s="135" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="136"/>
-      <c r="C37" s="136"/>
-      <c r="D37" s="136"/>
-      <c r="E37" s="136"/>
-      <c r="F37" s="136"/>
-      <c r="G37" s="136"/>
-      <c r="H37" s="136"/>
-    </row>
-    <row r="39" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A39" s="83" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="84" t="s">
-        <v>60</v>
-      </c>
-      <c r="F41" s="84" t="s">
-        <v>61</v>
-      </c>
-      <c r="J41" s="84"/>
-    </row>
-    <row r="42" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="83" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42" s="83" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42" s="83" t="s">
-        <v>62</v>
-      </c>
-      <c r="G42" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="H42" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="I42" s="83" t="s">
-        <v>66</v>
-      </c>
-      <c r="J42" s="83"/>
-      <c r="K42" s="83"/>
-      <c r="L42" s="83"/>
-      <c r="M42" s="83"/>
-    </row>
-    <row r="43" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="82" t="s">
-        <v>130</v>
-      </c>
-      <c r="B43" s="135" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="135" t="s">
-        <v>71</v>
-      </c>
-      <c r="E43" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="F43" s="135" t="s">
-        <v>69</v>
-      </c>
-      <c r="G43" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="H43" s="135" t="s">
-        <v>71</v>
-      </c>
-      <c r="I43" s="135" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="17.25" x14ac:dyDescent="0.45">
-      <c r="A46" s="81" t="s">
+      <c r="E54" s="92" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="89" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A47" s="88" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="E47" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="F47" s="88" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="85" t="s">
+    <row r="55" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" s="93" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="93"/>
+      <c r="B56" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="95" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="D48" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="E48" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="F48" s="85" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="85"/>
-      <c r="B49" s="85"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="86" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="81" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
-      <c r="A52" s="81" t="s">
+    </row>
+    <row r="57" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="94"/>
+      <c r="B57" s="94"/>
+      <c r="C57" s="94"/>
+      <c r="D57" s="94"/>
+      <c r="E57" s="94"/>
+    </row>
+    <row r="58" spans="1:6" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A58" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58" s="92" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="93" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" s="83" customFormat="1" ht="15" x14ac:dyDescent="0.4">
-      <c r="A53" s="90" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" customFormat="1" ht="15" x14ac:dyDescent="0.4">
-      <c r="A54" s="92" t="s">
+      <c r="B59" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="E59" s="93" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="93"/>
+      <c r="B60" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="93" t="s">
+      <c r="E60" s="93" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="C54" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="D54" s="93" t="s">
+    </row>
+    <row r="62" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="93"/>
+      <c r="B62" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" s="95" t="s">
+        <v>97</v>
+      </c>
+      <c r="E62" s="93" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="90" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A65" s="89" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A66" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="D66" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E66" s="92" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="E54" s="93" t="s">
+      <c r="D67" s="93" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="94" t="s">
+      <c r="E67" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="B55" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="C55" s="94" t="s">
-        <v>92</v>
-      </c>
-      <c r="D55" s="94" t="s">
+    </row>
+    <row r="68" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="93"/>
+      <c r="B68" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="D68" s="95" t="s">
+        <v>97</v>
+      </c>
+      <c r="E68" s="95" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A70" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="E55" s="94" t="s">
+      <c r="B70" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="D70" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E70" s="92" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="E71" s="93" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="93"/>
+      <c r="B72" s="93" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="94"/>
-      <c r="B56" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C56" s="96" t="s">
-        <v>100</v>
-      </c>
-      <c r="D56" s="96" t="s">
-        <v>101</v>
-      </c>
-      <c r="E56" s="94" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="95"/>
-      <c r="B57" s="95"/>
-      <c r="C57" s="95"/>
-      <c r="D57" s="95"/>
-      <c r="E57" s="95"/>
-    </row>
-    <row r="58" spans="1:6" customFormat="1" ht="15" x14ac:dyDescent="0.4">
-      <c r="A58" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="B58" s="93" t="s">
+      <c r="C72" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="D72" s="95" t="s">
+        <v>97</v>
+      </c>
+      <c r="E72" s="95" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="D73" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="E73" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="C58" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="D58" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="E58" s="93" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="94" t="s">
-        <v>90</v>
-      </c>
-      <c r="B59" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="C59" s="94" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" s="94" t="s">
-        <v>94</v>
-      </c>
-      <c r="E59" s="94" t="s">
+    </row>
+    <row r="74" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="93"/>
+      <c r="B74" s="93" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="94"/>
-      <c r="B60" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C60" s="96" t="s">
-        <v>100</v>
-      </c>
-      <c r="D60" s="96" t="s">
-        <v>101</v>
-      </c>
-      <c r="E60" s="94" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="94" t="s">
-        <v>90</v>
-      </c>
-      <c r="B61" s="94" t="s">
-        <v>92</v>
-      </c>
-      <c r="C61" s="94" t="s">
-        <v>94</v>
-      </c>
-      <c r="D61" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="E61" s="94" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="94"/>
-      <c r="B62" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C62" s="96" t="s">
-        <v>100</v>
-      </c>
-      <c r="D62" s="96" t="s">
-        <v>101</v>
-      </c>
-      <c r="E62" s="94" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="91" customFormat="1" ht="15" x14ac:dyDescent="0.4">
-      <c r="A65" s="90" t="s">
+      <c r="C74" s="95" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" customFormat="1" ht="15" x14ac:dyDescent="0.4">
-      <c r="A66" s="92" t="s">
+      <c r="D74" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="B66" s="93" t="s">
-        <v>87</v>
-      </c>
-      <c r="C66" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="D66" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="E66" s="93" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="94" t="s">
-        <v>90</v>
-      </c>
-      <c r="B67" s="94" t="s">
-        <v>91</v>
-      </c>
-      <c r="C67" s="94" t="s">
-        <v>92</v>
-      </c>
-      <c r="D67" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="E67" s="94" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="94"/>
-      <c r="B68" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C68" s="96" t="s">
-        <v>100</v>
-      </c>
-      <c r="D68" s="96" t="s">
-        <v>101</v>
-      </c>
-      <c r="E68" s="96" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" customFormat="1" ht="15" x14ac:dyDescent="0.4">
-      <c r="A70" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="B70" s="93" t="s">
-        <v>87</v>
-      </c>
-      <c r="C70" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="D70" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="E70" s="93" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="94" t="s">
-        <v>90</v>
-      </c>
-      <c r="B71" s="94" t="s">
-        <v>91</v>
-      </c>
-      <c r="C71" s="94" t="s">
-        <v>92</v>
-      </c>
-      <c r="D71" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="E71" s="94" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="94"/>
-      <c r="B72" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C72" s="96" t="s">
-        <v>100</v>
-      </c>
-      <c r="D72" s="96" t="s">
-        <v>101</v>
-      </c>
-      <c r="E72" s="96" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="94" t="s">
-        <v>90</v>
-      </c>
-      <c r="B73" s="94" t="s">
-        <v>94</v>
-      </c>
-      <c r="C73" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="D73" s="94" t="s">
-        <v>92</v>
-      </c>
-      <c r="E73" s="94" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="94"/>
-      <c r="B74" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C74" s="96" t="s">
-        <v>100</v>
-      </c>
-      <c r="D74" s="96" t="s">
-        <v>101</v>
-      </c>
-      <c r="E74" s="96" t="s">
-        <v>100</v>
+      <c r="E74" s="95" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3786,634 +3754,636 @@
   </sheetPr>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.265625" style="102" customWidth="1"/>
-    <col min="2" max="3" width="9.1328125" style="102"/>
-    <col min="4" max="4" width="2.73046875" style="102" customWidth="1"/>
-    <col min="5" max="6" width="7.265625" style="102" customWidth="1"/>
-    <col min="7" max="7" width="6.86328125" style="102" customWidth="1"/>
-    <col min="8" max="8" width="6.59765625" style="102" customWidth="1"/>
-    <col min="9" max="9" width="6.1328125" style="102" customWidth="1"/>
-    <col min="10" max="11" width="7.265625" style="102" customWidth="1"/>
-    <col min="12" max="12" width="8.73046875" style="102" customWidth="1"/>
-    <col min="13" max="13" width="7.265625" style="102" customWidth="1"/>
-    <col min="14" max="16384" width="9.1328125" style="102"/>
+    <col min="1" max="1" width="8.265625" style="101" customWidth="1"/>
+    <col min="2" max="3" width="9.1328125" style="101"/>
+    <col min="4" max="4" width="2.73046875" style="101" customWidth="1"/>
+    <col min="5" max="6" width="7.265625" style="101" customWidth="1"/>
+    <col min="7" max="7" width="6.86328125" style="101" customWidth="1"/>
+    <col min="8" max="8" width="6.59765625" style="101" customWidth="1"/>
+    <col min="9" max="9" width="6.1328125" style="101" customWidth="1"/>
+    <col min="10" max="11" width="7.265625" style="101" customWidth="1"/>
+    <col min="12" max="12" width="8.73046875" style="101" customWidth="1"/>
+    <col min="13" max="13" width="7.265625" style="101" customWidth="1"/>
+    <col min="14" max="16384" width="9.1328125" style="101"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="132" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="134"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
+      <c r="A2" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="132"/>
+      <c r="I2" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="133"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="112" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" s="133"/>
-      <c r="I3" s="132" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="134"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
+      <c r="A3" s="111" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="132"/>
+      <c r="I3" s="131" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="133"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="235"/>
-      <c r="D4" s="235"/>
-      <c r="E4" s="235"/>
-      <c r="F4" s="235"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="132" t="s">
+      <c r="A4" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="134"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="131" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="133"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="129" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="129"/>
-      <c r="C5" s="221"/>
-      <c r="D5" s="221"/>
-      <c r="E5" s="221"/>
-      <c r="F5" s="221"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="132" t="s">
+      <c r="A5" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="131"/>
-      <c r="K5" s="130"/>
-      <c r="L5" s="130"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="131" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="130"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="101" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="128" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="128"/>
+      <c r="C7" s="175"/>
+      <c r="D7" s="175"/>
+      <c r="E7" s="175"/>
+      <c r="F7" s="175"/>
+      <c r="H7" s="108" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" s="178"/>
+      <c r="J7" s="179"/>
+      <c r="K7" s="179"/>
+      <c r="L7" s="179"/>
+    </row>
+    <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="108"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="174"/>
+      <c r="H8" s="128" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="180"/>
+      <c r="J8" s="181"/>
+      <c r="K8" s="181"/>
+      <c r="L8" s="181"/>
+    </row>
+    <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="128"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="175"/>
+      <c r="I9" s="176"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="177"/>
+      <c r="L9" s="177"/>
+    </row>
+    <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="102" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="129" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="129"/>
-      <c r="C7" s="221"/>
-      <c r="D7" s="221"/>
-      <c r="E7" s="221"/>
-      <c r="F7" s="221"/>
-      <c r="H7" s="109" t="s">
-        <v>122</v>
-      </c>
-      <c r="I7" s="233"/>
-      <c r="J7" s="234"/>
-      <c r="K7" s="234"/>
-      <c r="L7" s="234"/>
-    </row>
-    <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="235"/>
-      <c r="D8" s="235"/>
-      <c r="E8" s="235"/>
-      <c r="F8" s="235"/>
-      <c r="H8" s="129" t="s">
-        <v>121</v>
-      </c>
-      <c r="I8" s="236"/>
-      <c r="J8" s="237"/>
-      <c r="K8" s="237"/>
-      <c r="L8" s="237"/>
-    </row>
-    <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="129" t="s">
+      <c r="B10" s="128"/>
+      <c r="C10" s="175"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="175"/>
+      <c r="F10" s="175"/>
+      <c r="I10" s="176"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="177"/>
+      <c r="L10" s="177"/>
+    </row>
+    <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="176"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="177"/>
+      <c r="L11" s="177"/>
+    </row>
+    <row r="12" spans="1:12" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A12" s="127" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="191" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="129"/>
-      <c r="C9" s="221"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="I9" s="222"/>
-      <c r="J9" s="223"/>
-      <c r="K9" s="223"/>
-      <c r="L9" s="223"/>
-    </row>
-    <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="129" t="s">
+      <c r="I12" s="192"/>
+      <c r="J12" s="193" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="129"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="I10" s="222"/>
-      <c r="J10" s="223"/>
-      <c r="K10" s="223"/>
-      <c r="L10" s="223"/>
-    </row>
-    <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I11" s="222"/>
-      <c r="J11" s="223"/>
-      <c r="K11" s="223"/>
-      <c r="L11" s="223"/>
-    </row>
-    <row r="12" spans="1:12" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A12" s="128" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="224" t="s">
+      <c r="K12" s="194"/>
+      <c r="L12" s="195"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="182" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="185" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="225"/>
-      <c r="J12" s="226" t="s">
+      <c r="C13" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="227"/>
-      <c r="L12" s="228"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="193" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="212" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="212" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="212"/>
-      <c r="E13" s="212"/>
-      <c r="F13" s="198" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="230"/>
-      <c r="H13" s="231"/>
-      <c r="I13" s="232"/>
-      <c r="J13" s="218">
+      <c r="D13" s="185"/>
+      <c r="E13" s="185"/>
+      <c r="F13" s="187" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="188"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="190"/>
+      <c r="J13" s="207">
         <v>0.2</v>
       </c>
-      <c r="K13" s="207"/>
-      <c r="L13" s="210">
+      <c r="K13" s="196"/>
+      <c r="L13" s="199">
         <f>K13*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="229"/>
-      <c r="B14" s="212"/>
-      <c r="C14" s="212" t="s">
+      <c r="A14" s="183"/>
+      <c r="B14" s="185"/>
+      <c r="C14" s="185" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="185"/>
+      <c r="E14" s="185"/>
+      <c r="F14" s="201" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="202"/>
+      <c r="H14" s="203"/>
+      <c r="I14" s="204"/>
+      <c r="J14" s="208"/>
+      <c r="K14" s="197"/>
+      <c r="L14" s="199"/>
+    </row>
+    <row r="15" spans="1:12" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="184"/>
+      <c r="B15" s="186"/>
+      <c r="C15" s="186" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="212"/>
-      <c r="E14" s="212"/>
-      <c r="F14" s="213" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="214"/>
-      <c r="H14" s="200"/>
-      <c r="I14" s="201"/>
-      <c r="J14" s="219"/>
-      <c r="K14" s="208"/>
-      <c r="L14" s="210"/>
-    </row>
-    <row r="15" spans="1:12" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="194"/>
-      <c r="B15" s="215"/>
-      <c r="C15" s="215" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="215"/>
-      <c r="E15" s="215"/>
-      <c r="F15" s="213" t="s">
-        <v>119</v>
-      </c>
-      <c r="G15" s="214"/>
-      <c r="H15" s="216"/>
-      <c r="I15" s="217"/>
-      <c r="J15" s="220"/>
-      <c r="K15" s="209"/>
-      <c r="L15" s="211"/>
+      <c r="D15" s="186"/>
+      <c r="E15" s="186"/>
+      <c r="F15" s="201" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" s="202"/>
+      <c r="H15" s="205"/>
+      <c r="I15" s="206"/>
+      <c r="J15" s="209"/>
+      <c r="K15" s="198"/>
+      <c r="L15" s="200"/>
     </row>
     <row r="16" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="193" t="s">
-        <v>118</v>
-      </c>
-      <c r="B16" s="195" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="196"/>
-      <c r="D16" s="196"/>
-      <c r="E16" s="197"/>
-      <c r="F16" s="198" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16" s="199"/>
-      <c r="H16" s="200"/>
-      <c r="I16" s="201"/>
-      <c r="J16" s="127">
+      <c r="A16" s="182" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="210" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="211"/>
+      <c r="D16" s="211"/>
+      <c r="E16" s="212"/>
+      <c r="F16" s="187" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="213"/>
+      <c r="H16" s="203"/>
+      <c r="I16" s="204"/>
+      <c r="J16" s="126">
         <v>0.4</v>
       </c>
-      <c r="K16" s="126"/>
-      <c r="L16" s="125">
+      <c r="K16" s="125"/>
+      <c r="L16" s="124">
         <f>K16*0.4</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="194"/>
-      <c r="B17" s="202" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="203"/>
-      <c r="D17" s="203"/>
-      <c r="E17" s="204"/>
-      <c r="F17" s="205" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="206"/>
-      <c r="H17" s="200"/>
-      <c r="I17" s="201"/>
-      <c r="J17" s="127">
+      <c r="A17" s="184"/>
+      <c r="B17" s="214" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="215"/>
+      <c r="D17" s="215"/>
+      <c r="E17" s="216"/>
+      <c r="F17" s="217" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="218"/>
+      <c r="H17" s="203"/>
+      <c r="I17" s="204"/>
+      <c r="J17" s="126">
         <v>0.4</v>
       </c>
-      <c r="K17" s="126"/>
-      <c r="L17" s="125">
+      <c r="K17" s="125"/>
+      <c r="L17" s="124">
         <f>K17*0.4</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="13.15" x14ac:dyDescent="0.3">
-      <c r="A18" s="124" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="181" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="182"/>
-      <c r="D18" s="182"/>
-      <c r="E18" s="182"/>
-      <c r="F18" s="182"/>
-      <c r="G18" s="182"/>
-      <c r="H18" s="182"/>
-      <c r="I18" s="182"/>
-      <c r="J18" s="183"/>
-      <c r="K18" s="123"/>
-      <c r="L18" s="122"/>
+      <c r="A18" s="123" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="219" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="220"/>
+      <c r="D18" s="220"/>
+      <c r="E18" s="220"/>
+      <c r="F18" s="220"/>
+      <c r="G18" s="220"/>
+      <c r="H18" s="220"/>
+      <c r="I18" s="220"/>
+      <c r="J18" s="221"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="121"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H19" s="117"/>
-      <c r="I19" s="117"/>
-      <c r="L19" s="121">
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="L19" s="120">
         <f>(L13+L16+L17)-L18</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="120" t="s">
-        <v>114</v>
+      <c r="A20" s="119" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="184" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="185"/>
-      <c r="C21" s="185"/>
-      <c r="D21" s="185"/>
-      <c r="E21" s="185"/>
-      <c r="F21" s="185"/>
-      <c r="G21" s="185"/>
-      <c r="H21" s="185"/>
-      <c r="I21" s="185"/>
-      <c r="J21" s="185"/>
-      <c r="K21" s="185"/>
-      <c r="L21" s="186"/>
+      <c r="A21" s="222" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="223"/>
+      <c r="C21" s="223"/>
+      <c r="D21" s="223"/>
+      <c r="E21" s="223"/>
+      <c r="F21" s="223"/>
+      <c r="G21" s="223"/>
+      <c r="H21" s="223"/>
+      <c r="I21" s="223"/>
+      <c r="J21" s="223"/>
+      <c r="K21" s="223"/>
+      <c r="L21" s="224"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="187"/>
-      <c r="B22" s="188"/>
-      <c r="C22" s="188"/>
-      <c r="D22" s="188"/>
-      <c r="E22" s="188"/>
-      <c r="F22" s="188"/>
-      <c r="G22" s="188"/>
-      <c r="H22" s="188"/>
-      <c r="I22" s="188"/>
-      <c r="J22" s="188"/>
-      <c r="K22" s="188"/>
-      <c r="L22" s="189"/>
+      <c r="A22" s="225"/>
+      <c r="B22" s="226"/>
+      <c r="C22" s="226"/>
+      <c r="D22" s="226"/>
+      <c r="E22" s="226"/>
+      <c r="F22" s="226"/>
+      <c r="G22" s="226"/>
+      <c r="H22" s="226"/>
+      <c r="I22" s="226"/>
+      <c r="J22" s="226"/>
+      <c r="K22" s="226"/>
+      <c r="L22" s="227"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="187"/>
-      <c r="B23" s="188"/>
-      <c r="C23" s="188"/>
-      <c r="D23" s="188"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="188"/>
-      <c r="J23" s="188"/>
-      <c r="K23" s="188"/>
-      <c r="L23" s="189"/>
+      <c r="A23" s="225"/>
+      <c r="B23" s="226"/>
+      <c r="C23" s="226"/>
+      <c r="D23" s="226"/>
+      <c r="E23" s="226"/>
+      <c r="F23" s="226"/>
+      <c r="G23" s="226"/>
+      <c r="H23" s="226"/>
+      <c r="I23" s="226"/>
+      <c r="J23" s="226"/>
+      <c r="K23" s="226"/>
+      <c r="L23" s="227"/>
     </row>
     <row r="24" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="187"/>
-      <c r="B24" s="188"/>
-      <c r="C24" s="188"/>
-      <c r="D24" s="188"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="188"/>
-      <c r="G24" s="188"/>
-      <c r="H24" s="188"/>
-      <c r="I24" s="188"/>
-      <c r="J24" s="188"/>
-      <c r="K24" s="188"/>
-      <c r="L24" s="189"/>
+      <c r="A24" s="225"/>
+      <c r="B24" s="226"/>
+      <c r="C24" s="226"/>
+      <c r="D24" s="226"/>
+      <c r="E24" s="226"/>
+      <c r="F24" s="226"/>
+      <c r="G24" s="226"/>
+      <c r="H24" s="226"/>
+      <c r="I24" s="226"/>
+      <c r="J24" s="226"/>
+      <c r="K24" s="226"/>
+      <c r="L24" s="227"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="190"/>
-      <c r="B25" s="191"/>
-      <c r="C25" s="191"/>
-      <c r="D25" s="191"/>
-      <c r="E25" s="191"/>
-      <c r="F25" s="191"/>
-      <c r="G25" s="191"/>
-      <c r="H25" s="191"/>
-      <c r="I25" s="191"/>
-      <c r="J25" s="191"/>
-      <c r="K25" s="191"/>
-      <c r="L25" s="192"/>
+      <c r="A25" s="228"/>
+      <c r="B25" s="229"/>
+      <c r="C25" s="229"/>
+      <c r="D25" s="229"/>
+      <c r="E25" s="229"/>
+      <c r="F25" s="229"/>
+      <c r="G25" s="229"/>
+      <c r="H25" s="229"/>
+      <c r="I25" s="229"/>
+      <c r="J25" s="229"/>
+      <c r="K25" s="229"/>
+      <c r="L25" s="230"/>
     </row>
     <row r="27" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="178" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="178"/>
-      <c r="C27" s="178"/>
-      <c r="D27" s="178"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="178"/>
-      <c r="G27" s="178"/>
-      <c r="H27" s="178"/>
-      <c r="I27" s="179"/>
-      <c r="J27" s="179"/>
-      <c r="K27" s="119" t="s">
-        <v>111</v>
-      </c>
-      <c r="L27" s="114">
+      <c r="A27" s="231" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="231"/>
+      <c r="C27" s="231"/>
+      <c r="D27" s="231"/>
+      <c r="E27" s="231"/>
+      <c r="F27" s="231"/>
+      <c r="G27" s="231"/>
+      <c r="H27" s="231"/>
+      <c r="I27" s="232"/>
+      <c r="J27" s="232"/>
+      <c r="K27" s="118" t="s">
+        <v>107</v>
+      </c>
+      <c r="L27" s="113">
         <f>I27*1.5</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="178" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" s="178"/>
-      <c r="C28" s="178"/>
-      <c r="D28" s="178"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="178"/>
-      <c r="G28" s="178"/>
-      <c r="H28" s="178"/>
-      <c r="I28" s="179"/>
-      <c r="J28" s="179"/>
-      <c r="K28" s="118" t="s">
-        <v>111</v>
-      </c>
-      <c r="L28" s="114">
+      <c r="A28" s="231" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="231"/>
+      <c r="C28" s="231"/>
+      <c r="D28" s="231"/>
+      <c r="E28" s="231"/>
+      <c r="F28" s="231"/>
+      <c r="G28" s="231"/>
+      <c r="H28" s="231"/>
+      <c r="I28" s="232"/>
+      <c r="J28" s="232"/>
+      <c r="K28" s="117" t="s">
+        <v>107</v>
+      </c>
+      <c r="L28" s="113">
         <f>I28*1.5</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="178" t="s">
-        <v>110</v>
-      </c>
-      <c r="B29" s="178"/>
-      <c r="C29" s="178"/>
-      <c r="D29" s="178"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="178"/>
-      <c r="G29" s="178"/>
-      <c r="H29" s="178"/>
-      <c r="I29" s="179"/>
-      <c r="J29" s="179"/>
-      <c r="K29" s="118" t="s">
+      <c r="A29" s="231" t="s">
         <v>106</v>
       </c>
-      <c r="L29" s="114">
+      <c r="B29" s="231"/>
+      <c r="C29" s="231"/>
+      <c r="D29" s="231"/>
+      <c r="E29" s="231"/>
+      <c r="F29" s="231"/>
+      <c r="G29" s="231"/>
+      <c r="H29" s="231"/>
+      <c r="I29" s="232"/>
+      <c r="J29" s="232"/>
+      <c r="K29" s="117" t="s">
+        <v>102</v>
+      </c>
+      <c r="L29" s="113">
         <f>I29*2.5</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="178" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" s="178"/>
-      <c r="C30" s="178"/>
-      <c r="D30" s="178"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="178"/>
-      <c r="G30" s="178"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="179"/>
-      <c r="J30" s="179"/>
-      <c r="K30" s="118" t="s">
-        <v>108</v>
-      </c>
-      <c r="L30" s="114">
+      <c r="A30" s="231" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="231"/>
+      <c r="C30" s="231"/>
+      <c r="D30" s="231"/>
+      <c r="E30" s="231"/>
+      <c r="F30" s="231"/>
+      <c r="G30" s="231"/>
+      <c r="H30" s="231"/>
+      <c r="I30" s="232"/>
+      <c r="J30" s="232"/>
+      <c r="K30" s="117" t="s">
+        <v>104</v>
+      </c>
+      <c r="L30" s="113">
         <f>I30*2</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="178" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" s="178"/>
-      <c r="C31" s="178"/>
-      <c r="D31" s="178"/>
-      <c r="E31" s="178"/>
-      <c r="F31" s="178"/>
-      <c r="G31" s="178"/>
-      <c r="H31" s="178"/>
-      <c r="I31" s="180">
+      <c r="A31" s="231" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="231"/>
+      <c r="C31" s="231"/>
+      <c r="D31" s="231"/>
+      <c r="E31" s="231"/>
+      <c r="F31" s="231"/>
+      <c r="G31" s="231"/>
+      <c r="H31" s="231"/>
+      <c r="I31" s="236">
         <f>L19</f>
         <v>0</v>
       </c>
-      <c r="J31" s="180"/>
-      <c r="K31" s="118" t="s">
-        <v>106</v>
-      </c>
-      <c r="L31" s="114">
+      <c r="J31" s="236"/>
+      <c r="K31" s="117" t="s">
+        <v>102</v>
+      </c>
+      <c r="L31" s="113">
         <f>I31*2.5</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F32" s="112"/>
-      <c r="I32" s="117"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="115" t="s">
-        <v>105</v>
-      </c>
-      <c r="L32" s="114">
+      <c r="F32" s="111"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="115"/>
+      <c r="K32" s="114" t="s">
+        <v>101</v>
+      </c>
+      <c r="L32" s="113">
         <f>(L27+L28+L29+L30+L31)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F33" s="175" t="s">
-        <v>104</v>
-      </c>
-      <c r="G33" s="176"/>
-      <c r="H33" s="176"/>
-      <c r="I33" s="176"/>
-      <c r="J33" s="176"/>
-      <c r="K33" s="177"/>
-      <c r="L33" s="113">
+      <c r="F33" s="233" t="s">
+        <v>100</v>
+      </c>
+      <c r="G33" s="234"/>
+      <c r="H33" s="234"/>
+      <c r="I33" s="234"/>
+      <c r="J33" s="234"/>
+      <c r="K33" s="235"/>
+      <c r="L33" s="112">
         <f>L32/10</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="F34" s="112"/>
-      <c r="G34" s="112"/>
-      <c r="H34" s="112"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="112"/>
-      <c r="K34" s="112"/>
-      <c r="L34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="110"/>
     </row>
     <row r="35" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="F35" s="112"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="112"/>
-      <c r="I35" s="112"/>
-      <c r="J35" s="112"/>
-      <c r="K35" s="112"/>
-      <c r="L35" s="111"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="111"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="111"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="110"/>
     </row>
     <row r="36" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="F36" s="112"/>
-      <c r="G36" s="112"/>
-      <c r="H36" s="112"/>
-      <c r="I36" s="112"/>
-      <c r="J36" s="112"/>
-      <c r="K36" s="112"/>
-      <c r="L36" s="111"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="111"/>
+      <c r="H36" s="111"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="111"/>
+      <c r="K36" s="111"/>
+      <c r="L36" s="110"/>
     </row>
     <row r="37" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="F37" s="112"/>
-      <c r="G37" s="112"/>
-      <c r="H37" s="112"/>
-      <c r="I37" s="112"/>
-      <c r="J37" s="112"/>
-      <c r="K37" s="112"/>
-      <c r="L37" s="111"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="111"/>
+      <c r="I37" s="111"/>
+      <c r="J37" s="111"/>
+      <c r="K37" s="111"/>
+      <c r="L37" s="110"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F38" s="108"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="106"/>
-      <c r="K38" s="105"/>
-      <c r="L38" s="104"/>
+      <c r="F38" s="107"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="105"/>
+      <c r="K38" s="104"/>
+      <c r="L38" s="103"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="109" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="110"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="108"/>
-      <c r="H40" s="109" t="s">
-        <v>29</v>
-      </c>
-      <c r="I40" s="109"/>
-      <c r="J40" s="109"/>
-      <c r="K40" s="109"/>
-      <c r="L40" s="109"/>
+      <c r="A40" s="108" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="109"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="107"/>
+      <c r="H40" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" s="108"/>
+      <c r="J40" s="108"/>
+      <c r="K40" s="108"/>
+      <c r="L40" s="108"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F41" s="108"/>
-      <c r="H41" s="107"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="106"/>
-      <c r="K41" s="105"/>
-      <c r="L41" s="104"/>
+      <c r="F41" s="107"/>
+      <c r="H41" s="106"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="105"/>
+      <c r="K41" s="104"/>
+      <c r="L41" s="103"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="103"/>
-      <c r="B42" s="103"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="103"/>
-      <c r="J42" s="103"/>
-      <c r="K42" s="103"/>
-      <c r="L42" s="103"/>
+      <c r="A42" s="102"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="102"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="102"/>
+      <c r="J42" s="102"/>
+      <c r="K42" s="102"/>
+      <c r="L42" s="102"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K43" s="141"/>
+      <c r="K43" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="A21:L25"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
     <mergeCell ref="K13:K15"/>
     <mergeCell ref="L13:L15"/>
     <mergeCell ref="C14:E14"/>
@@ -4423,26 +4393,24 @@
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J13:J15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="A21:L25"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I8:L8"/>
   </mergeCells>
   <conditionalFormatting sqref="L13:L37 I31:J31">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
@@ -4483,460 +4451,474 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.73046875" style="34" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" style="34" customWidth="1"/>
-    <col min="3" max="3" width="9.9296875" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.19921875" style="34" customWidth="1"/>
-    <col min="5" max="5" width="10" style="34" customWidth="1"/>
-    <col min="6" max="6" width="10.265625" style="34" customWidth="1"/>
-    <col min="7" max="7" width="10.53125" style="34" customWidth="1"/>
-    <col min="8" max="8" width="7" style="34" customWidth="1"/>
-    <col min="9" max="9" width="7.46484375" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.73046875" style="34" customWidth="1"/>
-    <col min="11" max="11" width="7.19921875" style="51" customWidth="1"/>
-    <col min="12" max="12" width="8.73046875" style="34" customWidth="1"/>
-    <col min="13" max="13" width="7.265625" style="34" customWidth="1"/>
-    <col min="14" max="16384" width="9.19921875" style="34"/>
+    <col min="1" max="1" width="5.73046875" style="33" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" style="33" customWidth="1"/>
+    <col min="3" max="3" width="9.9296875" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" style="33" customWidth="1"/>
+    <col min="5" max="5" width="10" style="33" customWidth="1"/>
+    <col min="6" max="6" width="10.265625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="10.53125" style="33" customWidth="1"/>
+    <col min="8" max="8" width="7" style="33" customWidth="1"/>
+    <col min="9" max="9" width="7.46484375" style="33" customWidth="1"/>
+    <col min="10" max="10" width="5.73046875" style="33" customWidth="1"/>
+    <col min="11" max="11" width="7.19921875" style="50" customWidth="1"/>
+    <col min="12" max="12" width="8.73046875" style="33" customWidth="1"/>
+    <col min="13" max="13" width="7.265625" style="33" customWidth="1"/>
+    <col min="14" max="16384" width="9.19921875" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="143" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="144"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="146" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="147"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="149"/>
+      <c r="A1" s="142" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="143"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="145" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="146"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="148"/>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="144"/>
+      <c r="I2" s="145" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="146"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="148"/>
+    </row>
+    <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="149" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="149"/>
+      <c r="C3" s="293"/>
+      <c r="D3" s="293"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="145" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="146"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="148"/>
+    </row>
+    <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="151" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="151"/>
+      <c r="C4" s="292"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="145"/>
-      <c r="I2" s="146" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" s="147"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="149"/>
-    </row>
-    <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="150" t="s">
+      <c r="J4" s="152"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="148"/>
+    </row>
+    <row r="5" spans="1:12" s="153" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="151" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="151"/>
+      <c r="C5" s="292"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="K5" s="50"/>
+    </row>
+    <row r="6" spans="1:12" s="153" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="151" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="151"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+    </row>
+    <row r="7" spans="1:12" s="153" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="149"/>
+      <c r="C7" s="292"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="H7" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="150"/>
-      <c r="C3" s="239"/>
-      <c r="D3" s="239"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="146" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="147"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="149"/>
-    </row>
-    <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="152" t="s">
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="155"/>
+    </row>
+    <row r="8" spans="1:12" s="153" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="151" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="151"/>
+      <c r="C8" s="292"/>
+      <c r="D8" s="292"/>
+      <c r="E8" s="292"/>
+      <c r="F8" s="292"/>
+      <c r="H8" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="152"/>
-      <c r="C4" s="238"/>
-      <c r="D4" s="238"/>
-      <c r="E4" s="238"/>
-      <c r="F4" s="238"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="146" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="153"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="149"/>
-    </row>
-    <row r="5" spans="1:12" s="154" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="152" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="152"/>
-      <c r="C5" s="238"/>
-      <c r="D5" s="238"/>
-      <c r="E5" s="238"/>
-      <c r="F5" s="238"/>
-      <c r="K5" s="51"/>
-    </row>
-    <row r="6" spans="1:12" s="154" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="152" t="s">
+      <c r="I8" s="151"/>
+      <c r="J8" s="156"/>
+      <c r="K8" s="156"/>
+      <c r="L8" s="155"/>
+    </row>
+    <row r="9" spans="1:12" s="153" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="152"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-    </row>
-    <row r="7" spans="1:12" s="154" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="150"/>
-      <c r="C7" s="238"/>
-      <c r="D7" s="238"/>
-      <c r="E7" s="238"/>
-      <c r="F7" s="238"/>
-      <c r="H7" s="150" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
-      <c r="K7" s="151"/>
-      <c r="L7" s="156"/>
-    </row>
-    <row r="8" spans="1:12" s="154" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="152" t="s">
+      <c r="B9" s="151"/>
+      <c r="C9" s="292"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="K9" s="50"/>
+    </row>
+    <row r="10" spans="1:12" s="153" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="157"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="157"/>
+      <c r="K10" s="50"/>
+    </row>
+    <row r="11" spans="1:12" s="153" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="157"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="157"/>
+      <c r="H11" s="267" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="152"/>
-      <c r="C8" s="238"/>
-      <c r="D8" s="238"/>
-      <c r="E8" s="238"/>
-      <c r="F8" s="238"/>
-      <c r="H8" s="152" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="152"/>
-      <c r="J8" s="157"/>
-      <c r="K8" s="157"/>
-      <c r="L8" s="156"/>
-    </row>
-    <row r="9" spans="1:12" s="154" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="152" t="s">
+      <c r="I11" s="268"/>
+      <c r="J11" s="269" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="152"/>
-      <c r="C9" s="238"/>
-      <c r="D9" s="238"/>
-      <c r="E9" s="238"/>
-      <c r="F9" s="238"/>
-      <c r="K9" s="51"/>
-    </row>
-    <row r="10" spans="1:12" s="154" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="158"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="K10" s="51"/>
-    </row>
-    <row r="11" spans="1:12" s="154" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="158"/>
-      <c r="D11" s="158"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
-      <c r="H11" s="240" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="241"/>
-      <c r="J11" s="242" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="243"/>
-      <c r="L11" s="244"/>
+      <c r="K11" s="270"/>
+      <c r="L11" s="271"/>
     </row>
     <row r="12" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="245" t="s">
-        <v>134</v>
-      </c>
-      <c r="B12" s="249" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="250"/>
-      <c r="D12" s="250"/>
-      <c r="E12" s="250"/>
-      <c r="F12" s="250"/>
-      <c r="G12" s="250"/>
-      <c r="H12" s="253"/>
-      <c r="I12" s="254"/>
-      <c r="J12" s="259" t="s">
-        <v>136</v>
-      </c>
-      <c r="K12" s="262">
+      <c r="A12" s="272" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="276" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="277"/>
+      <c r="D12" s="277"/>
+      <c r="E12" s="277"/>
+      <c r="F12" s="277"/>
+      <c r="G12" s="277"/>
+      <c r="H12" s="280"/>
+      <c r="I12" s="281"/>
+      <c r="J12" s="286" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" s="288">
         <f>SUM(B17:G17)/6</f>
         <v>0</v>
       </c>
-      <c r="L12" s="265">
+      <c r="L12" s="256">
         <f>ROUND(K12*0.6,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="246"/>
-      <c r="B13" s="251"/>
-      <c r="C13" s="252"/>
-      <c r="D13" s="252"/>
-      <c r="E13" s="252"/>
-      <c r="F13" s="252"/>
-      <c r="G13" s="252"/>
-      <c r="H13" s="255"/>
-      <c r="I13" s="256"/>
-      <c r="J13" s="260"/>
-      <c r="K13" s="263"/>
-      <c r="L13" s="266"/>
+      <c r="A13" s="273"/>
+      <c r="B13" s="278"/>
+      <c r="C13" s="279"/>
+      <c r="D13" s="279"/>
+      <c r="E13" s="279"/>
+      <c r="F13" s="279"/>
+      <c r="G13" s="279"/>
+      <c r="H13" s="282"/>
+      <c r="I13" s="283"/>
+      <c r="J13" s="265"/>
+      <c r="K13" s="289"/>
+      <c r="L13" s="257"/>
     </row>
     <row r="14" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="246"/>
-      <c r="B14" s="251"/>
-      <c r="C14" s="252"/>
-      <c r="D14" s="252"/>
-      <c r="E14" s="252"/>
-      <c r="F14" s="252"/>
-      <c r="G14" s="252"/>
-      <c r="H14" s="255"/>
-      <c r="I14" s="256"/>
-      <c r="J14" s="260"/>
-      <c r="K14" s="263"/>
-      <c r="L14" s="266"/>
+      <c r="A14" s="273"/>
+      <c r="B14" s="278"/>
+      <c r="C14" s="279"/>
+      <c r="D14" s="279"/>
+      <c r="E14" s="279"/>
+      <c r="F14" s="279"/>
+      <c r="G14" s="279"/>
+      <c r="H14" s="282"/>
+      <c r="I14" s="283"/>
+      <c r="J14" s="265"/>
+      <c r="K14" s="289"/>
+      <c r="L14" s="257"/>
     </row>
     <row r="15" spans="1:12" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="246"/>
-      <c r="B15" s="251"/>
-      <c r="C15" s="252"/>
-      <c r="D15" s="252"/>
-      <c r="E15" s="252"/>
-      <c r="F15" s="252"/>
-      <c r="G15" s="252"/>
-      <c r="H15" s="255"/>
-      <c r="I15" s="256"/>
-      <c r="J15" s="260"/>
-      <c r="K15" s="263"/>
-      <c r="L15" s="266"/>
+      <c r="A15" s="273"/>
+      <c r="B15" s="278"/>
+      <c r="C15" s="279"/>
+      <c r="D15" s="279"/>
+      <c r="E15" s="279"/>
+      <c r="F15" s="279"/>
+      <c r="G15" s="279"/>
+      <c r="H15" s="282"/>
+      <c r="I15" s="283"/>
+      <c r="J15" s="265"/>
+      <c r="K15" s="289"/>
+      <c r="L15" s="257"/>
     </row>
     <row r="16" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="247"/>
-      <c r="B16" s="159" t="s">
+      <c r="A16" s="274"/>
+      <c r="B16" s="158" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="159" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="160" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="159" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="159" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="160" t="s">
+      <c r="G16" s="161" t="s">
         <v>138</v>
       </c>
-      <c r="D16" s="161" t="s">
+      <c r="H16" s="282"/>
+      <c r="I16" s="283"/>
+      <c r="J16" s="265"/>
+      <c r="K16" s="289"/>
+      <c r="L16" s="257"/>
+    </row>
+    <row r="17" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="275"/>
+      <c r="B17" s="162">
+        <v>0</v>
+      </c>
+      <c r="C17" s="163"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="284"/>
+      <c r="I17" s="285"/>
+      <c r="J17" s="287"/>
+      <c r="K17" s="290"/>
+      <c r="L17" s="291"/>
+    </row>
+    <row r="18" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="239" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="242" t="s">
         <v>139</v>
       </c>
-      <c r="E16" s="160" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" s="160" t="s">
-        <v>141</v>
-      </c>
-      <c r="G16" s="162" t="s">
-        <v>142</v>
-      </c>
-      <c r="H16" s="255"/>
-      <c r="I16" s="256"/>
-      <c r="J16" s="260"/>
-      <c r="K16" s="263"/>
-      <c r="L16" s="266"/>
-    </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="248"/>
-      <c r="B17" s="163">
+      <c r="C18" s="242"/>
+      <c r="D18" s="242"/>
+      <c r="E18" s="242"/>
+      <c r="F18" s="242"/>
+      <c r="G18" s="242"/>
+      <c r="H18" s="245"/>
+      <c r="I18" s="246"/>
+      <c r="J18" s="251" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="254">
         <v>0</v>
       </c>
-      <c r="C17" s="164"/>
-      <c r="D17" s="164"/>
-      <c r="E17" s="164"/>
-      <c r="F17" s="164"/>
-      <c r="G17" s="165"/>
-      <c r="H17" s="257"/>
-      <c r="I17" s="258"/>
-      <c r="J17" s="261"/>
-      <c r="K17" s="264"/>
-      <c r="L17" s="267"/>
-    </row>
-    <row r="18" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="270" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="273" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="273"/>
-      <c r="D18" s="273"/>
-      <c r="E18" s="273"/>
-      <c r="F18" s="273"/>
-      <c r="G18" s="273"/>
-      <c r="H18" s="276"/>
-      <c r="I18" s="277"/>
-      <c r="J18" s="282" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="285">
-        <v>0</v>
-      </c>
-      <c r="L18" s="265">
+      <c r="L18" s="256">
         <f>IF((K18-K21)&gt;=0,(ROUND((K18-K21)*0.25,3)),0.00000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="271"/>
-      <c r="B19" s="274"/>
-      <c r="C19" s="274"/>
-      <c r="D19" s="274"/>
-      <c r="E19" s="274"/>
-      <c r="F19" s="274"/>
-      <c r="G19" s="274"/>
-      <c r="H19" s="278"/>
-      <c r="I19" s="279"/>
-      <c r="J19" s="283"/>
-      <c r="K19" s="286"/>
-      <c r="L19" s="266"/>
+      <c r="A19" s="240"/>
+      <c r="B19" s="243"/>
+      <c r="C19" s="243"/>
+      <c r="D19" s="243"/>
+      <c r="E19" s="243"/>
+      <c r="F19" s="243"/>
+      <c r="G19" s="243"/>
+      <c r="H19" s="247"/>
+      <c r="I19" s="248"/>
+      <c r="J19" s="252"/>
+      <c r="K19" s="255"/>
+      <c r="L19" s="257"/>
     </row>
     <row r="20" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="271"/>
-      <c r="B20" s="275"/>
-      <c r="C20" s="275"/>
-      <c r="D20" s="275"/>
-      <c r="E20" s="275"/>
-      <c r="F20" s="275"/>
-      <c r="G20" s="274"/>
-      <c r="H20" s="278"/>
-      <c r="I20" s="279"/>
-      <c r="J20" s="283"/>
-      <c r="K20" s="286"/>
-      <c r="L20" s="266"/>
+      <c r="A20" s="240"/>
+      <c r="B20" s="244"/>
+      <c r="C20" s="244"/>
+      <c r="D20" s="244"/>
+      <c r="E20" s="244"/>
+      <c r="F20" s="244"/>
+      <c r="G20" s="243"/>
+      <c r="H20" s="247"/>
+      <c r="I20" s="248"/>
+      <c r="J20" s="252"/>
+      <c r="K20" s="255"/>
+      <c r="L20" s="257"/>
     </row>
     <row r="21" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="272"/>
-      <c r="B21" s="166" t="s">
-        <v>144</v>
-      </c>
-      <c r="C21" s="167">
+      <c r="A21" s="241"/>
+      <c r="B21" s="165" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="166">
         <v>0</v>
       </c>
-      <c r="D21" s="167">
+      <c r="D21" s="166">
         <v>0</v>
       </c>
-      <c r="E21" s="167">
+      <c r="E21" s="166">
         <v>0</v>
       </c>
-      <c r="F21" s="167">
+      <c r="F21" s="166">
         <v>0</v>
       </c>
-      <c r="G21" s="167"/>
-      <c r="H21" s="280"/>
-      <c r="I21" s="281"/>
-      <c r="J21" s="284"/>
-      <c r="K21" s="168">
+      <c r="G21" s="166"/>
+      <c r="H21" s="249"/>
+      <c r="I21" s="250"/>
+      <c r="J21" s="253"/>
+      <c r="K21" s="167">
         <f>SUM(C21:G21)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="287"/>
+      <c r="L21" s="258"/>
     </row>
     <row r="22" spans="1:12" ht="87.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="270" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="273" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22" s="288"/>
-      <c r="D22" s="288"/>
-      <c r="E22" s="288"/>
-      <c r="F22" s="288"/>
-      <c r="G22" s="289"/>
-      <c r="H22" s="290"/>
-      <c r="I22" s="291"/>
-      <c r="J22" s="260" t="s">
-        <v>146</v>
-      </c>
-      <c r="K22" s="169">
+      <c r="A22" s="239" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="242" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="259"/>
+      <c r="D22" s="259"/>
+      <c r="E22" s="259"/>
+      <c r="F22" s="259"/>
+      <c r="G22" s="260"/>
+      <c r="H22" s="261"/>
+      <c r="I22" s="262"/>
+      <c r="J22" s="265" t="s">
+        <v>142</v>
+      </c>
+      <c r="K22" s="168">
         <v>0</v>
       </c>
-      <c r="L22" s="266">
+      <c r="L22" s="257">
         <f>IF((K22-K23)&gt;=0, ROUND((K22-K23)*0.15,3),0.000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="272"/>
-      <c r="B23" s="170" t="s">
-        <v>144</v>
-      </c>
-      <c r="C23" s="167">
+      <c r="A23" s="241"/>
+      <c r="B23" s="169" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="166">
         <v>0</v>
       </c>
-      <c r="D23" s="167">
+      <c r="D23" s="166">
         <v>0</v>
       </c>
-      <c r="E23" s="167">
+      <c r="E23" s="166">
         <v>0</v>
       </c>
-      <c r="F23" s="167">
+      <c r="F23" s="166">
         <v>0</v>
       </c>
-      <c r="G23" s="167"/>
-      <c r="H23" s="292"/>
-      <c r="I23" s="293"/>
-      <c r="J23" s="294"/>
-      <c r="K23" s="168">
+      <c r="G23" s="166"/>
+      <c r="H23" s="263"/>
+      <c r="I23" s="264"/>
+      <c r="J23" s="266"/>
+      <c r="K23" s="167">
         <f>SUM(C23:G23)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="287"/>
+      <c r="L23" s="258"/>
     </row>
     <row r="24" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="171"/>
-      <c r="B24" s="171"/>
-      <c r="C24" s="171"/>
-      <c r="D24" s="171"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
-      <c r="G24" s="171"/>
-      <c r="H24" s="171"/>
+      <c r="A24" s="170"/>
+      <c r="B24" s="170"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="170"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="170"/>
+      <c r="H24" s="170"/>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I25" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="J25" s="25"/>
-      <c r="K25" s="268">
+      <c r="I25" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="24"/>
+      <c r="K25" s="237">
         <f>SUM(L12:L22)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="269"/>
+      <c r="L25" s="238"/>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I26" s="173"/>
-      <c r="J26" s="173"/>
-      <c r="K26" s="174"/>
-      <c r="L26" s="174"/>
+      <c r="I26" s="172"/>
+      <c r="J26" s="172"/>
+      <c r="K26" s="173"/>
+      <c r="L26" s="173"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="H30" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="172"/>
-      <c r="L30" s="26"/>
+      <c r="A30" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="H30" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="171"/>
+      <c r="L30" s="25"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="26">
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:G15"/>
+    <mergeCell ref="H12:I17"/>
+    <mergeCell ref="J12:J17"/>
+    <mergeCell ref="K12:K17"/>
+    <mergeCell ref="L12:L17"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="B18:G20"/>
@@ -4949,20 +4931,6 @@
     <mergeCell ref="H22:I23"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="L22:L23"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:G15"/>
-    <mergeCell ref="H12:I17"/>
-    <mergeCell ref="J12:J17"/>
-    <mergeCell ref="K12:K17"/>
-    <mergeCell ref="L12:L17"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId1"/>
@@ -5004,381 +4972,381 @@
     <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
+        <v>29</v>
+      </c>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
+        <v>30</v>
+      </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="31"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="30"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
     </row>
     <row r="5" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="295"/>
-      <c r="D5" s="295"/>
-      <c r="E5" s="295"/>
-      <c r="F5" s="295"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
+      <c r="C5" s="294"/>
+      <c r="D5" s="294"/>
+      <c r="E5" s="294"/>
+      <c r="F5" s="294"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="32"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
     </row>
     <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
       <c r="H7" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="72"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="71"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="298"/>
-      <c r="D8" s="298"/>
-      <c r="E8" s="298"/>
-      <c r="F8" s="298"/>
+      <c r="C8" s="297"/>
+      <c r="D8" s="297"/>
+      <c r="E8" s="297"/>
+      <c r="F8" s="297"/>
       <c r="H8" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="72"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="71"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="295"/>
-      <c r="D9" s="295"/>
-      <c r="E9" s="295"/>
-      <c r="F9" s="295"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="296"/>
-      <c r="J9" s="297"/>
-      <c r="K9" s="297"/>
-      <c r="L9" s="297"/>
+      <c r="C9" s="294"/>
+      <c r="D9" s="294"/>
+      <c r="E9" s="294"/>
+      <c r="F9" s="294"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="295"/>
+      <c r="J9" s="296"/>
+      <c r="K9" s="296"/>
+      <c r="L9" s="296"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="295"/>
-      <c r="D10" s="295"/>
-      <c r="E10" s="295"/>
-      <c r="F10" s="295"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="296"/>
-      <c r="J10" s="297"/>
-      <c r="K10" s="297"/>
-      <c r="L10" s="297"/>
+      <c r="C10" s="294"/>
+      <c r="D10" s="294"/>
+      <c r="E10" s="294"/>
+      <c r="F10" s="294"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="295"/>
+      <c r="J10" s="296"/>
+      <c r="K10" s="296"/>
+      <c r="L10" s="296"/>
     </row>
     <row r="11" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="48"/>
+      <c r="A12" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="47"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="49"/>
+      <c r="A13" s="37"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="48"/>
     </row>
     <row r="14" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38"/>
-      <c r="L14" s="39"/>
+      <c r="A14" s="37"/>
+      <c r="L14" s="38"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="75" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="76"/>
+      <c r="A15" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="75"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="79"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="78"/>
     </row>
     <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="39"/>
-      <c r="H17" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="I17" s="50"/>
-      <c r="K17" s="65" t="s">
-        <v>43</v>
+      <c r="G17" s="38"/>
+      <c r="H17" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="49"/>
+      <c r="K17" s="64" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="28"/>
+      <c r="B18" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="27"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="98">
+      <c r="E18" s="97">
         <v>0</v>
       </c>
-      <c r="F18" s="67">
+      <c r="F18" s="66">
         <v>0.8</v>
       </c>
-      <c r="G18" s="68"/>
-      <c r="H18" s="142">
+      <c r="G18" s="67"/>
+      <c r="H18" s="141">
         <f>IF(E18&gt;12,13,E18)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="69"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="42">
+      <c r="I18" s="68"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="41">
         <f>F18*H18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="28"/>
+      <c r="B19" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="27"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="98">
+      <c r="E19" s="97">
         <v>0</v>
       </c>
-      <c r="F19" s="67">
+      <c r="F19" s="66">
         <v>0.4</v>
       </c>
-      <c r="G19" s="68"/>
-      <c r="H19" s="142">
+      <c r="G19" s="67"/>
+      <c r="H19" s="141">
         <f>IF(SUM(E18:E19)&gt;12,13-H18,E19)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="69"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="42">
+      <c r="I19" s="68"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="41">
         <f>F19*H19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="28"/>
+      <c r="B20" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="27"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="98">
+      <c r="E20" s="97">
         <v>0</v>
       </c>
-      <c r="F20" s="67">
+      <c r="F20" s="66">
         <v>0</v>
       </c>
-      <c r="G20" s="68"/>
-      <c r="H20" s="142">
+      <c r="G20" s="67"/>
+      <c r="H20" s="141">
         <f>IF(SUM(E18:E20)&gt;12,IF(13-SUM(H18:H19)&gt;0,13-SUM(H18:H19),0),E20)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="69"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="42">
+      <c r="I20" s="68"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="28" t="s">
-        <v>45</v>
+      <c r="B21" s="27" t="s">
+        <v>43</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="43">
+      <c r="E21" s="42">
         <f>SUM(E18:E20)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
     </row>
     <row r="22" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G22" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="62">
+      <c r="G22" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="61">
         <f>IF(SUM(K18:K21)&gt;10,10,SUM(K18:K21))</f>
         <v>0</v>
       </c>
-      <c r="L22" s="63">
+      <c r="L22" s="62">
         <v>0.3</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="50"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="53"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="27" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="52" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H25" s="51"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="54"/>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="28" t="s">
-        <v>37</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="15"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="28" t="s">
-        <v>58</v>
+      <c r="E26" s="97"/>
+      <c r="F26" s="27" t="s">
+        <v>54</v>
       </c>
       <c r="G26" s="15"/>
-      <c r="H26" s="55">
+      <c r="H26" s="54">
         <f>E21</f>
         <v>0</v>
       </c>
-      <c r="I26" s="56">
+      <c r="I26" s="55">
         <f>IFERROR(E26/H26,10)</f>
         <v>10</v>
       </c>
-      <c r="J26" s="57"/>
-      <c r="K26" s="42">
+      <c r="J26" s="56"/>
+      <c r="K26" s="41">
         <f>10-I26</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="70"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="69"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="28" t="s">
-        <v>57</v>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="27" t="s">
+        <v>53</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="99"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="98"/>
     </row>
     <row r="29" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L29" s="51"/>
+      <c r="L29" s="50"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G30" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="62">
+      <c r="G30" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="61">
         <f>K26-K28</f>
         <v>0</v>
       </c>
-      <c r="L30" s="63">
+      <c r="L30" s="62">
         <v>0.7</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I32" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -5389,14 +5357,14 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
+        <v>26</v>
+      </c>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
       <c r="H36" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -5427,10 +5395,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -5452,162 +5420,162 @@
     <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
+        <v>29</v>
+      </c>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
+        <v>44</v>
+      </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="31"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="30"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
     </row>
     <row r="5" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="295"/>
-      <c r="D5" s="295"/>
-      <c r="E5" s="295"/>
-      <c r="F5" s="295"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
+      <c r="C5" s="294"/>
+      <c r="D5" s="294"/>
+      <c r="E5" s="294"/>
+      <c r="F5" s="294"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="32"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
     </row>
     <row r="6" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="74"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="73"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
       <c r="H7" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="72"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="71"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="298"/>
-      <c r="D8" s="298"/>
-      <c r="E8" s="298"/>
-      <c r="F8" s="298"/>
+      <c r="C8" s="297"/>
+      <c r="D8" s="297"/>
+      <c r="E8" s="297"/>
+      <c r="F8" s="297"/>
       <c r="H8" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="72"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="71"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="295"/>
-      <c r="D9" s="295"/>
-      <c r="E9" s="295"/>
-      <c r="F9" s="295"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="296"/>
-      <c r="J9" s="297"/>
-      <c r="K9" s="297"/>
-      <c r="L9" s="297"/>
+      <c r="C9" s="294"/>
+      <c r="D9" s="294"/>
+      <c r="E9" s="294"/>
+      <c r="F9" s="294"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="295"/>
+      <c r="J9" s="296"/>
+      <c r="K9" s="296"/>
+      <c r="L9" s="296"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="295"/>
-      <c r="D10" s="295"/>
-      <c r="E10" s="295"/>
-      <c r="F10" s="295"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="296"/>
-      <c r="J10" s="297"/>
-      <c r="K10" s="297"/>
-      <c r="L10" s="297"/>
+      <c r="C10" s="294"/>
+      <c r="D10" s="294"/>
+      <c r="E10" s="294"/>
+      <c r="F10" s="294"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="295"/>
+      <c r="J10" s="296"/>
+      <c r="K10" s="296"/>
+      <c r="L10" s="296"/>
     </row>
     <row r="11" spans="1:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K11" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="301" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="304" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="305"/>
-      <c r="D12" s="305"/>
-      <c r="E12" s="305"/>
-      <c r="F12" s="305"/>
-      <c r="G12" s="305"/>
-      <c r="H12" s="305"/>
-      <c r="I12" s="305"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="300" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="303" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="304"/>
+      <c r="D12" s="304"/>
+      <c r="E12" s="304"/>
+      <c r="F12" s="304"/>
+      <c r="G12" s="304"/>
+      <c r="H12" s="304"/>
+      <c r="I12" s="304"/>
       <c r="J12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="100"/>
+      <c r="K12" s="99"/>
       <c r="L12" s="17">
         <f>K12*0.25</f>
         <v>0</v>
@@ -5615,167 +5583,144 @@
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="302"/>
-      <c r="B13" s="306" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="307"/>
-      <c r="D13" s="307"/>
-      <c r="E13" s="307"/>
-      <c r="F13" s="307"/>
-      <c r="G13" s="307"/>
-      <c r="H13" s="307"/>
-      <c r="I13" s="307"/>
+      <c r="A13" s="301"/>
+      <c r="B13" s="305" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="306"/>
+      <c r="D13" s="306"/>
+      <c r="E13" s="306"/>
+      <c r="F13" s="306"/>
+      <c r="G13" s="306"/>
+      <c r="H13" s="306"/>
+      <c r="I13" s="306"/>
       <c r="J13" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K13" s="101"/>
+      <c r="K13" s="100"/>
       <c r="L13" s="18">
         <f>K13*0.25</f>
         <v>0</v>
       </c>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="301" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="308" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="309"/>
-      <c r="D14" s="309"/>
-      <c r="E14" s="309"/>
-      <c r="F14" s="309"/>
-      <c r="G14" s="309"/>
-      <c r="H14" s="309"/>
-      <c r="I14" s="309"/>
+    <row r="14" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="300" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="307" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="308"/>
+      <c r="D14" s="308"/>
+      <c r="E14" s="308"/>
+      <c r="F14" s="308"/>
+      <c r="G14" s="308"/>
+      <c r="H14" s="308"/>
+      <c r="I14" s="308"/>
       <c r="J14" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" s="98"/>
+      <c r="L14" s="19">
+        <f>K14*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="10"/>
+    </row>
+    <row r="15" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="302"/>
+      <c r="B15" s="298" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="299"/>
+      <c r="D15" s="299"/>
+      <c r="E15" s="299"/>
+      <c r="F15" s="299"/>
+      <c r="G15" s="299"/>
+      <c r="H15" s="299"/>
+      <c r="I15" s="299"/>
+      <c r="J15" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="99"/>
-      <c r="L14" s="19">
-        <f>K14*0.2</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="10"/>
-    </row>
-    <row r="15" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="303"/>
-      <c r="B15" s="299" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="300"/>
-      <c r="D15" s="300"/>
-      <c r="E15" s="300"/>
-      <c r="F15" s="300"/>
-      <c r="G15" s="300"/>
-      <c r="H15" s="300"/>
-      <c r="I15" s="300"/>
-      <c r="J15" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="99"/>
+      <c r="K15" s="98"/>
       <c r="L15" s="20">
         <f>K15*0.2</f>
         <v>0</v>
       </c>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="302"/>
-      <c r="B16" s="310" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="307"/>
-      <c r="D16" s="307"/>
-      <c r="E16" s="307"/>
-      <c r="F16" s="307"/>
-      <c r="G16" s="307"/>
-      <c r="H16" s="307"/>
-      <c r="I16" s="307"/>
-      <c r="J16" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="K16" s="99"/>
+    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L16" s="21">
-        <f>K16*0.1</f>
+        <f>SUM(L12:L15)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="10"/>
-    </row>
-    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L17" s="22">
-        <f>SUM(L12:L16)</f>
+    </row>
+    <row r="17" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="98"/>
+    </row>
+    <row r="19" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="16">
+        <f>SUM(L12:L15)-L18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L18" s="23"/>
-    </row>
-    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="99"/>
-    </row>
-    <row r="20" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L20" s="23"/>
-    </row>
-    <row r="21" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="16">
-        <f>SUM(L12:L16)-L19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="H27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="H26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B16:I16"/>
+  <mergeCells count="12">
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="I9:L9"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR PAS-DE-DEUX</oddHeader>
     <oddFooter>&amp;R2019-06-01</oddFooter>
@@ -5785,24 +5730,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5868,30 +5795,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06F9B768-A93D-4D4C-BBD7-D4CF83092D49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5906,4 +5828,27 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06F9B768-A93D-4D4C-BBD7-D4CF83092D49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/mallar/Protokoll/Protokoll_2019_Pas_de_deux_klass(mall).xlsx
+++ b/mallar/Protokoll/Protokoll_2019_Pas_de_deux_klass(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F125DBF2-B807-436E-8AE6-417143A5738D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B53EF41-908A-4244-818D-C5287F2530AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="16200" windowHeight="9398" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="5310" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="24" r:id="rId1"/>
@@ -43,6 +43,10 @@
     <definedName name="firstvaulter" localSheetId="2">'Pas-de-Deux Häst'!$J$7</definedName>
     <definedName name="firstvaulter" localSheetId="3">'Pas-de-Deux tekn'!$J$7</definedName>
     <definedName name="firstvaulter" localSheetId="1">'Skritt pas-de-deux'!$I$7</definedName>
+    <definedName name="header" localSheetId="4">'Pas-de-Deux art'!$A$2</definedName>
+    <definedName name="header" localSheetId="2">'Pas-de-Deux Häst'!$A$1</definedName>
+    <definedName name="header" localSheetId="3">'Pas-de-Deux tekn'!$A$2</definedName>
+    <definedName name="header" localSheetId="1">'Skritt pas-de-deux'!$A$2</definedName>
     <definedName name="id" localSheetId="4">'Pas-de-Deux art'!$U$1</definedName>
     <definedName name="id" localSheetId="2">'Pas-de-Deux Häst'!$U$1</definedName>
     <definedName name="id" localSheetId="3">'Pas-de-Deux tekn'!$U$1</definedName>
@@ -1813,7 +1817,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="309">
+  <cellXfs count="307">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2135,7 +2139,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2216,22 +2219,185 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="4" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="32" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="24" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="38" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2240,171 +2406,97 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="32" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="24" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="38" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="4" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2465,12 +2557,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2492,94 +2578,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2647,22 +2647,22 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2685,7 +2685,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Information"/>
@@ -2716,7 +2716,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Information"/>
@@ -2747,9 +2747,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2787,9 +2787,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2822,26 +2822,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2874,26 +2857,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3755,7 +3721,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:F4"/>
+      <selection activeCell="K13" sqref="K13:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -3803,10 +3769,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="108"/>
-      <c r="C4" s="174"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="174"/>
-      <c r="F4" s="174"/>
+      <c r="C4" s="230"/>
+      <c r="D4" s="230"/>
+      <c r="E4" s="230"/>
+      <c r="F4" s="230"/>
       <c r="H4" s="132"/>
       <c r="I4" s="131" t="s">
         <v>6</v>
@@ -3820,10 +3786,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="128"/>
-      <c r="C5" s="175"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175"/>
+      <c r="C5" s="218"/>
+      <c r="D5" s="218"/>
+      <c r="E5" s="218"/>
+      <c r="F5" s="218"/>
       <c r="H5" s="132"/>
       <c r="I5" s="131" t="s">
         <v>7</v>
@@ -3845,68 +3811,68 @@
         <v>119</v>
       </c>
       <c r="B7" s="128"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="175"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
       <c r="H7" s="108" t="s">
         <v>118</v>
       </c>
-      <c r="I7" s="178"/>
-      <c r="J7" s="179"/>
-      <c r="K7" s="179"/>
-      <c r="L7" s="179"/>
+      <c r="I7" s="231"/>
+      <c r="J7" s="232"/>
+      <c r="K7" s="232"/>
+      <c r="L7" s="232"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="108" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="108"/>
-      <c r="C8" s="174"/>
-      <c r="D8" s="174"/>
-      <c r="E8" s="174"/>
-      <c r="F8" s="174"/>
+      <c r="C8" s="230"/>
+      <c r="D8" s="230"/>
+      <c r="E8" s="230"/>
+      <c r="F8" s="230"/>
       <c r="H8" s="128" t="s">
         <v>117</v>
       </c>
-      <c r="I8" s="180"/>
-      <c r="J8" s="181"/>
-      <c r="K8" s="181"/>
-      <c r="L8" s="181"/>
+      <c r="I8" s="233"/>
+      <c r="J8" s="234"/>
+      <c r="K8" s="234"/>
+      <c r="L8" s="234"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="128" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="128"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="I9" s="176"/>
-      <c r="J9" s="177"/>
-      <c r="K9" s="177"/>
-      <c r="L9" s="177"/>
+      <c r="C9" s="218"/>
+      <c r="D9" s="218"/>
+      <c r="E9" s="218"/>
+      <c r="F9" s="218"/>
+      <c r="I9" s="219"/>
+      <c r="J9" s="220"/>
+      <c r="K9" s="220"/>
+      <c r="L9" s="220"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="128" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="128"/>
-      <c r="C10" s="175"/>
-      <c r="D10" s="175"/>
-      <c r="E10" s="175"/>
-      <c r="F10" s="175"/>
-      <c r="I10" s="176"/>
-      <c r="J10" s="177"/>
-      <c r="K10" s="177"/>
-      <c r="L10" s="177"/>
+      <c r="C10" s="218"/>
+      <c r="D10" s="218"/>
+      <c r="E10" s="218"/>
+      <c r="F10" s="218"/>
+      <c r="I10" s="219"/>
+      <c r="J10" s="220"/>
+      <c r="K10" s="220"/>
+      <c r="L10" s="220"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I11" s="176"/>
-      <c r="J11" s="177"/>
-      <c r="K11" s="177"/>
-      <c r="L11" s="177"/>
+      <c r="I11" s="219"/>
+      <c r="J11" s="220"/>
+      <c r="K11" s="220"/>
+      <c r="L11" s="220"/>
     </row>
     <row r="12" spans="1:12" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A12" s="127" t="s">
@@ -3918,95 +3884,95 @@
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
-      <c r="H12" s="191" t="s">
+      <c r="H12" s="221" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="192"/>
-      <c r="J12" s="193" t="s">
+      <c r="I12" s="222"/>
+      <c r="J12" s="223" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="194"/>
-      <c r="L12" s="195"/>
+      <c r="K12" s="224"/>
+      <c r="L12" s="225"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="182" t="s">
+      <c r="A13" s="190" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="185" t="s">
+      <c r="B13" s="209" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="185" t="s">
+      <c r="C13" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="185"/>
-      <c r="E13" s="185"/>
-      <c r="F13" s="187" t="s">
+      <c r="D13" s="209"/>
+      <c r="E13" s="209"/>
+      <c r="F13" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="188"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="190"/>
-      <c r="J13" s="207">
+      <c r="G13" s="227"/>
+      <c r="H13" s="228"/>
+      <c r="I13" s="229"/>
+      <c r="J13" s="215">
         <v>0.2</v>
       </c>
-      <c r="K13" s="196"/>
-      <c r="L13" s="199">
+      <c r="K13" s="204"/>
+      <c r="L13" s="207">
         <f>K13*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="183"/>
-      <c r="B14" s="185"/>
-      <c r="C14" s="185" t="s">
+      <c r="A14" s="226"/>
+      <c r="B14" s="209"/>
+      <c r="C14" s="209" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="185"/>
-      <c r="E14" s="185"/>
-      <c r="F14" s="201" t="s">
+      <c r="D14" s="209"/>
+      <c r="E14" s="209"/>
+      <c r="F14" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="202"/>
-      <c r="H14" s="203"/>
-      <c r="I14" s="204"/>
-      <c r="J14" s="208"/>
-      <c r="K14" s="197"/>
-      <c r="L14" s="199"/>
+      <c r="G14" s="211"/>
+      <c r="H14" s="197"/>
+      <c r="I14" s="198"/>
+      <c r="J14" s="216"/>
+      <c r="K14" s="205"/>
+      <c r="L14" s="207"/>
     </row>
     <row r="15" spans="1:12" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="184"/>
-      <c r="B15" s="186"/>
-      <c r="C15" s="186" t="s">
+      <c r="A15" s="191"/>
+      <c r="B15" s="212"/>
+      <c r="C15" s="212" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="186"/>
-      <c r="E15" s="186"/>
-      <c r="F15" s="201" t="s">
+      <c r="D15" s="212"/>
+      <c r="E15" s="212"/>
+      <c r="F15" s="210" t="s">
         <v>115</v>
       </c>
-      <c r="G15" s="202"/>
-      <c r="H15" s="205"/>
-      <c r="I15" s="206"/>
-      <c r="J15" s="209"/>
-      <c r="K15" s="198"/>
-      <c r="L15" s="200"/>
+      <c r="G15" s="211"/>
+      <c r="H15" s="213"/>
+      <c r="I15" s="214"/>
+      <c r="J15" s="217"/>
+      <c r="K15" s="206"/>
+      <c r="L15" s="208"/>
     </row>
     <row r="16" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="182" t="s">
+      <c r="A16" s="190" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="210" t="s">
+      <c r="B16" s="192" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="211"/>
-      <c r="D16" s="211"/>
-      <c r="E16" s="212"/>
-      <c r="F16" s="187" t="s">
+      <c r="C16" s="193"/>
+      <c r="D16" s="193"/>
+      <c r="E16" s="194"/>
+      <c r="F16" s="195" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="213"/>
-      <c r="H16" s="203"/>
-      <c r="I16" s="204"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="198"/>
       <c r="J16" s="126">
         <v>0.4</v>
       </c>
@@ -4017,19 +3983,19 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="184"/>
-      <c r="B17" s="214" t="s">
+      <c r="A17" s="191"/>
+      <c r="B17" s="199" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="215"/>
-      <c r="D17" s="215"/>
-      <c r="E17" s="216"/>
-      <c r="F17" s="217" t="s">
+      <c r="C17" s="200"/>
+      <c r="D17" s="200"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="202" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="218"/>
-      <c r="H17" s="203"/>
-      <c r="I17" s="204"/>
+      <c r="G17" s="203"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="198"/>
       <c r="J17" s="126">
         <v>0.4</v>
       </c>
@@ -4043,17 +4009,17 @@
       <c r="A18" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="219" t="s">
+      <c r="B18" s="178" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="220"/>
-      <c r="D18" s="220"/>
-      <c r="E18" s="220"/>
-      <c r="F18" s="220"/>
-      <c r="G18" s="220"/>
-      <c r="H18" s="220"/>
-      <c r="I18" s="220"/>
-      <c r="J18" s="221"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="179"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="179"/>
+      <c r="J18" s="180"/>
       <c r="K18" s="122"/>
       <c r="L18" s="121"/>
     </row>
@@ -4071,90 +4037,90 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="222" t="s">
+      <c r="A21" s="181" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="223"/>
-      <c r="C21" s="223"/>
-      <c r="D21" s="223"/>
-      <c r="E21" s="223"/>
-      <c r="F21" s="223"/>
-      <c r="G21" s="223"/>
-      <c r="H21" s="223"/>
-      <c r="I21" s="223"/>
-      <c r="J21" s="223"/>
-      <c r="K21" s="223"/>
-      <c r="L21" s="224"/>
+      <c r="B21" s="182"/>
+      <c r="C21" s="182"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="182"/>
+      <c r="F21" s="182"/>
+      <c r="G21" s="182"/>
+      <c r="H21" s="182"/>
+      <c r="I21" s="182"/>
+      <c r="J21" s="182"/>
+      <c r="K21" s="182"/>
+      <c r="L21" s="183"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="225"/>
-      <c r="B22" s="226"/>
-      <c r="C22" s="226"/>
-      <c r="D22" s="226"/>
-      <c r="E22" s="226"/>
-      <c r="F22" s="226"/>
-      <c r="G22" s="226"/>
-      <c r="H22" s="226"/>
-      <c r="I22" s="226"/>
-      <c r="J22" s="226"/>
-      <c r="K22" s="226"/>
-      <c r="L22" s="227"/>
+      <c r="A22" s="184"/>
+      <c r="B22" s="185"/>
+      <c r="C22" s="185"/>
+      <c r="D22" s="185"/>
+      <c r="E22" s="185"/>
+      <c r="F22" s="185"/>
+      <c r="G22" s="185"/>
+      <c r="H22" s="185"/>
+      <c r="I22" s="185"/>
+      <c r="J22" s="185"/>
+      <c r="K22" s="185"/>
+      <c r="L22" s="186"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="225"/>
-      <c r="B23" s="226"/>
-      <c r="C23" s="226"/>
-      <c r="D23" s="226"/>
-      <c r="E23" s="226"/>
-      <c r="F23" s="226"/>
-      <c r="G23" s="226"/>
-      <c r="H23" s="226"/>
-      <c r="I23" s="226"/>
-      <c r="J23" s="226"/>
-      <c r="K23" s="226"/>
-      <c r="L23" s="227"/>
+      <c r="A23" s="184"/>
+      <c r="B23" s="185"/>
+      <c r="C23" s="185"/>
+      <c r="D23" s="185"/>
+      <c r="E23" s="185"/>
+      <c r="F23" s="185"/>
+      <c r="G23" s="185"/>
+      <c r="H23" s="185"/>
+      <c r="I23" s="185"/>
+      <c r="J23" s="185"/>
+      <c r="K23" s="185"/>
+      <c r="L23" s="186"/>
     </row>
     <row r="24" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="225"/>
-      <c r="B24" s="226"/>
-      <c r="C24" s="226"/>
-      <c r="D24" s="226"/>
-      <c r="E24" s="226"/>
-      <c r="F24" s="226"/>
-      <c r="G24" s="226"/>
-      <c r="H24" s="226"/>
-      <c r="I24" s="226"/>
-      <c r="J24" s="226"/>
-      <c r="K24" s="226"/>
-      <c r="L24" s="227"/>
+      <c r="A24" s="184"/>
+      <c r="B24" s="185"/>
+      <c r="C24" s="185"/>
+      <c r="D24" s="185"/>
+      <c r="E24" s="185"/>
+      <c r="F24" s="185"/>
+      <c r="G24" s="185"/>
+      <c r="H24" s="185"/>
+      <c r="I24" s="185"/>
+      <c r="J24" s="185"/>
+      <c r="K24" s="185"/>
+      <c r="L24" s="186"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="228"/>
-      <c r="B25" s="229"/>
-      <c r="C25" s="229"/>
-      <c r="D25" s="229"/>
-      <c r="E25" s="229"/>
-      <c r="F25" s="229"/>
-      <c r="G25" s="229"/>
-      <c r="H25" s="229"/>
-      <c r="I25" s="229"/>
-      <c r="J25" s="229"/>
-      <c r="K25" s="229"/>
-      <c r="L25" s="230"/>
+      <c r="A25" s="187"/>
+      <c r="B25" s="188"/>
+      <c r="C25" s="188"/>
+      <c r="D25" s="188"/>
+      <c r="E25" s="188"/>
+      <c r="F25" s="188"/>
+      <c r="G25" s="188"/>
+      <c r="H25" s="188"/>
+      <c r="I25" s="188"/>
+      <c r="J25" s="188"/>
+      <c r="K25" s="188"/>
+      <c r="L25" s="189"/>
     </row>
     <row r="27" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="231" t="s">
+      <c r="A27" s="175" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="231"/>
-      <c r="C27" s="231"/>
-      <c r="D27" s="231"/>
-      <c r="E27" s="231"/>
-      <c r="F27" s="231"/>
-      <c r="G27" s="231"/>
-      <c r="H27" s="231"/>
-      <c r="I27" s="232"/>
-      <c r="J27" s="232"/>
+      <c r="B27" s="175"/>
+      <c r="C27" s="175"/>
+      <c r="D27" s="175"/>
+      <c r="E27" s="175"/>
+      <c r="F27" s="175"/>
+      <c r="G27" s="175"/>
+      <c r="H27" s="175"/>
+      <c r="I27" s="176"/>
+      <c r="J27" s="176"/>
       <c r="K27" s="118" t="s">
         <v>107</v>
       </c>
@@ -4164,18 +4130,18 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="231" t="s">
+      <c r="A28" s="175" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="231"/>
-      <c r="C28" s="231"/>
-      <c r="D28" s="231"/>
-      <c r="E28" s="231"/>
-      <c r="F28" s="231"/>
-      <c r="G28" s="231"/>
-      <c r="H28" s="231"/>
-      <c r="I28" s="232"/>
-      <c r="J28" s="232"/>
+      <c r="B28" s="175"/>
+      <c r="C28" s="175"/>
+      <c r="D28" s="175"/>
+      <c r="E28" s="175"/>
+      <c r="F28" s="175"/>
+      <c r="G28" s="175"/>
+      <c r="H28" s="175"/>
+      <c r="I28" s="176"/>
+      <c r="J28" s="176"/>
       <c r="K28" s="117" t="s">
         <v>107</v>
       </c>
@@ -4185,18 +4151,18 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="231" t="s">
+      <c r="A29" s="175" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="231"/>
-      <c r="C29" s="231"/>
-      <c r="D29" s="231"/>
-      <c r="E29" s="231"/>
-      <c r="F29" s="231"/>
-      <c r="G29" s="231"/>
-      <c r="H29" s="231"/>
-      <c r="I29" s="232"/>
-      <c r="J29" s="232"/>
+      <c r="B29" s="175"/>
+      <c r="C29" s="175"/>
+      <c r="D29" s="175"/>
+      <c r="E29" s="175"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="176"/>
+      <c r="J29" s="176"/>
       <c r="K29" s="117" t="s">
         <v>102</v>
       </c>
@@ -4206,18 +4172,18 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="231" t="s">
+      <c r="A30" s="175" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="231"/>
-      <c r="C30" s="231"/>
-      <c r="D30" s="231"/>
-      <c r="E30" s="231"/>
-      <c r="F30" s="231"/>
-      <c r="G30" s="231"/>
-      <c r="H30" s="231"/>
-      <c r="I30" s="232"/>
-      <c r="J30" s="232"/>
+      <c r="B30" s="175"/>
+      <c r="C30" s="175"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="175"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="175"/>
+      <c r="I30" s="176"/>
+      <c r="J30" s="176"/>
       <c r="K30" s="117" t="s">
         <v>104</v>
       </c>
@@ -4227,21 +4193,21 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="231" t="s">
+      <c r="A31" s="175" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="231"/>
-      <c r="C31" s="231"/>
-      <c r="D31" s="231"/>
-      <c r="E31" s="231"/>
-      <c r="F31" s="231"/>
-      <c r="G31" s="231"/>
-      <c r="H31" s="231"/>
-      <c r="I31" s="236">
+      <c r="B31" s="175"/>
+      <c r="C31" s="175"/>
+      <c r="D31" s="175"/>
+      <c r="E31" s="175"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="175"/>
+      <c r="H31" s="175"/>
+      <c r="I31" s="177">
         <f>L19</f>
         <v>0</v>
       </c>
-      <c r="J31" s="236"/>
+      <c r="J31" s="177"/>
       <c r="K31" s="117" t="s">
         <v>102</v>
       </c>
@@ -4263,14 +4229,14 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F33" s="233" t="s">
+      <c r="F33" s="172" t="s">
         <v>100</v>
       </c>
-      <c r="G33" s="234"/>
-      <c r="H33" s="234"/>
-      <c r="I33" s="234"/>
-      <c r="J33" s="234"/>
-      <c r="K33" s="235"/>
+      <c r="G33" s="173"/>
+      <c r="H33" s="173"/>
+      <c r="I33" s="173"/>
+      <c r="J33" s="173"/>
+      <c r="K33" s="174"/>
       <c r="L33" s="112">
         <f>L32/10</f>
         <v>0</v>
@@ -4364,26 +4330,24 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="A21:L25"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:L12"/>
     <mergeCell ref="K13:K15"/>
     <mergeCell ref="L13:L15"/>
     <mergeCell ref="C14:E14"/>
@@ -4393,34 +4357,36 @@
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J13:J15"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="A21:L25"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:J31"/>
   </mergeCells>
-  <conditionalFormatting sqref="L13:L37 I31:J31">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="K13:K18 L13:L37 I27:J31">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="notBetween">
       <formula>0</formula>
+      <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:K18 I27:J31 L13:L37">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="notBetween">
+  <conditionalFormatting sqref="L13:L37 I31:J31">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>0</formula>
-      <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
@@ -4445,8 +4411,8 @@
   </sheetPr>
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -4468,420 +4434,420 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="143"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="145" t="s">
+      <c r="F1" s="142"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="146"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="148"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="147"/>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="144"/>
-      <c r="I2" s="145" t="s">
+      <c r="H2" s="143"/>
+      <c r="I2" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="146"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="148"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="147"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="149"/>
-      <c r="C3" s="293"/>
-      <c r="D3" s="293"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="145" t="s">
+      <c r="B3" s="148"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="146"/>
-      <c r="K3" s="147"/>
-      <c r="L3" s="148"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="147"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="151" t="s">
+      <c r="A4" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="151"/>
-      <c r="C4" s="292"/>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="145" t="s">
+      <c r="B4" s="150"/>
+      <c r="C4" s="235"/>
+      <c r="D4" s="235"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="235"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="152"/>
-      <c r="K4" s="147"/>
-      <c r="L4" s="148"/>
-    </row>
-    <row r="5" spans="1:12" s="153" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="151" t="s">
+      <c r="J4" s="151"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="147"/>
+    </row>
+    <row r="5" spans="1:12" s="152" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="151"/>
-      <c r="C5" s="292"/>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
+      <c r="B5" s="150"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="235"/>
+      <c r="E5" s="235"/>
+      <c r="F5" s="235"/>
       <c r="K5" s="50"/>
     </row>
-    <row r="6" spans="1:12" s="153" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="151" t="s">
+    <row r="6" spans="1:12" s="152" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="151"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-    </row>
-    <row r="7" spans="1:12" s="153" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="149" t="s">
+      <c r="B6" s="150"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+    </row>
+    <row r="7" spans="1:12" s="152" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="149"/>
-      <c r="C7" s="292"/>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="H7" s="149" t="s">
+      <c r="B7" s="148"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="235"/>
+      <c r="E7" s="235"/>
+      <c r="F7" s="235"/>
+      <c r="H7" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="155"/>
-    </row>
-    <row r="8" spans="1:12" s="153" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="151" t="s">
+      <c r="I7" s="148"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="149"/>
+      <c r="L7" s="154"/>
+    </row>
+    <row r="8" spans="1:12" s="152" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="151"/>
-      <c r="C8" s="292"/>
-      <c r="D8" s="292"/>
-      <c r="E8" s="292"/>
-      <c r="F8" s="292"/>
-      <c r="H8" s="151" t="s">
+      <c r="B8" s="150"/>
+      <c r="C8" s="235"/>
+      <c r="D8" s="235"/>
+      <c r="E8" s="235"/>
+      <c r="F8" s="235"/>
+      <c r="H8" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="151"/>
-      <c r="J8" s="156"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="155"/>
-    </row>
-    <row r="9" spans="1:12" s="153" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="151" t="s">
+      <c r="I8" s="150"/>
+      <c r="J8" s="155"/>
+      <c r="K8" s="155"/>
+      <c r="L8" s="154"/>
+    </row>
+    <row r="9" spans="1:12" s="152" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="151"/>
-      <c r="C9" s="292"/>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
+      <c r="B9" s="150"/>
+      <c r="C9" s="235"/>
+      <c r="D9" s="235"/>
+      <c r="E9" s="235"/>
+      <c r="F9" s="235"/>
       <c r="K9" s="50"/>
     </row>
-    <row r="10" spans="1:12" s="153" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="157"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="157"/>
+    <row r="10" spans="1:12" s="152" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="156"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="156"/>
       <c r="K10" s="50"/>
     </row>
-    <row r="11" spans="1:12" s="153" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="157"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="157"/>
-      <c r="H11" s="267" t="s">
+    <row r="11" spans="1:12" s="152" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="156"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="H11" s="237" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="268"/>
-      <c r="J11" s="269" t="s">
+      <c r="I11" s="238"/>
+      <c r="J11" s="239" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="270"/>
-      <c r="L11" s="271"/>
+      <c r="K11" s="240"/>
+      <c r="L11" s="241"/>
     </row>
     <row r="12" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="272" t="s">
+      <c r="A12" s="242" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="276" t="s">
+      <c r="B12" s="246" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="277"/>
-      <c r="D12" s="277"/>
-      <c r="E12" s="277"/>
-      <c r="F12" s="277"/>
-      <c r="G12" s="277"/>
-      <c r="H12" s="280"/>
-      <c r="I12" s="281"/>
-      <c r="J12" s="286" t="s">
+      <c r="C12" s="247"/>
+      <c r="D12" s="247"/>
+      <c r="E12" s="247"/>
+      <c r="F12" s="247"/>
+      <c r="G12" s="247"/>
+      <c r="H12" s="250"/>
+      <c r="I12" s="251"/>
+      <c r="J12" s="256" t="s">
         <v>132</v>
       </c>
-      <c r="K12" s="288">
+      <c r="K12" s="259">
         <f>SUM(B17:G17)/6</f>
         <v>0</v>
       </c>
-      <c r="L12" s="256">
+      <c r="L12" s="262">
         <f>ROUND(K12*0.6,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="273"/>
-      <c r="B13" s="278"/>
-      <c r="C13" s="279"/>
-      <c r="D13" s="279"/>
-      <c r="E13" s="279"/>
-      <c r="F13" s="279"/>
-      <c r="G13" s="279"/>
-      <c r="H13" s="282"/>
-      <c r="I13" s="283"/>
-      <c r="J13" s="265"/>
-      <c r="K13" s="289"/>
-      <c r="L13" s="257"/>
+      <c r="A13" s="243"/>
+      <c r="B13" s="248"/>
+      <c r="C13" s="249"/>
+      <c r="D13" s="249"/>
+      <c r="E13" s="249"/>
+      <c r="F13" s="249"/>
+      <c r="G13" s="249"/>
+      <c r="H13" s="252"/>
+      <c r="I13" s="253"/>
+      <c r="J13" s="257"/>
+      <c r="K13" s="260"/>
+      <c r="L13" s="263"/>
     </row>
     <row r="14" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="273"/>
-      <c r="B14" s="278"/>
-      <c r="C14" s="279"/>
-      <c r="D14" s="279"/>
-      <c r="E14" s="279"/>
-      <c r="F14" s="279"/>
-      <c r="G14" s="279"/>
-      <c r="H14" s="282"/>
-      <c r="I14" s="283"/>
-      <c r="J14" s="265"/>
-      <c r="K14" s="289"/>
-      <c r="L14" s="257"/>
+      <c r="A14" s="243"/>
+      <c r="B14" s="248"/>
+      <c r="C14" s="249"/>
+      <c r="D14" s="249"/>
+      <c r="E14" s="249"/>
+      <c r="F14" s="249"/>
+      <c r="G14" s="249"/>
+      <c r="H14" s="252"/>
+      <c r="I14" s="253"/>
+      <c r="J14" s="257"/>
+      <c r="K14" s="260"/>
+      <c r="L14" s="263"/>
     </row>
     <row r="15" spans="1:12" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="273"/>
-      <c r="B15" s="278"/>
-      <c r="C15" s="279"/>
-      <c r="D15" s="279"/>
-      <c r="E15" s="279"/>
-      <c r="F15" s="279"/>
-      <c r="G15" s="279"/>
-      <c r="H15" s="282"/>
-      <c r="I15" s="283"/>
-      <c r="J15" s="265"/>
-      <c r="K15" s="289"/>
-      <c r="L15" s="257"/>
+      <c r="A15" s="243"/>
+      <c r="B15" s="248"/>
+      <c r="C15" s="249"/>
+      <c r="D15" s="249"/>
+      <c r="E15" s="249"/>
+      <c r="F15" s="249"/>
+      <c r="G15" s="249"/>
+      <c r="H15" s="252"/>
+      <c r="I15" s="253"/>
+      <c r="J15" s="257"/>
+      <c r="K15" s="260"/>
+      <c r="L15" s="263"/>
     </row>
     <row r="16" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="274"/>
-      <c r="B16" s="158" t="s">
+      <c r="A16" s="244"/>
+      <c r="B16" s="157" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="159" t="s">
+      <c r="C16" s="158" t="s">
         <v>134</v>
       </c>
-      <c r="D16" s="160" t="s">
+      <c r="D16" s="159" t="s">
         <v>135</v>
       </c>
-      <c r="E16" s="159" t="s">
+      <c r="E16" s="158" t="s">
         <v>136</v>
       </c>
-      <c r="F16" s="159" t="s">
+      <c r="F16" s="158" t="s">
         <v>137</v>
       </c>
-      <c r="G16" s="161" t="s">
+      <c r="G16" s="160" t="s">
         <v>138</v>
       </c>
-      <c r="H16" s="282"/>
-      <c r="I16" s="283"/>
-      <c r="J16" s="265"/>
-      <c r="K16" s="289"/>
-      <c r="L16" s="257"/>
+      <c r="H16" s="252"/>
+      <c r="I16" s="253"/>
+      <c r="J16" s="257"/>
+      <c r="K16" s="260"/>
+      <c r="L16" s="263"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="275"/>
-      <c r="B17" s="162">
+      <c r="A17" s="245"/>
+      <c r="B17" s="161">
         <v>0</v>
       </c>
-      <c r="C17" s="163"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="163"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="284"/>
-      <c r="I17" s="285"/>
-      <c r="J17" s="287"/>
-      <c r="K17" s="290"/>
-      <c r="L17" s="291"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="254"/>
+      <c r="I17" s="255"/>
+      <c r="J17" s="258"/>
+      <c r="K17" s="261"/>
+      <c r="L17" s="264"/>
     </row>
     <row r="18" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="239" t="s">
+      <c r="A18" s="267" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="242" t="s">
+      <c r="B18" s="270" t="s">
         <v>139</v>
       </c>
-      <c r="C18" s="242"/>
-      <c r="D18" s="242"/>
-      <c r="E18" s="242"/>
-      <c r="F18" s="242"/>
-      <c r="G18" s="242"/>
-      <c r="H18" s="245"/>
-      <c r="I18" s="246"/>
-      <c r="J18" s="251" t="s">
+      <c r="C18" s="270"/>
+      <c r="D18" s="270"/>
+      <c r="E18" s="270"/>
+      <c r="F18" s="270"/>
+      <c r="G18" s="270"/>
+      <c r="H18" s="273"/>
+      <c r="I18" s="274"/>
+      <c r="J18" s="279" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="254">
+      <c r="K18" s="282">
         <v>0</v>
       </c>
-      <c r="L18" s="256">
+      <c r="L18" s="262">
         <f>IF((K18-K21)&gt;=0,(ROUND((K18-K21)*0.25,3)),0.00000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="240"/>
-      <c r="B19" s="243"/>
-      <c r="C19" s="243"/>
-      <c r="D19" s="243"/>
-      <c r="E19" s="243"/>
-      <c r="F19" s="243"/>
-      <c r="G19" s="243"/>
-      <c r="H19" s="247"/>
-      <c r="I19" s="248"/>
-      <c r="J19" s="252"/>
-      <c r="K19" s="255"/>
-      <c r="L19" s="257"/>
+      <c r="A19" s="268"/>
+      <c r="B19" s="271"/>
+      <c r="C19" s="271"/>
+      <c r="D19" s="271"/>
+      <c r="E19" s="271"/>
+      <c r="F19" s="271"/>
+      <c r="G19" s="271"/>
+      <c r="H19" s="275"/>
+      <c r="I19" s="276"/>
+      <c r="J19" s="280"/>
+      <c r="K19" s="283"/>
+      <c r="L19" s="263"/>
     </row>
     <row r="20" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="240"/>
-      <c r="B20" s="244"/>
-      <c r="C20" s="244"/>
-      <c r="D20" s="244"/>
-      <c r="E20" s="244"/>
-      <c r="F20" s="244"/>
-      <c r="G20" s="243"/>
-      <c r="H20" s="247"/>
-      <c r="I20" s="248"/>
-      <c r="J20" s="252"/>
-      <c r="K20" s="255"/>
-      <c r="L20" s="257"/>
+      <c r="A20" s="268"/>
+      <c r="B20" s="272"/>
+      <c r="C20" s="272"/>
+      <c r="D20" s="272"/>
+      <c r="E20" s="272"/>
+      <c r="F20" s="272"/>
+      <c r="G20" s="271"/>
+      <c r="H20" s="275"/>
+      <c r="I20" s="276"/>
+      <c r="J20" s="280"/>
+      <c r="K20" s="283"/>
+      <c r="L20" s="263"/>
     </row>
     <row r="21" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="241"/>
-      <c r="B21" s="165" t="s">
+      <c r="A21" s="269"/>
+      <c r="B21" s="164" t="s">
         <v>140</v>
       </c>
-      <c r="C21" s="166">
+      <c r="C21" s="165">
         <v>0</v>
       </c>
-      <c r="D21" s="166">
+      <c r="D21" s="165">
         <v>0</v>
       </c>
-      <c r="E21" s="166">
+      <c r="E21" s="165">
         <v>0</v>
       </c>
-      <c r="F21" s="166">
+      <c r="F21" s="165">
         <v>0</v>
       </c>
-      <c r="G21" s="166"/>
-      <c r="H21" s="249"/>
-      <c r="I21" s="250"/>
-      <c r="J21" s="253"/>
-      <c r="K21" s="167">
+      <c r="G21" s="165"/>
+      <c r="H21" s="277"/>
+      <c r="I21" s="278"/>
+      <c r="J21" s="281"/>
+      <c r="K21" s="166">
         <f>SUM(C21:G21)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="258"/>
+      <c r="L21" s="284"/>
     </row>
     <row r="22" spans="1:12" ht="87.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="239" t="s">
+      <c r="A22" s="267" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="242" t="s">
+      <c r="B22" s="270" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="259"/>
-      <c r="D22" s="259"/>
-      <c r="E22" s="259"/>
-      <c r="F22" s="259"/>
-      <c r="G22" s="260"/>
-      <c r="H22" s="261"/>
-      <c r="I22" s="262"/>
-      <c r="J22" s="265" t="s">
+      <c r="C22" s="285"/>
+      <c r="D22" s="285"/>
+      <c r="E22" s="285"/>
+      <c r="F22" s="285"/>
+      <c r="G22" s="286"/>
+      <c r="H22" s="287"/>
+      <c r="I22" s="288"/>
+      <c r="J22" s="257" t="s">
         <v>142</v>
       </c>
-      <c r="K22" s="168">
+      <c r="K22" s="167">
         <v>0</v>
       </c>
-      <c r="L22" s="257">
+      <c r="L22" s="263">
         <f>IF((K22-K23)&gt;=0, ROUND((K22-K23)*0.15,3),0.000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="241"/>
-      <c r="B23" s="169" t="s">
+      <c r="A23" s="269"/>
+      <c r="B23" s="168" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="166">
+      <c r="C23" s="165">
         <v>0</v>
       </c>
-      <c r="D23" s="166">
+      <c r="D23" s="165">
         <v>0</v>
       </c>
-      <c r="E23" s="166">
+      <c r="E23" s="165">
         <v>0</v>
       </c>
-      <c r="F23" s="166">
+      <c r="F23" s="165">
         <v>0</v>
       </c>
-      <c r="G23" s="166"/>
-      <c r="H23" s="263"/>
-      <c r="I23" s="264"/>
-      <c r="J23" s="266"/>
-      <c r="K23" s="167">
+      <c r="G23" s="165"/>
+      <c r="H23" s="289"/>
+      <c r="I23" s="290"/>
+      <c r="J23" s="291"/>
+      <c r="K23" s="166">
         <f>SUM(C23:G23)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="258"/>
+      <c r="L23" s="284"/>
     </row>
     <row r="24" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="170"/>
-      <c r="B24" s="170"/>
-      <c r="C24" s="170"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="170"/>
-      <c r="F24" s="170"/>
-      <c r="G24" s="170"/>
-      <c r="H24" s="170"/>
+      <c r="A24" s="169"/>
+      <c r="B24" s="169"/>
+      <c r="C24" s="169"/>
+      <c r="D24" s="169"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="169"/>
+      <c r="H24" s="169"/>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I25" s="23" t="s">
         <v>5</v>
       </c>
       <c r="J25" s="24"/>
-      <c r="K25" s="237">
+      <c r="K25" s="265">
         <f>SUM(L12:L22)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="238"/>
+      <c r="L25" s="266"/>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I26" s="172"/>
-      <c r="J26" s="172"/>
-      <c r="K26" s="173"/>
-      <c r="L26" s="173"/>
+      <c r="I26" s="127"/>
+      <c r="J26" s="127"/>
+      <c r="K26" s="171"/>
+      <c r="L26" s="171"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4899,26 +4865,12 @@
       </c>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
-      <c r="K30" s="171"/>
+      <c r="K30" s="170"/>
       <c r="L30" s="25"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="26">
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:G15"/>
-    <mergeCell ref="H12:I17"/>
-    <mergeCell ref="J12:J17"/>
-    <mergeCell ref="K12:K17"/>
-    <mergeCell ref="L12:L17"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="B18:G20"/>
@@ -4931,6 +4883,20 @@
     <mergeCell ref="H22:I23"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="L22:L23"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:G15"/>
+    <mergeCell ref="H12:I17"/>
+    <mergeCell ref="J12:J17"/>
+    <mergeCell ref="K12:K17"/>
+    <mergeCell ref="L12:L17"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId1"/>
@@ -4949,7 +4915,7 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -5016,10 +4982,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="294"/>
-      <c r="D5" s="294"/>
-      <c r="E5" s="294"/>
-      <c r="F5" s="294"/>
+      <c r="C5" s="292"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
       <c r="H5" s="28"/>
       <c r="I5" s="29" t="s">
         <v>7</v>
@@ -5028,7 +4994,7 @@
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
     </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H6" s="79"/>
       <c r="I6" s="79"/>
     </row>
@@ -5055,10 +5021,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="297"/>
-      <c r="D8" s="297"/>
-      <c r="E8" s="297"/>
-      <c r="F8" s="297"/>
+      <c r="C8" s="295"/>
+      <c r="D8" s="295"/>
+      <c r="E8" s="295"/>
+      <c r="F8" s="295"/>
       <c r="H8" s="4" t="s">
         <v>11</v>
       </c>
@@ -5073,30 +5039,30 @@
         <v>13</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="294"/>
-      <c r="D9" s="294"/>
-      <c r="E9" s="294"/>
-      <c r="F9" s="294"/>
+      <c r="C9" s="292"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
       <c r="H9" s="26"/>
-      <c r="I9" s="295"/>
-      <c r="J9" s="296"/>
-      <c r="K9" s="296"/>
-      <c r="L9" s="296"/>
+      <c r="I9" s="293"/>
+      <c r="J9" s="294"/>
+      <c r="K9" s="294"/>
+      <c r="L9" s="294"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="294"/>
-      <c r="D10" s="294"/>
-      <c r="E10" s="294"/>
-      <c r="F10" s="294"/>
+      <c r="C10" s="292"/>
+      <c r="D10" s="292"/>
+      <c r="E10" s="292"/>
+      <c r="F10" s="292"/>
       <c r="H10" s="26"/>
-      <c r="I10" s="295"/>
-      <c r="J10" s="296"/>
-      <c r="K10" s="296"/>
-      <c r="L10" s="296"/>
+      <c r="I10" s="293"/>
+      <c r="J10" s="294"/>
+      <c r="K10" s="294"/>
+      <c r="L10" s="294"/>
     </row>
     <row r="11" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -5168,7 +5134,7 @@
         <v>0.8</v>
       </c>
       <c r="G18" s="67"/>
-      <c r="H18" s="141">
+      <c r="H18" s="4">
         <f>IF(E18&gt;12,13,E18)</f>
         <v>0</v>
       </c>
@@ -5192,7 +5158,7 @@
         <v>0.4</v>
       </c>
       <c r="G19" s="67"/>
-      <c r="H19" s="141">
+      <c r="H19" s="4">
         <f>IF(SUM(E18:E19)&gt;12,13-H18,E19)</f>
         <v>0</v>
       </c>
@@ -5216,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="67"/>
-      <c r="H20" s="141">
+      <c r="H20" s="4">
         <f>IF(SUM(E18:E20)&gt;12,IF(13-SUM(H18:H19)&gt;0,13-SUM(H18:H19),0),E20)</f>
         <v>0</v>
       </c>
@@ -5397,8 +5363,8 @@
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -5465,10 +5431,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="294"/>
-      <c r="D5" s="294"/>
-      <c r="E5" s="294"/>
-      <c r="F5" s="294"/>
+      <c r="C5" s="292"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
       <c r="H5" s="28"/>
       <c r="I5" s="29" t="s">
         <v>7</v>
@@ -5477,7 +5443,7 @@
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
     </row>
-    <row r="6" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
@@ -5510,10 +5476,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="297"/>
-      <c r="D8" s="297"/>
-      <c r="E8" s="297"/>
-      <c r="F8" s="297"/>
+      <c r="C8" s="295"/>
+      <c r="D8" s="295"/>
+      <c r="E8" s="295"/>
+      <c r="F8" s="295"/>
       <c r="H8" s="4" t="s">
         <v>11</v>
       </c>
@@ -5528,30 +5494,30 @@
         <v>13</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="294"/>
-      <c r="D9" s="294"/>
-      <c r="E9" s="294"/>
-      <c r="F9" s="294"/>
+      <c r="C9" s="292"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
       <c r="H9" s="26"/>
-      <c r="I9" s="295"/>
-      <c r="J9" s="296"/>
-      <c r="K9" s="296"/>
-      <c r="L9" s="296"/>
+      <c r="I9" s="293"/>
+      <c r="J9" s="294"/>
+      <c r="K9" s="294"/>
+      <c r="L9" s="294"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="294"/>
-      <c r="D10" s="294"/>
-      <c r="E10" s="294"/>
-      <c r="F10" s="294"/>
+      <c r="C10" s="292"/>
+      <c r="D10" s="292"/>
+      <c r="E10" s="292"/>
+      <c r="F10" s="292"/>
       <c r="H10" s="26"/>
-      <c r="I10" s="295"/>
-      <c r="J10" s="296"/>
-      <c r="K10" s="296"/>
-      <c r="L10" s="296"/>
+      <c r="I10" s="293"/>
+      <c r="J10" s="294"/>
+      <c r="K10" s="294"/>
+      <c r="L10" s="294"/>
     </row>
     <row r="11" spans="1:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K11" s="14" t="s">
@@ -5559,19 +5525,19 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="300" t="s">
+      <c r="A12" s="298" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="303" t="s">
+      <c r="B12" s="301" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="304"/>
-      <c r="D12" s="304"/>
-      <c r="E12" s="304"/>
-      <c r="F12" s="304"/>
-      <c r="G12" s="304"/>
-      <c r="H12" s="304"/>
-      <c r="I12" s="304"/>
+      <c r="C12" s="302"/>
+      <c r="D12" s="302"/>
+      <c r="E12" s="302"/>
+      <c r="F12" s="302"/>
+      <c r="G12" s="302"/>
+      <c r="H12" s="302"/>
+      <c r="I12" s="302"/>
       <c r="J12" s="11" t="s">
         <v>1</v>
       </c>
@@ -5583,17 +5549,17 @@
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="301"/>
-      <c r="B13" s="305" t="s">
+      <c r="A13" s="299"/>
+      <c r="B13" s="303" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="306"/>
-      <c r="D13" s="306"/>
-      <c r="E13" s="306"/>
-      <c r="F13" s="306"/>
-      <c r="G13" s="306"/>
-      <c r="H13" s="306"/>
-      <c r="I13" s="306"/>
+      <c r="C13" s="304"/>
+      <c r="D13" s="304"/>
+      <c r="E13" s="304"/>
+      <c r="F13" s="304"/>
+      <c r="G13" s="304"/>
+      <c r="H13" s="304"/>
+      <c r="I13" s="304"/>
       <c r="J13" s="12" t="s">
         <v>2</v>
       </c>
@@ -5605,19 +5571,19 @@
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="300" t="s">
+      <c r="A14" s="298" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="307" t="s">
+      <c r="B14" s="305" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="308"/>
-      <c r="D14" s="308"/>
-      <c r="E14" s="308"/>
-      <c r="F14" s="308"/>
-      <c r="G14" s="308"/>
-      <c r="H14" s="308"/>
-      <c r="I14" s="308"/>
+      <c r="C14" s="306"/>
+      <c r="D14" s="306"/>
+      <c r="E14" s="306"/>
+      <c r="F14" s="306"/>
+      <c r="G14" s="306"/>
+      <c r="H14" s="306"/>
+      <c r="I14" s="306"/>
       <c r="J14" s="11" t="s">
         <v>144</v>
       </c>
@@ -5629,17 +5595,17 @@
       <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="302"/>
-      <c r="B15" s="298" t="s">
+      <c r="A15" s="300"/>
+      <c r="B15" s="296" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="299"/>
-      <c r="D15" s="299"/>
-      <c r="E15" s="299"/>
-      <c r="F15" s="299"/>
-      <c r="G15" s="299"/>
-      <c r="H15" s="299"/>
-      <c r="I15" s="299"/>
+      <c r="C15" s="297"/>
+      <c r="D15" s="297"/>
+      <c r="E15" s="297"/>
+      <c r="F15" s="297"/>
+      <c r="G15" s="297"/>
+      <c r="H15" s="297"/>
+      <c r="I15" s="297"/>
       <c r="J15" s="13" t="s">
         <v>3</v>
       </c>
@@ -5706,21 +5672,21 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="I9:L9"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR PAS-DE-DEUX</oddHeader>
     <oddFooter>&amp;R2019-06-01</oddFooter>
@@ -5796,21 +5762,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5831,14 +5797,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06F9B768-A93D-4D4C-BBD7-D4CF83092D49}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5851,4 +5809,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/mallar/Protokoll/Protokoll_2019_Pas_de_deux_klass(mall).xlsx
+++ b/mallar/Protokoll/Protokoll_2019_Pas_de_deux_klass(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B53EF41-908A-4244-818D-C5287F2530AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFA616F-B978-4694-99C1-C021A0D92959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="5310" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43200" yWindow="5430" windowWidth="19200" windowHeight="21000" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="24" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <definedName name="datum" localSheetId="2">'Pas-de-Deux Häst'!$C$3</definedName>
     <definedName name="datum" localSheetId="3">'Pas-de-Deux tekn'!$C$4</definedName>
     <definedName name="datum" localSheetId="1">'Skritt pas-de-deux'!$C$4</definedName>
-    <definedName name="domare" localSheetId="4">'Pas-de-Deux art'!$C$26</definedName>
+    <definedName name="domare" localSheetId="4">'Pas-de-Deux art'!$C$27</definedName>
     <definedName name="domare" localSheetId="2">'Pas-de-Deux Häst'!$C$30</definedName>
     <definedName name="domare" localSheetId="3">'Pas-de-Deux tekn'!$C$36</definedName>
     <definedName name="domare" localSheetId="1">'Skritt pas-de-deux'!$C$40</definedName>
@@ -59,11 +59,11 @@
     <definedName name="moment" localSheetId="2">'Pas-de-Deux Häst'!$L$4</definedName>
     <definedName name="moment" localSheetId="3">'Pas-de-Deux tekn'!$L$5</definedName>
     <definedName name="moment" localSheetId="1">'Skritt pas-de-deux'!$L$5</definedName>
-    <definedName name="result" localSheetId="4">'Pas-de-Deux art'!$L$20</definedName>
+    <definedName name="result" localSheetId="4">'Pas-de-Deux art'!$L$21</definedName>
     <definedName name="result" localSheetId="2">'Pas-de-Deux Häst'!$K$25</definedName>
     <definedName name="result" localSheetId="3">'Pas-de-Deux tekn'!$L$32</definedName>
     <definedName name="result" localSheetId="1">'Skritt pas-de-deux'!$L$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Pas-de-Deux art'!$A$1:$M$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Pas-de-Deux art'!$A$1:$M$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Pas-de-Deux Häst'!$A$1:$L$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Pas-de-Deux tekn'!$A$1:$L$47</definedName>
   </definedNames>
@@ -82,21 +82,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="149">
   <si>
     <t>Nation:</t>
-  </si>
-  <si>
-    <t>C1
-25%</t>
-  </si>
-  <si>
-    <t>C2
-25%</t>
-  </si>
-  <si>
-    <t>C4
-20%</t>
   </si>
   <si>
     <t>A2
@@ -244,66 +232,6 @@
     <t>Artistisk poäng</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Variation av position</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-• Variation av position av övningar dels relaterat till hästen men också riktningen av övningar.
-• Balans gällande användning av plats, användning av alla delar av hästens rygg, hals och kors inräknat mellanhopp.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Variation av övningar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-• En balans av statiska och dynamiska övningar.
-• Ett urval av övningar och övergångar från olika strukturgrupper.
-• Ett urval av lämpliga strukturgrupper i harmoni med hästen.
-• Endast dubbelövningar, upphopp och avgångar bedöms.
-• En balans gällande de olika positionerna för de två voltigörerna.</t>
-    </r>
-  </si>
-  <si>
     <t>Start nr</t>
   </si>
   <si>
@@ -446,31 +374,6 @@
   </si>
   <si>
     <t>Det finns även en tabell för domarrotation</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tolkning av musik</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-• Starkt engagemang till ett genomtänkt och utvecklat musikaliskt koncept
-• Fängslande tolkning av musiken
-• Stor variation av uttryck som speglar olika typer av musik samt förändringar i musiken
-• Komplext kroppsspråk samt gester och rörelser i många olika riktningar.</t>
-    </r>
   </si>
   <si>
     <t>/ 10 = Total Kür:</t>
@@ -798,8 +701,7 @@
     <t>Signatur</t>
   </si>
   <si>
-    <t>C3
-30%</t>
+    <t>HÄNSYN TILL HÄSTEN</t>
   </si>
   <si>
     <r>
@@ -810,7 +712,80 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Sammanhållning av sammansättning och komplexitet</t>
+      <t>Hänsyn till hästen</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">• Urval av element och sekvenser i harmoni med hästen, baserat på vikt, sammansättning och balans.
+• Övningar som inte överbelastar hästen.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>CoH
+20%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Variation av övningar</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">• Statiska och dynamiska övningar i proportion till varandra.
+• Urval av kombinationer.
+• Urval av övningar, positioner och övergångar från olika strukturgrupper.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Variation av position</t>
     </r>
     <r>
       <rPr>
@@ -820,13 +795,23 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-• Val av element och sekvenser i harmoni med hästen.
-• Mjuka övergångar och rörelser som visar på sammanhållning och flyt.
-• Hög komplexitet av element, övergångar, positioner och kombinationer av övningar.
-• Urval av element och sekvenser i harmoni med hästen.
-• Förmåga att kontrollera och länka samman röresler och positioner i instabil jämvikt. Rörelsefrihet. 
-• Undviker tom häst</t>
+• Variation av position övningarna dels i relation till hästen men också riktningen av övningen.
+• Balanserad användning av utrymme; användning av alla delar av hästens rygg och hals inklusive mellanhopp (markhopp).
+• Någorlunda jämn fördelning av roller och konstnärligt engagemang.</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -835,8 +820,61 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t/>
+      <t>Sammanhållning av sammansättning</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+•  Mjuka övergångar och rörelser som visar flyt, kontroll och sammanhållning.
+•  Element, sekvenser, övergångar, positioner, riktningar och kombinationer av övningar som uppvisar komplexitet och rörelsefrihet.
+•  Undviker tom häst.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tolkning av musiken/kroppsspråk/uttrycksfullhet.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+• Starkt engagemang till ett genomtänkt och utvecklat musikaliskt koncept.
+• Fängslande tolkning av musiken.
+• Stor variation av uttryck som speglar olika typer av musik samt förändringar i musiken.
+• Komplexitet i kroppsspråk samt gester och rörelser i många olika riktningar.</t>
+    </r>
+  </si>
+  <si>
+    <t>C1
+20%</t>
+  </si>
+  <si>
+    <t>C2
+10%</t>
+  </si>
+  <si>
+    <t>C3
+25%</t>
+  </si>
+  <si>
+    <t>C4
+25%</t>
   </si>
 </sst>
 </file>
@@ -852,7 +890,7 @@
     <numFmt numFmtId="168" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -957,20 +995,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Symbol"/>
-      <family val="1"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1065,6 +1089,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Symbol"/>
+      <family val="2"/>
+      <charset val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1092,7 +1123,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -1802,6 +1833,56 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1817,7 +1898,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="307">
+  <cellXfs count="316">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2010,21 +2091,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2049,10 +2130,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2096,7 +2177,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2106,7 +2187,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -2136,11 +2217,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2176,34 +2257,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="169" fontId="5" fillId="4" borderId="51" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="34" fillId="4" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="32" fillId="4" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="34" fillId="4" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="32" fillId="4" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2222,14 +2303,170 @@
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="32" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="24" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="38" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2238,174 +2475,185 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="169" fontId="2" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="32" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="24" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="38" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2414,173 +2662,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2591,12 +2672,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2606,22 +2681,56 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="60" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3048,12 +3157,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="86" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="81" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C2" s="82"/>
       <c r="D2" s="82"/>
@@ -3061,12 +3170,12 @@
     </row>
     <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="81" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="139" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="139" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -3076,7 +3185,7 @@
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="90" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -3085,15 +3194,15 @@
     <row r="9" spans="1:5" s="80" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A9" s="81"/>
       <c r="B9" s="82" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="81" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B10" s="134" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -3101,54 +3210,54 @@
     </row>
     <row r="15" spans="1:5" s="82" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A15" s="138" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B15" s="80"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="81" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="81" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="82" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A19" s="82" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="83" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="82" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C21" s="82" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D21" s="82" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E21" s="82"/>
     </row>
     <row r="22" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="81" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B22" s="134" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C22" s="134" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D22" s="134" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E22" s="136"/>
     </row>
@@ -3160,27 +3269,27 @@
     </row>
     <row r="25" spans="1:9" s="82" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A25" s="82" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="83" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F26" s="83"/>
     </row>
     <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="82" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C27" s="82" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D27" s="82" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F27" s="82"/>
       <c r="G27" s="82"/>
@@ -3189,19 +3298,19 @@
     </row>
     <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="81" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B28" s="134" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C28" s="134" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D28" s="134" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E28" s="134" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F28" s="136"/>
       <c r="G28" s="135"/>
@@ -3228,60 +3337,60 @@
     </row>
     <row r="32" spans="1:9" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A32" s="82" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="83" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F34" s="83" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="82" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C35" s="82" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D35" s="82" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E35" s="82"/>
       <c r="F35" s="82" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G35" s="82" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H35" s="82" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="81" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B36" s="134" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C36" s="134" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D36" s="134" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E36" s="137"/>
       <c r="F36" s="134" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G36" s="134" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H36" s="134" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3295,42 +3404,42 @@
     </row>
     <row r="39" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A39" s="82" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="83" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F41" s="83" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J41" s="83"/>
     </row>
     <row r="42" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="82" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C42" s="82" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D42" s="82" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E42" s="82" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F42" s="82" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G42" s="82" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H42" s="82" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I42" s="82" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J42" s="82"/>
       <c r="K42" s="82"/>
@@ -3339,76 +3448,76 @@
     </row>
     <row r="43" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="81" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B43" s="134" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C43" s="134" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D43" s="134" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E43" s="134" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F43" s="134" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G43" s="134" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H43" s="134" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I43" s="134" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A46" s="80" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="88" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A47" s="87" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B47" s="87" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C47" s="87" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D47" s="87" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E47" s="87" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F47" s="87" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" s="84" t="s">
         <v>72</v>
-      </c>
-      <c r="B48" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="D48" s="84" t="s">
-        <v>75</v>
-      </c>
-      <c r="E48" s="84" t="s">
-        <v>76</v>
-      </c>
-      <c r="F48" s="84" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:6" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3418,66 +3527,66 @@
       <c r="D49" s="84"/>
       <c r="E49" s="84"/>
       <c r="F49" s="85" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="80" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A52" s="80" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A53" s="89" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:6" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A54" s="91" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B54" s="92" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C54" s="92" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D54" s="92" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E54" s="92" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="93" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B55" s="93" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C55" s="93" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D55" s="93" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E55" s="93" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="93"/>
       <c r="B56" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="C56" s="95" t="s">
-        <v>96</v>
-      </c>
       <c r="D56" s="95" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E56" s="93" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
@@ -3489,218 +3598,218 @@
     </row>
     <row r="58" spans="1:6" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A58" s="91" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B58" s="92" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C58" s="92" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D58" s="92" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E58" s="92" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="93" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B59" s="93" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C59" s="93" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D59" s="93" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E59" s="93" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="93"/>
       <c r="B60" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="C60" s="95" t="s">
-        <v>96</v>
-      </c>
       <c r="D60" s="95" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E60" s="93" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="93" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B61" s="93" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C61" s="93" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D61" s="93" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E61" s="93" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="93"/>
       <c r="B62" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="C62" s="95" t="s">
-        <v>96</v>
-      </c>
       <c r="D62" s="95" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E62" s="93" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="90" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A65" s="89" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:5" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A66" s="91" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B66" s="92" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C66" s="92" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D66" s="92" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E66" s="92" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="93" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B67" s="93" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C67" s="93" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D67" s="93" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E67" s="93" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="93"/>
       <c r="B68" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="C68" s="95" t="s">
-        <v>96</v>
-      </c>
       <c r="D68" s="95" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E68" s="95" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:5" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A70" s="91" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B70" s="92" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C70" s="92" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D70" s="92" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E70" s="92" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="93" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B71" s="93" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C71" s="93" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D71" s="93" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E71" s="93" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="93"/>
       <c r="B72" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="C72" s="95" t="s">
-        <v>96</v>
-      </c>
       <c r="D72" s="95" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E72" s="95" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="93" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B73" s="93" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C73" s="93" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D73" s="93" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E73" s="93" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="93"/>
       <c r="B74" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="C74" s="95" t="s">
-        <v>96</v>
-      </c>
       <c r="D74" s="95" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E74" s="95" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3742,11 +3851,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="119" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H2" s="132"/>
       <c r="I2" s="131" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J2" s="133"/>
       <c r="K2" s="129"/>
@@ -3754,11 +3863,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="111" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H3" s="132"/>
       <c r="I3" s="131" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J3" s="133"/>
       <c r="K3" s="129"/>
@@ -3766,16 +3875,16 @@
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="108" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" s="108"/>
-      <c r="C4" s="230"/>
-      <c r="D4" s="230"/>
-      <c r="E4" s="230"/>
-      <c r="F4" s="230"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
       <c r="H4" s="132"/>
       <c r="I4" s="131" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J4" s="133"/>
       <c r="K4" s="129"/>
@@ -3783,16 +3892,16 @@
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="128" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" s="128"/>
-      <c r="C5" s="218"/>
-      <c r="D5" s="218"/>
-      <c r="E5" s="218"/>
-      <c r="F5" s="218"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="173"/>
       <c r="H5" s="132"/>
       <c r="I5" s="131" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J5" s="130"/>
       <c r="K5" s="129"/>
@@ -3800,83 +3909,83 @@
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="101" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H6" s="101" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="128" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B7" s="128"/>
-      <c r="C7" s="218"/>
-      <c r="D7" s="218"/>
-      <c r="E7" s="218"/>
-      <c r="F7" s="218"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
       <c r="H7" s="108" t="s">
-        <v>118</v>
-      </c>
-      <c r="I7" s="231"/>
-      <c r="J7" s="232"/>
-      <c r="K7" s="232"/>
-      <c r="L7" s="232"/>
+        <v>112</v>
+      </c>
+      <c r="I7" s="176"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="177"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="108" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="108"/>
-      <c r="C8" s="230"/>
-      <c r="D8" s="230"/>
-      <c r="E8" s="230"/>
-      <c r="F8" s="230"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
       <c r="H8" s="128" t="s">
-        <v>117</v>
-      </c>
-      <c r="I8" s="233"/>
-      <c r="J8" s="234"/>
-      <c r="K8" s="234"/>
-      <c r="L8" s="234"/>
+        <v>111</v>
+      </c>
+      <c r="I8" s="178"/>
+      <c r="J8" s="179"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="179"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="128" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9" s="128"/>
-      <c r="C9" s="218"/>
-      <c r="D9" s="218"/>
-      <c r="E9" s="218"/>
-      <c r="F9" s="218"/>
-      <c r="I9" s="219"/>
-      <c r="J9" s="220"/>
-      <c r="K9" s="220"/>
-      <c r="L9" s="220"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="173"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="175"/>
+      <c r="K9" s="175"/>
+      <c r="L9" s="175"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="128" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B10" s="128"/>
-      <c r="C10" s="218"/>
-      <c r="D10" s="218"/>
-      <c r="E10" s="218"/>
-      <c r="F10" s="218"/>
-      <c r="I10" s="219"/>
-      <c r="J10" s="220"/>
-      <c r="K10" s="220"/>
-      <c r="L10" s="220"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="175"/>
+      <c r="K10" s="175"/>
+      <c r="L10" s="175"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I11" s="219"/>
-      <c r="J11" s="220"/>
-      <c r="K11" s="220"/>
-      <c r="L11" s="220"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="175"/>
+      <c r="K11" s="175"/>
+      <c r="L11" s="175"/>
     </row>
     <row r="12" spans="1:12" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A12" s="127" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
@@ -3884,95 +3993,95 @@
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
-      <c r="H12" s="221" t="s">
+      <c r="H12" s="189" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="190"/>
+      <c r="J12" s="191" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="192"/>
+      <c r="L12" s="193"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="180" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="183" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="222"/>
-      <c r="J12" s="223" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="224"/>
-      <c r="L12" s="225"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="190" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="209" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="209" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="209"/>
-      <c r="E13" s="209"/>
-      <c r="F13" s="195" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="227"/>
-      <c r="H13" s="228"/>
-      <c r="I13" s="229"/>
-      <c r="J13" s="215">
+      <c r="D13" s="183"/>
+      <c r="E13" s="183"/>
+      <c r="F13" s="185" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="186"/>
+      <c r="H13" s="187"/>
+      <c r="I13" s="188"/>
+      <c r="J13" s="205">
         <v>0.2</v>
       </c>
-      <c r="K13" s="204"/>
-      <c r="L13" s="207">
+      <c r="K13" s="194"/>
+      <c r="L13" s="197">
         <f>K13*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="226"/>
-      <c r="B14" s="209"/>
-      <c r="C14" s="209" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="209"/>
-      <c r="E14" s="209"/>
-      <c r="F14" s="210" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="211"/>
-      <c r="H14" s="197"/>
-      <c r="I14" s="198"/>
-      <c r="J14" s="216"/>
-      <c r="K14" s="205"/>
-      <c r="L14" s="207"/>
+      <c r="A14" s="181"/>
+      <c r="B14" s="183"/>
+      <c r="C14" s="183" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="183"/>
+      <c r="E14" s="183"/>
+      <c r="F14" s="199" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="200"/>
+      <c r="H14" s="201"/>
+      <c r="I14" s="202"/>
+      <c r="J14" s="206"/>
+      <c r="K14" s="195"/>
+      <c r="L14" s="197"/>
     </row>
     <row r="15" spans="1:12" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="191"/>
-      <c r="B15" s="212"/>
-      <c r="C15" s="212" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="212"/>
-      <c r="E15" s="212"/>
-      <c r="F15" s="210" t="s">
-        <v>115</v>
-      </c>
-      <c r="G15" s="211"/>
-      <c r="H15" s="213"/>
-      <c r="I15" s="214"/>
-      <c r="J15" s="217"/>
-      <c r="K15" s="206"/>
-      <c r="L15" s="208"/>
+      <c r="A15" s="182"/>
+      <c r="B15" s="184"/>
+      <c r="C15" s="184" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="184"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="199" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="200"/>
+      <c r="H15" s="203"/>
+      <c r="I15" s="204"/>
+      <c r="J15" s="207"/>
+      <c r="K15" s="196"/>
+      <c r="L15" s="198"/>
     </row>
     <row r="16" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="190" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="193"/>
-      <c r="D16" s="193"/>
-      <c r="E16" s="194"/>
-      <c r="F16" s="195" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" s="196"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="198"/>
+      <c r="A16" s="180" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="208" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="209"/>
+      <c r="D16" s="209"/>
+      <c r="E16" s="210"/>
+      <c r="F16" s="185" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="211"/>
+      <c r="H16" s="201"/>
+      <c r="I16" s="202"/>
       <c r="J16" s="126">
         <v>0.4</v>
       </c>
@@ -3983,19 +4092,19 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="191"/>
-      <c r="B17" s="199" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="200"/>
-      <c r="D17" s="200"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="202" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="203"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="198"/>
+      <c r="A17" s="182"/>
+      <c r="B17" s="212" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="213"/>
+      <c r="D17" s="213"/>
+      <c r="E17" s="214"/>
+      <c r="F17" s="215" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="216"/>
+      <c r="H17" s="201"/>
+      <c r="I17" s="202"/>
       <c r="J17" s="126">
         <v>0.4</v>
       </c>
@@ -4007,19 +4116,19 @@
     </row>
     <row r="18" spans="1:12" ht="13.15" x14ac:dyDescent="0.3">
       <c r="A18" s="123" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="178" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="179"/>
-      <c r="D18" s="179"/>
-      <c r="E18" s="179"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="179"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="179"/>
-      <c r="J18" s="180"/>
+        <v>31</v>
+      </c>
+      <c r="B18" s="217" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="218"/>
+      <c r="D18" s="218"/>
+      <c r="E18" s="218"/>
+      <c r="F18" s="218"/>
+      <c r="G18" s="218"/>
+      <c r="H18" s="218"/>
+      <c r="I18" s="218"/>
+      <c r="J18" s="219"/>
       <c r="K18" s="122"/>
       <c r="L18" s="121"/>
     </row>
@@ -4033,96 +4142,96 @@
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="119" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="181" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="182"/>
-      <c r="C21" s="182"/>
-      <c r="D21" s="182"/>
-      <c r="E21" s="182"/>
-      <c r="F21" s="182"/>
-      <c r="G21" s="182"/>
-      <c r="H21" s="182"/>
-      <c r="I21" s="182"/>
-      <c r="J21" s="182"/>
-      <c r="K21" s="182"/>
-      <c r="L21" s="183"/>
+      <c r="A21" s="220" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="221"/>
+      <c r="C21" s="221"/>
+      <c r="D21" s="221"/>
+      <c r="E21" s="221"/>
+      <c r="F21" s="221"/>
+      <c r="G21" s="221"/>
+      <c r="H21" s="221"/>
+      <c r="I21" s="221"/>
+      <c r="J21" s="221"/>
+      <c r="K21" s="221"/>
+      <c r="L21" s="222"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="184"/>
-      <c r="B22" s="185"/>
-      <c r="C22" s="185"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="185"/>
-      <c r="F22" s="185"/>
-      <c r="G22" s="185"/>
-      <c r="H22" s="185"/>
-      <c r="I22" s="185"/>
-      <c r="J22" s="185"/>
-      <c r="K22" s="185"/>
-      <c r="L22" s="186"/>
+      <c r="A22" s="223"/>
+      <c r="B22" s="224"/>
+      <c r="C22" s="224"/>
+      <c r="D22" s="224"/>
+      <c r="E22" s="224"/>
+      <c r="F22" s="224"/>
+      <c r="G22" s="224"/>
+      <c r="H22" s="224"/>
+      <c r="I22" s="224"/>
+      <c r="J22" s="224"/>
+      <c r="K22" s="224"/>
+      <c r="L22" s="225"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="184"/>
-      <c r="B23" s="185"/>
-      <c r="C23" s="185"/>
-      <c r="D23" s="185"/>
-      <c r="E23" s="185"/>
-      <c r="F23" s="185"/>
-      <c r="G23" s="185"/>
-      <c r="H23" s="185"/>
-      <c r="I23" s="185"/>
-      <c r="J23" s="185"/>
-      <c r="K23" s="185"/>
-      <c r="L23" s="186"/>
+      <c r="A23" s="223"/>
+      <c r="B23" s="224"/>
+      <c r="C23" s="224"/>
+      <c r="D23" s="224"/>
+      <c r="E23" s="224"/>
+      <c r="F23" s="224"/>
+      <c r="G23" s="224"/>
+      <c r="H23" s="224"/>
+      <c r="I23" s="224"/>
+      <c r="J23" s="224"/>
+      <c r="K23" s="224"/>
+      <c r="L23" s="225"/>
     </row>
     <row r="24" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="184"/>
-      <c r="B24" s="185"/>
-      <c r="C24" s="185"/>
-      <c r="D24" s="185"/>
-      <c r="E24" s="185"/>
-      <c r="F24" s="185"/>
-      <c r="G24" s="185"/>
-      <c r="H24" s="185"/>
-      <c r="I24" s="185"/>
-      <c r="J24" s="185"/>
-      <c r="K24" s="185"/>
-      <c r="L24" s="186"/>
+      <c r="A24" s="223"/>
+      <c r="B24" s="224"/>
+      <c r="C24" s="224"/>
+      <c r="D24" s="224"/>
+      <c r="E24" s="224"/>
+      <c r="F24" s="224"/>
+      <c r="G24" s="224"/>
+      <c r="H24" s="224"/>
+      <c r="I24" s="224"/>
+      <c r="J24" s="224"/>
+      <c r="K24" s="224"/>
+      <c r="L24" s="225"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="187"/>
-      <c r="B25" s="188"/>
-      <c r="C25" s="188"/>
-      <c r="D25" s="188"/>
-      <c r="E25" s="188"/>
-      <c r="F25" s="188"/>
-      <c r="G25" s="188"/>
-      <c r="H25" s="188"/>
-      <c r="I25" s="188"/>
-      <c r="J25" s="188"/>
-      <c r="K25" s="188"/>
-      <c r="L25" s="189"/>
+      <c r="A25" s="226"/>
+      <c r="B25" s="227"/>
+      <c r="C25" s="227"/>
+      <c r="D25" s="227"/>
+      <c r="E25" s="227"/>
+      <c r="F25" s="227"/>
+      <c r="G25" s="227"/>
+      <c r="H25" s="227"/>
+      <c r="I25" s="227"/>
+      <c r="J25" s="227"/>
+      <c r="K25" s="227"/>
+      <c r="L25" s="228"/>
     </row>
     <row r="27" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="175" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27" s="175"/>
-      <c r="C27" s="175"/>
-      <c r="D27" s="175"/>
-      <c r="E27" s="175"/>
-      <c r="F27" s="175"/>
-      <c r="G27" s="175"/>
-      <c r="H27" s="175"/>
-      <c r="I27" s="176"/>
-      <c r="J27" s="176"/>
+      <c r="A27" s="229" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="229"/>
+      <c r="C27" s="229"/>
+      <c r="D27" s="229"/>
+      <c r="E27" s="229"/>
+      <c r="F27" s="229"/>
+      <c r="G27" s="229"/>
+      <c r="H27" s="229"/>
+      <c r="I27" s="230"/>
+      <c r="J27" s="230"/>
       <c r="K27" s="118" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="L27" s="113">
         <f>I27*1.5</f>
@@ -4130,20 +4239,20 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="175" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" s="175"/>
-      <c r="C28" s="175"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="175"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="176"/>
+      <c r="A28" s="229" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="229"/>
+      <c r="C28" s="229"/>
+      <c r="D28" s="229"/>
+      <c r="E28" s="229"/>
+      <c r="F28" s="229"/>
+      <c r="G28" s="229"/>
+      <c r="H28" s="229"/>
+      <c r="I28" s="230"/>
+      <c r="J28" s="230"/>
       <c r="K28" s="117" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="L28" s="113">
         <f>I28*1.5</f>
@@ -4151,20 +4260,20 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="175" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="175"/>
-      <c r="C29" s="175"/>
-      <c r="D29" s="175"/>
-      <c r="E29" s="175"/>
-      <c r="F29" s="175"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="175"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="176"/>
+      <c r="A29" s="229" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="229"/>
+      <c r="C29" s="229"/>
+      <c r="D29" s="229"/>
+      <c r="E29" s="229"/>
+      <c r="F29" s="229"/>
+      <c r="G29" s="229"/>
+      <c r="H29" s="229"/>
+      <c r="I29" s="230"/>
+      <c r="J29" s="230"/>
       <c r="K29" s="117" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L29" s="113">
         <f>I29*2.5</f>
@@ -4172,20 +4281,20 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="175" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" s="175"/>
-      <c r="C30" s="175"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="175"/>
-      <c r="F30" s="175"/>
-      <c r="G30" s="175"/>
-      <c r="H30" s="175"/>
-      <c r="I30" s="176"/>
-      <c r="J30" s="176"/>
+      <c r="A30" s="229" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="229"/>
+      <c r="C30" s="229"/>
+      <c r="D30" s="229"/>
+      <c r="E30" s="229"/>
+      <c r="F30" s="229"/>
+      <c r="G30" s="229"/>
+      <c r="H30" s="229"/>
+      <c r="I30" s="230"/>
+      <c r="J30" s="230"/>
       <c r="K30" s="117" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L30" s="113">
         <f>I30*2</f>
@@ -4193,23 +4302,23 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="175" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" s="175"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="175"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="175"/>
-      <c r="H31" s="175"/>
-      <c r="I31" s="177">
+      <c r="A31" s="229" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="229"/>
+      <c r="C31" s="229"/>
+      <c r="D31" s="229"/>
+      <c r="E31" s="229"/>
+      <c r="F31" s="229"/>
+      <c r="G31" s="229"/>
+      <c r="H31" s="229"/>
+      <c r="I31" s="234">
         <f>L19</f>
         <v>0</v>
       </c>
-      <c r="J31" s="177"/>
+      <c r="J31" s="234"/>
       <c r="K31" s="117" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L31" s="113">
         <f>I31*2.5</f>
@@ -4221,7 +4330,7 @@
       <c r="I32" s="116"/>
       <c r="J32" s="115"/>
       <c r="K32" s="114" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L32" s="113">
         <f>(L27+L28+L29+L30+L31)</f>
@@ -4229,14 +4338,14 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F33" s="172" t="s">
-        <v>100</v>
-      </c>
-      <c r="G33" s="173"/>
-      <c r="H33" s="173"/>
-      <c r="I33" s="173"/>
-      <c r="J33" s="173"/>
-      <c r="K33" s="174"/>
+      <c r="F33" s="231" t="s">
+        <v>94</v>
+      </c>
+      <c r="G33" s="232"/>
+      <c r="H33" s="232"/>
+      <c r="I33" s="232"/>
+      <c r="J33" s="232"/>
+      <c r="K33" s="233"/>
       <c r="L33" s="112">
         <f>L32/10</f>
         <v>0</v>
@@ -4288,7 +4397,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="108" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B40" s="109"/>
       <c r="C40" s="109"/>
@@ -4296,7 +4405,7 @@
       <c r="E40" s="109"/>
       <c r="F40" s="107"/>
       <c r="H40" s="108" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I40" s="108"/>
       <c r="J40" s="108"/>
@@ -4330,24 +4439,26 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="A21:L25"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
     <mergeCell ref="K13:K15"/>
     <mergeCell ref="L13:L15"/>
     <mergeCell ref="C14:E14"/>
@@ -4357,26 +4468,24 @@
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J13:J15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="A21:L25"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I8:L8"/>
   </mergeCells>
   <conditionalFormatting sqref="K13:K18 L13:L37 I27:J31">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="notBetween">
@@ -4435,12 +4544,12 @@
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="141" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F1" s="142"/>
       <c r="H1" s="143"/>
       <c r="I1" s="144" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J1" s="145"/>
       <c r="K1" s="146"/>
@@ -4448,11 +4557,11 @@
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="127" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H2" s="143"/>
       <c r="I2" s="144" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J2" s="145"/>
       <c r="K2" s="146"/>
@@ -4460,16 +4569,16 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="148" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" s="148"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="236"/>
+      <c r="C3" s="291"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="149"/>
       <c r="F3" s="149"/>
       <c r="H3" s="143"/>
       <c r="I3" s="144" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J3" s="145"/>
       <c r="K3" s="146"/>
@@ -4477,16 +4586,16 @@
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="150" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="150"/>
-      <c r="C4" s="235"/>
-      <c r="D4" s="235"/>
-      <c r="E4" s="235"/>
-      <c r="F4" s="235"/>
+      <c r="C4" s="290"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
       <c r="H4" s="143"/>
       <c r="I4" s="144" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J4" s="151"/>
       <c r="K4" s="146"/>
@@ -4494,18 +4603,18 @@
     </row>
     <row r="5" spans="1:12" s="152" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="150" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B5" s="150"/>
-      <c r="C5" s="235"/>
-      <c r="D5" s="235"/>
-      <c r="E5" s="235"/>
-      <c r="F5" s="235"/>
+      <c r="C5" s="290"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
       <c r="K5" s="50"/>
     </row>
     <row r="6" spans="1:12" s="152" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="150" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" s="150"/>
       <c r="C6" s="153"/>
@@ -4518,12 +4627,12 @@
         <v>0</v>
       </c>
       <c r="B7" s="148"/>
-      <c r="C7" s="235"/>
-      <c r="D7" s="235"/>
-      <c r="E7" s="235"/>
-      <c r="F7" s="235"/>
+      <c r="C7" s="290"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
       <c r="H7" s="148" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I7" s="148"/>
       <c r="J7" s="149"/>
@@ -4532,15 +4641,15 @@
     </row>
     <row r="8" spans="1:12" s="152" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="150" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" s="150"/>
-      <c r="C8" s="235"/>
-      <c r="D8" s="235"/>
-      <c r="E8" s="235"/>
-      <c r="F8" s="235"/>
+      <c r="C8" s="290"/>
+      <c r="D8" s="290"/>
+      <c r="E8" s="290"/>
+      <c r="F8" s="290"/>
       <c r="H8" s="150" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I8" s="150"/>
       <c r="J8" s="155"/>
@@ -4549,13 +4658,13 @@
     </row>
     <row r="9" spans="1:12" s="152" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="150" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" s="150"/>
-      <c r="C9" s="235"/>
-      <c r="D9" s="235"/>
-      <c r="E9" s="235"/>
-      <c r="F9" s="235"/>
+      <c r="C9" s="290"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
       <c r="K9" s="50"/>
     </row>
     <row r="10" spans="1:12" s="152" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4570,112 +4679,112 @@
       <c r="D11" s="156"/>
       <c r="E11" s="156"/>
       <c r="F11" s="156"/>
-      <c r="H11" s="237" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="238"/>
-      <c r="J11" s="239" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="240"/>
-      <c r="L11" s="241"/>
+      <c r="H11" s="265" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="266"/>
+      <c r="J11" s="267" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="268"/>
+      <c r="L11" s="269"/>
     </row>
     <row r="12" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="242" t="s">
-        <v>130</v>
-      </c>
-      <c r="B12" s="246" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="247"/>
-      <c r="D12" s="247"/>
-      <c r="E12" s="247"/>
-      <c r="F12" s="247"/>
-      <c r="G12" s="247"/>
-      <c r="H12" s="250"/>
-      <c r="I12" s="251"/>
-      <c r="J12" s="256" t="s">
-        <v>132</v>
-      </c>
-      <c r="K12" s="259">
+      <c r="A12" s="270" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="274" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="275"/>
+      <c r="D12" s="275"/>
+      <c r="E12" s="275"/>
+      <c r="F12" s="275"/>
+      <c r="G12" s="275"/>
+      <c r="H12" s="278"/>
+      <c r="I12" s="279"/>
+      <c r="J12" s="284" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" s="286">
         <f>SUM(B17:G17)/6</f>
         <v>0</v>
       </c>
-      <c r="L12" s="262">
+      <c r="L12" s="254">
         <f>ROUND(K12*0.6,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="243"/>
-      <c r="B13" s="248"/>
-      <c r="C13" s="249"/>
-      <c r="D13" s="249"/>
-      <c r="E13" s="249"/>
-      <c r="F13" s="249"/>
-      <c r="G13" s="249"/>
-      <c r="H13" s="252"/>
-      <c r="I13" s="253"/>
-      <c r="J13" s="257"/>
-      <c r="K13" s="260"/>
-      <c r="L13" s="263"/>
+      <c r="A13" s="271"/>
+      <c r="B13" s="276"/>
+      <c r="C13" s="277"/>
+      <c r="D13" s="277"/>
+      <c r="E13" s="277"/>
+      <c r="F13" s="277"/>
+      <c r="G13" s="277"/>
+      <c r="H13" s="280"/>
+      <c r="I13" s="281"/>
+      <c r="J13" s="263"/>
+      <c r="K13" s="287"/>
+      <c r="L13" s="255"/>
     </row>
     <row r="14" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="243"/>
-      <c r="B14" s="248"/>
-      <c r="C14" s="249"/>
-      <c r="D14" s="249"/>
-      <c r="E14" s="249"/>
-      <c r="F14" s="249"/>
-      <c r="G14" s="249"/>
-      <c r="H14" s="252"/>
-      <c r="I14" s="253"/>
-      <c r="J14" s="257"/>
-      <c r="K14" s="260"/>
-      <c r="L14" s="263"/>
+      <c r="A14" s="271"/>
+      <c r="B14" s="276"/>
+      <c r="C14" s="277"/>
+      <c r="D14" s="277"/>
+      <c r="E14" s="277"/>
+      <c r="F14" s="277"/>
+      <c r="G14" s="277"/>
+      <c r="H14" s="280"/>
+      <c r="I14" s="281"/>
+      <c r="J14" s="263"/>
+      <c r="K14" s="287"/>
+      <c r="L14" s="255"/>
     </row>
     <row r="15" spans="1:12" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="243"/>
-      <c r="B15" s="248"/>
-      <c r="C15" s="249"/>
-      <c r="D15" s="249"/>
-      <c r="E15" s="249"/>
-      <c r="F15" s="249"/>
-      <c r="G15" s="249"/>
-      <c r="H15" s="252"/>
-      <c r="I15" s="253"/>
-      <c r="J15" s="257"/>
-      <c r="K15" s="260"/>
-      <c r="L15" s="263"/>
+      <c r="A15" s="271"/>
+      <c r="B15" s="276"/>
+      <c r="C15" s="277"/>
+      <c r="D15" s="277"/>
+      <c r="E15" s="277"/>
+      <c r="F15" s="277"/>
+      <c r="G15" s="277"/>
+      <c r="H15" s="280"/>
+      <c r="I15" s="281"/>
+      <c r="J15" s="263"/>
+      <c r="K15" s="287"/>
+      <c r="L15" s="255"/>
     </row>
     <row r="16" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="244"/>
+      <c r="A16" s="272"/>
       <c r="B16" s="157" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C16" s="158" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D16" s="159" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E16" s="158" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F16" s="158" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G16" s="160" t="s">
-        <v>138</v>
-      </c>
-      <c r="H16" s="252"/>
-      <c r="I16" s="253"/>
-      <c r="J16" s="257"/>
-      <c r="K16" s="260"/>
-      <c r="L16" s="263"/>
+        <v>132</v>
+      </c>
+      <c r="H16" s="280"/>
+      <c r="I16" s="281"/>
+      <c r="J16" s="263"/>
+      <c r="K16" s="287"/>
+      <c r="L16" s="255"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="245"/>
+      <c r="A17" s="273"/>
       <c r="B17" s="161">
         <v>0</v>
       </c>
@@ -4684,69 +4793,69 @@
       <c r="E17" s="162"/>
       <c r="F17" s="162"/>
       <c r="G17" s="163"/>
-      <c r="H17" s="254"/>
-      <c r="I17" s="255"/>
-      <c r="J17" s="258"/>
-      <c r="K17" s="261"/>
-      <c r="L17" s="264"/>
+      <c r="H17" s="282"/>
+      <c r="I17" s="283"/>
+      <c r="J17" s="285"/>
+      <c r="K17" s="288"/>
+      <c r="L17" s="289"/>
     </row>
     <row r="18" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="267" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="270" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="270"/>
-      <c r="D18" s="270"/>
-      <c r="E18" s="270"/>
-      <c r="F18" s="270"/>
-      <c r="G18" s="270"/>
-      <c r="H18" s="273"/>
-      <c r="I18" s="274"/>
-      <c r="J18" s="279" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="282">
+      <c r="A18" s="237" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="240" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="240"/>
+      <c r="D18" s="240"/>
+      <c r="E18" s="240"/>
+      <c r="F18" s="240"/>
+      <c r="G18" s="240"/>
+      <c r="H18" s="243"/>
+      <c r="I18" s="244"/>
+      <c r="J18" s="249" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="252">
         <v>0</v>
       </c>
-      <c r="L18" s="262">
+      <c r="L18" s="254">
         <f>IF((K18-K21)&gt;=0,(ROUND((K18-K21)*0.25,3)),0.00000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="268"/>
-      <c r="B19" s="271"/>
-      <c r="C19" s="271"/>
-      <c r="D19" s="271"/>
-      <c r="E19" s="271"/>
-      <c r="F19" s="271"/>
-      <c r="G19" s="271"/>
-      <c r="H19" s="275"/>
-      <c r="I19" s="276"/>
-      <c r="J19" s="280"/>
-      <c r="K19" s="283"/>
-      <c r="L19" s="263"/>
+      <c r="A19" s="238"/>
+      <c r="B19" s="241"/>
+      <c r="C19" s="241"/>
+      <c r="D19" s="241"/>
+      <c r="E19" s="241"/>
+      <c r="F19" s="241"/>
+      <c r="G19" s="241"/>
+      <c r="H19" s="245"/>
+      <c r="I19" s="246"/>
+      <c r="J19" s="250"/>
+      <c r="K19" s="253"/>
+      <c r="L19" s="255"/>
     </row>
     <row r="20" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="268"/>
-      <c r="B20" s="272"/>
-      <c r="C20" s="272"/>
-      <c r="D20" s="272"/>
-      <c r="E20" s="272"/>
-      <c r="F20" s="272"/>
-      <c r="G20" s="271"/>
-      <c r="H20" s="275"/>
-      <c r="I20" s="276"/>
-      <c r="J20" s="280"/>
-      <c r="K20" s="283"/>
-      <c r="L20" s="263"/>
+      <c r="A20" s="238"/>
+      <c r="B20" s="242"/>
+      <c r="C20" s="242"/>
+      <c r="D20" s="242"/>
+      <c r="E20" s="242"/>
+      <c r="F20" s="242"/>
+      <c r="G20" s="241"/>
+      <c r="H20" s="245"/>
+      <c r="I20" s="246"/>
+      <c r="J20" s="250"/>
+      <c r="K20" s="253"/>
+      <c r="L20" s="255"/>
     </row>
     <row r="21" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="269"/>
+      <c r="A21" s="239"/>
       <c r="B21" s="164" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C21" s="165">
         <v>0</v>
@@ -4761,44 +4870,44 @@
         <v>0</v>
       </c>
       <c r="G21" s="165"/>
-      <c r="H21" s="277"/>
-      <c r="I21" s="278"/>
-      <c r="J21" s="281"/>
+      <c r="H21" s="247"/>
+      <c r="I21" s="248"/>
+      <c r="J21" s="251"/>
       <c r="K21" s="166">
         <f>SUM(C21:G21)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="284"/>
+      <c r="L21" s="256"/>
     </row>
     <row r="22" spans="1:12" ht="87.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="267" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="270" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="285"/>
-      <c r="D22" s="285"/>
-      <c r="E22" s="285"/>
-      <c r="F22" s="285"/>
-      <c r="G22" s="286"/>
-      <c r="H22" s="287"/>
-      <c r="I22" s="288"/>
-      <c r="J22" s="257" t="s">
-        <v>142</v>
+      <c r="A22" s="237" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="240" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="257"/>
+      <c r="D22" s="257"/>
+      <c r="E22" s="257"/>
+      <c r="F22" s="257"/>
+      <c r="G22" s="258"/>
+      <c r="H22" s="259"/>
+      <c r="I22" s="260"/>
+      <c r="J22" s="263" t="s">
+        <v>136</v>
       </c>
       <c r="K22" s="167">
         <v>0</v>
       </c>
-      <c r="L22" s="263">
+      <c r="L22" s="255">
         <f>IF((K22-K23)&gt;=0, ROUND((K22-K23)*0.15,3),0.000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="269"/>
+      <c r="A23" s="239"/>
       <c r="B23" s="168" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C23" s="165">
         <v>0</v>
@@ -4813,14 +4922,14 @@
         <v>0</v>
       </c>
       <c r="G23" s="165"/>
-      <c r="H23" s="289"/>
-      <c r="I23" s="290"/>
-      <c r="J23" s="291"/>
+      <c r="H23" s="261"/>
+      <c r="I23" s="262"/>
+      <c r="J23" s="264"/>
       <c r="K23" s="166">
         <f>SUM(C23:G23)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="284"/>
+      <c r="L23" s="256"/>
     </row>
     <row r="24" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="169"/>
@@ -4834,14 +4943,14 @@
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I25" s="23" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J25" s="24"/>
-      <c r="K25" s="265">
+      <c r="K25" s="235">
         <f>SUM(L12:L22)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="266"/>
+      <c r="L25" s="236"/>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I26" s="127"/>
@@ -4854,14 +4963,14 @@
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
       <c r="E30" s="36"/>
       <c r="H30" s="25" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
@@ -4871,6 +4980,20 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="26">
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:G15"/>
+    <mergeCell ref="H12:I17"/>
+    <mergeCell ref="J12:J17"/>
+    <mergeCell ref="K12:K17"/>
+    <mergeCell ref="L12:L17"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="B18:G20"/>
@@ -4883,20 +5006,6 @@
     <mergeCell ref="H22:I23"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="L22:L23"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:G15"/>
-    <mergeCell ref="H12:I17"/>
-    <mergeCell ref="J12:J17"/>
-    <mergeCell ref="K12:K17"/>
-    <mergeCell ref="L12:L17"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId1"/>
@@ -4915,8 +5024,459 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="1"/>
+    <col min="3" max="3" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="7.265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.265625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.46484375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.265625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.73046875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.265625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1328125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+    </row>
+    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+    </row>
+    <row r="4" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="30"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+    </row>
+    <row r="5" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="292"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="32"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+    </row>
+    <row r="6" spans="1:13" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+    </row>
+    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="H7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="71"/>
+    </row>
+    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="295"/>
+      <c r="D8" s="295"/>
+      <c r="E8" s="295"/>
+      <c r="F8" s="295"/>
+      <c r="H8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="71"/>
+    </row>
+    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="292"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="293"/>
+      <c r="J9" s="294"/>
+      <c r="K9" s="294"/>
+      <c r="L9" s="294"/>
+    </row>
+    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="292"/>
+      <c r="D10" s="292"/>
+      <c r="E10" s="292"/>
+      <c r="F10" s="292"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="293"/>
+      <c r="J10" s="294"/>
+      <c r="K10" s="294"/>
+      <c r="L10" s="294"/>
+    </row>
+    <row r="11" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="47"/>
+    </row>
+    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="37"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="48"/>
+    </row>
+    <row r="14" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="37"/>
+      <c r="L14" s="38"/>
+    </row>
+    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="75"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="78"/>
+    </row>
+    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="38"/>
+      <c r="H17" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="49"/>
+      <c r="K17" s="64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="97">
+        <v>0</v>
+      </c>
+      <c r="F18" s="66">
+        <v>0.8</v>
+      </c>
+      <c r="G18" s="67"/>
+      <c r="H18" s="4">
+        <f>IF(E18&gt;12,13,E18)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="68"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="41">
+        <f>F18*H18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="97">
+        <v>0</v>
+      </c>
+      <c r="F19" s="66">
+        <v>0.4</v>
+      </c>
+      <c r="G19" s="67"/>
+      <c r="H19" s="4">
+        <f>IF(SUM(E18:E19)&gt;12,13-H18,E19)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="68"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="41">
+        <f>F19*H19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="97">
+        <v>0</v>
+      </c>
+      <c r="F20" s="66">
+        <v>0</v>
+      </c>
+      <c r="G20" s="67"/>
+      <c r="H20" s="4">
+        <f>IF(SUM(E18:E20)&gt;12,IF(13-SUM(H18:H19)&gt;0,13-SUM(H18:H19),0),E20)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="68"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="42">
+        <f>SUM(E18:E20)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+    </row>
+    <row r="22" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G22" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="61">
+        <f>IF(SUM(K18:K21)&gt;10,10,SUM(K18:K21))</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="62">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="50"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="53"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="54">
+        <f>E21</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="55">
+        <f>IFERROR(E26/H26,10)</f>
+        <v>10</v>
+      </c>
+      <c r="J26" s="56"/>
+      <c r="K26" s="41">
+        <f>10-I26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="69"/>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="299">
+        <f>SUM(E15:J15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L29" s="50"/>
+    </row>
+    <row r="30" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G30" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="61">
+        <f>K26-K28</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="62">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I32" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="16">
+        <f>ROUND(K22*0.3 + K30*0.7,3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="H36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C10:F10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR PAS-DE-DEUX</oddHeader>
+    <oddFooter>&amp;R2019-06-01</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -4938,23 +5498,24 @@
     <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H2" s="28"/>
       <c r="I2" s="29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J2" s="30"/>
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
+      <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H3" s="28"/>
       <c r="I3" s="29" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J3" s="30"/>
       <c r="K3" s="31"/>
@@ -4962,7 +5523,7 @@
     </row>
     <row r="4" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="96"/>
@@ -4971,7 +5532,7 @@
       <c r="F4" s="34"/>
       <c r="H4" s="28"/>
       <c r="I4" s="29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J4" s="30"/>
       <c r="K4" s="31"/>
@@ -4979,7 +5540,7 @@
     </row>
     <row r="5" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="292"/>
@@ -4988,27 +5549,33 @@
       <c r="F5" s="292"/>
       <c r="H5" s="28"/>
       <c r="I5" s="29" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J5" s="32"/>
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
     </row>
-    <row r="6" spans="1:13" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
+    <row r="6" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="73"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="40"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
       <c r="H7" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="34"/>
@@ -5026,7 +5593,7 @@
       <c r="E8" s="295"/>
       <c r="F8" s="295"/>
       <c r="H8" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="35"/>
@@ -5036,7 +5603,7 @@
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="292"/>
@@ -5051,7 +5618,7 @@
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="292"/>
@@ -5064,472 +5631,17 @@
       <c r="K10" s="294"/>
       <c r="L10" s="294"/>
     </row>
-    <row r="11" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="47"/>
-    </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="48"/>
-    </row>
-    <row r="14" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
-      <c r="L14" s="38"/>
-    </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="78"/>
-    </row>
-    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="38"/>
-      <c r="H17" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="49"/>
-      <c r="K17" s="64" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="97">
-        <v>0</v>
-      </c>
-      <c r="F18" s="66">
-        <v>0.8</v>
-      </c>
-      <c r="G18" s="67"/>
-      <c r="H18" s="4">
-        <f>IF(E18&gt;12,13,E18)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="68"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="41">
-        <f>F18*H18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="97">
-        <v>0</v>
-      </c>
-      <c r="F19" s="66">
-        <v>0.4</v>
-      </c>
-      <c r="G19" s="67"/>
-      <c r="H19" s="4">
-        <f>IF(SUM(E18:E19)&gt;12,13-H18,E19)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="68"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="41">
-        <f>F19*H19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="97">
-        <v>0</v>
-      </c>
-      <c r="F20" s="66">
-        <v>0</v>
-      </c>
-      <c r="G20" s="67"/>
-      <c r="H20" s="4">
-        <f>IF(SUM(E18:E20)&gt;12,IF(13-SUM(H18:H19)&gt;0,13-SUM(H18:H19),0),E20)</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="68"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="42">
-        <f>SUM(E18:E20)</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-    </row>
-    <row r="22" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G22" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="61">
-        <f>IF(SUM(K18:K21)&gt;10,10,SUM(K18:K21))</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="62">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="51" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H25" s="50"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="53"/>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="54">
-        <f>E21</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="55">
-        <f>IFERROR(E26/H26,10)</f>
-        <v>10</v>
-      </c>
-      <c r="J26" s="56"/>
-      <c r="K26" s="41">
-        <f>10-I26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="69"/>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="98"/>
-    </row>
-    <row r="29" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L29" s="50"/>
-    </row>
-    <row r="30" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G30" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="61">
-        <f>K26-K28</f>
-        <v>0</v>
-      </c>
-      <c r="L30" s="62">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I32" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="16">
-        <f>ROUND(K22*0.3 + K30*0.7,3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="H36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C10:F10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR PAS-DE-DEUX</oddHeader>
-    <oddFooter>&amp;R2019-06-01</oddFooter>
-  </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:M26"/>
-  <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.73046875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" style="1"/>
-    <col min="3" max="3" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.73046875" style="1" customWidth="1"/>
-    <col min="5" max="7" width="7.265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.265625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.73046875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.265625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.73046875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.265625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1328125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-    </row>
-    <row r="4" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-    </row>
-    <row r="5" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="292"/>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-    </row>
-    <row r="6" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="73"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-    </row>
-    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="H7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="71"/>
-    </row>
-    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="295"/>
-      <c r="D8" s="295"/>
-      <c r="E8" s="295"/>
-      <c r="F8" s="295"/>
-      <c r="H8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="71"/>
-    </row>
-    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="292"/>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="293"/>
-      <c r="J9" s="294"/>
-      <c r="K9" s="294"/>
-      <c r="L9" s="294"/>
-    </row>
-    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="292"/>
-      <c r="D10" s="292"/>
-      <c r="E10" s="292"/>
-      <c r="F10" s="292"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="293"/>
-      <c r="J10" s="294"/>
-      <c r="K10" s="294"/>
-      <c r="L10" s="294"/>
-    </row>
     <row r="11" spans="1:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K11" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="298" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="300" t="s">
+        <v>138</v>
       </c>
       <c r="B12" s="301" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="C12" s="302"/>
       <c r="D12" s="302"/>
@@ -5537,165 +5649,207 @@
       <c r="F12" s="302"/>
       <c r="G12" s="302"/>
       <c r="H12" s="302"/>
-      <c r="I12" s="302"/>
-      <c r="J12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K12" s="99"/>
-      <c r="L12" s="17">
-        <f>K12*0.25</f>
+      <c r="I12" s="303"/>
+      <c r="J12" s="304" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" s="305"/>
+      <c r="L12" s="306">
+        <f>K12*0.2</f>
         <v>0</v>
       </c>
-      <c r="M12" s="10"/>
-    </row>
-    <row r="13" spans="1:13" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="299"/>
-      <c r="B13" s="303" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="304"/>
-      <c r="D13" s="304"/>
-      <c r="E13" s="304"/>
-      <c r="F13" s="304"/>
-      <c r="G13" s="304"/>
-      <c r="H13" s="304"/>
-      <c r="I13" s="304"/>
-      <c r="J13" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="K13" s="100"/>
-      <c r="L13" s="18">
-        <f>K13*0.25</f>
+    </row>
+    <row r="13" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="296" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="301" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="302"/>
+      <c r="D13" s="302"/>
+      <c r="E13" s="302"/>
+      <c r="F13" s="302"/>
+      <c r="G13" s="302"/>
+      <c r="H13" s="302"/>
+      <c r="I13" s="303"/>
+      <c r="J13" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" s="99"/>
+      <c r="L13" s="17">
+        <f>K13*0.2</f>
         <v>0</v>
       </c>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="298" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="305" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="306"/>
-      <c r="D14" s="306"/>
-      <c r="E14" s="306"/>
-      <c r="F14" s="306"/>
-      <c r="G14" s="306"/>
-      <c r="H14" s="306"/>
-      <c r="I14" s="306"/>
-      <c r="J14" s="11" t="s">
+    <row r="14" spans="1:13" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="297"/>
+      <c r="B14" s="307" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="308"/>
+      <c r="D14" s="308"/>
+      <c r="E14" s="308"/>
+      <c r="F14" s="308"/>
+      <c r="G14" s="308"/>
+      <c r="H14" s="308"/>
+      <c r="I14" s="309"/>
+      <c r="J14" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" s="100"/>
+      <c r="L14" s="18">
+        <f>K14*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="10"/>
+    </row>
+    <row r="15" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="296" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="310" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="311"/>
+      <c r="D15" s="311"/>
+      <c r="E15" s="311"/>
+      <c r="F15" s="311"/>
+      <c r="G15" s="311"/>
+      <c r="H15" s="311"/>
+      <c r="I15" s="312"/>
+      <c r="J15" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" s="98"/>
+      <c r="L15" s="19">
+        <f>K15*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="298"/>
+      <c r="B16" s="313" t="s">
         <v>144</v>
       </c>
-      <c r="K14" s="98"/>
-      <c r="L14" s="19">
-        <f>K14*0.3</f>
+      <c r="C16" s="314"/>
+      <c r="D16" s="314"/>
+      <c r="E16" s="314"/>
+      <c r="F16" s="314"/>
+      <c r="G16" s="314"/>
+      <c r="H16" s="314"/>
+      <c r="I16" s="315"/>
+      <c r="J16" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" s="98"/>
+      <c r="L16" s="20">
+        <f>K16*0.25</f>
         <v>0</v>
       </c>
-      <c r="M14" s="10"/>
-    </row>
-    <row r="15" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="300"/>
-      <c r="B15" s="296" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="297"/>
-      <c r="D15" s="297"/>
-      <c r="E15" s="297"/>
-      <c r="F15" s="297"/>
-      <c r="G15" s="297"/>
-      <c r="H15" s="297"/>
-      <c r="I15" s="297"/>
-      <c r="J15" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="98"/>
-      <c r="L15" s="20">
-        <f>K15*0.2</f>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="21">
+        <f>SUM(L13:L16)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="10"/>
-    </row>
-    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L16" s="21">
-        <f>SUM(L12:L15)</f>
+    </row>
+    <row r="18" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="98"/>
+    </row>
+    <row r="20" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="1:12" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="16">
+        <f>SUM(L12:L16)-L19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L17" s="22"/>
-    </row>
-    <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="98"/>
-    </row>
-    <row r="19" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L19" s="22"/>
-    </row>
-    <row r="20" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="16">
-        <f>SUM(L12:L15)-L18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="H26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="H27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
+  <mergeCells count="13">
     <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="I9:L9"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR PAS-DE-DEUX</oddHeader>
-    <oddFooter>&amp;R2019-06-01</oddFooter>
+    <oddFooter>&amp;R&amp;8 2024-01-28</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5761,37 +5915,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5812,9 +5939,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/mallar/Protokoll/Protokoll_2019_Pas_de_deux_klass(mall).xlsx
+++ b/mallar/Protokoll/Protokoll_2019_Pas_de_deux_klass(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFA616F-B978-4694-99C1-C021A0D92959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720B8C8E-9139-481E-9DA5-D799604ECBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43200" yWindow="5430" windowWidth="19200" windowHeight="21000" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="5310" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="24" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="datum" localSheetId="3">'Pas-de-Deux tekn'!$C$4</definedName>
     <definedName name="datum" localSheetId="1">'Skritt pas-de-deux'!$C$4</definedName>
     <definedName name="domare" localSheetId="4">'Pas-de-Deux art'!$C$27</definedName>
-    <definedName name="domare" localSheetId="2">'Pas-de-Deux Häst'!$C$30</definedName>
+    <definedName name="domare" localSheetId="2">'Pas-de-Deux Häst'!$C$34</definedName>
     <definedName name="domare" localSheetId="3">'Pas-de-Deux tekn'!$C$36</definedName>
     <definedName name="domare" localSheetId="1">'Skritt pas-de-deux'!$C$40</definedName>
     <definedName name="firstvaulter" localSheetId="4">'Pas-de-Deux art'!$J$7</definedName>
@@ -60,11 +60,11 @@
     <definedName name="moment" localSheetId="3">'Pas-de-Deux tekn'!$L$5</definedName>
     <definedName name="moment" localSheetId="1">'Skritt pas-de-deux'!$L$5</definedName>
     <definedName name="result" localSheetId="4">'Pas-de-Deux art'!$L$21</definedName>
-    <definedName name="result" localSheetId="2">'Pas-de-Deux Häst'!$K$25</definedName>
+    <definedName name="result" localSheetId="2">'Pas-de-Deux Häst'!$K$29</definedName>
     <definedName name="result" localSheetId="3">'Pas-de-Deux tekn'!$L$32</definedName>
     <definedName name="result" localSheetId="1">'Skritt pas-de-deux'!$L$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Pas-de-Deux art'!$A$1:$M$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Pas-de-Deux Häst'!$A$1:$L$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Pas-de-Deux Häst'!$A$1:$L$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Pas-de-Deux tekn'!$A$1:$L$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="151">
   <si>
     <t>Nation:</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>Framåtbjudning</t>
-  </si>
-  <si>
-    <t>Hästens voltigerbarhet</t>
   </si>
   <si>
     <t>Regelbundenhet</t>
@@ -876,6 +873,15 @@
     <t>C4
 25%</t>
   </si>
+  <si>
+    <t>Vilja/lydnad</t>
+  </si>
+  <si>
+    <t>Balanserat tempo</t>
+  </si>
+  <si>
+    <t>Håller voltspåret</t>
+  </si>
 </sst>
 </file>
 
@@ -890,7 +896,7 @@
     <numFmt numFmtId="168" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1096,6 +1102,11 @@
       <family val="2"/>
       <charset val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1123,7 +1134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="63">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -1825,17 +1836,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1881,6 +1881,50 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1898,7 +1942,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="316">
+  <cellXfs count="341">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2291,10 +2335,6 @@
     <xf numFmtId="169" fontId="3" fillId="3" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2303,16 +2343,198 @@
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="4" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="32" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="24" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="38" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2321,339 +2543,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="32" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="24" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="38" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="4" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2662,6 +2551,138 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2672,6 +2693,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2681,57 +2720,148 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="60" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="61" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="39" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="62" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="60" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="3" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -3157,12 +3287,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="86" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" s="82"/>
       <c r="D2" s="82"/>
@@ -3170,12 +3300,12 @@
     </row>
     <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="81" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="139" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="139" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -3185,7 +3315,7 @@
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="90" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -3194,15 +3324,15 @@
     <row r="9" spans="1:5" s="80" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A9" s="81"/>
       <c r="B9" s="82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" s="134" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -3210,54 +3340,54 @@
     </row>
     <row r="15" spans="1:5" s="82" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A15" s="138" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15" s="80"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="81" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="81" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="82" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A19" s="82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="82" t="s">
+      <c r="D21" s="82" t="s">
         <v>54</v>
-      </c>
-      <c r="D21" s="82" t="s">
-        <v>55</v>
       </c>
       <c r="E21" s="82"/>
     </row>
     <row r="22" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="81" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22" s="134" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="134" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="134" t="s">
+      <c r="D22" s="134" t="s">
         <v>61</v>
-      </c>
-      <c r="D22" s="134" t="s">
-        <v>62</v>
       </c>
       <c r="E22" s="136"/>
     </row>
@@ -3269,27 +3399,27 @@
     </row>
     <row r="25" spans="1:9" s="82" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A25" s="82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26" s="83"/>
     </row>
     <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="82" t="s">
+      <c r="D27" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="82" t="s">
-        <v>55</v>
-      </c>
       <c r="E27" s="82" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" s="82"/>
       <c r="G27" s="82"/>
@@ -3298,19 +3428,19 @@
     </row>
     <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="81" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B28" s="134" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="134" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="134" t="s">
+      <c r="D28" s="134" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="134" t="s">
-        <v>62</v>
-      </c>
       <c r="E28" s="134" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F28" s="136"/>
       <c r="G28" s="135"/>
@@ -3337,60 +3467,60 @@
     </row>
     <row r="32" spans="1:9" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A32" s="82" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="83" t="s">
         <v>51</v>
-      </c>
-      <c r="F34" s="83" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="82" t="s">
+      <c r="D35" s="82" t="s">
         <v>54</v>
-      </c>
-      <c r="D35" s="82" t="s">
-        <v>55</v>
       </c>
       <c r="E35" s="82"/>
       <c r="F35" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="82" t="s">
+      <c r="H35" s="82" t="s">
         <v>54</v>
-      </c>
-      <c r="H35" s="82" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="81" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B36" s="134" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="134" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="134" t="s">
+      <c r="D36" s="134" t="s">
         <v>61</v>
-      </c>
-      <c r="D36" s="134" t="s">
-        <v>62</v>
       </c>
       <c r="E36" s="137"/>
       <c r="F36" s="134" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" s="134" t="s">
         <v>60</v>
       </c>
-      <c r="G36" s="134" t="s">
+      <c r="H36" s="134" t="s">
         <v>61</v>
-      </c>
-      <c r="H36" s="134" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3404,42 +3534,42 @@
     </row>
     <row r="39" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A39" s="82" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="83" t="s">
         <v>51</v>
-      </c>
-      <c r="F41" s="83" t="s">
-        <v>52</v>
       </c>
       <c r="J41" s="83"/>
     </row>
     <row r="42" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="82" t="s">
+      <c r="D42" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="82" t="s">
-        <v>55</v>
-      </c>
       <c r="E42" s="82" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F42" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="G42" s="82" t="s">
+      <c r="H42" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="H42" s="82" t="s">
-        <v>55</v>
-      </c>
       <c r="I42" s="82" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J42" s="82"/>
       <c r="K42" s="82"/>
@@ -3448,76 +3578,76 @@
     </row>
     <row r="43" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="81" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B43" s="134" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="134" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="134" t="s">
+      <c r="D43" s="134" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="134" t="s">
-        <v>62</v>
-      </c>
       <c r="E43" s="134" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="134" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43" s="134" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43" s="134" t="s">
         <v>61</v>
       </c>
-      <c r="F43" s="134" t="s">
+      <c r="I43" s="134" t="s">
         <v>60</v>
-      </c>
-      <c r="G43" s="134" t="s">
-        <v>61</v>
-      </c>
-      <c r="H43" s="134" t="s">
-        <v>62</v>
-      </c>
-      <c r="I43" s="134" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A46" s="80" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="88" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A47" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="87" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47" s="87" t="s">
         <v>65</v>
-      </c>
-      <c r="B47" s="87" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="F47" s="87" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="84" t="s">
+      <c r="C48" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="84" t="s">
+      <c r="D48" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="84" t="s">
+      <c r="E48" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="84" t="s">
+      <c r="F48" s="84" t="s">
         <v>71</v>
-      </c>
-      <c r="F48" s="84" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:6" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3527,66 +3657,66 @@
       <c r="D49" s="84"/>
       <c r="E49" s="84"/>
       <c r="F49" s="85" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="80" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A52" s="80" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A53" s="89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:6" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A54" s="91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B54" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="C54" s="92" t="s">
-        <v>71</v>
-      </c>
-      <c r="D54" s="92" t="s">
+      <c r="E54" s="92" t="s">
         <v>79</v>
-      </c>
-      <c r="E54" s="92" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" s="93" t="s">
         <v>81</v>
-      </c>
-      <c r="B55" s="93" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="D55" s="93" t="s">
-        <v>85</v>
-      </c>
-      <c r="E55" s="93" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="93"/>
       <c r="B56" s="93" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C56" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="D56" s="95" t="s">
-        <v>92</v>
-      </c>
       <c r="E56" s="93" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
@@ -3598,218 +3728,218 @@
     </row>
     <row r="58" spans="1:6" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A58" s="91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B58" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="92" t="s">
-        <v>71</v>
-      </c>
-      <c r="D58" s="92" t="s">
+      <c r="E58" s="92" t="s">
         <v>79</v>
-      </c>
-      <c r="E58" s="92" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" s="93" t="s">
         <v>81</v>
-      </c>
-      <c r="B59" s="93" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59" s="93" t="s">
-        <v>85</v>
-      </c>
-      <c r="E59" s="93" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="93"/>
       <c r="B60" s="93" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C60" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="D60" s="95" t="s">
-        <v>92</v>
-      </c>
       <c r="E60" s="93" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" s="93" t="s">
         <v>81</v>
-      </c>
-      <c r="B61" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="C61" s="93" t="s">
-        <v>85</v>
-      </c>
-      <c r="D61" s="93" t="s">
-        <v>84</v>
-      </c>
-      <c r="E61" s="93" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="93"/>
       <c r="B62" s="93" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C62" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="D62" s="95" t="s">
-        <v>92</v>
-      </c>
       <c r="E62" s="93" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="90" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A65" s="89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:5" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A66" s="91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B66" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="92" t="s">
-        <v>71</v>
-      </c>
-      <c r="D66" s="92" t="s">
+      <c r="E66" s="92" t="s">
         <v>79</v>
-      </c>
-      <c r="E66" s="92" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="93" t="s">
+      <c r="C67" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="C67" s="93" t="s">
+      <c r="D67" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="D67" s="93" t="s">
+      <c r="E67" s="93" t="s">
         <v>84</v>
-      </c>
-      <c r="E67" s="93" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="93"/>
       <c r="B68" s="93" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C68" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="D68" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="D68" s="95" t="s">
-        <v>92</v>
-      </c>
       <c r="E68" s="95" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:5" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A70" s="91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B70" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="D70" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="C70" s="92" t="s">
-        <v>71</v>
-      </c>
-      <c r="D70" s="92" t="s">
+      <c r="E70" s="92" t="s">
         <v>79</v>
-      </c>
-      <c r="E70" s="92" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="B71" s="93" t="s">
+      <c r="C71" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="93" t="s">
+      <c r="D71" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="93" t="s">
+      <c r="E71" s="93" t="s">
         <v>84</v>
-      </c>
-      <c r="E71" s="93" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="93"/>
       <c r="B72" s="93" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C72" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="D72" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="D72" s="95" t="s">
-        <v>92</v>
-      </c>
       <c r="E72" s="95" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="D73" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="E73" s="93" t="s">
         <v>81</v>
-      </c>
-      <c r="B73" s="93" t="s">
-        <v>85</v>
-      </c>
-      <c r="C73" s="93" t="s">
-        <v>84</v>
-      </c>
-      <c r="D73" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="E73" s="93" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="93"/>
       <c r="B74" s="93" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C74" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="D74" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="D74" s="95" t="s">
-        <v>92</v>
-      </c>
       <c r="E74" s="95" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3851,11 +3981,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="119" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" s="132"/>
       <c r="I2" s="131" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" s="133"/>
       <c r="K2" s="129"/>
@@ -3863,11 +3993,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="111" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H3" s="132"/>
       <c r="I3" s="131" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="133"/>
       <c r="K3" s="129"/>
@@ -3878,10 +4008,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="108"/>
-      <c r="C4" s="172"/>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="172"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="234"/>
+      <c r="F4" s="234"/>
       <c r="H4" s="132"/>
       <c r="I4" s="131" t="s">
         <v>3</v>
@@ -3895,10 +4025,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="128"/>
-      <c r="C5" s="173"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="173"/>
-      <c r="F5" s="173"/>
+      <c r="C5" s="222"/>
+      <c r="D5" s="222"/>
+      <c r="E5" s="222"/>
+      <c r="F5" s="222"/>
       <c r="H5" s="132"/>
       <c r="I5" s="131" t="s">
         <v>4</v>
@@ -3912,80 +4042,80 @@
         <v>9</v>
       </c>
       <c r="H6" s="101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="128" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="128"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
+      <c r="C7" s="222"/>
+      <c r="D7" s="222"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="222"/>
       <c r="H7" s="108" t="s">
-        <v>112</v>
-      </c>
-      <c r="I7" s="176"/>
-      <c r="J7" s="177"/>
-      <c r="K7" s="177"/>
-      <c r="L7" s="177"/>
+        <v>111</v>
+      </c>
+      <c r="I7" s="235"/>
+      <c r="J7" s="236"/>
+      <c r="K7" s="236"/>
+      <c r="L7" s="236"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="108" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="108"/>
-      <c r="C8" s="172"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="172"/>
-      <c r="F8" s="172"/>
+      <c r="C8" s="234"/>
+      <c r="D8" s="234"/>
+      <c r="E8" s="234"/>
+      <c r="F8" s="234"/>
       <c r="H8" s="128" t="s">
-        <v>111</v>
-      </c>
-      <c r="I8" s="178"/>
-      <c r="J8" s="179"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="179"/>
+        <v>110</v>
+      </c>
+      <c r="I8" s="237"/>
+      <c r="J8" s="238"/>
+      <c r="K8" s="238"/>
+      <c r="L8" s="238"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="128" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="128"/>
-      <c r="C9" s="173"/>
-      <c r="D9" s="173"/>
-      <c r="E9" s="173"/>
-      <c r="F9" s="173"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="175"/>
-      <c r="K9" s="175"/>
-      <c r="L9" s="175"/>
+      <c r="C9" s="222"/>
+      <c r="D9" s="222"/>
+      <c r="E9" s="222"/>
+      <c r="F9" s="222"/>
+      <c r="I9" s="223"/>
+      <c r="J9" s="224"/>
+      <c r="K9" s="224"/>
+      <c r="L9" s="224"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="128" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="128"/>
-      <c r="C10" s="173"/>
-      <c r="D10" s="173"/>
-      <c r="E10" s="173"/>
-      <c r="F10" s="173"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="175"/>
-      <c r="K10" s="175"/>
-      <c r="L10" s="175"/>
+      <c r="C10" s="222"/>
+      <c r="D10" s="222"/>
+      <c r="E10" s="222"/>
+      <c r="F10" s="222"/>
+      <c r="I10" s="223"/>
+      <c r="J10" s="224"/>
+      <c r="K10" s="224"/>
+      <c r="L10" s="224"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I11" s="174"/>
-      <c r="J11" s="175"/>
-      <c r="K11" s="175"/>
-      <c r="L11" s="175"/>
+      <c r="I11" s="223"/>
+      <c r="J11" s="224"/>
+      <c r="K11" s="224"/>
+      <c r="L11" s="224"/>
     </row>
     <row r="12" spans="1:12" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A12" s="127" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
@@ -3993,93 +4123,93 @@
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
-      <c r="H12" s="189" t="s">
+      <c r="H12" s="225" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="190"/>
-      <c r="J12" s="191" t="s">
+      <c r="I12" s="226"/>
+      <c r="J12" s="227" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="192"/>
-      <c r="L12" s="193"/>
+      <c r="K12" s="228"/>
+      <c r="L12" s="229"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="180" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="183" t="s">
+      <c r="A13" s="194" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="213" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="183" t="s">
+      <c r="C13" s="213" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="183"/>
-      <c r="E13" s="183"/>
-      <c r="F13" s="185" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="186"/>
-      <c r="H13" s="187"/>
-      <c r="I13" s="188"/>
-      <c r="J13" s="205">
+      <c r="D13" s="213"/>
+      <c r="E13" s="213"/>
+      <c r="F13" s="199" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="231"/>
+      <c r="H13" s="232"/>
+      <c r="I13" s="233"/>
+      <c r="J13" s="219">
         <v>0.2</v>
       </c>
-      <c r="K13" s="194"/>
-      <c r="L13" s="197">
+      <c r="K13" s="208"/>
+      <c r="L13" s="211">
         <f>K13*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="181"/>
-      <c r="B14" s="183"/>
-      <c r="C14" s="183" t="s">
+      <c r="A14" s="230"/>
+      <c r="B14" s="213"/>
+      <c r="C14" s="213" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="199" t="s">
+      <c r="D14" s="213"/>
+      <c r="E14" s="213"/>
+      <c r="F14" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="200"/>
+      <c r="G14" s="215"/>
       <c r="H14" s="201"/>
       <c r="I14" s="202"/>
-      <c r="J14" s="206"/>
-      <c r="K14" s="195"/>
-      <c r="L14" s="197"/>
+      <c r="J14" s="220"/>
+      <c r="K14" s="209"/>
+      <c r="L14" s="211"/>
     </row>
     <row r="15" spans="1:12" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="182"/>
-      <c r="B15" s="184"/>
-      <c r="C15" s="184" t="s">
+      <c r="A15" s="195"/>
+      <c r="B15" s="216"/>
+      <c r="C15" s="216" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="184"/>
-      <c r="E15" s="184"/>
-      <c r="F15" s="199" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" s="200"/>
-      <c r="H15" s="203"/>
-      <c r="I15" s="204"/>
-      <c r="J15" s="207"/>
-      <c r="K15" s="196"/>
-      <c r="L15" s="198"/>
+      <c r="D15" s="216"/>
+      <c r="E15" s="216"/>
+      <c r="F15" s="214" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="215"/>
+      <c r="H15" s="217"/>
+      <c r="I15" s="218"/>
+      <c r="J15" s="221"/>
+      <c r="K15" s="210"/>
+      <c r="L15" s="212"/>
     </row>
     <row r="16" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="180" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="208" t="s">
+      <c r="A16" s="194" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="209"/>
-      <c r="D16" s="209"/>
-      <c r="E16" s="210"/>
-      <c r="F16" s="185" t="s">
+      <c r="B16" s="196" t="s">
         <v>106</v>
       </c>
-      <c r="G16" s="211"/>
+      <c r="C16" s="197"/>
+      <c r="D16" s="197"/>
+      <c r="E16" s="198"/>
+      <c r="F16" s="199" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="200"/>
       <c r="H16" s="201"/>
       <c r="I16" s="202"/>
       <c r="J16" s="126">
@@ -4092,17 +4222,17 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="182"/>
-      <c r="B17" s="212" t="s">
+      <c r="A17" s="195"/>
+      <c r="B17" s="203" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="204"/>
+      <c r="D17" s="204"/>
+      <c r="E17" s="205"/>
+      <c r="F17" s="206" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="213"/>
-      <c r="D17" s="213"/>
-      <c r="E17" s="214"/>
-      <c r="F17" s="215" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="216"/>
+      <c r="G17" s="207"/>
       <c r="H17" s="201"/>
       <c r="I17" s="202"/>
       <c r="J17" s="126">
@@ -4116,19 +4246,19 @@
     </row>
     <row r="18" spans="1:12" ht="13.15" x14ac:dyDescent="0.3">
       <c r="A18" s="123" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="217" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="218"/>
-      <c r="D18" s="218"/>
-      <c r="E18" s="218"/>
-      <c r="F18" s="218"/>
-      <c r="G18" s="218"/>
-      <c r="H18" s="218"/>
-      <c r="I18" s="218"/>
-      <c r="J18" s="219"/>
+        <v>30</v>
+      </c>
+      <c r="B18" s="182" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="183"/>
+      <c r="D18" s="183"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="183"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="183"/>
+      <c r="I18" s="183"/>
+      <c r="J18" s="184"/>
       <c r="K18" s="122"/>
       <c r="L18" s="121"/>
     </row>
@@ -4142,96 +4272,96 @@
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="119" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="220" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="221"/>
-      <c r="C21" s="221"/>
-      <c r="D21" s="221"/>
-      <c r="E21" s="221"/>
-      <c r="F21" s="221"/>
-      <c r="G21" s="221"/>
-      <c r="H21" s="221"/>
-      <c r="I21" s="221"/>
-      <c r="J21" s="221"/>
-      <c r="K21" s="221"/>
-      <c r="L21" s="222"/>
+      <c r="A21" s="185" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="186"/>
+      <c r="C21" s="186"/>
+      <c r="D21" s="186"/>
+      <c r="E21" s="186"/>
+      <c r="F21" s="186"/>
+      <c r="G21" s="186"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="186"/>
+      <c r="J21" s="186"/>
+      <c r="K21" s="186"/>
+      <c r="L21" s="187"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="223"/>
-      <c r="B22" s="224"/>
-      <c r="C22" s="224"/>
-      <c r="D22" s="224"/>
-      <c r="E22" s="224"/>
-      <c r="F22" s="224"/>
-      <c r="G22" s="224"/>
-      <c r="H22" s="224"/>
-      <c r="I22" s="224"/>
-      <c r="J22" s="224"/>
-      <c r="K22" s="224"/>
-      <c r="L22" s="225"/>
+      <c r="A22" s="188"/>
+      <c r="B22" s="189"/>
+      <c r="C22" s="189"/>
+      <c r="D22" s="189"/>
+      <c r="E22" s="189"/>
+      <c r="F22" s="189"/>
+      <c r="G22" s="189"/>
+      <c r="H22" s="189"/>
+      <c r="I22" s="189"/>
+      <c r="J22" s="189"/>
+      <c r="K22" s="189"/>
+      <c r="L22" s="190"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="223"/>
-      <c r="B23" s="224"/>
-      <c r="C23" s="224"/>
-      <c r="D23" s="224"/>
-      <c r="E23" s="224"/>
-      <c r="F23" s="224"/>
-      <c r="G23" s="224"/>
-      <c r="H23" s="224"/>
-      <c r="I23" s="224"/>
-      <c r="J23" s="224"/>
-      <c r="K23" s="224"/>
-      <c r="L23" s="225"/>
+      <c r="A23" s="188"/>
+      <c r="B23" s="189"/>
+      <c r="C23" s="189"/>
+      <c r="D23" s="189"/>
+      <c r="E23" s="189"/>
+      <c r="F23" s="189"/>
+      <c r="G23" s="189"/>
+      <c r="H23" s="189"/>
+      <c r="I23" s="189"/>
+      <c r="J23" s="189"/>
+      <c r="K23" s="189"/>
+      <c r="L23" s="190"/>
     </row>
     <row r="24" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="223"/>
-      <c r="B24" s="224"/>
-      <c r="C24" s="224"/>
-      <c r="D24" s="224"/>
-      <c r="E24" s="224"/>
-      <c r="F24" s="224"/>
-      <c r="G24" s="224"/>
-      <c r="H24" s="224"/>
-      <c r="I24" s="224"/>
-      <c r="J24" s="224"/>
-      <c r="K24" s="224"/>
-      <c r="L24" s="225"/>
+      <c r="A24" s="188"/>
+      <c r="B24" s="189"/>
+      <c r="C24" s="189"/>
+      <c r="D24" s="189"/>
+      <c r="E24" s="189"/>
+      <c r="F24" s="189"/>
+      <c r="G24" s="189"/>
+      <c r="H24" s="189"/>
+      <c r="I24" s="189"/>
+      <c r="J24" s="189"/>
+      <c r="K24" s="189"/>
+      <c r="L24" s="190"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="226"/>
-      <c r="B25" s="227"/>
-      <c r="C25" s="227"/>
-      <c r="D25" s="227"/>
-      <c r="E25" s="227"/>
-      <c r="F25" s="227"/>
-      <c r="G25" s="227"/>
-      <c r="H25" s="227"/>
-      <c r="I25" s="227"/>
-      <c r="J25" s="227"/>
-      <c r="K25" s="227"/>
-      <c r="L25" s="228"/>
+      <c r="A25" s="191"/>
+      <c r="B25" s="192"/>
+      <c r="C25" s="192"/>
+      <c r="D25" s="192"/>
+      <c r="E25" s="192"/>
+      <c r="F25" s="192"/>
+      <c r="G25" s="192"/>
+      <c r="H25" s="192"/>
+      <c r="I25" s="192"/>
+      <c r="J25" s="192"/>
+      <c r="K25" s="192"/>
+      <c r="L25" s="193"/>
     </row>
     <row r="27" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="229" t="s">
-        <v>103</v>
-      </c>
-      <c r="B27" s="229"/>
-      <c r="C27" s="229"/>
-      <c r="D27" s="229"/>
-      <c r="E27" s="229"/>
-      <c r="F27" s="229"/>
-      <c r="G27" s="229"/>
-      <c r="H27" s="229"/>
-      <c r="I27" s="230"/>
-      <c r="J27" s="230"/>
+      <c r="A27" s="179" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="179"/>
+      <c r="C27" s="179"/>
+      <c r="D27" s="179"/>
+      <c r="E27" s="179"/>
+      <c r="F27" s="179"/>
+      <c r="G27" s="179"/>
+      <c r="H27" s="179"/>
+      <c r="I27" s="180"/>
+      <c r="J27" s="180"/>
       <c r="K27" s="118" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L27" s="113">
         <f>I27*1.5</f>
@@ -4239,20 +4369,20 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="229" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="229"/>
-      <c r="C28" s="229"/>
-      <c r="D28" s="229"/>
-      <c r="E28" s="229"/>
-      <c r="F28" s="229"/>
-      <c r="G28" s="229"/>
-      <c r="H28" s="229"/>
-      <c r="I28" s="230"/>
-      <c r="J28" s="230"/>
+      <c r="A28" s="179" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="179"/>
+      <c r="C28" s="179"/>
+      <c r="D28" s="179"/>
+      <c r="E28" s="179"/>
+      <c r="F28" s="179"/>
+      <c r="G28" s="179"/>
+      <c r="H28" s="179"/>
+      <c r="I28" s="180"/>
+      <c r="J28" s="180"/>
       <c r="K28" s="117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L28" s="113">
         <f>I28*1.5</f>
@@ -4260,20 +4390,20 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="229" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="229"/>
-      <c r="C29" s="229"/>
-      <c r="D29" s="229"/>
-      <c r="E29" s="229"/>
-      <c r="F29" s="229"/>
-      <c r="G29" s="229"/>
-      <c r="H29" s="229"/>
-      <c r="I29" s="230"/>
-      <c r="J29" s="230"/>
+      <c r="A29" s="179" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="179"/>
+      <c r="C29" s="179"/>
+      <c r="D29" s="179"/>
+      <c r="E29" s="179"/>
+      <c r="F29" s="179"/>
+      <c r="G29" s="179"/>
+      <c r="H29" s="179"/>
+      <c r="I29" s="180"/>
+      <c r="J29" s="180"/>
       <c r="K29" s="117" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L29" s="113">
         <f>I29*2.5</f>
@@ -4281,20 +4411,20 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="229" t="s">
-        <v>99</v>
-      </c>
-      <c r="B30" s="229"/>
-      <c r="C30" s="229"/>
-      <c r="D30" s="229"/>
-      <c r="E30" s="229"/>
-      <c r="F30" s="229"/>
-      <c r="G30" s="229"/>
-      <c r="H30" s="229"/>
-      <c r="I30" s="230"/>
-      <c r="J30" s="230"/>
+      <c r="A30" s="179" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="179"/>
+      <c r="C30" s="179"/>
+      <c r="D30" s="179"/>
+      <c r="E30" s="179"/>
+      <c r="F30" s="179"/>
+      <c r="G30" s="179"/>
+      <c r="H30" s="179"/>
+      <c r="I30" s="180"/>
+      <c r="J30" s="180"/>
       <c r="K30" s="117" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L30" s="113">
         <f>I30*2</f>
@@ -4302,23 +4432,23 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="229" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="229"/>
-      <c r="C31" s="229"/>
-      <c r="D31" s="229"/>
-      <c r="E31" s="229"/>
-      <c r="F31" s="229"/>
-      <c r="G31" s="229"/>
-      <c r="H31" s="229"/>
-      <c r="I31" s="234">
+      <c r="A31" s="179" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="179"/>
+      <c r="C31" s="179"/>
+      <c r="D31" s="179"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="179"/>
+      <c r="G31" s="179"/>
+      <c r="H31" s="179"/>
+      <c r="I31" s="181">
         <f>L19</f>
         <v>0</v>
       </c>
-      <c r="J31" s="234"/>
+      <c r="J31" s="181"/>
       <c r="K31" s="117" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L31" s="113">
         <f>I31*2.5</f>
@@ -4330,7 +4460,7 @@
       <c r="I32" s="116"/>
       <c r="J32" s="115"/>
       <c r="K32" s="114" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L32" s="113">
         <f>(L27+L28+L29+L30+L31)</f>
@@ -4338,14 +4468,14 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F33" s="231" t="s">
-        <v>94</v>
-      </c>
-      <c r="G33" s="232"/>
-      <c r="H33" s="232"/>
-      <c r="I33" s="232"/>
-      <c r="J33" s="232"/>
-      <c r="K33" s="233"/>
+      <c r="F33" s="176" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="177"/>
+      <c r="H33" s="177"/>
+      <c r="I33" s="177"/>
+      <c r="J33" s="177"/>
+      <c r="K33" s="178"/>
       <c r="L33" s="112">
         <f>L32/10</f>
         <v>0</v>
@@ -4397,7 +4527,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B40" s="109"/>
       <c r="C40" s="109"/>
@@ -4405,7 +4535,7 @@
       <c r="E40" s="109"/>
       <c r="F40" s="107"/>
       <c r="H40" s="108" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I40" s="108"/>
       <c r="J40" s="108"/>
@@ -4439,26 +4569,24 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="A21:L25"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:L12"/>
     <mergeCell ref="K13:K15"/>
     <mergeCell ref="L13:L15"/>
     <mergeCell ref="C14:E14"/>
@@ -4468,24 +4596,26 @@
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J13:J15"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="A21:L25"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:J31"/>
   </mergeCells>
   <conditionalFormatting sqref="K13:K18 L13:L37 I27:J31">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="notBetween">
@@ -4518,9 +4648,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -4544,12 +4674,12 @@
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="141" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" s="142"/>
       <c r="H1" s="143"/>
       <c r="I1" s="144" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J1" s="145"/>
       <c r="K1" s="146"/>
@@ -4561,7 +4691,7 @@
       </c>
       <c r="H2" s="143"/>
       <c r="I2" s="144" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2" s="145"/>
       <c r="K2" s="146"/>
@@ -4572,8 +4702,8 @@
         <v>5</v>
       </c>
       <c r="B3" s="148"/>
-      <c r="C3" s="291"/>
-      <c r="D3" s="291"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
       <c r="E3" s="149"/>
       <c r="F3" s="149"/>
       <c r="H3" s="143"/>
@@ -4589,10 +4719,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="150"/>
-      <c r="C4" s="290"/>
-      <c r="D4" s="290"/>
-      <c r="E4" s="290"/>
-      <c r="F4" s="290"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
       <c r="H4" s="143"/>
       <c r="I4" s="144" t="s">
         <v>4</v>
@@ -4603,13 +4733,13 @@
     </row>
     <row r="5" spans="1:12" s="152" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="150" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="150"/>
-      <c r="C5" s="290"/>
-      <c r="D5" s="290"/>
-      <c r="E5" s="290"/>
-      <c r="F5" s="290"/>
+      <c r="C5" s="239"/>
+      <c r="D5" s="239"/>
+      <c r="E5" s="239"/>
+      <c r="F5" s="239"/>
       <c r="K5" s="50"/>
     </row>
     <row r="6" spans="1:12" s="152" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4627,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="148"/>
-      <c r="C7" s="290"/>
-      <c r="D7" s="290"/>
-      <c r="E7" s="290"/>
-      <c r="F7" s="290"/>
+      <c r="C7" s="239"/>
+      <c r="D7" s="239"/>
+      <c r="E7" s="239"/>
+      <c r="F7" s="239"/>
       <c r="H7" s="148" t="s">
         <v>7</v>
       </c>
@@ -4644,10 +4774,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="150"/>
-      <c r="C8" s="290"/>
-      <c r="D8" s="290"/>
-      <c r="E8" s="290"/>
-      <c r="F8" s="290"/>
+      <c r="C8" s="239"/>
+      <c r="D8" s="239"/>
+      <c r="E8" s="239"/>
+      <c r="F8" s="239"/>
       <c r="H8" s="150" t="s">
         <v>8</v>
       </c>
@@ -4661,10 +4791,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="150"/>
-      <c r="C9" s="290"/>
-      <c r="D9" s="290"/>
-      <c r="E9" s="290"/>
-      <c r="F9" s="290"/>
+      <c r="C9" s="239"/>
+      <c r="D9" s="239"/>
+      <c r="E9" s="239"/>
+      <c r="F9" s="239"/>
       <c r="K9" s="50"/>
     </row>
     <row r="10" spans="1:12" s="152" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4679,313 +4809,391 @@
       <c r="D11" s="156"/>
       <c r="E11" s="156"/>
       <c r="F11" s="156"/>
-      <c r="H11" s="265" t="s">
+      <c r="H11" s="241" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="266"/>
-      <c r="J11" s="267" t="s">
+      <c r="I11" s="242"/>
+      <c r="J11" s="243" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="268"/>
-      <c r="L11" s="269"/>
+      <c r="K11" s="244"/>
+      <c r="L11" s="245"/>
     </row>
     <row r="12" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="270" t="s">
+      <c r="A12" s="246" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="250" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="274" t="s">
+      <c r="C12" s="251"/>
+      <c r="D12" s="251"/>
+      <c r="E12" s="251"/>
+      <c r="F12" s="251"/>
+      <c r="G12" s="251"/>
+      <c r="H12" s="254"/>
+      <c r="I12" s="255"/>
+      <c r="J12" s="260" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="275"/>
-      <c r="D12" s="275"/>
-      <c r="E12" s="275"/>
-      <c r="F12" s="275"/>
-      <c r="G12" s="275"/>
-      <c r="H12" s="278"/>
-      <c r="I12" s="279"/>
-      <c r="J12" s="284" t="s">
-        <v>126</v>
-      </c>
-      <c r="K12" s="286">
+      <c r="K12" s="334">
         <f>SUM(B17:G17)/6</f>
         <v>0</v>
       </c>
-      <c r="L12" s="254">
+      <c r="L12" s="337">
         <f>ROUND(K12*0.6,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="271"/>
-      <c r="B13" s="276"/>
-      <c r="C13" s="277"/>
-      <c r="D13" s="277"/>
-      <c r="E13" s="277"/>
-      <c r="F13" s="277"/>
-      <c r="G13" s="277"/>
-      <c r="H13" s="280"/>
-      <c r="I13" s="281"/>
-      <c r="J13" s="263"/>
-      <c r="K13" s="287"/>
-      <c r="L13" s="255"/>
+      <c r="A13" s="247"/>
+      <c r="B13" s="252"/>
+      <c r="C13" s="253"/>
+      <c r="D13" s="253"/>
+      <c r="E13" s="253"/>
+      <c r="F13" s="253"/>
+      <c r="G13" s="253"/>
+      <c r="H13" s="256"/>
+      <c r="I13" s="257"/>
+      <c r="J13" s="261"/>
+      <c r="K13" s="335"/>
+      <c r="L13" s="338"/>
     </row>
     <row r="14" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="271"/>
-      <c r="B14" s="276"/>
-      <c r="C14" s="277"/>
-      <c r="D14" s="277"/>
-      <c r="E14" s="277"/>
-      <c r="F14" s="277"/>
-      <c r="G14" s="277"/>
-      <c r="H14" s="280"/>
-      <c r="I14" s="281"/>
-      <c r="J14" s="263"/>
-      <c r="K14" s="287"/>
-      <c r="L14" s="255"/>
+      <c r="A14" s="247"/>
+      <c r="B14" s="252"/>
+      <c r="C14" s="253"/>
+      <c r="D14" s="253"/>
+      <c r="E14" s="253"/>
+      <c r="F14" s="253"/>
+      <c r="G14" s="253"/>
+      <c r="H14" s="256"/>
+      <c r="I14" s="257"/>
+      <c r="J14" s="261"/>
+      <c r="K14" s="335"/>
+      <c r="L14" s="338"/>
     </row>
     <row r="15" spans="1:12" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="271"/>
-      <c r="B15" s="276"/>
-      <c r="C15" s="277"/>
-      <c r="D15" s="277"/>
-      <c r="E15" s="277"/>
-      <c r="F15" s="277"/>
-      <c r="G15" s="277"/>
-      <c r="H15" s="280"/>
-      <c r="I15" s="281"/>
-      <c r="J15" s="263"/>
-      <c r="K15" s="287"/>
-      <c r="L15" s="255"/>
+      <c r="A15" s="247"/>
+      <c r="B15" s="252"/>
+      <c r="C15" s="253"/>
+      <c r="D15" s="253"/>
+      <c r="E15" s="253"/>
+      <c r="F15" s="253"/>
+      <c r="G15" s="253"/>
+      <c r="H15" s="256"/>
+      <c r="I15" s="257"/>
+      <c r="J15" s="261"/>
+      <c r="K15" s="335"/>
+      <c r="L15" s="338"/>
     </row>
     <row r="16" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="272"/>
+      <c r="A16" s="248"/>
       <c r="B16" s="157" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="158" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="158" t="s">
+      <c r="D16" s="159" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="159" t="s">
+      <c r="E16" s="158" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="158" t="s">
+      <c r="F16" s="158" t="s">
         <v>130</v>
       </c>
-      <c r="F16" s="158" t="s">
+      <c r="G16" s="160" t="s">
         <v>131</v>
       </c>
-      <c r="G16" s="160" t="s">
-        <v>132</v>
-      </c>
-      <c r="H16" s="280"/>
-      <c r="I16" s="281"/>
-      <c r="J16" s="263"/>
-      <c r="K16" s="287"/>
-      <c r="L16" s="255"/>
+      <c r="H16" s="256"/>
+      <c r="I16" s="257"/>
+      <c r="J16" s="261"/>
+      <c r="K16" s="335"/>
+      <c r="L16" s="338"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="273"/>
-      <c r="B17" s="161">
-        <v>0</v>
-      </c>
+      <c r="A17" s="249"/>
+      <c r="B17" s="161"/>
       <c r="C17" s="162"/>
       <c r="D17" s="162"/>
       <c r="E17" s="162"/>
       <c r="F17" s="162"/>
       <c r="G17" s="163"/>
-      <c r="H17" s="282"/>
-      <c r="I17" s="283"/>
-      <c r="J17" s="285"/>
-      <c r="K17" s="288"/>
-      <c r="L17" s="289"/>
+      <c r="H17" s="258"/>
+      <c r="I17" s="259"/>
+      <c r="J17" s="262"/>
+      <c r="K17" s="336"/>
+      <c r="L17" s="339"/>
     </row>
     <row r="18" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="237" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="240" t="s">
+      <c r="A18" s="265"/>
+      <c r="B18" s="268" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="268"/>
+      <c r="D18" s="268"/>
+      <c r="E18" s="268"/>
+      <c r="F18" s="268"/>
+      <c r="G18" s="268"/>
+      <c r="H18" s="271"/>
+      <c r="I18" s="272"/>
+      <c r="J18" s="327" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="328">
+        <f>SUMPRODUCT(B23:G23,B22:G22)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="331">
+        <f>IF((K18-K25)&gt;=0,(ROUND((K18-K25)*0.25,3)),0.00000000001)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="266"/>
+      <c r="B19" s="269"/>
+      <c r="C19" s="269"/>
+      <c r="D19" s="269"/>
+      <c r="E19" s="269"/>
+      <c r="F19" s="269"/>
+      <c r="G19" s="269"/>
+      <c r="H19" s="273"/>
+      <c r="I19" s="274"/>
+      <c r="J19" s="304"/>
+      <c r="K19" s="329"/>
+      <c r="L19" s="332"/>
+    </row>
+    <row r="20" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="266"/>
+      <c r="B20" s="270"/>
+      <c r="C20" s="270"/>
+      <c r="D20" s="270"/>
+      <c r="E20" s="270"/>
+      <c r="F20" s="270"/>
+      <c r="G20" s="269"/>
+      <c r="H20" s="273"/>
+      <c r="I20" s="274"/>
+      <c r="J20" s="304"/>
+      <c r="K20" s="329"/>
+      <c r="L20" s="332"/>
+    </row>
+    <row r="21" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="266"/>
+      <c r="B21" s="305" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="306"/>
+      <c r="D21" s="307" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="308"/>
+      <c r="F21" s="309" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" s="310"/>
+      <c r="H21" s="273"/>
+      <c r="I21" s="274"/>
+      <c r="J21" s="304"/>
+      <c r="K21" s="329"/>
+      <c r="L21" s="332"/>
+    </row>
+    <row r="22" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="266"/>
+      <c r="B22" s="311">
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="312"/>
+      <c r="D22" s="313">
+        <v>0.25</v>
+      </c>
+      <c r="E22" s="314"/>
+      <c r="F22" s="315">
+        <v>0.25</v>
+      </c>
+      <c r="G22" s="316"/>
+      <c r="H22" s="273"/>
+      <c r="I22" s="274"/>
+      <c r="J22" s="304"/>
+      <c r="K22" s="329"/>
+      <c r="L22" s="332"/>
+    </row>
+    <row r="23" spans="1:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="266"/>
+      <c r="B23" s="317"/>
+      <c r="C23" s="318"/>
+      <c r="D23" s="319"/>
+      <c r="E23" s="320"/>
+      <c r="F23" s="318"/>
+      <c r="G23" s="321"/>
+      <c r="H23" s="273"/>
+      <c r="I23" s="274"/>
+      <c r="J23" s="304"/>
+      <c r="K23" s="330"/>
+      <c r="L23" s="332"/>
+    </row>
+    <row r="24" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="266"/>
+      <c r="B24" s="322"/>
+      <c r="C24" s="323"/>
+      <c r="D24" s="324"/>
+      <c r="E24" s="324"/>
+      <c r="F24" s="323"/>
+      <c r="G24" s="325"/>
+      <c r="H24" s="273"/>
+      <c r="I24" s="274"/>
+      <c r="J24" s="304"/>
+      <c r="K24" s="326"/>
+      <c r="L24" s="332"/>
+    </row>
+    <row r="25" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="267"/>
+      <c r="B25" s="164" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="240"/>
-      <c r="D18" s="240"/>
-      <c r="E18" s="240"/>
-      <c r="F18" s="240"/>
-      <c r="G18" s="240"/>
-      <c r="H18" s="243"/>
-      <c r="I18" s="244"/>
-      <c r="J18" s="249" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18" s="252">
+      <c r="C25" s="165">
         <v>0</v>
       </c>
-      <c r="L18" s="254">
-        <f>IF((K18-K21)&gt;=0,(ROUND((K18-K21)*0.25,3)),0.00000000001)</f>
+      <c r="D25" s="165">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="238"/>
-      <c r="B19" s="241"/>
-      <c r="C19" s="241"/>
-      <c r="D19" s="241"/>
-      <c r="E19" s="241"/>
-      <c r="F19" s="241"/>
-      <c r="G19" s="241"/>
-      <c r="H19" s="245"/>
-      <c r="I19" s="246"/>
-      <c r="J19" s="250"/>
-      <c r="K19" s="253"/>
-      <c r="L19" s="255"/>
-    </row>
-    <row r="20" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="238"/>
-      <c r="B20" s="242"/>
-      <c r="C20" s="242"/>
-      <c r="D20" s="242"/>
-      <c r="E20" s="242"/>
-      <c r="F20" s="242"/>
-      <c r="G20" s="241"/>
-      <c r="H20" s="245"/>
-      <c r="I20" s="246"/>
-      <c r="J20" s="250"/>
-      <c r="K20" s="253"/>
-      <c r="L20" s="255"/>
-    </row>
-    <row r="21" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="239"/>
-      <c r="B21" s="164" t="s">
+      <c r="E25" s="165">
+        <v>0</v>
+      </c>
+      <c r="F25" s="165">
+        <v>0</v>
+      </c>
+      <c r="G25" s="165"/>
+      <c r="H25" s="275"/>
+      <c r="I25" s="276"/>
+      <c r="J25" s="277"/>
+      <c r="K25" s="166">
+        <f>SUM(C25:G25)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="333"/>
+    </row>
+    <row r="26" spans="1:12" ht="87.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="265" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="268" t="s">
         <v>134</v>
       </c>
-      <c r="C21" s="165">
+      <c r="C26" s="278"/>
+      <c r="D26" s="278"/>
+      <c r="E26" s="278"/>
+      <c r="F26" s="278"/>
+      <c r="G26" s="279"/>
+      <c r="H26" s="280"/>
+      <c r="I26" s="281"/>
+      <c r="J26" s="261" t="s">
+        <v>135</v>
+      </c>
+      <c r="K26" s="340"/>
+      <c r="L26" s="338">
+        <f>IF((K26-K27)&gt;=0, ROUND((K26-K27)*0.15,3),0.000000001)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="165">
+    </row>
+    <row r="27" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="267"/>
+      <c r="B27" s="167" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="165">
         <v>0</v>
       </c>
-      <c r="E21" s="165">
+      <c r="D27" s="165">
         <v>0</v>
       </c>
-      <c r="F21" s="165">
+      <c r="E27" s="165">
         <v>0</v>
       </c>
-      <c r="G21" s="165"/>
-      <c r="H21" s="247"/>
-      <c r="I21" s="248"/>
-      <c r="J21" s="251"/>
-      <c r="K21" s="166">
-        <f>SUM(C21:G21)</f>
+      <c r="F27" s="165">
         <v>0</v>
       </c>
-      <c r="L21" s="256"/>
-    </row>
-    <row r="22" spans="1:12" ht="87.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="237" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="240" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="257"/>
-      <c r="D22" s="257"/>
-      <c r="E22" s="257"/>
-      <c r="F22" s="257"/>
-      <c r="G22" s="258"/>
-      <c r="H22" s="259"/>
-      <c r="I22" s="260"/>
-      <c r="J22" s="263" t="s">
+      <c r="G27" s="165"/>
+      <c r="H27" s="282"/>
+      <c r="I27" s="283"/>
+      <c r="J27" s="284"/>
+      <c r="K27" s="166">
+        <f>SUM(C27:G27)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="333"/>
+    </row>
+    <row r="28" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="168"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="168"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="168"/>
+      <c r="H28" s="168"/>
+    </row>
+    <row r="29" spans="1:12" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I29" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="24"/>
+      <c r="K29" s="263">
+        <f>SUM(L12:L26)</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="264"/>
+    </row>
+    <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I30" s="127"/>
+      <c r="J30" s="127"/>
+      <c r="K30" s="170"/>
+      <c r="L30" s="170"/>
+    </row>
+    <row r="31" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="H34" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="K22" s="167">
-        <v>0</v>
-      </c>
-      <c r="L22" s="255">
-        <f>IF((K22-K23)&gt;=0, ROUND((K22-K23)*0.15,3),0.000000001)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="239"/>
-      <c r="B23" s="168" t="s">
-        <v>134</v>
-      </c>
-      <c r="C23" s="165">
-        <v>0</v>
-      </c>
-      <c r="D23" s="165">
-        <v>0</v>
-      </c>
-      <c r="E23" s="165">
-        <v>0</v>
-      </c>
-      <c r="F23" s="165">
-        <v>0</v>
-      </c>
-      <c r="G23" s="165"/>
-      <c r="H23" s="261"/>
-      <c r="I23" s="262"/>
-      <c r="J23" s="264"/>
-      <c r="K23" s="166">
-        <f>SUM(C23:G23)</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="256"/>
-    </row>
-    <row r="24" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="169"/>
-      <c r="B24" s="169"/>
-      <c r="C24" s="169"/>
-      <c r="D24" s="169"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="169"/>
-      <c r="H24" s="169"/>
-    </row>
-    <row r="25" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I25" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="J25" s="24"/>
-      <c r="K25" s="235">
-        <f>SUM(L12:L22)</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="236"/>
-    </row>
-    <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I26" s="127"/>
-      <c r="J26" s="127"/>
-      <c r="K26" s="171"/>
-      <c r="L26" s="171"/>
-    </row>
-    <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="H30" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="170"/>
-      <c r="L30" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="169"/>
+      <c r="L34" s="25"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="26">
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
+  <mergeCells count="35">
+    <mergeCell ref="K18:K23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:G20"/>
+    <mergeCell ref="H18:I25"/>
+    <mergeCell ref="J18:J25"/>
+    <mergeCell ref="L18:L25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="A12:A17"/>
@@ -4994,21 +5202,15 @@
     <mergeCell ref="J12:J17"/>
     <mergeCell ref="K12:K17"/>
     <mergeCell ref="L12:L17"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:G20"/>
-    <mergeCell ref="H18:I21"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="H22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR PAS-DE-DEUX</oddHeader>
     <oddFooter>&amp;R2020-03-22</oddFooter>
@@ -5047,11 +5249,11 @@
     <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="28"/>
       <c r="I2" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" s="30"/>
       <c r="K2" s="31"/>
@@ -5059,11 +5261,11 @@
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="28"/>
       <c r="I3" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="30"/>
       <c r="K3" s="31"/>
@@ -5091,10 +5293,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="292"/>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
+      <c r="C5" s="285"/>
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="285"/>
       <c r="H5" s="28"/>
       <c r="I5" s="29" t="s">
         <v>4</v>
@@ -5130,10 +5332,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="295"/>
-      <c r="D8" s="295"/>
-      <c r="E8" s="295"/>
-      <c r="F8" s="295"/>
+      <c r="C8" s="288"/>
+      <c r="D8" s="288"/>
+      <c r="E8" s="288"/>
+      <c r="F8" s="288"/>
       <c r="H8" s="4" t="s">
         <v>8</v>
       </c>
@@ -5148,35 +5350,35 @@
         <v>10</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="292"/>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
+      <c r="C9" s="285"/>
+      <c r="D9" s="285"/>
+      <c r="E9" s="285"/>
+      <c r="F9" s="285"/>
       <c r="H9" s="26"/>
-      <c r="I9" s="293"/>
-      <c r="J9" s="294"/>
-      <c r="K9" s="294"/>
-      <c r="L9" s="294"/>
+      <c r="I9" s="286"/>
+      <c r="J9" s="287"/>
+      <c r="K9" s="287"/>
+      <c r="L9" s="287"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="292"/>
-      <c r="D10" s="292"/>
-      <c r="E10" s="292"/>
-      <c r="F10" s="292"/>
+      <c r="C10" s="285"/>
+      <c r="D10" s="285"/>
+      <c r="E10" s="285"/>
+      <c r="F10" s="285"/>
       <c r="H10" s="26"/>
-      <c r="I10" s="293"/>
-      <c r="J10" s="294"/>
-      <c r="K10" s="294"/>
-      <c r="L10" s="294"/>
+      <c r="I10" s="286"/>
+      <c r="J10" s="287"/>
+      <c r="K10" s="287"/>
+      <c r="L10" s="287"/>
     </row>
     <row r="11" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="45"/>
       <c r="C12" s="45"/>
@@ -5201,7 +5403,7 @@
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="75"/>
       <c r="C15" s="4"/>
@@ -5217,22 +5419,22 @@
     </row>
     <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G17" s="38"/>
       <c r="H17" s="63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I17" s="49"/>
       <c r="K17" s="64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="15"/>
@@ -5256,7 +5458,7 @@
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="15"/>
@@ -5280,7 +5482,7 @@
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="15"/>
@@ -5303,7 +5505,7 @@
     </row>
     <row r="21" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -5320,7 +5522,7 @@
     </row>
     <row r="22" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G22" s="59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
@@ -5335,12 +5537,12 @@
     </row>
     <row r="23" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B24" s="51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5351,13 +5553,13 @@
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="15"/>
       <c r="E26" s="97"/>
       <c r="F26" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="54">
@@ -5390,7 +5592,7 @@
       <c r="B28" s="69"/>
       <c r="C28" s="69"/>
       <c r="D28" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -5398,7 +5600,7 @@
       <c r="H28" s="9"/>
       <c r="I28" s="57"/>
       <c r="J28" s="58"/>
-      <c r="K28" s="299">
+      <c r="K28" s="171">
         <f>SUM(E15:J15)</f>
         <v>0</v>
       </c>
@@ -5408,7 +5610,7 @@
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G30" s="59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30" s="30"/>
       <c r="I30" s="30"/>
@@ -5424,7 +5626,7 @@
     <row r="31" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I32" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -5435,14 +5637,14 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
       <c r="D36" s="40"/>
       <c r="E36" s="40"/>
       <c r="H36" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -5475,7 +5677,7 @@
   </sheetPr>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -5498,11 +5700,11 @@
     <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="28"/>
       <c r="I2" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" s="30"/>
       <c r="K2" s="31"/>
@@ -5511,11 +5713,11 @@
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" s="28"/>
       <c r="I3" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="30"/>
       <c r="K3" s="31"/>
@@ -5543,10 +5745,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="292"/>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
+      <c r="C5" s="285"/>
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="285"/>
       <c r="H5" s="28"/>
       <c r="I5" s="29" t="s">
         <v>4</v>
@@ -5588,10 +5790,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="295"/>
-      <c r="D8" s="295"/>
-      <c r="E8" s="295"/>
-      <c r="F8" s="295"/>
+      <c r="C8" s="288"/>
+      <c r="D8" s="288"/>
+      <c r="E8" s="288"/>
+      <c r="F8" s="288"/>
       <c r="H8" s="4" t="s">
         <v>8</v>
       </c>
@@ -5606,75 +5808,75 @@
         <v>10</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="292"/>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
+      <c r="C9" s="285"/>
+      <c r="D9" s="285"/>
+      <c r="E9" s="285"/>
+      <c r="F9" s="285"/>
       <c r="H9" s="26"/>
-      <c r="I9" s="293"/>
-      <c r="J9" s="294"/>
-      <c r="K9" s="294"/>
-      <c r="L9" s="294"/>
+      <c r="I9" s="286"/>
+      <c r="J9" s="287"/>
+      <c r="K9" s="287"/>
+      <c r="L9" s="287"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="292"/>
-      <c r="D10" s="292"/>
-      <c r="E10" s="292"/>
-      <c r="F10" s="292"/>
+      <c r="C10" s="285"/>
+      <c r="D10" s="285"/>
+      <c r="E10" s="285"/>
+      <c r="F10" s="285"/>
       <c r="H10" s="26"/>
-      <c r="I10" s="293"/>
-      <c r="J10" s="294"/>
-      <c r="K10" s="294"/>
-      <c r="L10" s="294"/>
+      <c r="I10" s="286"/>
+      <c r="J10" s="287"/>
+      <c r="K10" s="287"/>
+      <c r="L10" s="287"/>
     </row>
     <row r="11" spans="1:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K11" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="300" t="s">
+      <c r="A12" s="172" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="289" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="301" t="s">
+      <c r="C12" s="290"/>
+      <c r="D12" s="290"/>
+      <c r="E12" s="290"/>
+      <c r="F12" s="290"/>
+      <c r="G12" s="290"/>
+      <c r="H12" s="290"/>
+      <c r="I12" s="291"/>
+      <c r="J12" s="173" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="302"/>
-      <c r="D12" s="302"/>
-      <c r="E12" s="302"/>
-      <c r="F12" s="302"/>
-      <c r="G12" s="302"/>
-      <c r="H12" s="302"/>
-      <c r="I12" s="303"/>
-      <c r="J12" s="304" t="s">
-        <v>140</v>
-      </c>
-      <c r="K12" s="305"/>
-      <c r="L12" s="306">
+      <c r="K12" s="174"/>
+      <c r="L12" s="175">
         <f>K12*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="296" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="301" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="302"/>
-      <c r="D13" s="302"/>
-      <c r="E13" s="302"/>
-      <c r="F13" s="302"/>
-      <c r="G13" s="302"/>
-      <c r="H13" s="302"/>
-      <c r="I13" s="303"/>
+      <c r="A13" s="295" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="289" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="290"/>
+      <c r="D13" s="290"/>
+      <c r="E13" s="290"/>
+      <c r="F13" s="290"/>
+      <c r="G13" s="290"/>
+      <c r="H13" s="290"/>
+      <c r="I13" s="291"/>
       <c r="J13" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K13" s="99"/>
       <c r="L13" s="17">
@@ -5684,19 +5886,19 @@
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="297"/>
-      <c r="B14" s="307" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="308"/>
-      <c r="D14" s="308"/>
-      <c r="E14" s="308"/>
-      <c r="F14" s="308"/>
-      <c r="G14" s="308"/>
-      <c r="H14" s="308"/>
-      <c r="I14" s="309"/>
+      <c r="A14" s="296"/>
+      <c r="B14" s="298" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="299"/>
+      <c r="D14" s="299"/>
+      <c r="E14" s="299"/>
+      <c r="F14" s="299"/>
+      <c r="G14" s="299"/>
+      <c r="H14" s="299"/>
+      <c r="I14" s="300"/>
       <c r="J14" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K14" s="100"/>
       <c r="L14" s="18">
@@ -5706,21 +5908,21 @@
       <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="296" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="310" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="311"/>
-      <c r="D15" s="311"/>
-      <c r="E15" s="311"/>
-      <c r="F15" s="311"/>
-      <c r="G15" s="311"/>
-      <c r="H15" s="311"/>
-      <c r="I15" s="312"/>
+      <c r="A15" s="295" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="301" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="302"/>
+      <c r="D15" s="302"/>
+      <c r="E15" s="302"/>
+      <c r="F15" s="302"/>
+      <c r="G15" s="302"/>
+      <c r="H15" s="302"/>
+      <c r="I15" s="303"/>
       <c r="J15" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K15" s="98"/>
       <c r="L15" s="19">
@@ -5730,19 +5932,19 @@
       <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="298"/>
-      <c r="B16" s="313" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" s="314"/>
-      <c r="D16" s="314"/>
-      <c r="E16" s="314"/>
-      <c r="F16" s="314"/>
-      <c r="G16" s="314"/>
-      <c r="H16" s="314"/>
-      <c r="I16" s="315"/>
+      <c r="A16" s="297"/>
+      <c r="B16" s="292" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="293"/>
+      <c r="D16" s="293"/>
+      <c r="E16" s="293"/>
+      <c r="F16" s="293"/>
+      <c r="G16" s="293"/>
+      <c r="H16" s="293"/>
+      <c r="I16" s="294"/>
       <c r="J16" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K16" s="98"/>
       <c r="L16" s="20">
@@ -5762,7 +5964,7 @@
     </row>
     <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="9"/>
@@ -5780,7 +5982,7 @@
     </row>
     <row r="21" spans="1:12" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I21" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -5791,14 +5993,14 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="40"/>
       <c r="C27" s="40"/>
       <c r="D27" s="40"/>
       <c r="E27" s="40"/>
       <c r="H27" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -5807,6 +6009,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
     <mergeCell ref="B12:I12"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="I10:L10"/>
@@ -5814,12 +6022,6 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="I9:L9"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
@@ -5841,15 +6043,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5915,6 +6108,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
   <ds:schemaRefs>
@@ -5924,21 +6126,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06F9B768-A93D-4D4C-BBD7-D4CF83092D49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5953,4 +6140,19 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06F9B768-A93D-4D4C-BBD7-D4CF83092D49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/mallar/Protokoll/Protokoll_2019_Pas_de_deux_klass(mall).xlsx
+++ b/mallar/Protokoll/Protokoll_2019_Pas_de_deux_klass(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720B8C8E-9139-481E-9DA5-D799604ECBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32B8055-9E11-412B-B12B-F2AD5BA62E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="5310" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44670" yWindow="1470" windowWidth="28800" windowHeight="15195" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="24" r:id="rId1"/>
@@ -1942,7 +1942,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="341">
+  <cellXfs count="344">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2032,11 +2032,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2053,12 +2049,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2359,14 +2349,194 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="39" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="32" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="24" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="38" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2375,174 +2545,251 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="169" fontId="2" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="3" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="61" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="32" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="24" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="38" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2551,138 +2798,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2693,6 +2808,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
@@ -2702,24 +2835,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
@@ -2738,130 +2853,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="60" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="61" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="39" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="3" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -3280,665 +3291,665 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.59765625" style="81" customWidth="1"/>
-    <col min="2" max="18" width="15.73046875" style="81" customWidth="1"/>
-    <col min="19" max="16384" width="9.1328125" style="81"/>
+    <col min="1" max="1" width="21.59765625" style="77" customWidth="1"/>
+    <col min="2" max="18" width="15.73046875" style="77" customWidth="1"/>
+    <col min="19" max="16384" width="9.1328125" style="77"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="82" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
     </row>
     <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="77" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="139" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="139" t="s">
+    <row r="4" spans="1:5" s="135" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="135" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.4">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="86" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.4">
-      <c r="A8" s="89"/>
-    </row>
-    <row r="9" spans="1:5" s="80" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
-      <c r="A9" s="81"/>
-      <c r="B9" s="82" t="s">
+      <c r="A8" s="85"/>
+    </row>
+    <row r="9" spans="1:5" s="76" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A9" s="77"/>
+      <c r="B9" s="78" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="134" t="s">
+      <c r="B10" s="130" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="135"/>
-    </row>
-    <row r="15" spans="1:5" s="82" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A15" s="138" t="s">
+      <c r="B11" s="131"/>
+    </row>
+    <row r="15" spans="1:5" s="78" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A15" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="80"/>
+      <c r="B15" s="76"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="77" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="77" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="82" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A19" s="82" t="s">
+    <row r="19" spans="1:9" s="78" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A19" s="78" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="79" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="82" t="s">
+      <c r="C21" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="82" t="s">
+      <c r="D21" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="82"/>
+      <c r="E21" s="78"/>
     </row>
     <row r="22" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="B22" s="134" t="s">
+      <c r="B22" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="134" t="s">
+      <c r="D22" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="136"/>
+      <c r="E22" s="132"/>
     </row>
     <row r="23" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="135"/>
-      <c r="C23" s="135"/>
-      <c r="D23" s="135"/>
-      <c r="E23" s="135"/>
-    </row>
-    <row r="25" spans="1:9" s="82" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A25" s="82" t="s">
+      <c r="B23" s="131"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+    </row>
+    <row r="25" spans="1:9" s="78" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A25" s="78" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="83"/>
+      <c r="F26" s="79"/>
     </row>
     <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="82" t="s">
+      <c r="B27" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="82" t="s">
+      <c r="C27" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="82" t="s">
+      <c r="D27" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="82" t="s">
+      <c r="E27" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
     </row>
     <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="81" t="s">
+      <c r="A28" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="134" t="s">
+      <c r="B28" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="134" t="s">
+      <c r="C28" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="134" t="s">
+      <c r="D28" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="134" t="s">
+      <c r="E28" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="136"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="135"/>
-      <c r="I28" s="135"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="131"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B29" s="135"/>
-      <c r="C29" s="135"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="135"/>
+      <c r="B29" s="131"/>
+      <c r="C29" s="131"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B30" s="135"/>
-      <c r="C30" s="135"/>
-      <c r="D30" s="135"/>
-      <c r="E30" s="135"/>
+      <c r="B30" s="131"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="131"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B31" s="135"/>
-      <c r="C31" s="135"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="135"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="131"/>
     </row>
     <row r="32" spans="1:9" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="78" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="83" t="s">
+      <c r="B34" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="83" t="s">
+      <c r="F34" s="79" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="82" t="s">
+      <c r="B35" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="82" t="s">
+      <c r="C35" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="82" t="s">
+      <c r="D35" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82" t="s">
+      <c r="E35" s="78"/>
+      <c r="F35" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="G35" s="82" t="s">
+      <c r="G35" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="H35" s="82" t="s">
+      <c r="H35" s="78" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="134" t="s">
+      <c r="B36" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="134" t="s">
+      <c r="C36" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="134" t="s">
+      <c r="D36" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="137"/>
-      <c r="F36" s="134" t="s">
+      <c r="E36" s="133"/>
+      <c r="F36" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="G36" s="134" t="s">
+      <c r="G36" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="H36" s="134" t="s">
+      <c r="H36" s="130" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="135"/>
-      <c r="C37" s="135"/>
-      <c r="D37" s="135"/>
-      <c r="E37" s="135"/>
-      <c r="F37" s="135"/>
-      <c r="G37" s="135"/>
-      <c r="H37" s="135"/>
+      <c r="B37" s="131"/>
+      <c r="C37" s="131"/>
+      <c r="D37" s="131"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="131"/>
     </row>
     <row r="39" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A39" s="82" t="s">
+      <c r="A39" s="78" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="83" t="s">
+      <c r="B41" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="F41" s="83" t="s">
+      <c r="F41" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="J41" s="83"/>
+      <c r="J41" s="79"/>
     </row>
     <row r="42" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="82" t="s">
+      <c r="B42" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="82" t="s">
+      <c r="C42" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="82" t="s">
+      <c r="D42" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="E42" s="82" t="s">
+      <c r="E42" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="82" t="s">
+      <c r="F42" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="82" t="s">
+      <c r="G42" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="H42" s="82" t="s">
+      <c r="H42" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="I42" s="82" t="s">
+      <c r="I42" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="J42" s="82"/>
-      <c r="K42" s="82"/>
-      <c r="L42" s="82"/>
-      <c r="M42" s="82"/>
+      <c r="J42" s="78"/>
+      <c r="K42" s="78"/>
+      <c r="L42" s="78"/>
+      <c r="M42" s="78"/>
     </row>
     <row r="43" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="81" t="s">
+      <c r="A43" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="B43" s="134" t="s">
+      <c r="B43" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="134" t="s">
+      <c r="C43" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="134" t="s">
+      <c r="D43" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="E43" s="134" t="s">
+      <c r="E43" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="134" t="s">
+      <c r="F43" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="G43" s="134" t="s">
+      <c r="G43" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="H43" s="134" t="s">
+      <c r="H43" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="I43" s="134" t="s">
+      <c r="I43" s="130" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="17.25" x14ac:dyDescent="0.45">
-      <c r="A46" s="80" t="s">
+      <c r="A46" s="76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="88" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A47" s="87" t="s">
+    <row r="47" spans="1:13" s="84" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A47" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="87" t="s">
+      <c r="B47" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="87" t="s">
+      <c r="C47" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="87" t="s">
+      <c r="D47" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="E47" s="87" t="s">
+      <c r="E47" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="F47" s="87" t="s">
+      <c r="F47" s="83" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="84" t="s">
+      <c r="B48" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="84" t="s">
+      <c r="C48" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D48" s="84" t="s">
+      <c r="D48" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="E48" s="84" t="s">
+      <c r="E48" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="F48" s="84" t="s">
+      <c r="F48" s="80" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:6" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="84"/>
-      <c r="B49" s="84"/>
-      <c r="C49" s="84"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="85" t="s">
+      <c r="A49" s="80"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="81" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="80" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
-      <c r="A52" s="80" t="s">
+    <row r="52" spans="1:6" s="76" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A52" s="76" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.4">
-      <c r="A53" s="89" t="s">
+    <row r="53" spans="1:6" s="78" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A53" s="85" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:6" customFormat="1" ht="15" x14ac:dyDescent="0.4">
-      <c r="A54" s="91" t="s">
+      <c r="A54" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="B54" s="92" t="s">
+      <c r="B54" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="92" t="s">
+      <c r="C54" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="D54" s="92" t="s">
+      <c r="D54" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="E54" s="92" t="s">
+      <c r="E54" s="88" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="93" t="s">
+      <c r="A55" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="B55" s="93" t="s">
+      <c r="B55" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="93" t="s">
+      <c r="C55" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="D55" s="93" t="s">
+      <c r="D55" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="E55" s="93" t="s">
+      <c r="E55" s="89" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="93"/>
-      <c r="B56" s="93" t="s">
+      <c r="A56" s="89"/>
+      <c r="B56" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="C56" s="95" t="s">
+      <c r="C56" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="D56" s="95" t="s">
+      <c r="D56" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="E56" s="93" t="s">
+      <c r="E56" s="89" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="94"/>
-      <c r="B57" s="94"/>
-      <c r="C57" s="94"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="94"/>
+      <c r="A57" s="90"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="90"/>
+      <c r="E57" s="90"/>
     </row>
     <row r="58" spans="1:6" customFormat="1" ht="15" x14ac:dyDescent="0.4">
-      <c r="A58" s="91" t="s">
+      <c r="A58" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="B58" s="92" t="s">
+      <c r="B58" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="92" t="s">
+      <c r="C58" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="92" t="s">
+      <c r="D58" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="E58" s="92" t="s">
+      <c r="E58" s="88" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="93" t="s">
+      <c r="A59" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="B59" s="93" t="s">
+      <c r="B59" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="C59" s="93" t="s">
+      <c r="C59" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="D59" s="93" t="s">
+      <c r="D59" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="E59" s="93" t="s">
+      <c r="E59" s="89" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="93"/>
-      <c r="B60" s="93" t="s">
+      <c r="A60" s="89"/>
+      <c r="B60" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="C60" s="95" t="s">
+      <c r="C60" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="D60" s="95" t="s">
+      <c r="D60" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="E60" s="93" t="s">
+      <c r="E60" s="89" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="93" t="s">
+      <c r="A61" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="93" t="s">
+      <c r="B61" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="C61" s="93" t="s">
+      <c r="C61" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="D61" s="93" t="s">
+      <c r="D61" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="E61" s="93" t="s">
+      <c r="E61" s="89" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="93"/>
-      <c r="B62" s="93" t="s">
+      <c r="A62" s="89"/>
+      <c r="B62" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="C62" s="95" t="s">
+      <c r="C62" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="D62" s="95" t="s">
+      <c r="D62" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="E62" s="93" t="s">
+      <c r="E62" s="89" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="90" customFormat="1" ht="15" x14ac:dyDescent="0.4">
-      <c r="A65" s="89" t="s">
+    <row r="65" spans="1:5" s="86" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A65" s="85" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:5" customFormat="1" ht="15" x14ac:dyDescent="0.4">
-      <c r="A66" s="91" t="s">
+      <c r="A66" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="B66" s="92" t="s">
+      <c r="B66" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="C66" s="92" t="s">
+      <c r="C66" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="D66" s="92" t="s">
+      <c r="D66" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="E66" s="92" t="s">
+      <c r="E66" s="88" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="93" t="s">
+      <c r="A67" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="B67" s="93" t="s">
+      <c r="B67" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="C67" s="93" t="s">
+      <c r="C67" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="D67" s="93" t="s">
+      <c r="D67" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="E67" s="93" t="s">
+      <c r="E67" s="89" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="93"/>
-      <c r="B68" s="93" t="s">
+      <c r="A68" s="89"/>
+      <c r="B68" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="C68" s="95" t="s">
+      <c r="C68" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="D68" s="95" t="s">
+      <c r="D68" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="E68" s="95" t="s">
+      <c r="E68" s="91" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:5" customFormat="1" ht="15" x14ac:dyDescent="0.4">
-      <c r="A70" s="91" t="s">
+      <c r="A70" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="B70" s="92" t="s">
+      <c r="B70" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="C70" s="92" t="s">
+      <c r="C70" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="D70" s="92" t="s">
+      <c r="D70" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="E70" s="92" t="s">
+      <c r="E70" s="88" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="93" t="s">
+      <c r="A71" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="B71" s="93" t="s">
+      <c r="B71" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="C71" s="93" t="s">
+      <c r="C71" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="D71" s="93" t="s">
+      <c r="D71" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="E71" s="93" t="s">
+      <c r="E71" s="89" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="93"/>
-      <c r="B72" s="93" t="s">
+      <c r="A72" s="89"/>
+      <c r="B72" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="C72" s="95" t="s">
+      <c r="C72" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="D72" s="95" t="s">
+      <c r="D72" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="E72" s="95" t="s">
+      <c r="E72" s="91" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="93" t="s">
+      <c r="A73" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="B73" s="93" t="s">
+      <c r="B73" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="C73" s="93" t="s">
+      <c r="C73" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="D73" s="93" t="s">
+      <c r="D73" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="E73" s="93" t="s">
+      <c r="E73" s="89" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="93"/>
-      <c r="B74" s="93" t="s">
+      <c r="A74" s="89"/>
+      <c r="B74" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="C74" s="95" t="s">
+      <c r="C74" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="D74" s="95" t="s">
+      <c r="D74" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="E74" s="95" t="s">
+      <c r="E74" s="91" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3959,162 +3970,162 @@
   </sheetPr>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13:K15"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.265625" style="101" customWidth="1"/>
-    <col min="2" max="3" width="9.1328125" style="101"/>
-    <col min="4" max="4" width="2.73046875" style="101" customWidth="1"/>
-    <col min="5" max="6" width="7.265625" style="101" customWidth="1"/>
-    <col min="7" max="7" width="6.86328125" style="101" customWidth="1"/>
-    <col min="8" max="8" width="6.59765625" style="101" customWidth="1"/>
-    <col min="9" max="9" width="6.1328125" style="101" customWidth="1"/>
-    <col min="10" max="11" width="7.265625" style="101" customWidth="1"/>
-    <col min="12" max="12" width="8.73046875" style="101" customWidth="1"/>
-    <col min="13" max="13" width="7.265625" style="101" customWidth="1"/>
-    <col min="14" max="16384" width="9.1328125" style="101"/>
+    <col min="1" max="1" width="8.265625" style="97" customWidth="1"/>
+    <col min="2" max="3" width="9.1328125" style="97"/>
+    <col min="4" max="4" width="2.73046875" style="97" customWidth="1"/>
+    <col min="5" max="6" width="7.265625" style="97" customWidth="1"/>
+    <col min="7" max="7" width="6.86328125" style="97" customWidth="1"/>
+    <col min="8" max="8" width="6.59765625" style="97" customWidth="1"/>
+    <col min="9" max="9" width="6.1328125" style="97" customWidth="1"/>
+    <col min="10" max="11" width="7.265625" style="97" customWidth="1"/>
+    <col min="12" max="12" width="8.73046875" style="97" customWidth="1"/>
+    <col min="13" max="13" width="7.265625" style="97" customWidth="1"/>
+    <col min="14" max="16384" width="9.1328125" style="97"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="132"/>
-      <c r="I2" s="131" t="s">
+      <c r="H2" s="128"/>
+      <c r="I2" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="133"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="132"/>
-      <c r="I3" s="131" t="s">
+      <c r="H3" s="128"/>
+      <c r="I3" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="133"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="234"/>
-      <c r="D4" s="234"/>
-      <c r="E4" s="234"/>
-      <c r="F4" s="234"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="131" t="s">
+      <c r="B4" s="104"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="133"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="128"/>
-      <c r="C5" s="222"/>
-      <c r="D5" s="222"/>
-      <c r="E5" s="222"/>
-      <c r="F5" s="222"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="131" t="s">
+      <c r="B5" s="124"/>
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="130"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="101" t="s">
+      <c r="H6" s="97" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="128" t="s">
+      <c r="A7" s="124" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="128"/>
-      <c r="C7" s="222"/>
-      <c r="D7" s="222"/>
-      <c r="E7" s="222"/>
-      <c r="F7" s="222"/>
-      <c r="H7" s="108" t="s">
+      <c r="B7" s="124"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="H7" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="I7" s="235"/>
-      <c r="J7" s="236"/>
-      <c r="K7" s="236"/>
-      <c r="L7" s="236"/>
+      <c r="I7" s="182"/>
+      <c r="J7" s="183"/>
+      <c r="K7" s="183"/>
+      <c r="L7" s="183"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="234"/>
-      <c r="D8" s="234"/>
-      <c r="E8" s="234"/>
-      <c r="F8" s="234"/>
-      <c r="H8" s="128" t="s">
+      <c r="B8" s="104"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="H8" s="124" t="s">
         <v>110</v>
       </c>
-      <c r="I8" s="237"/>
-      <c r="J8" s="238"/>
-      <c r="K8" s="238"/>
-      <c r="L8" s="238"/>
+      <c r="I8" s="184"/>
+      <c r="J8" s="185"/>
+      <c r="K8" s="185"/>
+      <c r="L8" s="185"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="128" t="s">
+      <c r="A9" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="128"/>
-      <c r="C9" s="222"/>
-      <c r="D9" s="222"/>
-      <c r="E9" s="222"/>
-      <c r="F9" s="222"/>
-      <c r="I9" s="223"/>
-      <c r="J9" s="224"/>
-      <c r="K9" s="224"/>
-      <c r="L9" s="224"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
+      <c r="I9" s="180"/>
+      <c r="J9" s="181"/>
+      <c r="K9" s="181"/>
+      <c r="L9" s="181"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="128" t="s">
+      <c r="A10" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="222"/>
-      <c r="D10" s="222"/>
-      <c r="E10" s="222"/>
-      <c r="F10" s="222"/>
-      <c r="I10" s="223"/>
-      <c r="J10" s="224"/>
-      <c r="K10" s="224"/>
-      <c r="L10" s="224"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="179"/>
+      <c r="D10" s="179"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="179"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="181"/>
+      <c r="K10" s="181"/>
+      <c r="L10" s="181"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I11" s="223"/>
-      <c r="J11" s="224"/>
-      <c r="K11" s="224"/>
-      <c r="L11" s="224"/>
+      <c r="I11" s="180"/>
+      <c r="J11" s="181"/>
+      <c r="K11" s="181"/>
+      <c r="L11" s="181"/>
     </row>
     <row r="12" spans="1:12" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A12" s="127" t="s">
+      <c r="A12" s="123" t="s">
         <v>85</v>
       </c>
       <c r="B12" s="33"/>
@@ -4123,470 +4134,472 @@
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
-      <c r="H12" s="225" t="s">
+      <c r="H12" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="226"/>
-      <c r="J12" s="227" t="s">
+      <c r="I12" s="196"/>
+      <c r="J12" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="228"/>
-      <c r="L12" s="229"/>
+      <c r="K12" s="198"/>
+      <c r="L12" s="199"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="194" t="s">
+      <c r="A13" s="186" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="213" t="s">
+      <c r="B13" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="213" t="s">
+      <c r="C13" s="189" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="213"/>
-      <c r="E13" s="213"/>
-      <c r="F13" s="199" t="s">
+      <c r="D13" s="189"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="191" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="231"/>
-      <c r="H13" s="232"/>
-      <c r="I13" s="233"/>
-      <c r="J13" s="219">
+      <c r="G13" s="192"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="194"/>
+      <c r="J13" s="211">
         <v>0.2</v>
       </c>
-      <c r="K13" s="208"/>
-      <c r="L13" s="211">
+      <c r="K13" s="200"/>
+      <c r="L13" s="203">
         <f>K13*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="230"/>
-      <c r="B14" s="213"/>
-      <c r="C14" s="213" t="s">
+      <c r="A14" s="187"/>
+      <c r="B14" s="189"/>
+      <c r="C14" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="213"/>
-      <c r="E14" s="213"/>
-      <c r="F14" s="214" t="s">
+      <c r="D14" s="189"/>
+      <c r="E14" s="189"/>
+      <c r="F14" s="205" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="215"/>
-      <c r="H14" s="201"/>
-      <c r="I14" s="202"/>
-      <c r="J14" s="220"/>
-      <c r="K14" s="209"/>
-      <c r="L14" s="211"/>
+      <c r="G14" s="206"/>
+      <c r="H14" s="207"/>
+      <c r="I14" s="208"/>
+      <c r="J14" s="212"/>
+      <c r="K14" s="201"/>
+      <c r="L14" s="203"/>
     </row>
     <row r="15" spans="1:12" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="195"/>
-      <c r="B15" s="216"/>
-      <c r="C15" s="216" t="s">
+      <c r="A15" s="188"/>
+      <c r="B15" s="190"/>
+      <c r="C15" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="216"/>
-      <c r="E15" s="216"/>
-      <c r="F15" s="214" t="s">
+      <c r="D15" s="190"/>
+      <c r="E15" s="190"/>
+      <c r="F15" s="205" t="s">
         <v>108</v>
       </c>
-      <c r="G15" s="215"/>
-      <c r="H15" s="217"/>
-      <c r="I15" s="218"/>
-      <c r="J15" s="221"/>
-      <c r="K15" s="210"/>
-      <c r="L15" s="212"/>
+      <c r="G15" s="206"/>
+      <c r="H15" s="209"/>
+      <c r="I15" s="210"/>
+      <c r="J15" s="213"/>
+      <c r="K15" s="202"/>
+      <c r="L15" s="204"/>
     </row>
     <row r="16" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="194" t="s">
+      <c r="A16" s="186" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="196" t="s">
+      <c r="B16" s="214" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="197"/>
-      <c r="D16" s="197"/>
-      <c r="E16" s="198"/>
-      <c r="F16" s="199" t="s">
+      <c r="C16" s="215"/>
+      <c r="D16" s="215"/>
+      <c r="E16" s="216"/>
+      <c r="F16" s="191" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="200"/>
-      <c r="H16" s="201"/>
-      <c r="I16" s="202"/>
-      <c r="J16" s="126">
+      <c r="G16" s="217"/>
+      <c r="H16" s="207"/>
+      <c r="I16" s="208"/>
+      <c r="J16" s="122">
         <v>0.4</v>
       </c>
-      <c r="K16" s="125"/>
-      <c r="L16" s="124">
+      <c r="K16" s="121"/>
+      <c r="L16" s="120">
         <f>K16*0.4</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="195"/>
-      <c r="B17" s="203" t="s">
+      <c r="A17" s="188"/>
+      <c r="B17" s="218" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="204"/>
-      <c r="D17" s="204"/>
-      <c r="E17" s="205"/>
-      <c r="F17" s="206" t="s">
+      <c r="C17" s="219"/>
+      <c r="D17" s="219"/>
+      <c r="E17" s="220"/>
+      <c r="F17" s="221" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="207"/>
-      <c r="H17" s="201"/>
-      <c r="I17" s="202"/>
-      <c r="J17" s="126">
+      <c r="G17" s="222"/>
+      <c r="H17" s="207"/>
+      <c r="I17" s="208"/>
+      <c r="J17" s="122">
         <v>0.4</v>
       </c>
-      <c r="K17" s="125"/>
-      <c r="L17" s="124">
+      <c r="K17" s="121"/>
+      <c r="L17" s="120">
         <f>K17*0.4</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="13.15" x14ac:dyDescent="0.3">
-      <c r="A18" s="123" t="s">
+      <c r="A18" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="182" t="s">
+      <c r="B18" s="223" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="183"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="183"/>
-      <c r="J18" s="184"/>
-      <c r="K18" s="122"/>
-      <c r="L18" s="121"/>
+      <c r="C18" s="224"/>
+      <c r="D18" s="224"/>
+      <c r="E18" s="224"/>
+      <c r="F18" s="224"/>
+      <c r="G18" s="224"/>
+      <c r="H18" s="224"/>
+      <c r="I18" s="224"/>
+      <c r="J18" s="225"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="117"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="L19" s="120">
+      <c r="H19" s="112"/>
+      <c r="I19" s="112"/>
+      <c r="L19" s="116">
         <f>(L13+L16+L17)-L18</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="119" t="s">
+      <c r="A20" s="115" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="185" t="s">
+      <c r="A21" s="226" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="186"/>
-      <c r="C21" s="186"/>
-      <c r="D21" s="186"/>
-      <c r="E21" s="186"/>
-      <c r="F21" s="186"/>
-      <c r="G21" s="186"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="186"/>
-      <c r="J21" s="186"/>
-      <c r="K21" s="186"/>
-      <c r="L21" s="187"/>
+      <c r="B21" s="227"/>
+      <c r="C21" s="227"/>
+      <c r="D21" s="227"/>
+      <c r="E21" s="227"/>
+      <c r="F21" s="227"/>
+      <c r="G21" s="227"/>
+      <c r="H21" s="227"/>
+      <c r="I21" s="227"/>
+      <c r="J21" s="227"/>
+      <c r="K21" s="227"/>
+      <c r="L21" s="228"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="188"/>
-      <c r="B22" s="189"/>
-      <c r="C22" s="189"/>
-      <c r="D22" s="189"/>
-      <c r="E22" s="189"/>
-      <c r="F22" s="189"/>
-      <c r="G22" s="189"/>
-      <c r="H22" s="189"/>
-      <c r="I22" s="189"/>
-      <c r="J22" s="189"/>
-      <c r="K22" s="189"/>
-      <c r="L22" s="190"/>
+      <c r="A22" s="229"/>
+      <c r="B22" s="230"/>
+      <c r="C22" s="230"/>
+      <c r="D22" s="230"/>
+      <c r="E22" s="230"/>
+      <c r="F22" s="230"/>
+      <c r="G22" s="230"/>
+      <c r="H22" s="230"/>
+      <c r="I22" s="230"/>
+      <c r="J22" s="230"/>
+      <c r="K22" s="230"/>
+      <c r="L22" s="231"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="188"/>
-      <c r="B23" s="189"/>
-      <c r="C23" s="189"/>
-      <c r="D23" s="189"/>
-      <c r="E23" s="189"/>
-      <c r="F23" s="189"/>
-      <c r="G23" s="189"/>
-      <c r="H23" s="189"/>
-      <c r="I23" s="189"/>
-      <c r="J23" s="189"/>
-      <c r="K23" s="189"/>
-      <c r="L23" s="190"/>
+      <c r="A23" s="229"/>
+      <c r="B23" s="230"/>
+      <c r="C23" s="230"/>
+      <c r="D23" s="230"/>
+      <c r="E23" s="230"/>
+      <c r="F23" s="230"/>
+      <c r="G23" s="230"/>
+      <c r="H23" s="230"/>
+      <c r="I23" s="230"/>
+      <c r="J23" s="230"/>
+      <c r="K23" s="230"/>
+      <c r="L23" s="231"/>
     </row>
     <row r="24" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="188"/>
-      <c r="B24" s="189"/>
-      <c r="C24" s="189"/>
-      <c r="D24" s="189"/>
-      <c r="E24" s="189"/>
-      <c r="F24" s="189"/>
-      <c r="G24" s="189"/>
-      <c r="H24" s="189"/>
-      <c r="I24" s="189"/>
-      <c r="J24" s="189"/>
-      <c r="K24" s="189"/>
-      <c r="L24" s="190"/>
+      <c r="A24" s="229"/>
+      <c r="B24" s="230"/>
+      <c r="C24" s="230"/>
+      <c r="D24" s="230"/>
+      <c r="E24" s="230"/>
+      <c r="F24" s="230"/>
+      <c r="G24" s="230"/>
+      <c r="H24" s="230"/>
+      <c r="I24" s="230"/>
+      <c r="J24" s="230"/>
+      <c r="K24" s="230"/>
+      <c r="L24" s="231"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="191"/>
-      <c r="B25" s="192"/>
-      <c r="C25" s="192"/>
-      <c r="D25" s="192"/>
-      <c r="E25" s="192"/>
-      <c r="F25" s="192"/>
-      <c r="G25" s="192"/>
-      <c r="H25" s="192"/>
-      <c r="I25" s="192"/>
-      <c r="J25" s="192"/>
-      <c r="K25" s="192"/>
-      <c r="L25" s="193"/>
+      <c r="A25" s="232"/>
+      <c r="B25" s="233"/>
+      <c r="C25" s="233"/>
+      <c r="D25" s="233"/>
+      <c r="E25" s="233"/>
+      <c r="F25" s="233"/>
+      <c r="G25" s="233"/>
+      <c r="H25" s="233"/>
+      <c r="I25" s="233"/>
+      <c r="J25" s="233"/>
+      <c r="K25" s="233"/>
+      <c r="L25" s="234"/>
     </row>
     <row r="27" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="179" t="s">
+      <c r="A27" s="235" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="179"/>
-      <c r="C27" s="179"/>
-      <c r="D27" s="179"/>
-      <c r="E27" s="179"/>
-      <c r="F27" s="179"/>
-      <c r="G27" s="179"/>
-      <c r="H27" s="179"/>
-      <c r="I27" s="180"/>
-      <c r="J27" s="180"/>
-      <c r="K27" s="118" t="s">
+      <c r="B27" s="235"/>
+      <c r="C27" s="235"/>
+      <c r="D27" s="235"/>
+      <c r="E27" s="235"/>
+      <c r="F27" s="235"/>
+      <c r="G27" s="235"/>
+      <c r="H27" s="235"/>
+      <c r="I27" s="236"/>
+      <c r="J27" s="236"/>
+      <c r="K27" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="L27" s="113">
+      <c r="L27" s="109">
         <f>I27*1.5</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="179" t="s">
+      <c r="A28" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="179"/>
-      <c r="C28" s="179"/>
-      <c r="D28" s="179"/>
-      <c r="E28" s="179"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="179"/>
-      <c r="H28" s="179"/>
-      <c r="I28" s="180"/>
-      <c r="J28" s="180"/>
-      <c r="K28" s="117" t="s">
+      <c r="B28" s="235"/>
+      <c r="C28" s="235"/>
+      <c r="D28" s="235"/>
+      <c r="E28" s="235"/>
+      <c r="F28" s="235"/>
+      <c r="G28" s="235"/>
+      <c r="H28" s="235"/>
+      <c r="I28" s="236"/>
+      <c r="J28" s="236"/>
+      <c r="K28" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="L28" s="113">
+      <c r="L28" s="109">
         <f>I28*1.5</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="179" t="s">
+      <c r="A29" s="235" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="179"/>
-      <c r="C29" s="179"/>
-      <c r="D29" s="179"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="179"/>
-      <c r="H29" s="179"/>
-      <c r="I29" s="180"/>
-      <c r="J29" s="180"/>
-      <c r="K29" s="117" t="s">
+      <c r="B29" s="235"/>
+      <c r="C29" s="235"/>
+      <c r="D29" s="235"/>
+      <c r="E29" s="235"/>
+      <c r="F29" s="235"/>
+      <c r="G29" s="235"/>
+      <c r="H29" s="235"/>
+      <c r="I29" s="236"/>
+      <c r="J29" s="236"/>
+      <c r="K29" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="L29" s="113">
+      <c r="L29" s="109">
         <f>I29*2.5</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="179" t="s">
+      <c r="A30" s="235" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="179"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="179"/>
-      <c r="H30" s="179"/>
-      <c r="I30" s="180"/>
-      <c r="J30" s="180"/>
-      <c r="K30" s="117" t="s">
+      <c r="B30" s="235"/>
+      <c r="C30" s="235"/>
+      <c r="D30" s="235"/>
+      <c r="E30" s="235"/>
+      <c r="F30" s="235"/>
+      <c r="G30" s="235"/>
+      <c r="H30" s="235"/>
+      <c r="I30" s="236"/>
+      <c r="J30" s="236"/>
+      <c r="K30" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="L30" s="113">
+      <c r="L30" s="109">
         <f>I30*2</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="179" t="s">
+      <c r="A31" s="235" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="179"/>
-      <c r="C31" s="179"/>
-      <c r="D31" s="179"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="179"/>
-      <c r="H31" s="179"/>
-      <c r="I31" s="181">
+      <c r="B31" s="235"/>
+      <c r="C31" s="235"/>
+      <c r="D31" s="235"/>
+      <c r="E31" s="235"/>
+      <c r="F31" s="235"/>
+      <c r="G31" s="235"/>
+      <c r="H31" s="235"/>
+      <c r="I31" s="240">
         <f>L19</f>
         <v>0</v>
       </c>
-      <c r="J31" s="181"/>
-      <c r="K31" s="117" t="s">
+      <c r="J31" s="240"/>
+      <c r="K31" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="L31" s="113">
+      <c r="L31" s="109">
         <f>I31*2.5</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F32" s="111"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="115"/>
-      <c r="K32" s="114" t="s">
+      <c r="F32" s="107"/>
+      <c r="I32" s="112"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="L32" s="113">
+      <c r="L32" s="109">
         <f>(L27+L28+L29+L30+L31)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F33" s="176" t="s">
+      <c r="F33" s="237" t="s">
         <v>93</v>
       </c>
-      <c r="G33" s="177"/>
-      <c r="H33" s="177"/>
-      <c r="I33" s="177"/>
-      <c r="J33" s="177"/>
-      <c r="K33" s="178"/>
-      <c r="L33" s="112">
+      <c r="G33" s="238"/>
+      <c r="H33" s="238"/>
+      <c r="I33" s="238"/>
+      <c r="J33" s="238"/>
+      <c r="K33" s="239"/>
+      <c r="L33" s="108">
         <f>L32/10</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="111"/>
-      <c r="J34" s="111"/>
-      <c r="K34" s="111"/>
-      <c r="L34" s="110"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="107"/>
+      <c r="K34" s="107"/>
+      <c r="L34" s="106"/>
     </row>
     <row r="35" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="F35" s="111"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="111"/>
-      <c r="J35" s="111"/>
-      <c r="K35" s="111"/>
-      <c r="L35" s="110"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="107"/>
+      <c r="I35" s="107"/>
+      <c r="J35" s="107"/>
+      <c r="K35" s="107"/>
+      <c r="L35" s="106"/>
     </row>
     <row r="36" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="F36" s="111"/>
-      <c r="G36" s="111"/>
-      <c r="H36" s="111"/>
-      <c r="I36" s="111"/>
-      <c r="J36" s="111"/>
-      <c r="K36" s="111"/>
-      <c r="L36" s="110"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="107"/>
+      <c r="L36" s="106"/>
     </row>
     <row r="37" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="F37" s="111"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="111"/>
-      <c r="I37" s="111"/>
-      <c r="J37" s="111"/>
-      <c r="K37" s="111"/>
-      <c r="L37" s="110"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="107"/>
+      <c r="K37" s="107"/>
+      <c r="L37" s="106"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F38" s="107"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="105"/>
-      <c r="K38" s="104"/>
-      <c r="L38" s="103"/>
+      <c r="F38" s="103"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="102"/>
+      <c r="J38" s="101"/>
+      <c r="K38" s="100"/>
+      <c r="L38" s="99"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="108" t="s">
+      <c r="A40" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="109"/>
-      <c r="C40" s="109"/>
-      <c r="D40" s="109"/>
-      <c r="E40" s="109"/>
-      <c r="F40" s="107"/>
-      <c r="H40" s="108" t="s">
+      <c r="B40" s="105"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="103"/>
+      <c r="H40" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="I40" s="108"/>
-      <c r="J40" s="108"/>
-      <c r="K40" s="108"/>
-      <c r="L40" s="108"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="104"/>
+      <c r="K40" s="104"/>
+      <c r="L40" s="104"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F41" s="107"/>
-      <c r="H41" s="106"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="105"/>
-      <c r="K41" s="104"/>
-      <c r="L41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="101"/>
+      <c r="K41" s="100"/>
+      <c r="L41" s="99"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="102"/>
-      <c r="B42" s="102"/>
-      <c r="C42" s="102"/>
-      <c r="D42" s="102"/>
-      <c r="E42" s="102"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="102"/>
-      <c r="H42" s="102"/>
-      <c r="I42" s="102"/>
-      <c r="J42" s="102"/>
-      <c r="K42" s="102"/>
-      <c r="L42" s="102"/>
+      <c r="A42" s="98"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="98"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="98"/>
+      <c r="G42" s="98"/>
+      <c r="H42" s="98"/>
+      <c r="I42" s="98"/>
+      <c r="J42" s="98"/>
+      <c r="K42" s="98"/>
+      <c r="L42" s="98"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K43" s="140"/>
+      <c r="K43" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="A21:L25"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
     <mergeCell ref="K13:K15"/>
     <mergeCell ref="L13:L15"/>
     <mergeCell ref="C14:E14"/>
@@ -4596,26 +4609,24 @@
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J13:J15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="A21:L25"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I8:L8"/>
   </mergeCells>
   <conditionalFormatting sqref="K13:K18 L13:L37 I27:J31">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="notBetween">
@@ -4650,7 +4661,7 @@
   </sheetPr>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -4666,490 +4677,490 @@
     <col min="8" max="8" width="7" style="33" customWidth="1"/>
     <col min="9" max="9" width="7.46484375" style="33" customWidth="1"/>
     <col min="10" max="10" width="5.73046875" style="33" customWidth="1"/>
-    <col min="11" max="11" width="7.19921875" style="50" customWidth="1"/>
+    <col min="11" max="11" width="7.19921875" style="46" customWidth="1"/>
     <col min="12" max="12" width="8.73046875" style="33" customWidth="1"/>
     <col min="13" max="13" width="7.265625" style="33" customWidth="1"/>
     <col min="14" max="16384" width="9.19921875" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="142"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="144" t="s">
+      <c r="F1" s="138"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="145"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="147"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="143"/>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="143"/>
-      <c r="I2" s="144" t="s">
+      <c r="H2" s="139"/>
+      <c r="I2" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="145"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="147"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="143"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="144" t="s">
+      <c r="B3" s="144"/>
+      <c r="C3" s="317"/>
+      <c r="D3" s="317"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="145"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="147"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="143"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="150"/>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="239"/>
-      <c r="F4" s="239"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="144" t="s">
+      <c r="B4" s="146"/>
+      <c r="C4" s="316"/>
+      <c r="D4" s="316"/>
+      <c r="E4" s="316"/>
+      <c r="F4" s="316"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="151"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="147"/>
-    </row>
-    <row r="5" spans="1:12" s="152" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="150" t="s">
+      <c r="J4" s="147"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="143"/>
+    </row>
+    <row r="5" spans="1:12" s="148" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="146" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="150"/>
-      <c r="C5" s="239"/>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="239"/>
-      <c r="K5" s="50"/>
-    </row>
-    <row r="6" spans="1:12" s="152" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="150" t="s">
+      <c r="B5" s="146"/>
+      <c r="C5" s="316"/>
+      <c r="D5" s="316"/>
+      <c r="E5" s="316"/>
+      <c r="F5" s="316"/>
+      <c r="K5" s="46"/>
+    </row>
+    <row r="6" spans="1:12" s="148" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="150"/>
-      <c r="C6" s="153"/>
-      <c r="D6" s="153"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="153"/>
-    </row>
-    <row r="7" spans="1:12" s="152" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="148" t="s">
+      <c r="B6" s="146"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+    </row>
+    <row r="7" spans="1:12" s="148" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="148"/>
-      <c r="C7" s="239"/>
-      <c r="D7" s="239"/>
-      <c r="E7" s="239"/>
-      <c r="F7" s="239"/>
-      <c r="H7" s="148" t="s">
+      <c r="B7" s="144"/>
+      <c r="C7" s="316"/>
+      <c r="D7" s="316"/>
+      <c r="E7" s="316"/>
+      <c r="F7" s="316"/>
+      <c r="H7" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="148"/>
-      <c r="J7" s="149"/>
-      <c r="K7" s="149"/>
-      <c r="L7" s="154"/>
-    </row>
-    <row r="8" spans="1:12" s="152" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="150" t="s">
+      <c r="I7" s="144"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="150"/>
+    </row>
+    <row r="8" spans="1:12" s="148" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="150"/>
-      <c r="C8" s="239"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="239"/>
-      <c r="F8" s="239"/>
-      <c r="H8" s="150" t="s">
+      <c r="B8" s="146"/>
+      <c r="C8" s="316"/>
+      <c r="D8" s="316"/>
+      <c r="E8" s="316"/>
+      <c r="F8" s="316"/>
+      <c r="H8" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="150"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="155"/>
-      <c r="L8" s="154"/>
-    </row>
-    <row r="9" spans="1:12" s="152" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="150" t="s">
+      <c r="I8" s="146"/>
+      <c r="J8" s="151"/>
+      <c r="K8" s="151"/>
+      <c r="L8" s="150"/>
+    </row>
+    <row r="9" spans="1:12" s="148" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="150"/>
-      <c r="C9" s="239"/>
-      <c r="D9" s="239"/>
-      <c r="E9" s="239"/>
-      <c r="F9" s="239"/>
-      <c r="K9" s="50"/>
-    </row>
-    <row r="10" spans="1:12" s="152" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="K10" s="50"/>
-    </row>
-    <row r="11" spans="1:12" s="152" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="156"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="H11" s="241" t="s">
+      <c r="B9" s="146"/>
+      <c r="C9" s="316"/>
+      <c r="D9" s="316"/>
+      <c r="E9" s="316"/>
+      <c r="F9" s="316"/>
+      <c r="K9" s="46"/>
+    </row>
+    <row r="10" spans="1:12" s="148" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="152"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="152"/>
+      <c r="K10" s="46"/>
+    </row>
+    <row r="11" spans="1:12" s="148" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="152"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="152"/>
+      <c r="H11" s="290" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="242"/>
-      <c r="J11" s="243" t="s">
+      <c r="I11" s="291"/>
+      <c r="J11" s="292" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="244"/>
-      <c r="L11" s="245"/>
+      <c r="K11" s="293"/>
+      <c r="L11" s="294"/>
     </row>
     <row r="12" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="246" t="s">
+      <c r="A12" s="295" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="250" t="s">
+      <c r="B12" s="299" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="251"/>
-      <c r="D12" s="251"/>
-      <c r="E12" s="251"/>
-      <c r="F12" s="251"/>
-      <c r="G12" s="251"/>
-      <c r="H12" s="254"/>
-      <c r="I12" s="255"/>
-      <c r="J12" s="260" t="s">
+      <c r="C12" s="300"/>
+      <c r="D12" s="300"/>
+      <c r="E12" s="300"/>
+      <c r="F12" s="300"/>
+      <c r="G12" s="300"/>
+      <c r="H12" s="303"/>
+      <c r="I12" s="304"/>
+      <c r="J12" s="309" t="s">
         <v>125</v>
       </c>
-      <c r="K12" s="334">
+      <c r="K12" s="311">
         <f>SUM(B17:G17)/6</f>
         <v>0</v>
       </c>
-      <c r="L12" s="337">
+      <c r="L12" s="314">
         <f>ROUND(K12*0.6,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="247"/>
-      <c r="B13" s="252"/>
-      <c r="C13" s="253"/>
-      <c r="D13" s="253"/>
-      <c r="E13" s="253"/>
-      <c r="F13" s="253"/>
-      <c r="G13" s="253"/>
-      <c r="H13" s="256"/>
-      <c r="I13" s="257"/>
-      <c r="J13" s="261"/>
-      <c r="K13" s="335"/>
-      <c r="L13" s="338"/>
+      <c r="A13" s="296"/>
+      <c r="B13" s="301"/>
+      <c r="C13" s="302"/>
+      <c r="D13" s="302"/>
+      <c r="E13" s="302"/>
+      <c r="F13" s="302"/>
+      <c r="G13" s="302"/>
+      <c r="H13" s="305"/>
+      <c r="I13" s="306"/>
+      <c r="J13" s="279"/>
+      <c r="K13" s="312"/>
+      <c r="L13" s="281"/>
     </row>
     <row r="14" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="247"/>
-      <c r="B14" s="252"/>
-      <c r="C14" s="253"/>
-      <c r="D14" s="253"/>
-      <c r="E14" s="253"/>
-      <c r="F14" s="253"/>
-      <c r="G14" s="253"/>
-      <c r="H14" s="256"/>
-      <c r="I14" s="257"/>
-      <c r="J14" s="261"/>
-      <c r="K14" s="335"/>
-      <c r="L14" s="338"/>
+      <c r="A14" s="296"/>
+      <c r="B14" s="301"/>
+      <c r="C14" s="302"/>
+      <c r="D14" s="302"/>
+      <c r="E14" s="302"/>
+      <c r="F14" s="302"/>
+      <c r="G14" s="302"/>
+      <c r="H14" s="305"/>
+      <c r="I14" s="306"/>
+      <c r="J14" s="279"/>
+      <c r="K14" s="312"/>
+      <c r="L14" s="281"/>
     </row>
     <row r="15" spans="1:12" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="247"/>
-      <c r="B15" s="252"/>
-      <c r="C15" s="253"/>
-      <c r="D15" s="253"/>
-      <c r="E15" s="253"/>
-      <c r="F15" s="253"/>
-      <c r="G15" s="253"/>
-      <c r="H15" s="256"/>
-      <c r="I15" s="257"/>
-      <c r="J15" s="261"/>
-      <c r="K15" s="335"/>
-      <c r="L15" s="338"/>
+      <c r="A15" s="296"/>
+      <c r="B15" s="301"/>
+      <c r="C15" s="302"/>
+      <c r="D15" s="302"/>
+      <c r="E15" s="302"/>
+      <c r="F15" s="302"/>
+      <c r="G15" s="302"/>
+      <c r="H15" s="305"/>
+      <c r="I15" s="306"/>
+      <c r="J15" s="279"/>
+      <c r="K15" s="312"/>
+      <c r="L15" s="281"/>
     </row>
     <row r="16" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="248"/>
-      <c r="B16" s="157" t="s">
+      <c r="A16" s="297"/>
+      <c r="B16" s="153" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="158" t="s">
+      <c r="C16" s="154" t="s">
         <v>127</v>
       </c>
-      <c r="D16" s="159" t="s">
+      <c r="D16" s="155" t="s">
         <v>128</v>
       </c>
-      <c r="E16" s="158" t="s">
+      <c r="E16" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="F16" s="158" t="s">
+      <c r="F16" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="G16" s="160" t="s">
+      <c r="G16" s="156" t="s">
         <v>131</v>
       </c>
-      <c r="H16" s="256"/>
-      <c r="I16" s="257"/>
-      <c r="J16" s="261"/>
-      <c r="K16" s="335"/>
-      <c r="L16" s="338"/>
+      <c r="H16" s="305"/>
+      <c r="I16" s="306"/>
+      <c r="J16" s="279"/>
+      <c r="K16" s="312"/>
+      <c r="L16" s="281"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="249"/>
-      <c r="B17" s="161"/>
-      <c r="C17" s="162"/>
-      <c r="D17" s="162"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="162"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="258"/>
-      <c r="I17" s="259"/>
-      <c r="J17" s="262"/>
-      <c r="K17" s="336"/>
-      <c r="L17" s="339"/>
+      <c r="A17" s="298"/>
+      <c r="B17" s="157"/>
+      <c r="C17" s="158"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="307"/>
+      <c r="I17" s="308"/>
+      <c r="J17" s="310"/>
+      <c r="K17" s="313"/>
+      <c r="L17" s="315"/>
     </row>
     <row r="18" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="265"/>
-      <c r="B18" s="268" t="s">
+      <c r="A18" s="255"/>
+      <c r="B18" s="258" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="268"/>
-      <c r="D18" s="268"/>
-      <c r="E18" s="268"/>
-      <c r="F18" s="268"/>
-      <c r="G18" s="268"/>
-      <c r="H18" s="271"/>
-      <c r="I18" s="272"/>
-      <c r="J18" s="327" t="s">
+      <c r="C18" s="258"/>
+      <c r="D18" s="258"/>
+      <c r="E18" s="258"/>
+      <c r="F18" s="258"/>
+      <c r="G18" s="258"/>
+      <c r="H18" s="261"/>
+      <c r="I18" s="262"/>
+      <c r="J18" s="267" t="s">
         <v>1</v>
       </c>
-      <c r="K18" s="328">
+      <c r="K18" s="241">
         <f>SUMPRODUCT(B23:G23,B22:G22)</f>
         <v>0</v>
       </c>
-      <c r="L18" s="331">
+      <c r="L18" s="270">
         <f>IF((K18-K25)&gt;=0,(ROUND((K18-K25)*0.25,3)),0.00000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="266"/>
-      <c r="B19" s="269"/>
-      <c r="C19" s="269"/>
-      <c r="D19" s="269"/>
-      <c r="E19" s="269"/>
-      <c r="F19" s="269"/>
-      <c r="G19" s="269"/>
-      <c r="H19" s="273"/>
-      <c r="I19" s="274"/>
-      <c r="J19" s="304"/>
-      <c r="K19" s="329"/>
-      <c r="L19" s="332"/>
+      <c r="A19" s="256"/>
+      <c r="B19" s="259"/>
+      <c r="C19" s="259"/>
+      <c r="D19" s="259"/>
+      <c r="E19" s="259"/>
+      <c r="F19" s="259"/>
+      <c r="G19" s="259"/>
+      <c r="H19" s="263"/>
+      <c r="I19" s="264"/>
+      <c r="J19" s="268"/>
+      <c r="K19" s="242"/>
+      <c r="L19" s="271"/>
     </row>
     <row r="20" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="266"/>
-      <c r="B20" s="270"/>
-      <c r="C20" s="270"/>
-      <c r="D20" s="270"/>
-      <c r="E20" s="270"/>
-      <c r="F20" s="270"/>
-      <c r="G20" s="269"/>
-      <c r="H20" s="273"/>
-      <c r="I20" s="274"/>
-      <c r="J20" s="304"/>
-      <c r="K20" s="329"/>
-      <c r="L20" s="332"/>
+      <c r="A20" s="256"/>
+      <c r="B20" s="260"/>
+      <c r="C20" s="260"/>
+      <c r="D20" s="260"/>
+      <c r="E20" s="260"/>
+      <c r="F20" s="260"/>
+      <c r="G20" s="259"/>
+      <c r="H20" s="263"/>
+      <c r="I20" s="264"/>
+      <c r="J20" s="268"/>
+      <c r="K20" s="242"/>
+      <c r="L20" s="271"/>
     </row>
     <row r="21" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="266"/>
-      <c r="B21" s="305" t="s">
+      <c r="A21" s="256"/>
+      <c r="B21" s="282" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="306"/>
-      <c r="D21" s="307" t="s">
+      <c r="C21" s="283"/>
+      <c r="D21" s="284" t="s">
         <v>149</v>
       </c>
-      <c r="E21" s="308"/>
-      <c r="F21" s="309" t="s">
+      <c r="E21" s="285"/>
+      <c r="F21" s="286" t="s">
         <v>150</v>
       </c>
-      <c r="G21" s="310"/>
-      <c r="H21" s="273"/>
-      <c r="I21" s="274"/>
-      <c r="J21" s="304"/>
-      <c r="K21" s="329"/>
-      <c r="L21" s="332"/>
+      <c r="G21" s="287"/>
+      <c r="H21" s="263"/>
+      <c r="I21" s="264"/>
+      <c r="J21" s="268"/>
+      <c r="K21" s="242"/>
+      <c r="L21" s="271"/>
     </row>
     <row r="22" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="266"/>
-      <c r="B22" s="311">
+      <c r="A22" s="256"/>
+      <c r="B22" s="288">
         <v>0.5</v>
       </c>
-      <c r="C22" s="312"/>
-      <c r="D22" s="313">
+      <c r="C22" s="289"/>
+      <c r="D22" s="244">
         <v>0.25</v>
       </c>
-      <c r="E22" s="314"/>
-      <c r="F22" s="315">
+      <c r="E22" s="245"/>
+      <c r="F22" s="246">
         <v>0.25</v>
       </c>
-      <c r="G22" s="316"/>
-      <c r="H22" s="273"/>
-      <c r="I22" s="274"/>
-      <c r="J22" s="304"/>
-      <c r="K22" s="329"/>
-      <c r="L22" s="332"/>
+      <c r="G22" s="247"/>
+      <c r="H22" s="263"/>
+      <c r="I22" s="264"/>
+      <c r="J22" s="268"/>
+      <c r="K22" s="242"/>
+      <c r="L22" s="271"/>
     </row>
     <row r="23" spans="1:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="266"/>
-      <c r="B23" s="317"/>
-      <c r="C23" s="318"/>
-      <c r="D23" s="319"/>
-      <c r="E23" s="320"/>
-      <c r="F23" s="318"/>
-      <c r="G23" s="321"/>
-      <c r="H23" s="273"/>
-      <c r="I23" s="274"/>
-      <c r="J23" s="304"/>
-      <c r="K23" s="330"/>
-      <c r="L23" s="332"/>
+      <c r="A23" s="256"/>
+      <c r="B23" s="248"/>
+      <c r="C23" s="249"/>
+      <c r="D23" s="250"/>
+      <c r="E23" s="251"/>
+      <c r="F23" s="249"/>
+      <c r="G23" s="252"/>
+      <c r="H23" s="263"/>
+      <c r="I23" s="264"/>
+      <c r="J23" s="268"/>
+      <c r="K23" s="243"/>
+      <c r="L23" s="271"/>
     </row>
     <row r="24" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="266"/>
-      <c r="B24" s="322"/>
-      <c r="C24" s="323"/>
-      <c r="D24" s="324"/>
-      <c r="E24" s="324"/>
-      <c r="F24" s="323"/>
-      <c r="G24" s="325"/>
-      <c r="H24" s="273"/>
-      <c r="I24" s="274"/>
-      <c r="J24" s="304"/>
-      <c r="K24" s="326"/>
-      <c r="L24" s="332"/>
+      <c r="A24" s="256"/>
+      <c r="B24" s="172"/>
+      <c r="C24" s="173"/>
+      <c r="D24" s="174"/>
+      <c r="E24" s="174"/>
+      <c r="F24" s="173"/>
+      <c r="G24" s="175"/>
+      <c r="H24" s="263"/>
+      <c r="I24" s="264"/>
+      <c r="J24" s="268"/>
+      <c r="K24" s="176"/>
+      <c r="L24" s="271"/>
     </row>
     <row r="25" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="267"/>
-      <c r="B25" s="164" t="s">
+      <c r="A25" s="257"/>
+      <c r="B25" s="160" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="165">
+      <c r="C25" s="161">
         <v>0</v>
       </c>
-      <c r="D25" s="165">
+      <c r="D25" s="161">
         <v>0</v>
       </c>
-      <c r="E25" s="165">
+      <c r="E25" s="161">
         <v>0</v>
       </c>
-      <c r="F25" s="165">
+      <c r="F25" s="161">
         <v>0</v>
       </c>
-      <c r="G25" s="165"/>
-      <c r="H25" s="275"/>
-      <c r="I25" s="276"/>
-      <c r="J25" s="277"/>
-      <c r="K25" s="166">
+      <c r="G25" s="161"/>
+      <c r="H25" s="265"/>
+      <c r="I25" s="266"/>
+      <c r="J25" s="269"/>
+      <c r="K25" s="162">
         <f>SUM(C25:G25)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="333"/>
+      <c r="L25" s="272"/>
     </row>
     <row r="26" spans="1:12" ht="87.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="265" t="s">
+      <c r="A26" s="255" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="268" t="s">
+      <c r="B26" s="258" t="s">
         <v>134</v>
       </c>
-      <c r="C26" s="278"/>
-      <c r="D26" s="278"/>
-      <c r="E26" s="278"/>
-      <c r="F26" s="278"/>
-      <c r="G26" s="279"/>
-      <c r="H26" s="280"/>
-      <c r="I26" s="281"/>
-      <c r="J26" s="261" t="s">
+      <c r="C26" s="273"/>
+      <c r="D26" s="273"/>
+      <c r="E26" s="273"/>
+      <c r="F26" s="273"/>
+      <c r="G26" s="274"/>
+      <c r="H26" s="275"/>
+      <c r="I26" s="276"/>
+      <c r="J26" s="279" t="s">
         <v>135</v>
       </c>
-      <c r="K26" s="340"/>
-      <c r="L26" s="338">
+      <c r="K26" s="177"/>
+      <c r="L26" s="281">
         <f>IF((K26-K27)&gt;=0, ROUND((K26-K27)*0.15,3),0.000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="267"/>
-      <c r="B27" s="167" t="s">
+      <c r="A27" s="257"/>
+      <c r="B27" s="163" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="165">
+      <c r="C27" s="161">
         <v>0</v>
       </c>
-      <c r="D27" s="165">
+      <c r="D27" s="161">
         <v>0</v>
       </c>
-      <c r="E27" s="165">
+      <c r="E27" s="161">
         <v>0</v>
       </c>
-      <c r="F27" s="165">
+      <c r="F27" s="161">
         <v>0</v>
       </c>
-      <c r="G27" s="165"/>
-      <c r="H27" s="282"/>
-      <c r="I27" s="283"/>
-      <c r="J27" s="284"/>
-      <c r="K27" s="166">
+      <c r="G27" s="161"/>
+      <c r="H27" s="277"/>
+      <c r="I27" s="278"/>
+      <c r="J27" s="280"/>
+      <c r="K27" s="162">
         <f>SUM(C27:G27)</f>
         <v>0</v>
       </c>
-      <c r="L27" s="333"/>
+      <c r="L27" s="272"/>
     </row>
     <row r="28" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="168"/>
-      <c r="B28" s="168"/>
-      <c r="C28" s="168"/>
-      <c r="D28" s="168"/>
-      <c r="E28" s="168"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="168"/>
-      <c r="H28" s="168"/>
+      <c r="A28" s="164"/>
+      <c r="B28" s="164"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="164"/>
+      <c r="F28" s="164"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="164"/>
     </row>
     <row r="29" spans="1:12" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I29" s="23" t="s">
         <v>2</v>
       </c>
       <c r="J29" s="24"/>
-      <c r="K29" s="263">
+      <c r="K29" s="253">
         <f>SUM(L12:L26)</f>
         <v>0</v>
       </c>
-      <c r="L29" s="264"/>
+      <c r="L29" s="254"/>
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I30" s="127"/>
-      <c r="J30" s="127"/>
-      <c r="K30" s="170"/>
-      <c r="L30" s="170"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="123"/>
+      <c r="K30" s="166"/>
+      <c r="L30" s="166"/>
     </row>
     <row r="31" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5167,18 +5178,26 @@
       </c>
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
-      <c r="K34" s="169"/>
+      <c r="K34" s="165"/>
       <c r="L34" s="25"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="35">
-    <mergeCell ref="K18:K23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:G15"/>
+    <mergeCell ref="H12:I17"/>
+    <mergeCell ref="J12:J17"/>
+    <mergeCell ref="K12:K17"/>
+    <mergeCell ref="L12:L17"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="A18:A25"/>
     <mergeCell ref="B18:G20"/>
@@ -5194,20 +5213,12 @@
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:G15"/>
-    <mergeCell ref="H12:I17"/>
-    <mergeCell ref="J12:J17"/>
-    <mergeCell ref="K12:K17"/>
-    <mergeCell ref="L12:L17"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="K18:K23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
@@ -5226,8 +5237,8 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -5276,7 +5287,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="96"/>
+      <c r="C4" s="92"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
       <c r="F4" s="34"/>
@@ -5293,10 +5304,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="285"/>
-      <c r="D5" s="285"/>
-      <c r="E5" s="285"/>
-      <c r="F5" s="285"/>
+      <c r="C5" s="318"/>
+      <c r="D5" s="318"/>
+      <c r="E5" s="318"/>
+      <c r="F5" s="318"/>
       <c r="H5" s="28"/>
       <c r="I5" s="29" t="s">
         <v>4</v>
@@ -5306,15 +5317,15 @@
       <c r="L5" s="31"/>
     </row>
     <row r="6" spans="1:13" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="40"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
@@ -5325,17 +5336,17 @@
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
-      <c r="M7" s="71"/>
+      <c r="M7" s="67"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="288"/>
-      <c r="D8" s="288"/>
-      <c r="E8" s="288"/>
-      <c r="F8" s="288"/>
+      <c r="C8" s="321"/>
+      <c r="D8" s="321"/>
+      <c r="E8" s="321"/>
+      <c r="F8" s="321"/>
       <c r="H8" s="4" t="s">
         <v>8</v>
       </c>
@@ -5343,79 +5354,104 @@
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
-      <c r="M8" s="71"/>
+      <c r="M8" s="67"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="285"/>
-      <c r="D9" s="285"/>
-      <c r="E9" s="285"/>
-      <c r="F9" s="285"/>
+      <c r="C9" s="318"/>
+      <c r="D9" s="318"/>
+      <c r="E9" s="318"/>
+      <c r="F9" s="318"/>
       <c r="H9" s="26"/>
-      <c r="I9" s="286"/>
-      <c r="J9" s="287"/>
-      <c r="K9" s="287"/>
-      <c r="L9" s="287"/>
+      <c r="I9" s="319"/>
+      <c r="J9" s="320"/>
+      <c r="K9" s="320"/>
+      <c r="L9" s="320"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="285"/>
-      <c r="D10" s="285"/>
-      <c r="E10" s="285"/>
-      <c r="F10" s="285"/>
+      <c r="C10" s="318"/>
+      <c r="D10" s="318"/>
+      <c r="E10" s="318"/>
+      <c r="F10" s="318"/>
       <c r="H10" s="26"/>
-      <c r="I10" s="286"/>
-      <c r="J10" s="287"/>
-      <c r="K10" s="287"/>
-      <c r="L10" s="287"/>
+      <c r="I10" s="319"/>
+      <c r="J10" s="320"/>
+      <c r="K10" s="320"/>
+      <c r="L10" s="320"/>
     </row>
     <row r="11" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="47"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="44">
+        <f>(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"1","")))*1+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"2","")))*2+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"3","")))*3+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"4","")))*4+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"5","")))*5+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"6","")))*6+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"7","")))*7+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"8","")))*8+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"9","")))*9</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="343">
+        <f>E21</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="48"/>
+      <c r="A13" s="337"/>
+      <c r="B13" s="338"/>
+      <c r="C13" s="338"/>
+      <c r="D13" s="338"/>
+      <c r="E13" s="338"/>
+      <c r="F13" s="338"/>
+      <c r="G13" s="338"/>
+      <c r="H13" s="338"/>
+      <c r="I13" s="338"/>
+      <c r="J13" s="338"/>
+      <c r="K13" s="338"/>
+      <c r="L13" s="339"/>
     </row>
     <row r="14" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
-      <c r="L14" s="38"/>
+      <c r="A14" s="340"/>
+      <c r="B14" s="341"/>
+      <c r="C14" s="341"/>
+      <c r="D14" s="341"/>
+      <c r="E14" s="341"/>
+      <c r="F14" s="341"/>
+      <c r="G14" s="341"/>
+      <c r="H14" s="341"/>
+      <c r="I14" s="341"/>
+      <c r="J14" s="341"/>
+      <c r="K14" s="341"/>
+      <c r="L14" s="342"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="75"/>
+      <c r="B15" s="71"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="78"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="74"/>
     </row>
     <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
@@ -5423,83 +5459,86 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="38"/>
-      <c r="H17" s="63" t="s">
+      <c r="G17" s="37"/>
+      <c r="H17" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="49"/>
-      <c r="K17" s="64" t="s">
+      <c r="I17" s="45"/>
+      <c r="K17" s="60" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="61" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="97">
+      <c r="E18" s="93">
+        <f>LEN(A$13)-LEN(SUBSTITUTE(A$13,"D",""))+LEN(A$13)-LEN(SUBSTITUTE(A$13,"S",""))</f>
         <v>0</v>
       </c>
-      <c r="F18" s="66">
+      <c r="F18" s="62">
         <v>0.8</v>
       </c>
-      <c r="G18" s="67"/>
+      <c r="G18" s="63"/>
       <c r="H18" s="4">
         <f>IF(E18&gt;12,13,E18)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="68"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="41">
+      <c r="I18" s="64"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="39">
         <f>F18*H18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="61" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="97">
+      <c r="E19" s="93">
+        <f>LEN(A$13)-LEN(SUBSTITUTE(A$13,"M",""))</f>
         <v>0</v>
       </c>
-      <c r="F19" s="66">
+      <c r="F19" s="62">
         <v>0.4</v>
       </c>
-      <c r="G19" s="67"/>
+      <c r="G19" s="63"/>
       <c r="H19" s="4">
         <f>IF(SUM(E18:E19)&gt;12,13-H18,E19)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="68"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="41">
+      <c r="I19" s="64"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="39">
         <f>F19*H19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="61" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="97">
+      <c r="E20" s="93">
+        <f>LEN(A$13)-LEN(SUBSTITUTE(A$13,"E",""))+LEN(A$13)-LEN(SUBSTITUTE(A$13,"L",""))</f>
         <v>0</v>
       </c>
-      <c r="F20" s="66">
+      <c r="F20" s="62">
         <v>0</v>
       </c>
-      <c r="G20" s="67"/>
+      <c r="G20" s="63"/>
       <c r="H20" s="4">
         <f>IF(SUM(E18:E20)&gt;12,IF(13-SUM(H18:H19)&gt;0,13-SUM(H18:H19),0),E20)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="68"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="41">
+      <c r="I20" s="64"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="39">
         <v>0</v>
       </c>
     </row>
@@ -5509,29 +5548,29 @@
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="42">
+      <c r="E21" s="40">
         <f>SUM(E18:E20)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
     </row>
     <row r="22" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G22" s="59" t="s">
+      <c r="G22" s="55" t="s">
         <v>38</v>
       </c>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="61">
+      <c r="J22" s="66"/>
+      <c r="K22" s="57">
         <f>IF(SUM(K18:K21)&gt;10,10,SUM(K18:K21))</f>
         <v>0</v>
       </c>
-      <c r="L22" s="62">
+      <c r="L22" s="58">
         <v>0.3</v>
       </c>
     </row>
@@ -5541,15 +5580,15 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="47" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H25" s="50"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="53"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="49"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="27" t="s">
@@ -5557,40 +5596,43 @@
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="15"/>
-      <c r="E26" s="97"/>
+      <c r="E26" s="93">
+        <f>(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"1","")))*1+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"2","")))*2+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"3","")))*3+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"4","")))*4+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"5","")))*5+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"6","")))*6+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"7","")))*7+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"8","")))*8+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"9","")))*9</f>
+        <v>0</v>
+      </c>
       <c r="F26" s="27" t="s">
         <v>48</v>
       </c>
       <c r="G26" s="15"/>
-      <c r="H26" s="54">
+      <c r="H26" s="50">
         <f>E21</f>
         <v>0</v>
       </c>
-      <c r="I26" s="55">
+      <c r="I26" s="51">
         <f>IFERROR(E26/H26,10)</f>
         <v>10</v>
       </c>
-      <c r="J26" s="56"/>
-      <c r="K26" s="41">
+      <c r="J26" s="52"/>
+      <c r="K26" s="39">
         <f>10-I26</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="69"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="65"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
       <c r="D28" s="27" t="s">
         <v>47</v>
       </c>
@@ -5598,28 +5640,28 @@
       <c r="F28" s="4"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="171">
+      <c r="I28" s="53"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="167">
         <f>SUM(E15:J15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L29" s="50"/>
+      <c r="L29" s="46"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G30" s="59" t="s">
+      <c r="G30" s="55" t="s">
         <v>32</v>
       </c>
       <c r="H30" s="30"/>
       <c r="I30" s="30"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="61">
+      <c r="J30" s="56"/>
+      <c r="K30" s="57">
         <f>K26-K28</f>
         <v>0</v>
       </c>
-      <c r="L30" s="62">
+      <c r="L30" s="58">
         <v>0.7</v>
       </c>
     </row>
@@ -5639,10 +5681,10 @@
       <c r="A36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
       <c r="H36" s="3" t="s">
         <v>23</v>
       </c>
@@ -5652,7 +5694,8 @@
       <c r="L36" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A13:L14"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="I10:L10"/>
@@ -5728,7 +5771,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="96"/>
+      <c r="C4" s="92"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
       <c r="F4" s="34"/>
@@ -5745,10 +5788,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="285"/>
-      <c r="D5" s="285"/>
-      <c r="E5" s="285"/>
-      <c r="F5" s="285"/>
+      <c r="C5" s="318"/>
+      <c r="D5" s="318"/>
+      <c r="E5" s="318"/>
+      <c r="F5" s="318"/>
       <c r="H5" s="28"/>
       <c r="I5" s="29" t="s">
         <v>4</v>
@@ -5758,24 +5801,24 @@
       <c r="L5" s="31"/>
     </row>
     <row r="6" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="73"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="69"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
       <c r="H7" s="3" t="s">
         <v>7</v>
       </c>
@@ -5783,17 +5826,17 @@
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
-      <c r="M7" s="71"/>
+      <c r="M7" s="67"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="288"/>
-      <c r="D8" s="288"/>
-      <c r="E8" s="288"/>
-      <c r="F8" s="288"/>
+      <c r="C8" s="321"/>
+      <c r="D8" s="321"/>
+      <c r="E8" s="321"/>
+      <c r="F8" s="321"/>
       <c r="H8" s="4" t="s">
         <v>8</v>
       </c>
@@ -5801,37 +5844,37 @@
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
-      <c r="M8" s="71"/>
+      <c r="M8" s="67"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="285"/>
-      <c r="D9" s="285"/>
-      <c r="E9" s="285"/>
-      <c r="F9" s="285"/>
+      <c r="C9" s="318"/>
+      <c r="D9" s="318"/>
+      <c r="E9" s="318"/>
+      <c r="F9" s="318"/>
       <c r="H9" s="26"/>
-      <c r="I9" s="286"/>
-      <c r="J9" s="287"/>
-      <c r="K9" s="287"/>
-      <c r="L9" s="287"/>
+      <c r="I9" s="319"/>
+      <c r="J9" s="320"/>
+      <c r="K9" s="320"/>
+      <c r="L9" s="320"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="285"/>
-      <c r="D10" s="285"/>
-      <c r="E10" s="285"/>
-      <c r="F10" s="285"/>
+      <c r="C10" s="318"/>
+      <c r="D10" s="318"/>
+      <c r="E10" s="318"/>
+      <c r="F10" s="318"/>
       <c r="H10" s="26"/>
-      <c r="I10" s="286"/>
-      <c r="J10" s="287"/>
-      <c r="K10" s="287"/>
-      <c r="L10" s="287"/>
+      <c r="I10" s="319"/>
+      <c r="J10" s="320"/>
+      <c r="K10" s="320"/>
+      <c r="L10" s="320"/>
     </row>
     <row r="11" spans="1:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K11" s="14" t="s">
@@ -5839,46 +5882,46 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="172" t="s">
+      <c r="A12" s="168" t="s">
         <v>137</v>
       </c>
-      <c r="B12" s="289" t="s">
+      <c r="B12" s="328" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="290"/>
-      <c r="D12" s="290"/>
-      <c r="E12" s="290"/>
-      <c r="F12" s="290"/>
-      <c r="G12" s="290"/>
-      <c r="H12" s="290"/>
-      <c r="I12" s="291"/>
-      <c r="J12" s="173" t="s">
+      <c r="C12" s="329"/>
+      <c r="D12" s="329"/>
+      <c r="E12" s="329"/>
+      <c r="F12" s="329"/>
+      <c r="G12" s="329"/>
+      <c r="H12" s="329"/>
+      <c r="I12" s="330"/>
+      <c r="J12" s="169" t="s">
         <v>139</v>
       </c>
-      <c r="K12" s="174"/>
-      <c r="L12" s="175">
+      <c r="K12" s="170"/>
+      <c r="L12" s="171">
         <f>K12*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="295" t="s">
+      <c r="A13" s="325" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="289" t="s">
+      <c r="B13" s="328" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="290"/>
-      <c r="D13" s="290"/>
-      <c r="E13" s="290"/>
-      <c r="F13" s="290"/>
-      <c r="G13" s="290"/>
-      <c r="H13" s="290"/>
-      <c r="I13" s="291"/>
+      <c r="C13" s="329"/>
+      <c r="D13" s="329"/>
+      <c r="E13" s="329"/>
+      <c r="F13" s="329"/>
+      <c r="G13" s="329"/>
+      <c r="H13" s="329"/>
+      <c r="I13" s="330"/>
       <c r="J13" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="K13" s="99"/>
+      <c r="K13" s="95"/>
       <c r="L13" s="17">
         <f>K13*0.2</f>
         <v>0</v>
@@ -5886,21 +5929,21 @@
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="296"/>
-      <c r="B14" s="298" t="s">
+      <c r="A14" s="326"/>
+      <c r="B14" s="331" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="299"/>
-      <c r="D14" s="299"/>
-      <c r="E14" s="299"/>
-      <c r="F14" s="299"/>
-      <c r="G14" s="299"/>
-      <c r="H14" s="299"/>
-      <c r="I14" s="300"/>
+      <c r="C14" s="332"/>
+      <c r="D14" s="332"/>
+      <c r="E14" s="332"/>
+      <c r="F14" s="332"/>
+      <c r="G14" s="332"/>
+      <c r="H14" s="332"/>
+      <c r="I14" s="333"/>
       <c r="J14" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="K14" s="100"/>
+      <c r="K14" s="96"/>
       <c r="L14" s="18">
         <f>K14*0.1</f>
         <v>0</v>
@@ -5908,23 +5951,23 @@
       <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="295" t="s">
+      <c r="A15" s="325" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="301" t="s">
+      <c r="B15" s="334" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="302"/>
-      <c r="D15" s="302"/>
-      <c r="E15" s="302"/>
-      <c r="F15" s="302"/>
-      <c r="G15" s="302"/>
-      <c r="H15" s="302"/>
-      <c r="I15" s="303"/>
+      <c r="C15" s="335"/>
+      <c r="D15" s="335"/>
+      <c r="E15" s="335"/>
+      <c r="F15" s="335"/>
+      <c r="G15" s="335"/>
+      <c r="H15" s="335"/>
+      <c r="I15" s="336"/>
       <c r="J15" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="K15" s="98"/>
+      <c r="K15" s="94"/>
       <c r="L15" s="19">
         <f>K15*0.25</f>
         <v>0</v>
@@ -5932,21 +5975,21 @@
       <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="297"/>
-      <c r="B16" s="292" t="s">
+      <c r="A16" s="327"/>
+      <c r="B16" s="322" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="293"/>
-      <c r="D16" s="293"/>
-      <c r="E16" s="293"/>
-      <c r="F16" s="293"/>
-      <c r="G16" s="293"/>
-      <c r="H16" s="293"/>
-      <c r="I16" s="294"/>
+      <c r="C16" s="323"/>
+      <c r="D16" s="323"/>
+      <c r="E16" s="323"/>
+      <c r="F16" s="323"/>
+      <c r="G16" s="323"/>
+      <c r="H16" s="323"/>
+      <c r="I16" s="324"/>
       <c r="J16" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="K16" s="98"/>
+      <c r="K16" s="94"/>
       <c r="L16" s="20">
         <f>K16*0.25</f>
         <v>0</v>
@@ -5975,7 +6018,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="98"/>
+      <c r="L19" s="94"/>
     </row>
     <row r="20" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L20" s="22"/>
@@ -5995,10 +6038,10 @@
       <c r="A27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
       <c r="H27" s="3" t="s">
         <v>23</v>
       </c>
@@ -6009,12 +6052,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
     <mergeCell ref="B12:I12"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="I10:L10"/>
@@ -6022,6 +6059,12 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="I9:L9"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
@@ -6034,12 +6077,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6109,18 +6152,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06F9B768-A93D-4D4C-BBD7-D4CF83092D49}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6143,16 +6193,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06F9B768-A93D-4D4C-BBD7-D4CF83092D49}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/mallar/Protokoll/Protokoll_2019_Pas_de_deux_klass(mall).xlsx
+++ b/mallar/Protokoll/Protokoll_2019_Pas_de_deux_klass(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32B8055-9E11-412B-B12B-F2AD5BA62E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBB9B54-AC15-488A-A1A4-06E7F51CBFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44670" yWindow="1470" windowWidth="28800" windowHeight="15195" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="24" r:id="rId1"/>
@@ -214,16 +214,8 @@
     <t>Artistisk bedömning</t>
   </si>
   <si>
-    <t>STRUKTUR
-50%</t>
-  </si>
-  <si>
     <t>Poäng
 0 till 10</t>
-  </si>
-  <si>
-    <t>KOREOGRAFI
-50%</t>
   </si>
   <si>
     <t>Artistisk poäng</t>
@@ -479,128 +471,6 @@
     <t xml:space="preserve">Galoppkvalitet samt nivå av genomarbetad häst </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>•	Takt:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Regelbundenhet, energi, jämn steglängd, ren tretakt, tydig svävfas_x000D_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>•Avslappning:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Lösgjordhet och mjukhet genom hela hästkroppen. Aktiva ryggmuskler. Avslappnad hals. Positiv muskelspänning. _x000D_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>•	Stöd, kontakt:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Höjd rygg och aktiv bål, kopplingen mellan fram- och bakdel. Energi från bakbenen, genom kroppen, ger en mjuk och flexibel kontakt med inspänningstyglar och longerlina._x000D_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>•	Schwung:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Självbärighet med svikt i steget, lösgjordhet och aktiva bakben. Energi skapad av aktiva väl undersatta bakben (bärkraft, inte skjutkraft). Lyfter framdelen och sänker korset. (Uppförsbacke)_x000D_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>•	Rakriktning:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Formad efter volten, Spårar korrekt. Kroppen upprätt. Hästens form följer voltspåret hela kroppen._x000D_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>•	Samling:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Vinklade bakben, sänkt kors och engagerad bakdel. Samling med lätthet och rörlighet i framdelen som resultat. Länger överlinjen och sätter bakbenen mer under sig. Kortare, kraftfulla, energiska språng. _x000D_
-</t>
-    </r>
-  </si>
-  <si>
     <t>A1
 60%</t>
   </si>
@@ -629,66 +499,7 @@
 10 %</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>• Vilja/lydnad:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Inget motstånd eller tvekan. Lyhörd och uppmärksam för linförarens hjälper. Harmoni och lätthet.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>• Balanserat tempo (såväl framåt som med samlat):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Konstant, korrekt tempo och energi utan att öka eller minska. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>• Håller voltspåret (inåt/utåt):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. Konstant volt med min 15 m diameter utan att falla in eller dra utåt.  </t>
-    </r>
-  </si>
-  <si>
     <t>Avdrag:</t>
-  </si>
-  <si>
-    <t>• Longeringen ska visa på ett enkelt och harmoniskt samarbete och kommunikation mellan linförare och häst. Korrekt och diskret använda hjälper. Korrekt position och hållning. Lämplig klädsel. Väl anpassad utrustning.
-• Inspring, hälsning och travvolt: Ska genomföras med flyt, från inspring tills hästen kommer fram i galopp och fram till dess att den första voltigören tar i hästen.</t>
   </si>
   <si>
     <t>A3
@@ -782,41 +593,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Variation av position</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-• Variation av position övningarna dels i relation till hästen men också riktningen av övningen.
-• Balanserad användning av utrymme; användning av alla delar av hästens rygg och hals inklusive mellanhopp (markhopp).
-• Någorlunda jämn fördelning av roller och konstnärligt engagemang.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>Sammanhållning av sammansättning</t>
     </r>
     <r>
@@ -881,6 +657,232 @@
   </si>
   <si>
     <t>Håller voltspåret</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>•	Takt:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Regelbundenhet, energi, jämn steglängd, ren tretakt, tydig svävfas
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>•Avslappning:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Lösgjordhet och mjukhet genom hela hästkroppen. Aktiva ryggmuskler. Avslappnad hals. Positiv muskelspänning. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>•	Stöd, kontakt:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Höjd rygg och aktiv bål, kopplingen mellan fram- och bakdel. Energi från bakbenen, genom kroppen, ger en mjuk och flexibel kontakt med inspänningstyglar och longerlina. Nosen i linje eller något framför vertikallinjen.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>•	Schvung:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Självbärighet med svikt i steget, lösgjordhet och aktiva bakben. Energi skapad av aktiva väl undersatta bakben (bärkraft, inte skjutkraft). Lyfter framdelen och sänker korset. (Uppförsbacke)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>•	Rakriktning:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Formad efter volten, Spårar korrekt. Kroppen upprätt. Hästens form följer voltspåret med hela kroppen.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>•	Samling:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Vinklade bakben, sänkt kors och engagerad bakdel. Samling med lätthet och rörlighet i framdelen som resultat. Länger överlinjen och sätter bakbenen mer under sig. Kortare, kraftfulla, energiska språng. 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>• Vilja/lydnad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Inget motstånd eller tvekan. Lyhörd och uppmärksam för linförarens hjälper. Harmoni och lätthet.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>• Balanserat tempo (framåt/bakåt):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Konstant korrekt tempo (tempo och energi utan att öka eller minska). 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>• Håller voltspåret (inåt/utåt):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Konstant volt med min 15 m diameter utan att falla in eller utåt.  </t>
+    </r>
+  </si>
+  <si>
+    <t>Longeringen ska visa på ett enkelt och harmoniskt samarbete och kommunikation mellan linförare och häst. 
+• Korrekt och diskret använda hjälper.
+• Korrekt position och hållning.
+• Lämplig klädsel. 
+• Väl anpassad utrustning.
+• Inspring, hälsning och travvolt: Ska genomföras med flyt, från inspring tills hästen kommer fram i galopp och fram till dess att voltigören rör hästen.</t>
+  </si>
+  <si>
+    <t>STRUKTUR</t>
+  </si>
+  <si>
+    <t>KOREOGRAFI</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Variation av position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+• Variation av position övningarna dels i relation till hästen men också riktningen av övningen.
+• Balanserad användning av utrymme; användning av alla delar av hästens rygg och hals inklusive studs.
+• Någorlunda jämn fördelning av roller och konstnärligt engagemang.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1942,7 +1944,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="344">
+  <cellXfs count="346">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2291,18 +2293,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="169" fontId="5" fillId="4" borderId="51" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2373,6 +2363,21 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2460,6 +2465,12 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2484,8 +2495,11 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2557,6 +2571,146 @@
     <xf numFmtId="169" fontId="2" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="61" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="169" fontId="2" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2569,149 +2723,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="61" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2740,16 +2751,16 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2798,6 +2809,24 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2852,27 +2881,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="60" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -3298,12 +3306,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="82" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="77" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
@@ -3311,12 +3319,12 @@
     </row>
     <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="77" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="135" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="135" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -3326,7 +3334,7 @@
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="86" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.4">
@@ -3335,15 +3343,15 @@
     <row r="9" spans="1:5" s="76" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A9" s="77"/>
       <c r="B9" s="78" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="77" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B10" s="130" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -3351,54 +3359,54 @@
     </row>
     <row r="15" spans="1:5" s="78" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A15" s="134" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B15" s="76"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="77" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="77" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="78" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A19" s="78" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="79" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="78" t="s">
         <v>52</v>
-      </c>
-      <c r="C21" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="78" t="s">
-        <v>54</v>
       </c>
       <c r="E21" s="78"/>
     </row>
     <row r="22" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="77" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B22" s="130" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="130" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="130" t="s">
         <v>59</v>
-      </c>
-      <c r="C22" s="130" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="130" t="s">
-        <v>61</v>
       </c>
       <c r="E22" s="132"/>
     </row>
@@ -3410,27 +3418,27 @@
     </row>
     <row r="25" spans="1:9" s="78" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A25" s="78" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="79" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F26" s="79"/>
     </row>
     <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="78" t="s">
+      <c r="E27" s="78" t="s">
         <v>54</v>
-      </c>
-      <c r="E27" s="78" t="s">
-        <v>56</v>
       </c>
       <c r="F27" s="78"/>
       <c r="G27" s="78"/>
@@ -3439,19 +3447,19 @@
     </row>
     <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="77" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B28" s="130" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="130" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="130" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="130" t="s">
-        <v>61</v>
-      </c>
       <c r="E28" s="130" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F28" s="132"/>
       <c r="G28" s="131"/>
@@ -3478,60 +3486,60 @@
     </row>
     <row r="32" spans="1:9" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A32" s="78" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="79" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F34" s="79" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="78" t="s">
         <v>52</v>
-      </c>
-      <c r="C35" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="78" t="s">
-        <v>54</v>
       </c>
       <c r="E35" s="78"/>
       <c r="F35" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="H35" s="78" t="s">
         <v>52</v>
-      </c>
-      <c r="G35" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="H35" s="78" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="77" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B36" s="130" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="130" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="130" t="s">
         <v>59</v>
-      </c>
-      <c r="C36" s="130" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="130" t="s">
-        <v>61</v>
       </c>
       <c r="E36" s="133"/>
       <c r="F36" s="130" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="130" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="130" t="s">
         <v>59</v>
-      </c>
-      <c r="G36" s="130" t="s">
-        <v>60</v>
-      </c>
-      <c r="H36" s="130" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3545,42 +3553,42 @@
     </row>
     <row r="39" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A39" s="78" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="79" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F41" s="79" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J41" s="79"/>
     </row>
     <row r="42" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="78" t="s">
+      <c r="E42" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="E42" s="78" t="s">
-        <v>56</v>
-      </c>
       <c r="F42" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="H42" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="H42" s="78" t="s">
+      <c r="I42" s="78" t="s">
         <v>54</v>
-      </c>
-      <c r="I42" s="78" t="s">
-        <v>56</v>
       </c>
       <c r="J42" s="78"/>
       <c r="K42" s="78"/>
@@ -3589,76 +3597,76 @@
     </row>
     <row r="43" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="77" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B43" s="130" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="130" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="130" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="130" t="s">
-        <v>61</v>
-      </c>
       <c r="E43" s="130" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F43" s="130" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" s="130" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="G43" s="130" t="s">
-        <v>60</v>
-      </c>
-      <c r="H43" s="130" t="s">
-        <v>61</v>
-      </c>
       <c r="I43" s="130" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A46" s="76" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="84" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A47" s="83" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B47" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="83" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="83" t="s">
+      <c r="E47" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="E47" s="83" t="s">
-        <v>56</v>
-      </c>
       <c r="F47" s="83" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="80" t="s">
+      <c r="D48" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="80" t="s">
+      <c r="E48" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D48" s="80" t="s">
+      <c r="F48" s="80" t="s">
         <v>69</v>
-      </c>
-      <c r="E48" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="F48" s="80" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:6" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3668,66 +3676,66 @@
       <c r="D49" s="80"/>
       <c r="E49" s="80"/>
       <c r="F49" s="81" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="76" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A52" s="76" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="78" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A53" s="85" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:6" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A54" s="87" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B54" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54" s="88" t="s">
         <v>77</v>
-      </c>
-      <c r="C54" s="88" t="s">
-        <v>70</v>
-      </c>
-      <c r="D54" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="E54" s="88" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="B55" s="89" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" s="89" t="s">
+      <c r="D55" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="D55" s="89" t="s">
-        <v>84</v>
-      </c>
       <c r="E55" s="89" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="89"/>
       <c r="B56" s="89" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C56" s="91" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D56" s="91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E56" s="89" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
@@ -3739,218 +3747,218 @@
     </row>
     <row r="58" spans="1:6" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A58" s="87" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B58" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" s="88" t="s">
         <v>77</v>
-      </c>
-      <c r="C58" s="88" t="s">
-        <v>70</v>
-      </c>
-      <c r="D58" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="E58" s="88" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="B59" s="89" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" s="89" t="s">
+      <c r="D59" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="D59" s="89" t="s">
-        <v>84</v>
-      </c>
       <c r="E59" s="89" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="89"/>
       <c r="B60" s="89" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C60" s="91" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D60" s="91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E60" s="89" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="89" t="s">
+      <c r="C61" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="C61" s="89" t="s">
-        <v>84</v>
-      </c>
       <c r="D61" s="89" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E61" s="89" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="89"/>
       <c r="B62" s="89" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C62" s="91" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D62" s="91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E62" s="89" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="86" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A65" s="85" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:5" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A66" s="87" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B66" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="E66" s="88" t="s">
         <v>77</v>
-      </c>
-      <c r="C66" s="88" t="s">
-        <v>70</v>
-      </c>
-      <c r="D66" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="E66" s="88" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="B67" s="89" t="s">
+      <c r="D67" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="C67" s="89" t="s">
+      <c r="E67" s="89" t="s">
         <v>82</v>
-      </c>
-      <c r="D67" s="89" t="s">
-        <v>83</v>
-      </c>
-      <c r="E67" s="89" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="89"/>
       <c r="B68" s="89" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C68" s="91" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D68" s="91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E68" s="91" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:5" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A70" s="87" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B70" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="E70" s="88" t="s">
         <v>77</v>
-      </c>
-      <c r="C70" s="88" t="s">
-        <v>70</v>
-      </c>
-      <c r="D70" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="E70" s="88" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="B71" s="89" t="s">
+      <c r="D71" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="C71" s="89" t="s">
+      <c r="E71" s="89" t="s">
         <v>82</v>
-      </c>
-      <c r="D71" s="89" t="s">
-        <v>83</v>
-      </c>
-      <c r="E71" s="89" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="89"/>
       <c r="B72" s="89" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C72" s="91" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D72" s="91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E72" s="91" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="D73" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="B73" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="C73" s="89" t="s">
-        <v>83</v>
-      </c>
-      <c r="D73" s="89" t="s">
-        <v>82</v>
-      </c>
       <c r="E73" s="89" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="89"/>
       <c r="B74" s="89" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C74" s="91" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D74" s="91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E74" s="91" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3970,8 +3978,8 @@
   </sheetPr>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -3992,11 +4000,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="115" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H2" s="128"/>
       <c r="I2" s="127" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J2" s="129"/>
       <c r="K2" s="125"/>
@@ -4004,11 +4012,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H3" s="128"/>
       <c r="I3" s="127" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J3" s="129"/>
       <c r="K3" s="125"/>
@@ -4019,10 +4027,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="104"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
       <c r="H4" s="128"/>
       <c r="I4" s="127" t="s">
         <v>3</v>
@@ -4036,10 +4044,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="124"/>
-      <c r="C5" s="179"/>
-      <c r="D5" s="179"/>
-      <c r="E5" s="179"/>
-      <c r="F5" s="179"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="180"/>
+      <c r="E5" s="180"/>
+      <c r="F5" s="180"/>
       <c r="H5" s="128"/>
       <c r="I5" s="127" t="s">
         <v>4</v>
@@ -4053,80 +4061,80 @@
         <v>9</v>
       </c>
       <c r="H6" s="97" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="124" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B7" s="124"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
+      <c r="C7" s="180"/>
+      <c r="D7" s="180"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="180"/>
       <c r="H7" s="104" t="s">
-        <v>111</v>
-      </c>
-      <c r="I7" s="182"/>
-      <c r="J7" s="183"/>
-      <c r="K7" s="183"/>
-      <c r="L7" s="183"/>
+        <v>109</v>
+      </c>
+      <c r="I7" s="183"/>
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="184"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="104" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="104"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="178"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="179"/>
+      <c r="E8" s="179"/>
+      <c r="F8" s="179"/>
       <c r="H8" s="124" t="s">
-        <v>110</v>
-      </c>
-      <c r="I8" s="184"/>
-      <c r="J8" s="185"/>
-      <c r="K8" s="185"/>
-      <c r="L8" s="185"/>
+        <v>108</v>
+      </c>
+      <c r="I8" s="185"/>
+      <c r="J8" s="186"/>
+      <c r="K8" s="186"/>
+      <c r="L8" s="186"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="124" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="124"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="179"/>
-      <c r="I9" s="180"/>
-      <c r="J9" s="181"/>
-      <c r="K9" s="181"/>
-      <c r="L9" s="181"/>
+      <c r="C9" s="180"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="180"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="182"/>
+      <c r="K9" s="182"/>
+      <c r="L9" s="182"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="124" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="124"/>
-      <c r="C10" s="179"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="179"/>
-      <c r="F10" s="179"/>
-      <c r="I10" s="180"/>
-      <c r="J10" s="181"/>
-      <c r="K10" s="181"/>
-      <c r="L10" s="181"/>
+      <c r="C10" s="180"/>
+      <c r="D10" s="180"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="180"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="182"/>
+      <c r="K10" s="182"/>
+      <c r="L10" s="182"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I11" s="180"/>
-      <c r="J11" s="181"/>
-      <c r="K11" s="181"/>
-      <c r="L11" s="181"/>
+      <c r="I11" s="181"/>
+      <c r="J11" s="182"/>
+      <c r="K11" s="182"/>
+      <c r="L11" s="182"/>
     </row>
     <row r="12" spans="1:12" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A12" s="123" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
@@ -4134,95 +4142,95 @@
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
-      <c r="H12" s="195" t="s">
+      <c r="H12" s="196" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="196"/>
-      <c r="J12" s="197" t="s">
+      <c r="I12" s="197"/>
+      <c r="J12" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="198"/>
-      <c r="L12" s="199"/>
+      <c r="K12" s="199"/>
+      <c r="L12" s="200"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="186" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="189" t="s">
+      <c r="A13" s="187" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="189" t="s">
+      <c r="C13" s="190" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="189"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="191" t="s">
+      <c r="D13" s="190"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="192"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="194"/>
-      <c r="J13" s="211">
+      <c r="G13" s="193"/>
+      <c r="H13" s="194"/>
+      <c r="I13" s="195"/>
+      <c r="J13" s="214">
         <v>0.2</v>
       </c>
-      <c r="K13" s="200"/>
-      <c r="L13" s="203">
+      <c r="K13" s="201"/>
+      <c r="L13" s="204">
         <f>K13*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="187"/>
-      <c r="B14" s="189"/>
-      <c r="C14" s="189" t="s">
+      <c r="A14" s="188"/>
+      <c r="B14" s="190"/>
+      <c r="C14" s="190" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="189"/>
-      <c r="E14" s="189"/>
-      <c r="F14" s="205" t="s">
+      <c r="D14" s="190"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="206" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="206"/>
-      <c r="H14" s="207"/>
-      <c r="I14" s="208"/>
-      <c r="J14" s="212"/>
-      <c r="K14" s="201"/>
-      <c r="L14" s="203"/>
+      <c r="G14" s="207"/>
+      <c r="H14" s="208"/>
+      <c r="I14" s="209"/>
+      <c r="J14" s="215"/>
+      <c r="K14" s="202"/>
+      <c r="L14" s="204"/>
     </row>
     <row r="15" spans="1:12" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="188"/>
-      <c r="B15" s="190"/>
-      <c r="C15" s="190" t="s">
+      <c r="A15" s="189"/>
+      <c r="B15" s="191"/>
+      <c r="C15" s="191" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="190"/>
-      <c r="E15" s="190"/>
-      <c r="F15" s="205" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" s="206"/>
-      <c r="H15" s="209"/>
-      <c r="I15" s="210"/>
-      <c r="J15" s="213"/>
-      <c r="K15" s="202"/>
-      <c r="L15" s="204"/>
+      <c r="D15" s="191"/>
+      <c r="E15" s="191"/>
+      <c r="F15" s="210" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="211"/>
+      <c r="H15" s="212"/>
+      <c r="I15" s="213"/>
+      <c r="J15" s="216"/>
+      <c r="K15" s="203"/>
+      <c r="L15" s="205"/>
     </row>
     <row r="16" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="186" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="214" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="215"/>
-      <c r="D16" s="215"/>
-      <c r="E16" s="216"/>
-      <c r="F16" s="191" t="s">
+      <c r="A16" s="187" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="217"/>
-      <c r="H16" s="207"/>
-      <c r="I16" s="208"/>
+      <c r="B16" s="217" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="218"/>
+      <c r="D16" s="218"/>
+      <c r="E16" s="219"/>
+      <c r="F16" s="220" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="221"/>
+      <c r="H16" s="208"/>
+      <c r="I16" s="209"/>
       <c r="J16" s="122">
         <v>0.4</v>
       </c>
@@ -4233,19 +4241,19 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="188"/>
-      <c r="B17" s="218" t="s">
+      <c r="A17" s="189"/>
+      <c r="B17" s="222" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="219"/>
-      <c r="D17" s="219"/>
-      <c r="E17" s="220"/>
-      <c r="F17" s="221" t="s">
+      <c r="C17" s="223"/>
+      <c r="D17" s="223"/>
+      <c r="E17" s="224"/>
+      <c r="F17" s="225" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="222"/>
-      <c r="H17" s="207"/>
-      <c r="I17" s="208"/>
+      <c r="G17" s="226"/>
+      <c r="H17" s="208"/>
+      <c r="I17" s="209"/>
       <c r="J17" s="122">
         <v>0.4</v>
       </c>
@@ -4259,17 +4267,17 @@
       <c r="A18" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="223" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="224"/>
-      <c r="D18" s="224"/>
-      <c r="E18" s="224"/>
-      <c r="F18" s="224"/>
-      <c r="G18" s="224"/>
-      <c r="H18" s="224"/>
-      <c r="I18" s="224"/>
-      <c r="J18" s="225"/>
+      <c r="B18" s="227" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="228"/>
+      <c r="D18" s="228"/>
+      <c r="E18" s="228"/>
+      <c r="F18" s="228"/>
+      <c r="G18" s="228"/>
+      <c r="H18" s="228"/>
+      <c r="I18" s="228"/>
+      <c r="J18" s="229"/>
       <c r="K18" s="118"/>
       <c r="L18" s="117"/>
     </row>
@@ -4283,96 +4291,96 @@
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="115" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="226" t="s">
+      <c r="A21" s="230" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="227"/>
-      <c r="C21" s="227"/>
-      <c r="D21" s="227"/>
-      <c r="E21" s="227"/>
-      <c r="F21" s="227"/>
-      <c r="G21" s="227"/>
-      <c r="H21" s="227"/>
-      <c r="I21" s="227"/>
-      <c r="J21" s="227"/>
-      <c r="K21" s="227"/>
-      <c r="L21" s="228"/>
+      <c r="B21" s="231"/>
+      <c r="C21" s="231"/>
+      <c r="D21" s="231"/>
+      <c r="E21" s="231"/>
+      <c r="F21" s="231"/>
+      <c r="G21" s="231"/>
+      <c r="H21" s="231"/>
+      <c r="I21" s="231"/>
+      <c r="J21" s="231"/>
+      <c r="K21" s="231"/>
+      <c r="L21" s="232"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="229"/>
-      <c r="B22" s="230"/>
-      <c r="C22" s="230"/>
-      <c r="D22" s="230"/>
-      <c r="E22" s="230"/>
-      <c r="F22" s="230"/>
-      <c r="G22" s="230"/>
-      <c r="H22" s="230"/>
-      <c r="I22" s="230"/>
-      <c r="J22" s="230"/>
-      <c r="K22" s="230"/>
-      <c r="L22" s="231"/>
+      <c r="A22" s="233"/>
+      <c r="B22" s="234"/>
+      <c r="C22" s="234"/>
+      <c r="D22" s="234"/>
+      <c r="E22" s="234"/>
+      <c r="F22" s="234"/>
+      <c r="G22" s="234"/>
+      <c r="H22" s="234"/>
+      <c r="I22" s="234"/>
+      <c r="J22" s="234"/>
+      <c r="K22" s="234"/>
+      <c r="L22" s="235"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="229"/>
-      <c r="B23" s="230"/>
-      <c r="C23" s="230"/>
-      <c r="D23" s="230"/>
-      <c r="E23" s="230"/>
-      <c r="F23" s="230"/>
-      <c r="G23" s="230"/>
-      <c r="H23" s="230"/>
-      <c r="I23" s="230"/>
-      <c r="J23" s="230"/>
-      <c r="K23" s="230"/>
-      <c r="L23" s="231"/>
+      <c r="A23" s="233"/>
+      <c r="B23" s="234"/>
+      <c r="C23" s="234"/>
+      <c r="D23" s="234"/>
+      <c r="E23" s="234"/>
+      <c r="F23" s="234"/>
+      <c r="G23" s="234"/>
+      <c r="H23" s="234"/>
+      <c r="I23" s="234"/>
+      <c r="J23" s="234"/>
+      <c r="K23" s="234"/>
+      <c r="L23" s="235"/>
     </row>
     <row r="24" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="229"/>
-      <c r="B24" s="230"/>
-      <c r="C24" s="230"/>
-      <c r="D24" s="230"/>
-      <c r="E24" s="230"/>
-      <c r="F24" s="230"/>
-      <c r="G24" s="230"/>
-      <c r="H24" s="230"/>
-      <c r="I24" s="230"/>
-      <c r="J24" s="230"/>
-      <c r="K24" s="230"/>
-      <c r="L24" s="231"/>
+      <c r="A24" s="233"/>
+      <c r="B24" s="234"/>
+      <c r="C24" s="234"/>
+      <c r="D24" s="234"/>
+      <c r="E24" s="234"/>
+      <c r="F24" s="234"/>
+      <c r="G24" s="234"/>
+      <c r="H24" s="234"/>
+      <c r="I24" s="234"/>
+      <c r="J24" s="234"/>
+      <c r="K24" s="234"/>
+      <c r="L24" s="235"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="232"/>
-      <c r="B25" s="233"/>
-      <c r="C25" s="233"/>
-      <c r="D25" s="233"/>
-      <c r="E25" s="233"/>
-      <c r="F25" s="233"/>
-      <c r="G25" s="233"/>
-      <c r="H25" s="233"/>
-      <c r="I25" s="233"/>
-      <c r="J25" s="233"/>
-      <c r="K25" s="233"/>
-      <c r="L25" s="234"/>
+      <c r="A25" s="236"/>
+      <c r="B25" s="237"/>
+      <c r="C25" s="237"/>
+      <c r="D25" s="237"/>
+      <c r="E25" s="237"/>
+      <c r="F25" s="237"/>
+      <c r="G25" s="237"/>
+      <c r="H25" s="237"/>
+      <c r="I25" s="237"/>
+      <c r="J25" s="237"/>
+      <c r="K25" s="237"/>
+      <c r="L25" s="238"/>
     </row>
     <row r="27" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="235" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="235"/>
-      <c r="C27" s="235"/>
-      <c r="D27" s="235"/>
-      <c r="E27" s="235"/>
-      <c r="F27" s="235"/>
-      <c r="G27" s="235"/>
-      <c r="H27" s="235"/>
-      <c r="I27" s="236"/>
-      <c r="J27" s="236"/>
+      <c r="A27" s="239" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="239"/>
+      <c r="C27" s="239"/>
+      <c r="D27" s="239"/>
+      <c r="E27" s="239"/>
+      <c r="F27" s="239"/>
+      <c r="G27" s="239"/>
+      <c r="H27" s="239"/>
+      <c r="I27" s="240"/>
+      <c r="J27" s="240"/>
       <c r="K27" s="114" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L27" s="109">
         <f>I27*1.5</f>
@@ -4380,20 +4388,20 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="235" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="235"/>
-      <c r="C28" s="235"/>
-      <c r="D28" s="235"/>
-      <c r="E28" s="235"/>
-      <c r="F28" s="235"/>
-      <c r="G28" s="235"/>
-      <c r="H28" s="235"/>
-      <c r="I28" s="236"/>
-      <c r="J28" s="236"/>
+      <c r="A28" s="239" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="239"/>
+      <c r="C28" s="239"/>
+      <c r="D28" s="239"/>
+      <c r="E28" s="239"/>
+      <c r="F28" s="239"/>
+      <c r="G28" s="239"/>
+      <c r="H28" s="239"/>
+      <c r="I28" s="240"/>
+      <c r="J28" s="240"/>
       <c r="K28" s="113" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L28" s="109">
         <f>I28*1.5</f>
@@ -4401,20 +4409,20 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="235" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="235"/>
-      <c r="C29" s="235"/>
-      <c r="D29" s="235"/>
-      <c r="E29" s="235"/>
-      <c r="F29" s="235"/>
-      <c r="G29" s="235"/>
-      <c r="H29" s="235"/>
-      <c r="I29" s="236"/>
-      <c r="J29" s="236"/>
+      <c r="A29" s="239" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="239"/>
+      <c r="C29" s="239"/>
+      <c r="D29" s="239"/>
+      <c r="E29" s="239"/>
+      <c r="F29" s="239"/>
+      <c r="G29" s="239"/>
+      <c r="H29" s="239"/>
+      <c r="I29" s="240"/>
+      <c r="J29" s="240"/>
       <c r="K29" s="113" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L29" s="109">
         <f>I29*2.5</f>
@@ -4422,20 +4430,20 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="235" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="235"/>
-      <c r="C30" s="235"/>
-      <c r="D30" s="235"/>
-      <c r="E30" s="235"/>
-      <c r="F30" s="235"/>
-      <c r="G30" s="235"/>
-      <c r="H30" s="235"/>
-      <c r="I30" s="236"/>
-      <c r="J30" s="236"/>
+      <c r="A30" s="239" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="239"/>
+      <c r="C30" s="239"/>
+      <c r="D30" s="239"/>
+      <c r="E30" s="239"/>
+      <c r="F30" s="239"/>
+      <c r="G30" s="239"/>
+      <c r="H30" s="239"/>
+      <c r="I30" s="240"/>
+      <c r="J30" s="240"/>
       <c r="K30" s="113" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L30" s="109">
         <f>I30*2</f>
@@ -4443,23 +4451,23 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="235" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="235"/>
-      <c r="C31" s="235"/>
-      <c r="D31" s="235"/>
-      <c r="E31" s="235"/>
-      <c r="F31" s="235"/>
-      <c r="G31" s="235"/>
-      <c r="H31" s="235"/>
-      <c r="I31" s="240">
+      <c r="A31" s="239" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="239"/>
+      <c r="C31" s="239"/>
+      <c r="D31" s="239"/>
+      <c r="E31" s="239"/>
+      <c r="F31" s="239"/>
+      <c r="G31" s="239"/>
+      <c r="H31" s="239"/>
+      <c r="I31" s="244">
         <f>L19</f>
         <v>0</v>
       </c>
-      <c r="J31" s="240"/>
+      <c r="J31" s="244"/>
       <c r="K31" s="113" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L31" s="109">
         <f>I31*2.5</f>
@@ -4471,7 +4479,7 @@
       <c r="I32" s="112"/>
       <c r="J32" s="111"/>
       <c r="K32" s="110" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L32" s="109">
         <f>(L27+L28+L29+L30+L31)</f>
@@ -4479,14 +4487,14 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F33" s="237" t="s">
-        <v>93</v>
-      </c>
-      <c r="G33" s="238"/>
-      <c r="H33" s="238"/>
-      <c r="I33" s="238"/>
-      <c r="J33" s="238"/>
-      <c r="K33" s="239"/>
+      <c r="F33" s="241" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" s="242"/>
+      <c r="H33" s="242"/>
+      <c r="I33" s="242"/>
+      <c r="J33" s="242"/>
+      <c r="K33" s="243"/>
       <c r="L33" s="108">
         <f>L32/10</f>
         <v>0</v>
@@ -4661,15 +4669,15 @@
   </sheetPr>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.73046875" style="33" customWidth="1"/>
     <col min="2" max="2" width="10.73046875" style="33" customWidth="1"/>
-    <col min="3" max="3" width="9.9296875" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" style="33" customWidth="1"/>
     <col min="4" max="4" width="10.19921875" style="33" customWidth="1"/>
     <col min="5" max="5" width="10" style="33" customWidth="1"/>
     <col min="6" max="6" width="10.265625" style="33" customWidth="1"/>
@@ -4690,7 +4698,7 @@
       <c r="F1" s="138"/>
       <c r="H1" s="139"/>
       <c r="I1" s="140" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J1" s="141"/>
       <c r="K1" s="142"/>
@@ -4702,7 +4710,7 @@
       </c>
       <c r="H2" s="139"/>
       <c r="I2" s="140" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J2" s="141"/>
       <c r="K2" s="142"/>
@@ -4713,8 +4721,8 @@
         <v>5</v>
       </c>
       <c r="B3" s="144"/>
-      <c r="C3" s="317"/>
-      <c r="D3" s="317"/>
+      <c r="C3" s="320"/>
+      <c r="D3" s="320"/>
       <c r="E3" s="145"/>
       <c r="F3" s="145"/>
       <c r="H3" s="139"/>
@@ -4730,10 +4738,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="146"/>
-      <c r="C4" s="316"/>
-      <c r="D4" s="316"/>
-      <c r="E4" s="316"/>
-      <c r="F4" s="316"/>
+      <c r="C4" s="319"/>
+      <c r="D4" s="319"/>
+      <c r="E4" s="319"/>
+      <c r="F4" s="319"/>
       <c r="H4" s="139"/>
       <c r="I4" s="140" t="s">
         <v>4</v>
@@ -4744,13 +4752,13 @@
     </row>
     <row r="5" spans="1:12" s="148" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="146" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B5" s="146"/>
-      <c r="C5" s="316"/>
-      <c r="D5" s="316"/>
-      <c r="E5" s="316"/>
-      <c r="F5" s="316"/>
+      <c r="C5" s="319"/>
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
+      <c r="F5" s="319"/>
       <c r="K5" s="46"/>
     </row>
     <row r="6" spans="1:12" s="148" customFormat="1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4768,10 +4776,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="144"/>
-      <c r="C7" s="316"/>
-      <c r="D7" s="316"/>
-      <c r="E7" s="316"/>
-      <c r="F7" s="316"/>
+      <c r="C7" s="319"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="319"/>
       <c r="H7" s="144" t="s">
         <v>7</v>
       </c>
@@ -4785,10 +4793,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="146"/>
-      <c r="C8" s="316"/>
-      <c r="D8" s="316"/>
-      <c r="E8" s="316"/>
-      <c r="F8" s="316"/>
+      <c r="C8" s="319"/>
+      <c r="D8" s="319"/>
+      <c r="E8" s="319"/>
+      <c r="F8" s="319"/>
       <c r="H8" s="146" t="s">
         <v>8</v>
       </c>
@@ -4802,10 +4810,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="146"/>
-      <c r="C9" s="316"/>
-      <c r="D9" s="316"/>
-      <c r="E9" s="316"/>
-      <c r="F9" s="316"/>
+      <c r="C9" s="319"/>
+      <c r="D9" s="319"/>
+      <c r="E9" s="319"/>
+      <c r="F9" s="319"/>
       <c r="K9" s="46"/>
     </row>
     <row r="10" spans="1:12" s="148" customFormat="1" ht="17.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4820,140 +4828,140 @@
       <c r="D11" s="152"/>
       <c r="E11" s="152"/>
       <c r="F11" s="152"/>
-      <c r="H11" s="290" t="s">
+      <c r="H11" s="293" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="291"/>
-      <c r="J11" s="292" t="s">
+      <c r="I11" s="294"/>
+      <c r="J11" s="295" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="293"/>
-      <c r="L11" s="294"/>
+      <c r="K11" s="296"/>
+      <c r="L11" s="297"/>
     </row>
     <row r="12" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="295" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="299" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="300"/>
-      <c r="D12" s="300"/>
-      <c r="E12" s="300"/>
-      <c r="F12" s="300"/>
-      <c r="G12" s="300"/>
-      <c r="H12" s="303"/>
-      <c r="I12" s="304"/>
-      <c r="J12" s="309" t="s">
-        <v>125</v>
-      </c>
-      <c r="K12" s="311">
+      <c r="A12" s="298" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="302" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="303"/>
+      <c r="D12" s="303"/>
+      <c r="E12" s="303"/>
+      <c r="F12" s="303"/>
+      <c r="G12" s="303"/>
+      <c r="H12" s="306"/>
+      <c r="I12" s="307"/>
+      <c r="J12" s="312" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" s="314">
         <f>SUM(B17:G17)/6</f>
         <v>0</v>
       </c>
-      <c r="L12" s="314">
+      <c r="L12" s="317">
         <f>ROUND(K12*0.6,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="296"/>
-      <c r="B13" s="301"/>
-      <c r="C13" s="302"/>
-      <c r="D13" s="302"/>
-      <c r="E13" s="302"/>
-      <c r="F13" s="302"/>
-      <c r="G13" s="302"/>
-      <c r="H13" s="305"/>
-      <c r="I13" s="306"/>
+      <c r="A13" s="299"/>
+      <c r="B13" s="304"/>
+      <c r="C13" s="305"/>
+      <c r="D13" s="305"/>
+      <c r="E13" s="305"/>
+      <c r="F13" s="305"/>
+      <c r="G13" s="305"/>
+      <c r="H13" s="308"/>
+      <c r="I13" s="309"/>
       <c r="J13" s="279"/>
-      <c r="K13" s="312"/>
+      <c r="K13" s="315"/>
       <c r="L13" s="281"/>
     </row>
     <row r="14" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="296"/>
-      <c r="B14" s="301"/>
-      <c r="C14" s="302"/>
-      <c r="D14" s="302"/>
-      <c r="E14" s="302"/>
-      <c r="F14" s="302"/>
-      <c r="G14" s="302"/>
-      <c r="H14" s="305"/>
-      <c r="I14" s="306"/>
+      <c r="A14" s="299"/>
+      <c r="B14" s="304"/>
+      <c r="C14" s="305"/>
+      <c r="D14" s="305"/>
+      <c r="E14" s="305"/>
+      <c r="F14" s="305"/>
+      <c r="G14" s="305"/>
+      <c r="H14" s="308"/>
+      <c r="I14" s="309"/>
       <c r="J14" s="279"/>
-      <c r="K14" s="312"/>
+      <c r="K14" s="315"/>
       <c r="L14" s="281"/>
     </row>
-    <row r="15" spans="1:12" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="296"/>
-      <c r="B15" s="301"/>
-      <c r="C15" s="302"/>
-      <c r="D15" s="302"/>
-      <c r="E15" s="302"/>
-      <c r="F15" s="302"/>
-      <c r="G15" s="302"/>
-      <c r="H15" s="305"/>
-      <c r="I15" s="306"/>
+    <row r="15" spans="1:12" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="299"/>
+      <c r="B15" s="304"/>
+      <c r="C15" s="305"/>
+      <c r="D15" s="305"/>
+      <c r="E15" s="305"/>
+      <c r="F15" s="305"/>
+      <c r="G15" s="305"/>
+      <c r="H15" s="308"/>
+      <c r="I15" s="309"/>
       <c r="J15" s="279"/>
-      <c r="K15" s="312"/>
+      <c r="K15" s="315"/>
       <c r="L15" s="281"/>
     </row>
     <row r="16" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="297"/>
-      <c r="B16" s="153" t="s">
+      <c r="A16" s="300"/>
+      <c r="B16" s="175" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="176" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="177" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="176" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="154" t="s">
+      <c r="F16" s="176" t="s">
         <v>127</v>
       </c>
-      <c r="D16" s="155" t="s">
+      <c r="G16" s="178" t="s">
         <v>128</v>
       </c>
-      <c r="E16" s="154" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="154" t="s">
-        <v>130</v>
-      </c>
-      <c r="G16" s="156" t="s">
-        <v>131</v>
-      </c>
-      <c r="H16" s="305"/>
-      <c r="I16" s="306"/>
+      <c r="H16" s="308"/>
+      <c r="I16" s="309"/>
       <c r="J16" s="279"/>
-      <c r="K16" s="312"/>
+      <c r="K16" s="315"/>
       <c r="L16" s="281"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="298"/>
-      <c r="B17" s="157"/>
-      <c r="C17" s="158"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="307"/>
-      <c r="I17" s="308"/>
-      <c r="J17" s="310"/>
-      <c r="K17" s="313"/>
-      <c r="L17" s="315"/>
+      <c r="A17" s="301"/>
+      <c r="B17" s="153"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="310"/>
+      <c r="I17" s="311"/>
+      <c r="J17" s="313"/>
+      <c r="K17" s="316"/>
+      <c r="L17" s="318"/>
     </row>
     <row r="18" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="255"/>
-      <c r="B18" s="258" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="258"/>
-      <c r="D18" s="258"/>
-      <c r="E18" s="258"/>
-      <c r="F18" s="258"/>
-      <c r="G18" s="258"/>
+      <c r="A18" s="256"/>
+      <c r="B18" s="259" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="259"/>
+      <c r="D18" s="259"/>
+      <c r="E18" s="259"/>
+      <c r="F18" s="259"/>
+      <c r="G18" s="259"/>
       <c r="H18" s="261"/>
       <c r="I18" s="262"/>
       <c r="J18" s="267" t="s">
         <v>1</v>
       </c>
-      <c r="K18" s="241">
+      <c r="K18" s="290">
         <f>SUMPRODUCT(B23:G23,B22:G22)</f>
         <v>0</v>
       </c>
@@ -4963,134 +4971,134 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="256"/>
-      <c r="B19" s="259"/>
-      <c r="C19" s="259"/>
-      <c r="D19" s="259"/>
-      <c r="E19" s="259"/>
-      <c r="F19" s="259"/>
-      <c r="G19" s="259"/>
+      <c r="A19" s="257"/>
+      <c r="B19" s="260"/>
+      <c r="C19" s="260"/>
+      <c r="D19" s="260"/>
+      <c r="E19" s="260"/>
+      <c r="F19" s="260"/>
+      <c r="G19" s="260"/>
       <c r="H19" s="263"/>
       <c r="I19" s="264"/>
       <c r="J19" s="268"/>
-      <c r="K19" s="242"/>
+      <c r="K19" s="291"/>
       <c r="L19" s="271"/>
     </row>
     <row r="20" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="256"/>
+      <c r="A20" s="257"/>
       <c r="B20" s="260"/>
       <c r="C20" s="260"/>
       <c r="D20" s="260"/>
       <c r="E20" s="260"/>
       <c r="F20" s="260"/>
-      <c r="G20" s="259"/>
+      <c r="G20" s="260"/>
       <c r="H20" s="263"/>
       <c r="I20" s="264"/>
       <c r="J20" s="268"/>
-      <c r="K20" s="242"/>
+      <c r="K20" s="291"/>
       <c r="L20" s="271"/>
     </row>
     <row r="21" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="256"/>
+      <c r="A21" s="257"/>
       <c r="B21" s="282" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C21" s="283"/>
       <c r="D21" s="284" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E21" s="285"/>
       <c r="F21" s="286" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G21" s="287"/>
       <c r="H21" s="263"/>
       <c r="I21" s="264"/>
       <c r="J21" s="268"/>
-      <c r="K21" s="242"/>
+      <c r="K21" s="291"/>
       <c r="L21" s="271"/>
     </row>
     <row r="22" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="256"/>
+      <c r="A22" s="257"/>
       <c r="B22" s="288">
         <v>0.5</v>
       </c>
       <c r="C22" s="289"/>
-      <c r="D22" s="244">
+      <c r="D22" s="245">
         <v>0.25</v>
       </c>
-      <c r="E22" s="245"/>
-      <c r="F22" s="246">
+      <c r="E22" s="246"/>
+      <c r="F22" s="247">
         <v>0.25</v>
       </c>
-      <c r="G22" s="247"/>
+      <c r="G22" s="248"/>
       <c r="H22" s="263"/>
       <c r="I22" s="264"/>
       <c r="J22" s="268"/>
-      <c r="K22" s="242"/>
+      <c r="K22" s="291"/>
       <c r="L22" s="271"/>
     </row>
     <row r="23" spans="1:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="256"/>
-      <c r="B23" s="248"/>
-      <c r="C23" s="249"/>
-      <c r="D23" s="250"/>
-      <c r="E23" s="251"/>
-      <c r="F23" s="249"/>
-      <c r="G23" s="252"/>
+      <c r="A23" s="257"/>
+      <c r="B23" s="249"/>
+      <c r="C23" s="250"/>
+      <c r="D23" s="251"/>
+      <c r="E23" s="252"/>
+      <c r="F23" s="250"/>
+      <c r="G23" s="253"/>
       <c r="H23" s="263"/>
       <c r="I23" s="264"/>
       <c r="J23" s="268"/>
-      <c r="K23" s="243"/>
+      <c r="K23" s="292"/>
       <c r="L23" s="271"/>
     </row>
     <row r="24" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="256"/>
-      <c r="B24" s="172"/>
-      <c r="C24" s="173"/>
-      <c r="D24" s="174"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="173"/>
-      <c r="G24" s="175"/>
+      <c r="A24" s="257"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="169"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="170"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="171"/>
       <c r="H24" s="263"/>
       <c r="I24" s="264"/>
       <c r="J24" s="268"/>
-      <c r="K24" s="176"/>
+      <c r="K24" s="172"/>
       <c r="L24" s="271"/>
     </row>
     <row r="25" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="257"/>
-      <c r="B25" s="160" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="161">
+      <c r="A25" s="258"/>
+      <c r="B25" s="156" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="157">
         <v>0</v>
       </c>
-      <c r="D25" s="161">
+      <c r="D25" s="157">
         <v>0</v>
       </c>
-      <c r="E25" s="161">
+      <c r="E25" s="157">
         <v>0</v>
       </c>
-      <c r="F25" s="161">
+      <c r="F25" s="157">
         <v>0</v>
       </c>
-      <c r="G25" s="161"/>
+      <c r="G25" s="157"/>
       <c r="H25" s="265"/>
       <c r="I25" s="266"/>
       <c r="J25" s="269"/>
-      <c r="K25" s="162">
+      <c r="K25" s="158">
         <f>SUM(C25:G25)</f>
         <v>0</v>
       </c>
       <c r="L25" s="272"/>
     </row>
-    <row r="26" spans="1:12" ht="87.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="255" t="s">
+    <row r="26" spans="1:12" ht="114.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="258" t="s">
-        <v>134</v>
+      <c r="B26" s="259" t="s">
+        <v>147</v>
       </c>
       <c r="C26" s="273"/>
       <c r="D26" s="273"/>
@@ -5100,67 +5108,67 @@
       <c r="H26" s="275"/>
       <c r="I26" s="276"/>
       <c r="J26" s="279" t="s">
-        <v>135</v>
-      </c>
-      <c r="K26" s="177"/>
+        <v>130</v>
+      </c>
+      <c r="K26" s="173"/>
       <c r="L26" s="281">
         <f>IF((K26-K27)&gt;=0, ROUND((K26-K27)*0.15,3),0.000000001)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="257"/>
-      <c r="B27" s="163" t="s">
-        <v>133</v>
-      </c>
-      <c r="C27" s="161">
+      <c r="A27" s="258"/>
+      <c r="B27" s="159" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="157">
         <v>0</v>
       </c>
-      <c r="D27" s="161">
+      <c r="D27" s="157">
         <v>0</v>
       </c>
-      <c r="E27" s="161">
+      <c r="E27" s="157">
         <v>0</v>
       </c>
-      <c r="F27" s="161">
+      <c r="F27" s="157">
         <v>0</v>
       </c>
-      <c r="G27" s="161"/>
+      <c r="G27" s="157"/>
       <c r="H27" s="277"/>
       <c r="I27" s="278"/>
       <c r="J27" s="280"/>
-      <c r="K27" s="162">
+      <c r="K27" s="158">
         <f>SUM(C27:G27)</f>
         <v>0</v>
       </c>
       <c r="L27" s="272"/>
     </row>
     <row r="28" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="164"/>
-      <c r="B28" s="164"/>
-      <c r="C28" s="164"/>
-      <c r="D28" s="164"/>
-      <c r="E28" s="164"/>
-      <c r="F28" s="164"/>
-      <c r="G28" s="164"/>
-      <c r="H28" s="164"/>
+      <c r="A28" s="160"/>
+      <c r="B28" s="160"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
     </row>
     <row r="29" spans="1:12" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I29" s="23" t="s">
         <v>2</v>
       </c>
       <c r="J29" s="24"/>
-      <c r="K29" s="253">
+      <c r="K29" s="254">
         <f>SUM(L12:L26)</f>
         <v>0</v>
       </c>
-      <c r="L29" s="254"/>
+      <c r="L29" s="255"/>
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I30" s="123"/>
       <c r="J30" s="123"/>
-      <c r="K30" s="166"/>
-      <c r="L30" s="166"/>
+      <c r="K30" s="162"/>
+      <c r="L30" s="162"/>
     </row>
     <row r="31" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5174,11 +5182,11 @@
       <c r="D34" s="36"/>
       <c r="E34" s="36"/>
       <c r="H34" s="25" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
-      <c r="K34" s="165"/>
+      <c r="K34" s="161"/>
       <c r="L34" s="25"/>
     </row>
   </sheetData>
@@ -5221,10 +5229,10 @@
     <mergeCell ref="F23:G23"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR PAS-DE-DEUX</oddHeader>
-    <oddFooter>&amp;R2020-03-22</oddFooter>
+    <oddFooter>&amp;R2025-03-16</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -5237,7 +5245,7 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:L14"/>
     </sheetView>
   </sheetViews>
@@ -5264,7 +5272,7 @@
       </c>
       <c r="H2" s="28"/>
       <c r="I2" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J2" s="30"/>
       <c r="K2" s="31"/>
@@ -5276,7 +5284,7 @@
       </c>
       <c r="H3" s="28"/>
       <c r="I3" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J3" s="30"/>
       <c r="K3" s="31"/>
@@ -5304,10 +5312,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="318"/>
-      <c r="D5" s="318"/>
-      <c r="E5" s="318"/>
-      <c r="F5" s="318"/>
+      <c r="C5" s="327"/>
+      <c r="D5" s="327"/>
+      <c r="E5" s="327"/>
+      <c r="F5" s="327"/>
       <c r="H5" s="28"/>
       <c r="I5" s="29" t="s">
         <v>4</v>
@@ -5343,10 +5351,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="321"/>
-      <c r="D8" s="321"/>
-      <c r="E8" s="321"/>
-      <c r="F8" s="321"/>
+      <c r="C8" s="330"/>
+      <c r="D8" s="330"/>
+      <c r="E8" s="330"/>
+      <c r="F8" s="330"/>
       <c r="H8" s="4" t="s">
         <v>8</v>
       </c>
@@ -5361,30 +5369,30 @@
         <v>10</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="318"/>
-      <c r="D9" s="318"/>
-      <c r="E9" s="318"/>
-      <c r="F9" s="318"/>
+      <c r="C9" s="327"/>
+      <c r="D9" s="327"/>
+      <c r="E9" s="327"/>
+      <c r="F9" s="327"/>
       <c r="H9" s="26"/>
-      <c r="I9" s="319"/>
-      <c r="J9" s="320"/>
-      <c r="K9" s="320"/>
-      <c r="L9" s="320"/>
+      <c r="I9" s="328"/>
+      <c r="J9" s="329"/>
+      <c r="K9" s="329"/>
+      <c r="L9" s="329"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="318"/>
-      <c r="D10" s="318"/>
-      <c r="E10" s="318"/>
-      <c r="F10" s="318"/>
+      <c r="C10" s="327"/>
+      <c r="D10" s="327"/>
+      <c r="E10" s="327"/>
+      <c r="F10" s="327"/>
       <c r="H10" s="26"/>
-      <c r="I10" s="319"/>
-      <c r="J10" s="320"/>
-      <c r="K10" s="320"/>
-      <c r="L10" s="320"/>
+      <c r="I10" s="328"/>
+      <c r="J10" s="329"/>
+      <c r="K10" s="329"/>
+      <c r="L10" s="329"/>
     </row>
     <row r="11" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -5404,38 +5412,38 @@
         <f>(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"1","")))*1+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"2","")))*2+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"3","")))*3+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"4","")))*4+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"5","")))*5+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"6","")))*6+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"7","")))*7+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"8","")))*8+(LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""))-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$13,"M",""),"D",""),"E",""),"L",""),"S",""),"R",""),"9","")))*9</f>
         <v>0</v>
       </c>
-      <c r="L12" s="343">
+      <c r="L12" s="174">
         <f>E21</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="337"/>
-      <c r="B13" s="338"/>
-      <c r="C13" s="338"/>
-      <c r="D13" s="338"/>
-      <c r="E13" s="338"/>
-      <c r="F13" s="338"/>
-      <c r="G13" s="338"/>
-      <c r="H13" s="338"/>
-      <c r="I13" s="338"/>
-      <c r="J13" s="338"/>
-      <c r="K13" s="338"/>
-      <c r="L13" s="339"/>
+      <c r="A13" s="321"/>
+      <c r="B13" s="322"/>
+      <c r="C13" s="322"/>
+      <c r="D13" s="322"/>
+      <c r="E13" s="322"/>
+      <c r="F13" s="322"/>
+      <c r="G13" s="322"/>
+      <c r="H13" s="322"/>
+      <c r="I13" s="322"/>
+      <c r="J13" s="322"/>
+      <c r="K13" s="322"/>
+      <c r="L13" s="323"/>
     </row>
     <row r="14" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="340"/>
-      <c r="B14" s="341"/>
-      <c r="C14" s="341"/>
-      <c r="D14" s="341"/>
-      <c r="E14" s="341"/>
-      <c r="F14" s="341"/>
-      <c r="G14" s="341"/>
-      <c r="H14" s="341"/>
-      <c r="I14" s="341"/>
-      <c r="J14" s="341"/>
-      <c r="K14" s="341"/>
-      <c r="L14" s="342"/>
+      <c r="A14" s="324"/>
+      <c r="B14" s="325"/>
+      <c r="C14" s="325"/>
+      <c r="D14" s="325"/>
+      <c r="E14" s="325"/>
+      <c r="F14" s="325"/>
+      <c r="G14" s="325"/>
+      <c r="H14" s="325"/>
+      <c r="I14" s="325"/>
+      <c r="J14" s="325"/>
+      <c r="K14" s="325"/>
+      <c r="L14" s="326"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="70" t="s">
@@ -5461,7 +5469,7 @@
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G17" s="37"/>
       <c r="H17" s="59" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="45"/>
       <c r="K17" s="60" t="s">
@@ -5601,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="50">
@@ -5634,7 +5642,7 @@
       <c r="B28" s="65"/>
       <c r="C28" s="65"/>
       <c r="D28" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -5642,7 +5650,7 @@
       <c r="H28" s="9"/>
       <c r="I28" s="53"/>
       <c r="J28" s="54"/>
-      <c r="K28" s="167">
+      <c r="K28" s="163">
         <f>SUM(E15:J15)</f>
         <v>0</v>
       </c>
@@ -5720,7 +5728,7 @@
   </sheetPr>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -5735,7 +5743,7 @@
     <col min="9" max="9" width="7.265625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.73046875" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.265625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.73046875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.46484375" style="1" customWidth="1"/>
     <col min="13" max="13" width="7.265625" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9.1328125" style="1"/>
   </cols>
@@ -5747,7 +5755,7 @@
       </c>
       <c r="H2" s="28"/>
       <c r="I2" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J2" s="30"/>
       <c r="K2" s="31"/>
@@ -5760,7 +5768,7 @@
       </c>
       <c r="H3" s="28"/>
       <c r="I3" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J3" s="30"/>
       <c r="K3" s="31"/>
@@ -5788,10 +5796,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="318"/>
-      <c r="D5" s="318"/>
-      <c r="E5" s="318"/>
-      <c r="F5" s="318"/>
+      <c r="C5" s="327"/>
+      <c r="D5" s="327"/>
+      <c r="E5" s="327"/>
+      <c r="F5" s="327"/>
       <c r="H5" s="28"/>
       <c r="I5" s="29" t="s">
         <v>4</v>
@@ -5833,10 +5841,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="321"/>
-      <c r="D8" s="321"/>
-      <c r="E8" s="321"/>
-      <c r="F8" s="321"/>
+      <c r="C8" s="330"/>
+      <c r="D8" s="330"/>
+      <c r="E8" s="330"/>
+      <c r="F8" s="330"/>
       <c r="H8" s="4" t="s">
         <v>8</v>
       </c>
@@ -5851,75 +5859,75 @@
         <v>10</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="318"/>
-      <c r="D9" s="318"/>
-      <c r="E9" s="318"/>
-      <c r="F9" s="318"/>
+      <c r="C9" s="327"/>
+      <c r="D9" s="327"/>
+      <c r="E9" s="327"/>
+      <c r="F9" s="327"/>
       <c r="H9" s="26"/>
-      <c r="I9" s="319"/>
-      <c r="J9" s="320"/>
-      <c r="K9" s="320"/>
-      <c r="L9" s="320"/>
+      <c r="I9" s="328"/>
+      <c r="J9" s="329"/>
+      <c r="K9" s="329"/>
+      <c r="L9" s="329"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="318"/>
-      <c r="D10" s="318"/>
-      <c r="E10" s="318"/>
-      <c r="F10" s="318"/>
+      <c r="C10" s="327"/>
+      <c r="D10" s="327"/>
+      <c r="E10" s="327"/>
+      <c r="F10" s="327"/>
       <c r="H10" s="26"/>
-      <c r="I10" s="319"/>
-      <c r="J10" s="320"/>
-      <c r="K10" s="320"/>
-      <c r="L10" s="320"/>
+      <c r="I10" s="328"/>
+      <c r="J10" s="329"/>
+      <c r="K10" s="329"/>
+      <c r="L10" s="329"/>
     </row>
     <row r="11" spans="1:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K11" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="168" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12" s="328" t="s">
-        <v>138</v>
-      </c>
-      <c r="C12" s="329"/>
-      <c r="D12" s="329"/>
-      <c r="E12" s="329"/>
-      <c r="F12" s="329"/>
-      <c r="G12" s="329"/>
-      <c r="H12" s="329"/>
-      <c r="I12" s="330"/>
-      <c r="J12" s="169" t="s">
-        <v>139</v>
-      </c>
-      <c r="K12" s="170"/>
-      <c r="L12" s="171">
+      <c r="A12" s="164" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="337" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="338"/>
+      <c r="D12" s="338"/>
+      <c r="E12" s="338"/>
+      <c r="F12" s="338"/>
+      <c r="G12" s="338"/>
+      <c r="H12" s="338"/>
+      <c r="I12" s="339"/>
+      <c r="J12" s="165" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" s="166"/>
+      <c r="L12" s="167">
         <f>K12*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="325" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="328" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="329"/>
-      <c r="D13" s="329"/>
-      <c r="E13" s="329"/>
-      <c r="F13" s="329"/>
-      <c r="G13" s="329"/>
-      <c r="H13" s="329"/>
-      <c r="I13" s="330"/>
+      <c r="A13" s="334" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="337" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="338"/>
+      <c r="D13" s="338"/>
+      <c r="E13" s="338"/>
+      <c r="F13" s="338"/>
+      <c r="G13" s="338"/>
+      <c r="H13" s="338"/>
+      <c r="I13" s="339"/>
       <c r="J13" s="11" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="K13" s="95"/>
       <c r="L13" s="17">
@@ -5929,19 +5937,19 @@
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="326"/>
-      <c r="B14" s="331" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="332"/>
-      <c r="D14" s="332"/>
-      <c r="E14" s="332"/>
-      <c r="F14" s="332"/>
-      <c r="G14" s="332"/>
-      <c r="H14" s="332"/>
-      <c r="I14" s="333"/>
+      <c r="A14" s="335"/>
+      <c r="B14" s="340" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="341"/>
+      <c r="D14" s="341"/>
+      <c r="E14" s="341"/>
+      <c r="F14" s="341"/>
+      <c r="G14" s="341"/>
+      <c r="H14" s="341"/>
+      <c r="I14" s="342"/>
       <c r="J14" s="12" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="K14" s="96"/>
       <c r="L14" s="18">
@@ -5951,21 +5959,21 @@
       <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="325" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="334" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="335"/>
-      <c r="D15" s="335"/>
-      <c r="E15" s="335"/>
-      <c r="F15" s="335"/>
-      <c r="G15" s="335"/>
-      <c r="H15" s="335"/>
-      <c r="I15" s="336"/>
+      <c r="A15" s="334" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="343" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="344"/>
+      <c r="D15" s="344"/>
+      <c r="E15" s="344"/>
+      <c r="F15" s="344"/>
+      <c r="G15" s="344"/>
+      <c r="H15" s="344"/>
+      <c r="I15" s="345"/>
       <c r="J15" s="11" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="K15" s="94"/>
       <c r="L15" s="19">
@@ -5975,19 +5983,19 @@
       <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="327"/>
-      <c r="B16" s="322" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="323"/>
-      <c r="D16" s="323"/>
-      <c r="E16" s="323"/>
-      <c r="F16" s="323"/>
-      <c r="G16" s="323"/>
-      <c r="H16" s="323"/>
-      <c r="I16" s="324"/>
+      <c r="A16" s="336"/>
+      <c r="B16" s="331" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="332"/>
+      <c r="D16" s="332"/>
+      <c r="E16" s="332"/>
+      <c r="F16" s="332"/>
+      <c r="G16" s="332"/>
+      <c r="H16" s="332"/>
+      <c r="I16" s="333"/>
       <c r="J16" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K16" s="94"/>
       <c r="L16" s="20">
@@ -6005,7 +6013,7 @@
     <row r="18" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L18" s="22"/>
     </row>
-    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="27" t="s">
         <v>30</v>
       </c>
@@ -6023,9 +6031,9 @@
     <row r="20" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L20" s="22"/>
     </row>
-    <row r="21" spans="1:12" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="32.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I21" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -6067,25 +6075,16 @@
     <mergeCell ref="B15:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="86" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR PAS-DE-DEUX</oddHeader>
-    <oddFooter>&amp;R&amp;8 2024-01-28</oddFooter>
+    <oddFooter>&amp;R&amp;8 2025-03-16</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6151,7 +6150,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6160,22 +6159,16 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06F9B768-A93D-4D4C-BBD7-D4CF83092D49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6192,10 +6185,25 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06F9B768-A93D-4D4C-BBD7-D4CF83092D49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>